--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,60 +410,72 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
+        <v>applicableUnit</v>
+      </c>
+      <c r="D1" t="str">
+        <v>broader</v>
+      </c>
+      <c r="E1" t="str">
+        <v>broaderTransitive</v>
+      </c>
+      <c r="F1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="D1" t="str">
+      <c r="G1" t="str">
         <v>notation</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>prefLabel</v>
-      </c>
-      <c r="F1" t="str">
-        <v>topConceptOf</v>
-      </c>
-      <c r="G1" t="str">
-        <v>broader</v>
-      </c>
-      <c r="H1" t="str">
-        <v>broaderTransitive</v>
       </c>
       <c r="I1" t="str">
         <v>semanticRelation</v>
       </c>
       <c r="J1" t="str">
+        <v>relevantProperty</v>
+      </c>
+      <c r="K1" t="str">
+        <v>subject</v>
+      </c>
+      <c r="L1" t="str">
+        <v>relevantQuantityKind</v>
+      </c>
+      <c r="M1" t="str">
+        <v>seeAlso</v>
+      </c>
+      <c r="N1" t="str">
+        <v>topConceptOf</v>
+      </c>
+      <c r="O1" t="str">
+        <v>relevantSystem</v>
+      </c>
+      <c r="P1" t="str">
         <v>narrower</v>
       </c>
-      <c r="K1" t="str">
+      <c r="Q1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="L1" t="str">
-        <v>definition</v>
-      </c>
-      <c r="M1" t="str">
-        <v>note</v>
-      </c>
-      <c r="N1" t="str">
+      <c r="R1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/drager/DR_1</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Drager</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>http://qudt.org/vocab/unit/PH</v>
       </c>
       <c r="D2" t="str">
-        <v>DR_1</v>
+        <v>null</v>
       </c>
       <c r="E2" t="str">
-        <v>Waterstaal</v>
+        <v>null</v>
       </c>
       <c r="F2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>null</v>
       </c>
       <c r="G2" t="str">
         <v>null</v>
@@ -487,27 +499,39 @@
         <v>null</v>
       </c>
       <c r="N2" t="str">
+        <v>null</v>
+      </c>
+      <c r="O2" t="str">
+        <v>null</v>
+      </c>
+      <c r="P2" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>null</v>
+      </c>
+      <c r="R2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/drager/hetelektronischmonitoringssysteem</v>
+        <v>http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="B3" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Drager</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>http://qudt.org/vocab/unit/PH</v>
       </c>
       <c r="D3" t="str">
         <v>null</v>
       </c>
       <c r="E3" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
+        <v>null</v>
       </c>
       <c r="F3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>null</v>
       </c>
       <c r="G3" t="str">
         <v>null</v>
@@ -531,27 +555,39 @@
         <v>null</v>
       </c>
       <c r="N3" t="str">
+        <v>null</v>
+      </c>
+      <c r="O3" t="str">
+        <v>null</v>
+      </c>
+      <c r="P3" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>null</v>
+      </c>
+      <c r="R3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/drager/lucht</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="B4" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Drager</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
       </c>
       <c r="D4" t="str">
         <v>null</v>
       </c>
       <c r="E4" t="str">
-        <v>Lucht</v>
+        <v>null</v>
       </c>
       <c r="F4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>null</v>
       </c>
       <c r="G4" t="str">
         <v>null</v>
@@ -575,27 +611,39 @@
         <v>null</v>
       </c>
       <c r="N4" t="str">
+        <v>null</v>
+      </c>
+      <c r="O4" t="str">
+        <v>null</v>
+      </c>
+      <c r="P4" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>null</v>
+      </c>
+      <c r="R4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/drager/spuiwater</v>
+        <v>http://qudt.org/vocab/quantitykind/Count</v>
       </c>
       <c r="B5" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Drager</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>http://qudt.org/vocab/unit/NUM</v>
       </c>
       <c r="D5" t="str">
         <v>null</v>
       </c>
       <c r="E5" t="str">
-        <v>Spuiwater</v>
+        <v>null</v>
       </c>
       <c r="F5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>null</v>
       </c>
       <c r="G5" t="str">
         <v>null</v>
@@ -619,27 +667,39 @@
         <v>null</v>
       </c>
       <c r="N5" t="str">
+        <v>null</v>
+      </c>
+      <c r="O5" t="str">
+        <v>null</v>
+      </c>
+      <c r="P5" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>null</v>
+      </c>
+      <c r="R5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/drager/stal</v>
+        <v>http://qudt.org/vocab/quantitykind/Fugacity</v>
       </c>
       <c r="B6" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Drager</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D6" t="str">
         <v>null</v>
       </c>
       <c r="E6" t="str">
-        <v>Stal</v>
+        <v>null</v>
       </c>
       <c r="F6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>null</v>
       </c>
       <c r="G6" t="str">
         <v>null</v>
@@ -663,27 +723,39 @@
         <v>null</v>
       </c>
       <c r="N6" t="str">
+        <v>null</v>
+      </c>
+      <c r="O6" t="str">
+        <v>null</v>
+      </c>
+      <c r="P6" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>null</v>
+      </c>
+      <c r="R6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/drager/waswater</v>
+        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="B7" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Drager</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D7" t="str">
         <v>null</v>
       </c>
       <c r="E7" t="str">
-        <v>Waswater</v>
+        <v>null</v>
       </c>
       <c r="F7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>null</v>
       </c>
       <c r="G7" t="str">
         <v>null</v>
@@ -707,36 +779,48 @@
         <v>null</v>
       </c>
       <c r="N7" t="str">
+        <v>null</v>
+      </c>
+      <c r="O7" t="str">
+        <v>null</v>
+      </c>
+      <c r="P7" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>null</v>
+      </c>
+      <c r="R7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobeds3</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="B8" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D8" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="E8" t="str">
-        <v>Biobed S3</v>
+        <v>null</v>
       </c>
       <c r="F8" t="str">
         <v>null</v>
       </c>
       <c r="G8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="I8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="J8" t="str">
         <v>null</v>
@@ -751,42 +835,54 @@
         <v>null</v>
       </c>
       <c r="N8" t="str">
+        <v>null</v>
+      </c>
+      <c r="O8" t="str">
+        <v>null</v>
+      </c>
+      <c r="P8" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>null</v>
+      </c>
+      <c r="R8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="B9" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D9" t="str">
         <v>null</v>
       </c>
       <c r="E9" t="str">
-        <v>Luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="F9" t="str">
         <v>null</v>
       </c>
       <c r="G9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="I9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers2</v>
+        <v>null</v>
       </c>
       <c r="J9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers2</v>
+        <v>null</v>
       </c>
       <c r="K9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers2</v>
+        <v>null</v>
       </c>
       <c r="L9" t="str">
         <v>null</v>
@@ -795,36 +891,48 @@
         <v>null</v>
       </c>
       <c r="N9" t="str">
+        <v>null</v>
+      </c>
+      <c r="O9" t="str">
+        <v>null</v>
+      </c>
+      <c r="P9" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>null</v>
+      </c>
+      <c r="R9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers1</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="B10" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D10" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="E10" t="str">
-        <v>Luchtwasser S1</v>
+        <v>null</v>
       </c>
       <c r="F10" t="str">
         <v>null</v>
       </c>
       <c r="G10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="I10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="J10" t="str">
         <v>null</v>
@@ -839,39 +947,51 @@
         <v>null</v>
       </c>
       <c r="N10" t="str">
+        <v>null</v>
+      </c>
+      <c r="O10" t="str">
+        <v>null</v>
+      </c>
+      <c r="P10" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>null</v>
+      </c>
+      <c r="R10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
+        <v>null</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="F11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
-      <c r="D11" t="str">
-        <v>S2</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Luchtwasser S2</v>
-      </c>
-      <c r="F11" t="str">
-        <v>null</v>
-      </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>S3</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>Biobed S3</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -883,77 +1003,101 @@
         <v>null</v>
       </c>
       <c r="N11" t="str">
+        <v>null</v>
+      </c>
+      <c r="O11" t="str">
+        <v>null</v>
+      </c>
+      <c r="P11" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>null</v>
+      </c>
+      <c r="R11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="B12" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="D12" t="str">
         <v>null</v>
       </c>
       <c r="E12" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="F12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G12" t="str">
         <v>null</v>
       </c>
       <c r="H12" t="str">
-        <v>null</v>
+        <v>Biobedspoelwaterproductie</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobeds3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers2</v>
+        <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobeds3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobeds3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassers2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="L12" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="M12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="N12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+      </c>
+      <c r="P12" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>null</v>
+      </c>
+      <c r="R12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/P_1015</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>U o</v>
+        <v>null</v>
       </c>
       <c r="E13" t="str">
-        <v>Uranium</v>
+        <v>null</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G13" t="str">
         <v>null</v>
       </c>
       <c r="H13" t="str">
-        <v>null</v>
+        <v>Biobedspuiwaterproductie</v>
       </c>
       <c r="I13" t="str">
         <v>null</v>
@@ -962,43 +1106,55 @@
         <v>null</v>
       </c>
       <c r="K13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="L13" t="str">
-        <v>Uranium, opgelost</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="M13" t="str">
-        <v>Uranium, opgelost</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="N13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+      </c>
+      <c r="P13" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>null</v>
+      </c>
+      <c r="R13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="B14" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D14" t="str">
         <v>null</v>
       </c>
       <c r="E14" t="str">
+        <v>null</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="G14" t="str">
+        <v>null</v>
+      </c>
+      <c r="H14" t="str">
         <v>Drukval over het systeem</v>
       </c>
-      <c r="F14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
-      </c>
-      <c r="G14" t="str">
-        <v>null</v>
-      </c>
-      <c r="H14" t="str">
-        <v>null</v>
-      </c>
       <c r="I14" t="str">
         <v>null</v>
       </c>
@@ -1006,43 +1162,55 @@
         <v>null</v>
       </c>
       <c r="K14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="L14" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="M14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="N14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="P14" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>null</v>
+      </c>
+      <c r="R14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D15" t="str">
         <v>null</v>
       </c>
       <c r="E15" t="str">
+        <v>null</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="G15" t="str">
+        <v>null</v>
+      </c>
+      <c r="H15" t="str">
         <v>Geleidbaarheid van het waswater</v>
       </c>
-      <c r="F15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
-      </c>
-      <c r="G15" t="str">
-        <v>null</v>
-      </c>
-      <c r="H15" t="str">
-        <v>null</v>
-      </c>
       <c r="I15" t="str">
         <v>null</v>
       </c>
@@ -1050,42 +1218,54 @@
         <v>null</v>
       </c>
       <c r="K15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="L15" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="M15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
       <c r="N15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+      </c>
+      <c r="P15" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>null</v>
+      </c>
+      <c r="R15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/spuitwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D16" t="str">
         <v>null</v>
       </c>
       <c r="E16" t="str">
-        <v>Spuitwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="F16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G16" t="str">
         <v>null</v>
       </c>
       <c r="H16" t="str">
-        <v>null</v>
+        <v>Spuiwaterproductie</v>
       </c>
       <c r="I16" t="str">
         <v>null</v>
@@ -1094,42 +1274,54 @@
         <v>null</v>
       </c>
       <c r="K16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="L16" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="M16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="N16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+      </c>
+      <c r="P16" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>null</v>
+      </c>
+      <c r="R16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/spuitwaterproductiepercolaat</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
       </c>
       <c r="B17" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D17" t="str">
         <v>null</v>
       </c>
       <c r="E17" t="str">
-        <v>Spuitwaterproductie percolaat</v>
+        <v>null</v>
       </c>
       <c r="F17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G17" t="str">
         <v>null</v>
       </c>
       <c r="H17" t="str">
-        <v>null</v>
+        <v>Stalbezetting</v>
       </c>
       <c r="I17" t="str">
         <v>null</v>
@@ -1138,7 +1330,7 @@
         <v>null</v>
       </c>
       <c r="K17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="L17" t="str">
         <v>null</v>
@@ -1147,33 +1339,45 @@
         <v>null</v>
       </c>
       <c r="N17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="P17" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>null</v>
+      </c>
+      <c r="R17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/spuitwaterproductievoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
       </c>
       <c r="B18" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D18" t="str">
         <v>null</v>
       </c>
       <c r="E18" t="str">
-        <v>Spuitwaterproductie voorbevochtiging</v>
+        <v>null</v>
       </c>
       <c r="F18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G18" t="str">
         <v>null</v>
       </c>
       <c r="H18" t="str">
-        <v>null</v>
+        <v>SysteemStatus</v>
       </c>
       <c r="I18" t="str">
         <v>null</v>
@@ -1182,7 +1386,7 @@
         <v>null</v>
       </c>
       <c r="K18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="L18" t="str">
         <v>null</v>
@@ -1191,33 +1395,45 @@
         <v>null</v>
       </c>
       <c r="N18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="P18" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>null</v>
+      </c>
+      <c r="R18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="B19" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D19" t="str">
         <v>null</v>
       </c>
       <c r="E19" t="str">
-        <v>Stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="F19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G19" t="str">
         <v>null</v>
       </c>
       <c r="H19" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet over het waspakket</v>
       </c>
       <c r="I19" t="str">
         <v>null</v>
@@ -1226,42 +1442,54 @@
         <v>null</v>
       </c>
       <c r="K19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="L19" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="M19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="N19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+      </c>
+      <c r="P19" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>null</v>
+      </c>
+      <c r="R19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="B20" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D20" t="str">
         <v>null</v>
       </c>
       <c r="E20" t="str">
-        <v>SysteemStatus</v>
+        <v>null</v>
       </c>
       <c r="F20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G20" t="str">
         <v>null</v>
       </c>
       <c r="H20" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
       <c r="I20" t="str">
         <v>null</v>
@@ -1270,42 +1498,54 @@
         <v>null</v>
       </c>
       <c r="K20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="L20" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="M20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="N20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+      </c>
+      <c r="P20" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>null</v>
+      </c>
+      <c r="R20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="B21" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D21" t="str">
         <v>null</v>
       </c>
       <c r="E21" t="str">
-        <v>Waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="F21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G21" t="str">
         <v>null</v>
       </c>
       <c r="H21" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
       <c r="I21" t="str">
         <v>null</v>
@@ -1314,42 +1554,54 @@
         <v>null</v>
       </c>
       <c r="K21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="L21" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="M21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="N21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+      </c>
+      <c r="P21" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>null</v>
+      </c>
+      <c r="R21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D22" t="str">
         <v>null</v>
       </c>
       <c r="E22" t="str">
-        <v>Waswaterdebiet bevloeiing</v>
+        <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="G22" t="str">
         <v>null</v>
       </c>
       <c r="H22" t="str">
-        <v>null</v>
+        <v>Zuurtegraad van het waswater</v>
       </c>
       <c r="I22" t="str">
         <v>null</v>
@@ -1358,48 +1610,60 @@
         <v>null</v>
       </c>
       <c r="K22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="L22" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="M22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
       <c r="N22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="O22" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+      </c>
+      <c r="P22" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>null</v>
+      </c>
+      <c r="R22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="B23" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="E23" t="str">
-        <v>Waswaterdebiet voorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="F23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="G23" t="str">
         <v>null</v>
       </c>
       <c r="H23" t="str">
-        <v>null</v>
+        <v>Luchtwasser</v>
       </c>
       <c r="I23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -1411,39 +1675,51 @@
         <v>null</v>
       </c>
       <c r="N23" t="str">
+        <v>null</v>
+      </c>
+      <c r="O23" t="str">
+        <v>null</v>
+      </c>
+      <c r="P23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+      </c>
+      <c r="R23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Parameter</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>null</v>
       </c>
       <c r="D24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="E24" t="str">
-        <v>Zuurtegraad waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="F24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="G24" t="str">
-        <v>null</v>
+        <v>S1</v>
       </c>
       <c r="H24" t="str">
-        <v>null</v>
+        <v>Luchtwasser S1</v>
       </c>
       <c r="I24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1455,39 +1731,51 @@
         <v>null</v>
       </c>
       <c r="N24" t="str">
+        <v>null</v>
+      </c>
+      <c r="O24" t="str">
+        <v>null</v>
+      </c>
+      <c r="P24" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>null</v>
+      </c>
+      <c r="R24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/waardebepaling/SWB_1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
       </c>
       <c r="B25" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|https://data.omgeving.vlaanderen.be/ns/parameter#Waardebepaling</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/waardebepaling</v>
+        <v>null</v>
       </c>
       <c r="D25" t="str">
-        <v>SWB_1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="E25" t="str">
-        <v>standaard</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="F25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/waardebepaling</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="G25" t="str">
-        <v>null</v>
+        <v>S2</v>
       </c>
       <c r="H25" t="str">
-        <v>null</v>
+        <v>Luchtwasser S2</v>
       </c>
       <c r="I25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="J25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -1499,15 +1787,27 @@
         <v>null</v>
       </c>
       <c r="N25" t="str">
+        <v>null</v>
+      </c>
+      <c r="O25" t="str">
+        <v>null</v>
+      </c>
+      <c r="P25" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>null</v>
+      </c>
+      <c r="R25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/drager</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="B26" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
         <v>null</v>
@@ -1516,22 +1816,22 @@
         <v>null</v>
       </c>
       <c r="E26" t="str">
-        <v>conceptschema drager</v>
+        <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="G26" t="str">
         <v>null</v>
       </c>
       <c r="H26" t="str">
-        <v>null</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="I26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="J26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
       </c>
       <c r="K26" t="str">
         <v>null</v>
@@ -1543,15 +1843,27 @@
         <v>null</v>
       </c>
       <c r="N26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/drager/DR_1|https://data.omgeving.vlaanderen.be/id/concept/drager/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/drager/lucht|https://data.omgeving.vlaanderen.be/id/concept/drager/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/drager/stal|https://data.omgeving.vlaanderen.be/id/concept/drager/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+      </c>
+      <c r="O26" t="str">
+        <v>null</v>
+      </c>
+      <c r="P26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+      </c>
+      <c r="R26" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B27" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C27" t="str">
         <v>null</v>
@@ -1560,16 +1872,16 @@
         <v>null</v>
       </c>
       <c r="E27" t="str">
-        <v>conceptschema luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="G27" t="str">
         <v>null</v>
       </c>
       <c r="H27" t="str">
-        <v>null</v>
+        <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="I27" t="str">
         <v>null</v>
@@ -1587,15 +1899,27 @@
         <v>null</v>
       </c>
       <c r="N27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="O27" t="str">
+        <v>null</v>
+      </c>
+      <c r="P27" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>null</v>
+      </c>
+      <c r="R27" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C28" t="str">
         <v>null</v>
@@ -1604,16 +1928,16 @@
         <v>null</v>
       </c>
       <c r="E28" t="str">
-        <v>conceptschema parameter</v>
+        <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="G28" t="str">
         <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>null</v>
+        <v>Lucht</v>
       </c>
       <c r="I28" t="str">
         <v>null</v>
@@ -1631,56 +1955,752 @@
         <v>null</v>
       </c>
       <c r="N28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/parameter/P_1015|https://data.omgeving.vlaanderen.be/id/concept/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/parameter/spuitwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/parameter/spuitwaterproductiepercolaat|https://data.omgeving.vlaanderen.be/id/concept/parameter/spuitwaterproductievoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/parameter/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="O28" t="str">
+        <v>null</v>
+      </c>
+      <c r="P28" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>null</v>
+      </c>
+      <c r="R28" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/waardebepaling</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="B29" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+      </c>
+      <c r="C29" t="str">
+        <v>null</v>
+      </c>
+      <c r="D29" t="str">
+        <v>null</v>
+      </c>
+      <c r="E29" t="str">
+        <v>null</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="G29" t="str">
+        <v>null</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Spuiwater</v>
+      </c>
+      <c r="I29" t="str">
+        <v>null</v>
+      </c>
+      <c r="J29" t="str">
+        <v>null</v>
+      </c>
+      <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
+        <v>null</v>
+      </c>
+      <c r="M29" t="str">
+        <v>null</v>
+      </c>
+      <c r="N29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="O29" t="str">
+        <v>null</v>
+      </c>
+      <c r="P29" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>null</v>
+      </c>
+      <c r="R29" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+      </c>
+      <c r="C30" t="str">
+        <v>null</v>
+      </c>
+      <c r="D30" t="str">
+        <v>null</v>
+      </c>
+      <c r="E30" t="str">
+        <v>null</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="G30" t="str">
+        <v>null</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Stal</v>
+      </c>
+      <c r="I30" t="str">
+        <v>null</v>
+      </c>
+      <c r="J30" t="str">
+        <v>null</v>
+      </c>
+      <c r="K30" t="str">
+        <v>null</v>
+      </c>
+      <c r="L30" t="str">
+        <v>null</v>
+      </c>
+      <c r="M30" t="str">
+        <v>null</v>
+      </c>
+      <c r="N30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="O30" t="str">
+        <v>null</v>
+      </c>
+      <c r="P30" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>null</v>
+      </c>
+      <c r="R30" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+      </c>
+      <c r="B31" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+      </c>
+      <c r="C31" t="str">
+        <v>null</v>
+      </c>
+      <c r="D31" t="str">
+        <v>null</v>
+      </c>
+      <c r="E31" t="str">
+        <v>null</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="G31" t="str">
+        <v>null</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Waswater</v>
+      </c>
+      <c r="I31" t="str">
+        <v>null</v>
+      </c>
+      <c r="J31" t="str">
+        <v>null</v>
+      </c>
+      <c r="K31" t="str">
+        <v>null</v>
+      </c>
+      <c r="L31" t="str">
+        <v>null</v>
+      </c>
+      <c r="M31" t="str">
+        <v>null</v>
+      </c>
+      <c r="N31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="O31" t="str">
+        <v>null</v>
+      </c>
+      <c r="P31" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>null</v>
+      </c>
+      <c r="R31" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+      </c>
+      <c r="B32" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C32" t="str">
+        <v>null</v>
+      </c>
+      <c r="D32" t="str">
+        <v>null</v>
+      </c>
+      <c r="E32" t="str">
+        <v>null</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="G32" t="str">
+        <v>null</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Stal in gebruik, dieren aanwezig.</v>
+      </c>
+      <c r="I32" t="str">
+        <v>null</v>
+      </c>
+      <c r="J32" t="str">
+        <v>null</v>
+      </c>
+      <c r="K32" t="str">
+        <v>null</v>
+      </c>
+      <c r="L32" t="str">
+        <v>null</v>
+      </c>
+      <c r="M32" t="str">
+        <v>null</v>
+      </c>
+      <c r="N32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="O32" t="str">
+        <v>null</v>
+      </c>
+      <c r="P32" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>null</v>
+      </c>
+      <c r="R32" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+      </c>
+      <c r="B33" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C33" t="str">
+        <v>null</v>
+      </c>
+      <c r="D33" t="str">
+        <v>null</v>
+      </c>
+      <c r="E33" t="str">
+        <v>null</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="G33" t="str">
+        <v>null</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Lege stal</v>
+      </c>
+      <c r="I33" t="str">
+        <v>null</v>
+      </c>
+      <c r="J33" t="str">
+        <v>null</v>
+      </c>
+      <c r="K33" t="str">
+        <v>null</v>
+      </c>
+      <c r="L33" t="str">
+        <v>null</v>
+      </c>
+      <c r="M33" t="str">
+        <v>null</v>
+      </c>
+      <c r="N33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="O33" t="str">
+        <v>null</v>
+      </c>
+      <c r="P33" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>null</v>
+      </c>
+      <c r="R33" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C34" t="str">
+        <v>null</v>
+      </c>
+      <c r="D34" t="str">
+        <v>null</v>
+      </c>
+      <c r="E34" t="str">
+        <v>null</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="G34" t="str">
+        <v>null</v>
+      </c>
+      <c r="H34" t="str">
+        <v>In onderhoud</v>
+      </c>
+      <c r="I34" t="str">
+        <v>null</v>
+      </c>
+      <c r="J34" t="str">
+        <v>null</v>
+      </c>
+      <c r="K34" t="str">
+        <v>null</v>
+      </c>
+      <c r="L34" t="str">
+        <v>null</v>
+      </c>
+      <c r="M34" t="str">
+        <v>null</v>
+      </c>
+      <c r="N34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="O34" t="str">
+        <v>null</v>
+      </c>
+      <c r="P34" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>null</v>
+      </c>
+      <c r="R34" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C35" t="str">
+        <v>null</v>
+      </c>
+      <c r="D35" t="str">
+        <v>null</v>
+      </c>
+      <c r="E35" t="str">
+        <v>null</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="G35" t="str">
+        <v>null</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Operationeel</v>
+      </c>
+      <c r="I35" t="str">
+        <v>null</v>
+      </c>
+      <c r="J35" t="str">
+        <v>null</v>
+      </c>
+      <c r="K35" t="str">
+        <v>null</v>
+      </c>
+      <c r="L35" t="str">
+        <v>null</v>
+      </c>
+      <c r="M35" t="str">
+        <v>null</v>
+      </c>
+      <c r="N35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="O35" t="str">
+        <v>null</v>
+      </c>
+      <c r="P35" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>null</v>
+      </c>
+      <c r="R35" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+      <c r="B36" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C36" t="str">
+        <v>null</v>
+      </c>
+      <c r="D36" t="str">
+        <v>null</v>
+      </c>
+      <c r="E36" t="str">
+        <v>null</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="G36" t="str">
+        <v>null</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Storing</v>
+      </c>
+      <c r="I36" t="str">
+        <v>null</v>
+      </c>
+      <c r="J36" t="str">
+        <v>null</v>
+      </c>
+      <c r="K36" t="str">
+        <v>null</v>
+      </c>
+      <c r="L36" t="str">
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
+        <v>null</v>
+      </c>
+      <c r="N36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="O36" t="str">
+        <v>null</v>
+      </c>
+      <c r="P36" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>null</v>
+      </c>
+      <c r="R36" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+      </c>
+      <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C29" t="str">
-        <v>null</v>
-      </c>
-      <c r="D29" t="str">
-        <v>null</v>
-      </c>
-      <c r="E29" t="str">
-        <v>conceptschema waardebepaling</v>
-      </c>
-      <c r="F29" t="str">
-        <v>null</v>
-      </c>
-      <c r="G29" t="str">
-        <v>null</v>
-      </c>
-      <c r="H29" t="str">
-        <v>null</v>
-      </c>
-      <c r="I29" t="str">
-        <v>null</v>
-      </c>
-      <c r="J29" t="str">
-        <v>null</v>
-      </c>
-      <c r="K29" t="str">
-        <v>null</v>
-      </c>
-      <c r="L29" t="str">
-        <v>null</v>
-      </c>
-      <c r="M29" t="str">
-        <v>null</v>
-      </c>
-      <c r="N29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/waardebepaling/SWB_1</v>
+      <c r="C37" t="str">
+        <v>null</v>
+      </c>
+      <c r="D37" t="str">
+        <v>null</v>
+      </c>
+      <c r="E37" t="str">
+        <v>null</v>
+      </c>
+      <c r="F37" t="str">
+        <v>null</v>
+      </c>
+      <c r="G37" t="str">
+        <v>null</v>
+      </c>
+      <c r="H37" t="str">
+        <v>conceptschema luchtzuiveringssysteem</v>
+      </c>
+      <c r="I37" t="str">
+        <v>null</v>
+      </c>
+      <c r="J37" t="str">
+        <v>null</v>
+      </c>
+      <c r="K37" t="str">
+        <v>null</v>
+      </c>
+      <c r="L37" t="str">
+        <v>null</v>
+      </c>
+      <c r="M37" t="str">
+        <v>null</v>
+      </c>
+      <c r="N37" t="str">
+        <v>null</v>
+      </c>
+      <c r="O37" t="str">
+        <v>null</v>
+      </c>
+      <c r="P37" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>null</v>
+      </c>
+      <c r="R37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C38" t="str">
+        <v>null</v>
+      </c>
+      <c r="D38" t="str">
+        <v>null</v>
+      </c>
+      <c r="E38" t="str">
+        <v>null</v>
+      </c>
+      <c r="F38" t="str">
+        <v>null</v>
+      </c>
+      <c r="G38" t="str">
+        <v>null</v>
+      </c>
+      <c r="H38" t="str">
+        <v>conceptschema luchtzuiveringssysteem medium</v>
+      </c>
+      <c r="I38" t="str">
+        <v>null</v>
+      </c>
+      <c r="J38" t="str">
+        <v>null</v>
+      </c>
+      <c r="K38" t="str">
+        <v>null</v>
+      </c>
+      <c r="L38" t="str">
+        <v>null</v>
+      </c>
+      <c r="M38" t="str">
+        <v>null</v>
+      </c>
+      <c r="N38" t="str">
+        <v>null</v>
+      </c>
+      <c r="O38" t="str">
+        <v>null</v>
+      </c>
+      <c r="P38" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>null</v>
+      </c>
+      <c r="R38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="B39" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C39" t="str">
+        <v>null</v>
+      </c>
+      <c r="D39" t="str">
+        <v>null</v>
+      </c>
+      <c r="E39" t="str">
+        <v>null</v>
+      </c>
+      <c r="F39" t="str">
+        <v>null</v>
+      </c>
+      <c r="G39" t="str">
+        <v>null</v>
+      </c>
+      <c r="H39" t="str">
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+      </c>
+      <c r="I39" t="str">
+        <v>null</v>
+      </c>
+      <c r="J39" t="str">
+        <v>null</v>
+      </c>
+      <c r="K39" t="str">
+        <v>null</v>
+      </c>
+      <c r="L39" t="str">
+        <v>null</v>
+      </c>
+      <c r="M39" t="str">
+        <v>null</v>
+      </c>
+      <c r="N39" t="str">
+        <v>null</v>
+      </c>
+      <c r="O39" t="str">
+        <v>null</v>
+      </c>
+      <c r="P39" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>null</v>
+      </c>
+      <c r="R39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C40" t="str">
+        <v>null</v>
+      </c>
+      <c r="D40" t="str">
+        <v>null</v>
+      </c>
+      <c r="E40" t="str">
+        <v>null</v>
+      </c>
+      <c r="F40" t="str">
+        <v>null</v>
+      </c>
+      <c r="G40" t="str">
+        <v>null</v>
+      </c>
+      <c r="H40" t="str">
+        <v>conceptschema luchtzuiveringssysteem status</v>
+      </c>
+      <c r="I40" t="str">
+        <v>null</v>
+      </c>
+      <c r="J40" t="str">
+        <v>null</v>
+      </c>
+      <c r="K40" t="str">
+        <v>null</v>
+      </c>
+      <c r="L40" t="str">
+        <v>null</v>
+      </c>
+      <c r="M40" t="str">
+        <v>null</v>
+      </c>
+      <c r="N40" t="str">
+        <v>null</v>
+      </c>
+      <c r="O40" t="str">
+        <v>null</v>
+      </c>
+      <c r="P40" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>null</v>
+      </c>
+      <c r="R40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C41" t="str">
+        <v>null</v>
+      </c>
+      <c r="D41" t="str">
+        <v>null</v>
+      </c>
+      <c r="E41" t="str">
+        <v>null</v>
+      </c>
+      <c r="F41" t="str">
+        <v>null</v>
+      </c>
+      <c r="G41" t="str">
+        <v>null</v>
+      </c>
+      <c r="H41" t="str">
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+      </c>
+      <c r="I41" t="str">
+        <v>null</v>
+      </c>
+      <c r="J41" t="str">
+        <v>null</v>
+      </c>
+      <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
+        <v>null</v>
+      </c>
+      <c r="N41" t="str">
+        <v>null</v>
+      </c>
+      <c r="O41" t="str">
+        <v>null</v>
+      </c>
+      <c r="P41" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>null</v>
+      </c>
+      <c r="R41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -991,7 +991,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1174,7 +1174,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="O14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
       </c>
       <c r="P14" t="str">
         <v>null</v>
@@ -1342,7 +1342,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="O17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
       </c>
       <c r="P17" t="str">
         <v>null</v>
@@ -1398,7 +1398,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="O18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
       </c>
       <c r="P18" t="str">
         <v>null</v>
@@ -1454,7 +1454,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="O19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
       </c>
       <c r="P19" t="str">
         <v>null</v>
@@ -1663,7 +1663,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
       </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -1719,7 +1719,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1775,7 +1775,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -1831,7 +1831,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
       </c>
       <c r="J26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="K26" t="str">
         <v>null</v>
@@ -2583,7 +2583,7 @@
         <v>null</v>
       </c>
       <c r="R39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
     </row>
     <row r="40">

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -985,7 +985,7 @@
         <v>S3</v>
       </c>
       <c r="H11" t="str">
-        <v>Biobed S3</v>
+        <v>Biobed</v>
       </c>
       <c r="I11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
@@ -1713,7 +1713,7 @@
         <v>S1</v>
       </c>
       <c r="H24" t="str">
-        <v>Luchtwasser S1</v>
+        <v>Biologische luchtwasser</v>
       </c>
       <c r="I24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
@@ -1769,7 +1769,7 @@
         <v>S2</v>
       </c>
       <c r="H25" t="str">
-        <v>Luchtwasser S2</v>
+        <v>Chemische luchtwasser</v>
       </c>
       <c r="I25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -413,46 +413,46 @@
         <v>applicableUnit</v>
       </c>
       <c r="D1" t="str">
-        <v>broader</v>
+        <v>subject</v>
       </c>
       <c r="E1" t="str">
-        <v>broaderTransitive</v>
+        <v>relevantQuantityKind</v>
       </c>
       <c r="F1" t="str">
+        <v>seeAlso</v>
+      </c>
+      <c r="G1" t="str">
         <v>inScheme</v>
-      </c>
-      <c r="G1" t="str">
-        <v>notation</v>
       </c>
       <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
       <c r="I1" t="str">
+        <v>topConceptOf</v>
+      </c>
+      <c r="J1" t="str">
+        <v>relevantSystem</v>
+      </c>
+      <c r="K1" t="str">
+        <v>broader</v>
+      </c>
+      <c r="L1" t="str">
+        <v>broaderTransitive</v>
+      </c>
+      <c r="M1" t="str">
+        <v>narrower</v>
+      </c>
+      <c r="N1" t="str">
+        <v>narrowerTransitive</v>
+      </c>
+      <c r="O1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="J1" t="str">
+      <c r="P1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="Q1" t="str">
         <v>relevantProperty</v>
-      </c>
-      <c r="K1" t="str">
-        <v>subject</v>
-      </c>
-      <c r="L1" t="str">
-        <v>relevantQuantityKind</v>
-      </c>
-      <c r="M1" t="str">
-        <v>seeAlso</v>
-      </c>
-      <c r="N1" t="str">
-        <v>topConceptOf</v>
-      </c>
-      <c r="O1" t="str">
-        <v>relevantSystem</v>
-      </c>
-      <c r="P1" t="str">
-        <v>narrower</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>narrowerTransitive</v>
       </c>
       <c r="R1" t="str">
         <v>hasTopConcept</v>
@@ -964,34 +964,34 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C11" t="str">
         <v>null</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="G11" t="str">
-        <v>S3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="H11" t="str">
-        <v>Biobed</v>
+        <v>Biobedspoelwaterproductie</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1029,40 +1029,40 @@
         <v>null</v>
       </c>
       <c r="D12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E12" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="F12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+      </c>
+      <c r="G12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G12" t="str">
-        <v>null</v>
-      </c>
       <c r="H12" t="str">
-        <v>Biobedspoelwaterproductie</v>
+        <v>Biobedspuiwaterproductie</v>
       </c>
       <c r="I12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="K12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="L12" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>null</v>
       </c>
       <c r="M12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="N12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+        <v>null</v>
       </c>
       <c r="P12" t="str">
         <v>null</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1085,40 +1085,40 @@
         <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="E13" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="F13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
+      </c>
+      <c r="G13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G13" t="str">
-        <v>null</v>
-      </c>
       <c r="H13" t="str">
-        <v>Biobedspuiwaterproductie</v>
+        <v>Drukval over het systeem</v>
       </c>
       <c r="I13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="K13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>null</v>
       </c>
       <c r="L13" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>null</v>
       </c>
       <c r="M13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>null</v>
       </c>
       <c r="N13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+        <v>null</v>
       </c>
       <c r="P13" t="str">
         <v>null</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1141,40 +1141,40 @@
         <v>null</v>
       </c>
       <c r="D14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E14" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="F14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
+      </c>
+      <c r="G14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G14" t="str">
-        <v>null</v>
-      </c>
       <c r="H14" t="str">
-        <v>Drukval over het systeem</v>
+        <v>Geleidbaarheid van het waswater</v>
       </c>
       <c r="I14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="K14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>null</v>
       </c>
       <c r="L14" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
+        <v>null</v>
       </c>
       <c r="M14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
+        <v>null</v>
       </c>
       <c r="N14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="P14" t="str">
         <v>null</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1197,40 +1197,40 @@
         <v>null</v>
       </c>
       <c r="D15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E15" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="F15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+      </c>
+      <c r="G15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G15" t="str">
-        <v>null</v>
-      </c>
       <c r="H15" t="str">
-        <v>Geleidbaarheid van het waswater</v>
+        <v>Spuiwaterproductie</v>
       </c>
       <c r="I15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="K15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="L15" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
+        <v>null</v>
       </c>
       <c r="M15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
+        <v>null</v>
       </c>
       <c r="N15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="P15" t="str">
         <v>null</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1253,40 +1253,40 @@
         <v>null</v>
       </c>
       <c r="D16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="E16" t="str">
         <v>null</v>
       </c>
       <c r="F16" t="str">
+        <v>null</v>
+      </c>
+      <c r="G16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G16" t="str">
-        <v>null</v>
-      </c>
       <c r="H16" t="str">
-        <v>Spuiwaterproductie</v>
+        <v>Stalbezetting</v>
       </c>
       <c r="I16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="K16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>null</v>
       </c>
       <c r="L16" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>null</v>
       </c>
       <c r="M16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>null</v>
       </c>
       <c r="N16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="P16" t="str">
         <v>null</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1309,28 +1309,28 @@
         <v>null</v>
       </c>
       <c r="D17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="E17" t="str">
         <v>null</v>
       </c>
       <c r="F17" t="str">
+        <v>null</v>
+      </c>
+      <c r="G17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G17" t="str">
-        <v>null</v>
-      </c>
       <c r="H17" t="str">
-        <v>Stalbezetting</v>
+        <v>SysteemStatus</v>
       </c>
       <c r="I17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="K17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>null</v>
       </c>
       <c r="L17" t="str">
         <v>null</v>
@@ -1339,10 +1339,10 @@
         <v>null</v>
       </c>
       <c r="N17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="P17" t="str">
         <v>null</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1365,28 +1365,28 @@
         <v>null</v>
       </c>
       <c r="D18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E18" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="F18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G18" t="str">
-        <v>null</v>
-      </c>
       <c r="H18" t="str">
-        <v>SysteemStatus</v>
+        <v>Waswaterdebiet over het waspakket</v>
       </c>
       <c r="I18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="K18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L18" t="str">
         <v>null</v>
@@ -1395,10 +1395,10 @@
         <v>null</v>
       </c>
       <c r="N18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="P18" t="str">
         <v>null</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1421,40 +1421,40 @@
         <v>null</v>
       </c>
       <c r="D19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E19" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="F19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G19" t="str">
-        <v>null</v>
-      </c>
       <c r="H19" t="str">
-        <v>Waswaterdebiet over het waspakket</v>
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
       <c r="I19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="K19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="L19" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>null</v>
       </c>
       <c r="M19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="N19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="P19" t="str">
         <v>null</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1477,40 +1477,40 @@
         <v>null</v>
       </c>
       <c r="D20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E20" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="F20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G20" t="str">
-        <v>null</v>
-      </c>
       <c r="H20" t="str">
-        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
       <c r="I20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="K20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="L20" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>null</v>
       </c>
       <c r="M20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="N20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+        <v>null</v>
       </c>
       <c r="P20" t="str">
         <v>null</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1533,40 +1533,40 @@
         <v>null</v>
       </c>
       <c r="D21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E21" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="F21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+      </c>
+      <c r="G21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="G21" t="str">
-        <v>null</v>
-      </c>
       <c r="H21" t="str">
-        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+        <v>Zuurtegraad van het waswater</v>
       </c>
       <c r="I21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="K21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="L21" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>null</v>
       </c>
       <c r="M21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="N21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="O21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3</v>
+        <v>null</v>
       </c>
       <c r="P21" t="str">
         <v>null</v>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
         <v>null</v>
@@ -1595,13 +1595,13 @@
         <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>null</v>
       </c>
       <c r="G22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="H22" t="str">
-        <v>Zuurtegraad van het waswater</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="I22" t="str">
         <v>null</v>
@@ -1610,19 +1610,19 @@
         <v>null</v>
       </c>
       <c r="K22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L22" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="N22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="O22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P22" t="str">
         <v>null</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1645,22 +1645,22 @@
         <v>null</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="E23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="F23" t="str">
+        <v>null</v>
+      </c>
+      <c r="G23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
-      <c r="G23" t="str">
-        <v>null</v>
-      </c>
       <c r="H23" t="str">
-        <v>Luchtwasser</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="J23" t="str">
         <v>null</v>
@@ -1672,19 +1672,19 @@
         <v>null</v>
       </c>
       <c r="M23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="N23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="O23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="P23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="Q23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>null</v>
       </c>
       <c r="R23" t="str">
         <v>null</v>
@@ -1692,34 +1692,34 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C24" t="str">
         <v>null</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="E24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="G24" t="str">
-        <v>S1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="H24" t="str">
-        <v>Biologische luchtwasser</v>
+        <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -1748,34 +1748,34 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="B25" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C25" t="str">
         <v>null</v>
       </c>
       <c r="D25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="E25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="F25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="G25" t="str">
-        <v>S2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="H25" t="str">
-        <v>Chemische luchtwasser</v>
+        <v>Lucht</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="B26" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C26" t="str">
         <v>null</v>
@@ -1819,16 +1819,16 @@
         <v>null</v>
       </c>
       <c r="F26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="G26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="H26" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>Spuiwater</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="J26" t="str">
         <v>null</v>
@@ -1843,16 +1843,16 @@
         <v>null</v>
       </c>
       <c r="N26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="O26" t="str">
         <v>null</v>
       </c>
       <c r="P26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="Q26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/biobed_s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser_s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwasser</v>
+        <v>null</v>
       </c>
       <c r="R26" t="str">
         <v>null</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -1875,16 +1875,16 @@
         <v>null</v>
       </c>
       <c r="F27" t="str">
+        <v>null</v>
+      </c>
+      <c r="G27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="G27" t="str">
-        <v>null</v>
-      </c>
       <c r="H27" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
+        <v>Stal</v>
       </c>
       <c r="I27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="J27" t="str">
         <v>null</v>
@@ -1899,7 +1899,7 @@
         <v>null</v>
       </c>
       <c r="N27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="O27" t="str">
         <v>null</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -1931,16 +1931,16 @@
         <v>null</v>
       </c>
       <c r="F28" t="str">
+        <v>null</v>
+      </c>
+      <c r="G28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="G28" t="str">
-        <v>null</v>
-      </c>
       <c r="H28" t="str">
-        <v>Lucht</v>
+        <v>Waswater</v>
       </c>
       <c r="I28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="J28" t="str">
         <v>null</v>
@@ -1955,7 +1955,7 @@
         <v>null</v>
       </c>
       <c r="N28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="O28" t="str">
         <v>null</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="B29" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
         <v>null</v>
@@ -1987,13 +1987,13 @@
         <v>null</v>
       </c>
       <c r="F29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="G29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="H29" t="str">
-        <v>Spuiwater</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="I29" t="str">
         <v>null</v>
@@ -2002,25 +2002,25 @@
         <v>null</v>
       </c>
       <c r="K29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="L29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M29" t="str">
         <v>null</v>
       </c>
       <c r="N29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="O29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P29" t="str">
-        <v>null</v>
+        <v>S1</v>
       </c>
       <c r="Q29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="R29" t="str">
         <v>null</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="B30" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
         <v>null</v>
@@ -2043,13 +2043,13 @@
         <v>null</v>
       </c>
       <c r="F30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="G30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="H30" t="str">
-        <v>Stal</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="I30" t="str">
         <v>null</v>
@@ -2058,25 +2058,25 @@
         <v>null</v>
       </c>
       <c r="K30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="L30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M30" t="str">
         <v>null</v>
       </c>
       <c r="N30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="O30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P30" t="str">
-        <v>null</v>
+        <v>S2</v>
       </c>
       <c r="Q30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="R30" t="str">
         <v>null</v>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="B31" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
         <v>null</v>
@@ -2099,13 +2099,13 @@
         <v>null</v>
       </c>
       <c r="F31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="G31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="H31" t="str">
-        <v>Waswater</v>
+        <v>Biobed</v>
       </c>
       <c r="I31" t="str">
         <v>null</v>
@@ -2114,25 +2114,25 @@
         <v>null</v>
       </c>
       <c r="K31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M31" t="str">
         <v>null</v>
       </c>
       <c r="N31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>null</v>
       </c>
       <c r="O31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P31" t="str">
-        <v>null</v>
+        <v>S3</v>
       </c>
       <c r="Q31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="R31" t="str">
         <v>null</v>
@@ -2155,16 +2155,16 @@
         <v>null</v>
       </c>
       <c r="F32" t="str">
+        <v>null</v>
+      </c>
+      <c r="G32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
-      </c>
-      <c r="G32" t="str">
-        <v>null</v>
       </c>
       <c r="H32" t="str">
         <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="I32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="J32" t="str">
         <v>null</v>
@@ -2179,7 +2179,7 @@
         <v>null</v>
       </c>
       <c r="N32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>null</v>
       </c>
       <c r="O32" t="str">
         <v>null</v>
@@ -2211,16 +2211,16 @@
         <v>null</v>
       </c>
       <c r="F33" t="str">
+        <v>null</v>
+      </c>
+      <c r="G33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
-      </c>
-      <c r="G33" t="str">
-        <v>null</v>
       </c>
       <c r="H33" t="str">
         <v>Lege stal</v>
       </c>
       <c r="I33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="J33" t="str">
         <v>null</v>
@@ -2235,7 +2235,7 @@
         <v>null</v>
       </c>
       <c r="N33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>null</v>
       </c>
       <c r="O33" t="str">
         <v>null</v>
@@ -2267,16 +2267,16 @@
         <v>null</v>
       </c>
       <c r="F34" t="str">
+        <v>null</v>
+      </c>
+      <c r="G34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
-      </c>
-      <c r="G34" t="str">
-        <v>null</v>
       </c>
       <c r="H34" t="str">
         <v>In onderhoud</v>
       </c>
       <c r="I34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="J34" t="str">
         <v>null</v>
@@ -2291,7 +2291,7 @@
         <v>null</v>
       </c>
       <c r="N34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="O34" t="str">
         <v>null</v>
@@ -2323,16 +2323,16 @@
         <v>null</v>
       </c>
       <c r="F35" t="str">
+        <v>null</v>
+      </c>
+      <c r="G35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
-      </c>
-      <c r="G35" t="str">
-        <v>null</v>
       </c>
       <c r="H35" t="str">
         <v>Operationeel</v>
       </c>
       <c r="I35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="J35" t="str">
         <v>null</v>
@@ -2347,7 +2347,7 @@
         <v>null</v>
       </c>
       <c r="N35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="O35" t="str">
         <v>null</v>
@@ -2379,16 +2379,16 @@
         <v>null</v>
       </c>
       <c r="F36" t="str">
+        <v>null</v>
+      </c>
+      <c r="G36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
-      </c>
-      <c r="G36" t="str">
-        <v>null</v>
       </c>
       <c r="H36" t="str">
         <v>Storing</v>
       </c>
       <c r="I36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="J36" t="str">
         <v>null</v>
@@ -2403,7 +2403,7 @@
         <v>null</v>
       </c>
       <c r="N36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="O36" t="str">
         <v>null</v>
@@ -2583,7 +2583,7 @@
         <v>null</v>
       </c>
       <c r="R39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
     </row>
     <row r="40">

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,30 +431,39 @@
         <v>topConceptOf</v>
       </c>
       <c r="J1" t="str">
-        <v>relevantSystem</v>
+        <v>broader</v>
       </c>
       <c r="K1" t="str">
-        <v>broader</v>
+        <v>broaderTransitive</v>
       </c>
       <c r="L1" t="str">
-        <v>broaderTransitive</v>
+        <v>narrower</v>
       </c>
       <c r="M1" t="str">
-        <v>narrower</v>
+        <v>narrowerTransitive</v>
       </c>
       <c r="N1" t="str">
-        <v>narrowerTransitive</v>
+        <v>semanticRelation</v>
       </c>
       <c r="O1" t="str">
-        <v>semanticRelation</v>
+        <v>severity</v>
       </c>
       <c r="P1" t="str">
+        <v>actie</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>intervalcategorie</v>
+      </c>
+      <c r="R1" t="str">
+        <v>normstatus</v>
+      </c>
+      <c r="S1" t="str">
+        <v>relevantProperty</v>
+      </c>
+      <c r="T1" t="str">
         <v>notation</v>
       </c>
-      <c r="Q1" t="str">
-        <v>relevantProperty</v>
-      </c>
-      <c r="R1" t="str">
+      <c r="U1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
@@ -513,6 +522,15 @@
       <c r="R2" t="str">
         <v>null</v>
       </c>
+      <c r="S2" t="str">
+        <v>null</v>
+      </c>
+      <c r="T2" t="str">
+        <v>null</v>
+      </c>
+      <c r="U2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -569,6 +587,15 @@
       <c r="R3" t="str">
         <v>null</v>
       </c>
+      <c r="S3" t="str">
+        <v>null</v>
+      </c>
+      <c r="T3" t="str">
+        <v>null</v>
+      </c>
+      <c r="U3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -625,6 +652,15 @@
       <c r="R4" t="str">
         <v>null</v>
       </c>
+      <c r="S4" t="str">
+        <v>null</v>
+      </c>
+      <c r="T4" t="str">
+        <v>null</v>
+      </c>
+      <c r="U4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -681,6 +717,15 @@
       <c r="R5" t="str">
         <v>null</v>
       </c>
+      <c r="S5" t="str">
+        <v>null</v>
+      </c>
+      <c r="T5" t="str">
+        <v>null</v>
+      </c>
+      <c r="U5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -737,6 +782,15 @@
       <c r="R6" t="str">
         <v>null</v>
       </c>
+      <c r="S6" t="str">
+        <v>null</v>
+      </c>
+      <c r="T6" t="str">
+        <v>null</v>
+      </c>
+      <c r="U6" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -793,6 +847,15 @@
       <c r="R7" t="str">
         <v>null</v>
       </c>
+      <c r="S7" t="str">
+        <v>null</v>
+      </c>
+      <c r="T7" t="str">
+        <v>null</v>
+      </c>
+      <c r="U7" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -849,6 +912,15 @@
       <c r="R8" t="str">
         <v>null</v>
       </c>
+      <c r="S8" t="str">
+        <v>null</v>
+      </c>
+      <c r="T8" t="str">
+        <v>null</v>
+      </c>
+      <c r="U8" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -905,6 +977,15 @@
       <c r="R9" t="str">
         <v>null</v>
       </c>
+      <c r="S9" t="str">
+        <v>null</v>
+      </c>
+      <c r="T9" t="str">
+        <v>null</v>
+      </c>
+      <c r="U9" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -961,6 +1042,15 @@
       <c r="R10" t="str">
         <v>null</v>
       </c>
+      <c r="S10" t="str">
+        <v>null</v>
+      </c>
+      <c r="T10" t="str">
+        <v>null</v>
+      </c>
+      <c r="U10" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -991,7 +1081,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1015,6 +1105,15 @@
         <v>null</v>
       </c>
       <c r="R11" t="str">
+        <v>null</v>
+      </c>
+      <c r="S11" t="str">
+        <v>null</v>
+      </c>
+      <c r="T11" t="str">
+        <v>null</v>
+      </c>
+      <c r="U11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1047,7 +1146,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1071,6 +1170,15 @@
         <v>null</v>
       </c>
       <c r="R12" t="str">
+        <v>null</v>
+      </c>
+      <c r="S12" t="str">
+        <v>null</v>
+      </c>
+      <c r="T12" t="str">
+        <v>null</v>
+      </c>
+      <c r="U12" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1103,7 +1211,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -1127,6 +1235,15 @@
         <v>null</v>
       </c>
       <c r="R13" t="str">
+        <v>null</v>
+      </c>
+      <c r="S13" t="str">
+        <v>null</v>
+      </c>
+      <c r="T13" t="str">
+        <v>null</v>
+      </c>
+      <c r="U13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1159,7 +1276,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -1183,6 +1300,15 @@
         <v>null</v>
       </c>
       <c r="R14" t="str">
+        <v>null</v>
+      </c>
+      <c r="S14" t="str">
+        <v>null</v>
+      </c>
+      <c r="T14" t="str">
+        <v>null</v>
+      </c>
+      <c r="U14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1215,7 +1341,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -1239,6 +1365,15 @@
         <v>null</v>
       </c>
       <c r="R15" t="str">
+        <v>null</v>
+      </c>
+      <c r="S15" t="str">
+        <v>null</v>
+      </c>
+      <c r="T15" t="str">
+        <v>null</v>
+      </c>
+      <c r="U15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1271,7 +1406,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -1295,6 +1430,15 @@
         <v>null</v>
       </c>
       <c r="R16" t="str">
+        <v>null</v>
+      </c>
+      <c r="S16" t="str">
+        <v>null</v>
+      </c>
+      <c r="T16" t="str">
+        <v>null</v>
+      </c>
+      <c r="U16" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1327,7 +1471,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -1351,6 +1495,15 @@
         <v>null</v>
       </c>
       <c r="R17" t="str">
+        <v>null</v>
+      </c>
+      <c r="S17" t="str">
+        <v>null</v>
+      </c>
+      <c r="T17" t="str">
+        <v>null</v>
+      </c>
+      <c r="U17" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1383,7 +1536,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="K18" t="str">
         <v>null</v>
@@ -1407,6 +1560,15 @@
         <v>null</v>
       </c>
       <c r="R18" t="str">
+        <v>null</v>
+      </c>
+      <c r="S18" t="str">
+        <v>null</v>
+      </c>
+      <c r="T18" t="str">
+        <v>null</v>
+      </c>
+      <c r="U18" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1439,7 +1601,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>null</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1463,6 +1625,15 @@
         <v>null</v>
       </c>
       <c r="R19" t="str">
+        <v>null</v>
+      </c>
+      <c r="S19" t="str">
+        <v>null</v>
+      </c>
+      <c r="T19" t="str">
+        <v>null</v>
+      </c>
+      <c r="U19" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1495,7 +1666,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>null</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -1519,6 +1690,15 @@
         <v>null</v>
       </c>
       <c r="R20" t="str">
+        <v>null</v>
+      </c>
+      <c r="S20" t="str">
+        <v>null</v>
+      </c>
+      <c r="T20" t="str">
+        <v>null</v>
+      </c>
+      <c r="U20" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1551,7 +1731,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="J21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="K21" t="str">
         <v>null</v>
@@ -1575,6 +1755,15 @@
         <v>null</v>
       </c>
       <c r="R21" t="str">
+        <v>null</v>
+      </c>
+      <c r="S21" t="str">
+        <v>null</v>
+      </c>
+      <c r="T21" t="str">
+        <v>null</v>
+      </c>
+      <c r="U21" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1607,22 +1796,22 @@
         <v>null</v>
       </c>
       <c r="J22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="K22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="M22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="N22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="O22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P22" t="str">
         <v>null</v>
@@ -1631,6 +1820,15 @@
         <v>null</v>
       </c>
       <c r="R22" t="str">
+        <v>null</v>
+      </c>
+      <c r="S22" t="str">
+        <v>null</v>
+      </c>
+      <c r="T22" t="str">
+        <v>null</v>
+      </c>
+      <c r="U22" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1669,16 +1867,16 @@
         <v>null</v>
       </c>
       <c r="L23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="N23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="O23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="P23" t="str">
         <v>null</v>
@@ -1687,6 +1885,15 @@
         <v>null</v>
       </c>
       <c r="R23" t="str">
+        <v>null</v>
+      </c>
+      <c r="S23" t="str">
+        <v>null</v>
+      </c>
+      <c r="T23" t="str">
+        <v>null</v>
+      </c>
+      <c r="U23" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1745,6 +1952,15 @@
       <c r="R24" t="str">
         <v>null</v>
       </c>
+      <c r="S24" t="str">
+        <v>null</v>
+      </c>
+      <c r="T24" t="str">
+        <v>null</v>
+      </c>
+      <c r="U24" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1801,6 +2017,15 @@
       <c r="R25" t="str">
         <v>null</v>
       </c>
+      <c r="S25" t="str">
+        <v>null</v>
+      </c>
+      <c r="T25" t="str">
+        <v>null</v>
+      </c>
+      <c r="U25" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1857,6 +2082,15 @@
       <c r="R26" t="str">
         <v>null</v>
       </c>
+      <c r="S26" t="str">
+        <v>null</v>
+      </c>
+      <c r="T26" t="str">
+        <v>null</v>
+      </c>
+      <c r="U26" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1913,6 +2147,15 @@
       <c r="R27" t="str">
         <v>null</v>
       </c>
+      <c r="S27" t="str">
+        <v>null</v>
+      </c>
+      <c r="T27" t="str">
+        <v>null</v>
+      </c>
+      <c r="U27" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1969,10 +2212,19 @@
       <c r="R28" t="str">
         <v>null</v>
       </c>
+      <c r="S28" t="str">
+        <v>null</v>
+      </c>
+      <c r="T28" t="str">
+        <v>null</v>
+      </c>
+      <c r="U28" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/1</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1984,28 +2236,28 @@
         <v>null</v>
       </c>
       <c r="E29" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="F29" t="str">
         <v>null</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="H29" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>Zuurtegraad (pH) van het waswater is lager dan 6.</v>
       </c>
       <c r="I29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="J29" t="str">
         <v>null</v>
       </c>
       <c r="K29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="L29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M29" t="str">
         <v>null</v>
@@ -2014,21 +2266,30 @@
         <v>null</v>
       </c>
       <c r="O29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>http://www.w3.org/ns/shacl#Violation</v>
       </c>
       <c r="P29" t="str">
-        <v>S1</v>
+        <v>Verklaring vragen</v>
       </c>
       <c r="Q29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>?value &lt; 6</v>
       </c>
       <c r="R29" t="str">
+        <v>Buiten de norm</v>
+      </c>
+      <c r="S29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="T29" t="str">
+        <v>null</v>
+      </c>
+      <c r="U29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/2</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2040,28 +2301,28 @@
         <v>null</v>
       </c>
       <c r="E30" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="F30" t="str">
         <v>null</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="H30" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>Zuurtegraad (pH) van het waswater ligt tussen 6 en 6,5.</v>
       </c>
       <c r="I30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="J30" t="str">
         <v>null</v>
       </c>
       <c r="K30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="L30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M30" t="str">
         <v>null</v>
@@ -2070,21 +2331,30 @@
         <v>null</v>
       </c>
       <c r="O30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>http://www.w3.org/ns/shacl#Warning</v>
       </c>
       <c r="P30" t="str">
-        <v>S2</v>
+        <v>Aandachtspunt</v>
       </c>
       <c r="Q30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>?value &gt;= 6 &amp;&amp; ?value &lt; 6.5</v>
       </c>
       <c r="R30" t="str">
+        <v>Randgebied</v>
+      </c>
+      <c r="S30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="T30" t="str">
+        <v>null</v>
+      </c>
+      <c r="U30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/3</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2096,28 +2366,28 @@
         <v>null</v>
       </c>
       <c r="E31" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="F31" t="str">
         <v>null</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="H31" t="str">
-        <v>Biobed</v>
+        <v>Zuurtegraad (pH) van het waswater ligt tussen 6,5 en 7,5.</v>
       </c>
       <c r="I31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="J31" t="str">
         <v>null</v>
       </c>
       <c r="K31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M31" t="str">
         <v>null</v>
@@ -2126,21 +2396,30 @@
         <v>null</v>
       </c>
       <c r="O31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>http://www.w3.org/ns/shacl#Trace</v>
       </c>
       <c r="P31" t="str">
-        <v>S3</v>
+        <v>Geen actie</v>
       </c>
       <c r="Q31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>?value &gt;= 6.5 &amp;&amp; ?value &lt;= 7.5</v>
       </c>
       <c r="R31" t="str">
+        <v>Binnen de norm</v>
+      </c>
+      <c r="S31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="T31" t="str">
+        <v>null</v>
+      </c>
+      <c r="U31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/4</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2152,19 +2431,19 @@
         <v>null</v>
       </c>
       <c r="E32" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="F32" t="str">
         <v>null</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="H32" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>Zuurtegraad (pH) van het waswater ligt tussen 7,5 en 8,5.</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="J32" t="str">
         <v>null</v>
@@ -2182,21 +2461,30 @@
         <v>null</v>
       </c>
       <c r="O32" t="str">
-        <v>null</v>
+        <v>http://www.w3.org/ns/shacl#Warning</v>
       </c>
       <c r="P32" t="str">
-        <v>null</v>
+        <v>Aandachtspunt</v>
       </c>
       <c r="Q32" t="str">
-        <v>null</v>
+        <v>?value &gt; 7.5 &amp;&amp; ?value &lt;= 8.5</v>
       </c>
       <c r="R32" t="str">
+        <v>Randgebied</v>
+      </c>
+      <c r="S32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="T32" t="str">
+        <v>null</v>
+      </c>
+      <c r="U32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/5</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2208,19 +2496,19 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="F33" t="str">
         <v>null</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="H33" t="str">
-        <v>Lege stal</v>
+        <v>Zuurtegraad (pH) van het waswater hoger dan 8,5.</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="J33" t="str">
         <v>null</v>
@@ -2238,21 +2526,30 @@
         <v>null</v>
       </c>
       <c r="O33" t="str">
-        <v>null</v>
+        <v>http://www.w3.org/ns/shacl#Violation</v>
       </c>
       <c r="P33" t="str">
-        <v>null</v>
+        <v>Aandachtspunt</v>
       </c>
       <c r="Q33" t="str">
-        <v>null</v>
+        <v>?value &gt; 8.5</v>
       </c>
       <c r="R33" t="str">
+        <v>Buiten de norm</v>
+      </c>
+      <c r="S33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="T33" t="str">
+        <v>null</v>
+      </c>
+      <c r="U33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/6</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2264,19 +2561,19 @@
         <v>null</v>
       </c>
       <c r="E34" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="F34" t="str">
         <v>null</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="H34" t="str">
-        <v>In onderhoud</v>
+        <v>Geleidbaarheid (eC) van het waswater hoger dan 40.</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
       </c>
       <c r="J34" t="str">
         <v>null</v>
@@ -2294,21 +2591,30 @@
         <v>null</v>
       </c>
       <c r="O34" t="str">
-        <v>null</v>
+        <v>http://www.w3.org/ns/shacl#Violation</v>
       </c>
       <c r="P34" t="str">
-        <v>null</v>
+        <v>Aandachtspunt</v>
       </c>
       <c r="Q34" t="str">
-        <v>null</v>
+        <v>?value &gt; 40</v>
       </c>
       <c r="R34" t="str">
+        <v>Buiten de norm</v>
+      </c>
+      <c r="S34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+      </c>
+      <c r="T34" t="str">
+        <v>null</v>
+      </c>
+      <c r="U34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2326,19 +2632,19 @@
         <v>null</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="H35" t="str">
-        <v>Operationeel</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="J35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="K35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L35" t="str">
         <v>null</v>
@@ -2347,7 +2653,7 @@
         <v>null</v>
       </c>
       <c r="N35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="O35" t="str">
         <v>null</v>
@@ -2359,12 +2665,21 @@
         <v>null</v>
       </c>
       <c r="R35" t="str">
+        <v>null</v>
+      </c>
+      <c r="S35" t="str">
+        <v>null</v>
+      </c>
+      <c r="T35" t="str">
+        <v>S1</v>
+      </c>
+      <c r="U35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2382,19 +2697,19 @@
         <v>null</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="H36" t="str">
-        <v>Storing</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="K36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L36" t="str">
         <v>null</v>
@@ -2403,7 +2718,7 @@
         <v>null</v>
       </c>
       <c r="N36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="O36" t="str">
         <v>null</v>
@@ -2415,42 +2730,51 @@
         <v>null</v>
       </c>
       <c r="R36" t="str">
+        <v>null</v>
+      </c>
+      <c r="S36" t="str">
+        <v>null</v>
+      </c>
+      <c r="T36" t="str">
+        <v>S2</v>
+      </c>
+      <c r="U36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+      </c>
+      <c r="B37" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C37" t="str">
+        <v>null</v>
+      </c>
+      <c r="D37" t="str">
+        <v>null</v>
+      </c>
+      <c r="E37" t="str">
+        <v>null</v>
+      </c>
+      <c r="F37" t="str">
+        <v>null</v>
+      </c>
+      <c r="G37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
-      <c r="B37" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C37" t="str">
-        <v>null</v>
-      </c>
-      <c r="D37" t="str">
-        <v>null</v>
-      </c>
-      <c r="E37" t="str">
-        <v>null</v>
-      </c>
-      <c r="F37" t="str">
-        <v>null</v>
-      </c>
-      <c r="G37" t="str">
-        <v>null</v>
-      </c>
       <c r="H37" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>Biobed</v>
       </c>
       <c r="I37" t="str">
         <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="K37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L37" t="str">
         <v>null</v>
@@ -2459,7 +2783,7 @@
         <v>null</v>
       </c>
       <c r="N37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="O37" t="str">
         <v>null</v>
@@ -2471,15 +2795,24 @@
         <v>null</v>
       </c>
       <c r="R37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
+      </c>
+      <c r="S37" t="str">
+        <v>null</v>
+      </c>
+      <c r="T37" t="str">
+        <v>S3</v>
+      </c>
+      <c r="U37" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
       </c>
       <c r="B38" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
         <v>null</v>
@@ -2494,13 +2827,13 @@
         <v>null</v>
       </c>
       <c r="G38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="H38" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="I38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="J38" t="str">
         <v>null</v>
@@ -2527,15 +2860,24 @@
         <v>null</v>
       </c>
       <c r="R38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>null</v>
+      </c>
+      <c r="S38" t="str">
+        <v>null</v>
+      </c>
+      <c r="T38" t="str">
+        <v>null</v>
+      </c>
+      <c r="U38" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
       </c>
       <c r="B39" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
         <v>null</v>
@@ -2550,13 +2892,13 @@
         <v>null</v>
       </c>
       <c r="G39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="H39" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>Lege stal</v>
       </c>
       <c r="I39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="J39" t="str">
         <v>null</v>
@@ -2583,36 +2925,45 @@
         <v>null</v>
       </c>
       <c r="R39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
+      </c>
+      <c r="S39" t="str">
+        <v>null</v>
+      </c>
+      <c r="T39" t="str">
+        <v>null</v>
+      </c>
+      <c r="U39" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C40" t="str">
+        <v>null</v>
+      </c>
+      <c r="D40" t="str">
+        <v>null</v>
+      </c>
+      <c r="E40" t="str">
+        <v>null</v>
+      </c>
+      <c r="F40" t="str">
+        <v>null</v>
+      </c>
+      <c r="G40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
-      <c r="B40" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C40" t="str">
-        <v>null</v>
-      </c>
-      <c r="D40" t="str">
-        <v>null</v>
-      </c>
-      <c r="E40" t="str">
-        <v>null</v>
-      </c>
-      <c r="F40" t="str">
-        <v>null</v>
-      </c>
-      <c r="G40" t="str">
-        <v>null</v>
-      </c>
       <c r="H40" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>In onderhoud</v>
       </c>
       <c r="I40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="J40" t="str">
         <v>null</v>
@@ -2639,68 +2990,541 @@
         <v>null</v>
       </c>
       <c r="R40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>null</v>
+      </c>
+      <c r="S40" t="str">
+        <v>null</v>
+      </c>
+      <c r="T40" t="str">
+        <v>null</v>
+      </c>
+      <c r="U40" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C41" t="str">
+        <v>null</v>
+      </c>
+      <c r="D41" t="str">
+        <v>null</v>
+      </c>
+      <c r="E41" t="str">
+        <v>null</v>
+      </c>
+      <c r="F41" t="str">
+        <v>null</v>
+      </c>
+      <c r="G41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Operationeel</v>
+      </c>
+      <c r="I41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="J41" t="str">
+        <v>null</v>
+      </c>
+      <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
+        <v>null</v>
+      </c>
+      <c r="N41" t="str">
+        <v>null</v>
+      </c>
+      <c r="O41" t="str">
+        <v>null</v>
+      </c>
+      <c r="P41" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>null</v>
+      </c>
+      <c r="R41" t="str">
+        <v>null</v>
+      </c>
+      <c r="S41" t="str">
+        <v>null</v>
+      </c>
+      <c r="T41" t="str">
+        <v>null</v>
+      </c>
+      <c r="U41" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+      <c r="B42" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C42" t="str">
+        <v>null</v>
+      </c>
+      <c r="D42" t="str">
+        <v>null</v>
+      </c>
+      <c r="E42" t="str">
+        <v>null</v>
+      </c>
+      <c r="F42" t="str">
+        <v>null</v>
+      </c>
+      <c r="G42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Storing</v>
+      </c>
+      <c r="I42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="J42" t="str">
+        <v>null</v>
+      </c>
+      <c r="K42" t="str">
+        <v>null</v>
+      </c>
+      <c r="L42" t="str">
+        <v>null</v>
+      </c>
+      <c r="M42" t="str">
+        <v>null</v>
+      </c>
+      <c r="N42" t="str">
+        <v>null</v>
+      </c>
+      <c r="O42" t="str">
+        <v>null</v>
+      </c>
+      <c r="P42" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>null</v>
+      </c>
+      <c r="R42" t="str">
+        <v>null</v>
+      </c>
+      <c r="S42" t="str">
+        <v>null</v>
+      </c>
+      <c r="T42" t="str">
+        <v>null</v>
+      </c>
+      <c r="U42" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+      </c>
+      <c r="B43" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C43" t="str">
+        <v>null</v>
+      </c>
+      <c r="D43" t="str">
+        <v>null</v>
+      </c>
+      <c r="E43" t="str">
+        <v>null</v>
+      </c>
+      <c r="F43" t="str">
+        <v>null</v>
+      </c>
+      <c r="G43" t="str">
+        <v>null</v>
+      </c>
+      <c r="H43" t="str">
+        <v>conceptschema luchtzuiveringssysteem</v>
+      </c>
+      <c r="I43" t="str">
+        <v>null</v>
+      </c>
+      <c r="J43" t="str">
+        <v>null</v>
+      </c>
+      <c r="K43" t="str">
+        <v>null</v>
+      </c>
+      <c r="L43" t="str">
+        <v>null</v>
+      </c>
+      <c r="M43" t="str">
+        <v>null</v>
+      </c>
+      <c r="N43" t="str">
+        <v>null</v>
+      </c>
+      <c r="O43" t="str">
+        <v>null</v>
+      </c>
+      <c r="P43" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>null</v>
+      </c>
+      <c r="R43" t="str">
+        <v>null</v>
+      </c>
+      <c r="S43" t="str">
+        <v>null</v>
+      </c>
+      <c r="T43" t="str">
+        <v>null</v>
+      </c>
+      <c r="U43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="B44" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C44" t="str">
+        <v>null</v>
+      </c>
+      <c r="D44" t="str">
+        <v>null</v>
+      </c>
+      <c r="E44" t="str">
+        <v>null</v>
+      </c>
+      <c r="F44" t="str">
+        <v>null</v>
+      </c>
+      <c r="G44" t="str">
+        <v>null</v>
+      </c>
+      <c r="H44" t="str">
+        <v>conceptschema luchtzuiveringssysteem medium</v>
+      </c>
+      <c r="I44" t="str">
+        <v>null</v>
+      </c>
+      <c r="J44" t="str">
+        <v>null</v>
+      </c>
+      <c r="K44" t="str">
+        <v>null</v>
+      </c>
+      <c r="L44" t="str">
+        <v>null</v>
+      </c>
+      <c r="M44" t="str">
+        <v>null</v>
+      </c>
+      <c r="N44" t="str">
+        <v>null</v>
+      </c>
+      <c r="O44" t="str">
+        <v>null</v>
+      </c>
+      <c r="P44" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>null</v>
+      </c>
+      <c r="R44" t="str">
+        <v>null</v>
+      </c>
+      <c r="S44" t="str">
+        <v>null</v>
+      </c>
+      <c r="T44" t="str">
+        <v>null</v>
+      </c>
+      <c r="U44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C45" t="str">
+        <v>null</v>
+      </c>
+      <c r="D45" t="str">
+        <v>null</v>
+      </c>
+      <c r="E45" t="str">
+        <v>null</v>
+      </c>
+      <c r="F45" t="str">
+        <v>null</v>
+      </c>
+      <c r="G45" t="str">
+        <v>null</v>
+      </c>
+      <c r="H45" t="str">
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+      </c>
+      <c r="I45" t="str">
+        <v>null</v>
+      </c>
+      <c r="J45" t="str">
+        <v>null</v>
+      </c>
+      <c r="K45" t="str">
+        <v>null</v>
+      </c>
+      <c r="L45" t="str">
+        <v>null</v>
+      </c>
+      <c r="M45" t="str">
+        <v>null</v>
+      </c>
+      <c r="N45" t="str">
+        <v>null</v>
+      </c>
+      <c r="O45" t="str">
+        <v>null</v>
+      </c>
+      <c r="P45" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>null</v>
+      </c>
+      <c r="R45" t="str">
+        <v>null</v>
+      </c>
+      <c r="S45" t="str">
+        <v>null</v>
+      </c>
+      <c r="T45" t="str">
+        <v>null</v>
+      </c>
+      <c r="U45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C46" t="str">
+        <v>null</v>
+      </c>
+      <c r="D46" t="str">
+        <v>null</v>
+      </c>
+      <c r="E46" t="str">
+        <v>null</v>
+      </c>
+      <c r="F46" t="str">
+        <v>null</v>
+      </c>
+      <c r="G46" t="str">
+        <v>null</v>
+      </c>
+      <c r="H46" t="str">
+        <v>conceptschema luchtzuiveringssysteem status</v>
+      </c>
+      <c r="I46" t="str">
+        <v>null</v>
+      </c>
+      <c r="J46" t="str">
+        <v>null</v>
+      </c>
+      <c r="K46" t="str">
+        <v>null</v>
+      </c>
+      <c r="L46" t="str">
+        <v>null</v>
+      </c>
+      <c r="M46" t="str">
+        <v>null</v>
+      </c>
+      <c r="N46" t="str">
+        <v>null</v>
+      </c>
+      <c r="O46" t="str">
+        <v>null</v>
+      </c>
+      <c r="P46" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>null</v>
+      </c>
+      <c r="R46" t="str">
+        <v>null</v>
+      </c>
+      <c r="S46" t="str">
+        <v>null</v>
+      </c>
+      <c r="T46" t="str">
+        <v>null</v>
+      </c>
+      <c r="U46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C41" t="str">
-        <v>null</v>
-      </c>
-      <c r="D41" t="str">
-        <v>null</v>
-      </c>
-      <c r="E41" t="str">
-        <v>null</v>
-      </c>
-      <c r="F41" t="str">
-        <v>null</v>
-      </c>
-      <c r="G41" t="str">
-        <v>null</v>
-      </c>
-      <c r="H41" t="str">
+      <c r="C47" t="str">
+        <v>null</v>
+      </c>
+      <c r="D47" t="str">
+        <v>null</v>
+      </c>
+      <c r="E47" t="str">
+        <v>null</v>
+      </c>
+      <c r="F47" t="str">
+        <v>null</v>
+      </c>
+      <c r="G47" t="str">
+        <v>null</v>
+      </c>
+      <c r="H47" t="str">
         <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
       </c>
-      <c r="I41" t="str">
-        <v>null</v>
-      </c>
-      <c r="J41" t="str">
-        <v>null</v>
-      </c>
-      <c r="K41" t="str">
-        <v>null</v>
-      </c>
-      <c r="L41" t="str">
-        <v>null</v>
-      </c>
-      <c r="M41" t="str">
-        <v>null</v>
-      </c>
-      <c r="N41" t="str">
-        <v>null</v>
-      </c>
-      <c r="O41" t="str">
-        <v>null</v>
-      </c>
-      <c r="P41" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q41" t="str">
-        <v>null</v>
-      </c>
-      <c r="R41" t="str">
+      <c r="I47" t="str">
+        <v>null</v>
+      </c>
+      <c r="J47" t="str">
+        <v>null</v>
+      </c>
+      <c r="K47" t="str">
+        <v>null</v>
+      </c>
+      <c r="L47" t="str">
+        <v>null</v>
+      </c>
+      <c r="M47" t="str">
+        <v>null</v>
+      </c>
+      <c r="N47" t="str">
+        <v>null</v>
+      </c>
+      <c r="O47" t="str">
+        <v>null</v>
+      </c>
+      <c r="P47" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>null</v>
+      </c>
+      <c r="R47" t="str">
+        <v>null</v>
+      </c>
+      <c r="S47" t="str">
+        <v>null</v>
+      </c>
+      <c r="T47" t="str">
+        <v>null</v>
+      </c>
+      <c r="U47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C48" t="str">
+        <v>null</v>
+      </c>
+      <c r="D48" t="str">
+        <v>null</v>
+      </c>
+      <c r="E48" t="str">
+        <v>null</v>
+      </c>
+      <c r="F48" t="str">
+        <v>null</v>
+      </c>
+      <c r="G48" t="str">
+        <v>null</v>
+      </c>
+      <c r="H48" t="str">
+        <v>conceptschema luchtzuiveringssysteem normatieve structuur</v>
+      </c>
+      <c r="I48" t="str">
+        <v>null</v>
+      </c>
+      <c r="J48" t="str">
+        <v>null</v>
+      </c>
+      <c r="K48" t="str">
+        <v>null</v>
+      </c>
+      <c r="L48" t="str">
+        <v>null</v>
+      </c>
+      <c r="M48" t="str">
+        <v>null</v>
+      </c>
+      <c r="N48" t="str">
+        <v>null</v>
+      </c>
+      <c r="O48" t="str">
+        <v>null</v>
+      </c>
+      <c r="P48" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>null</v>
+      </c>
+      <c r="R48" t="str">
+        <v>null</v>
+      </c>
+      <c r="S48" t="str">
+        <v>null</v>
+      </c>
+      <c r="T48" t="str">
+        <v>null</v>
+      </c>
+      <c r="U48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/6</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U48"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>type</v>
+        <v>_type</v>
       </c>
       <c r="C1" t="str">
         <v>applicableUnit</v>
@@ -416,55 +416,64 @@
         <v>subject</v>
       </c>
       <c r="E1" t="str">
+        <v>type</v>
+      </c>
+      <c r="F1" t="str">
         <v>relevantQuantityKind</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>seeAlso</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>broader</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>narrower</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="O1" t="str">
-        <v>severity</v>
-      </c>
       <c r="P1" t="str">
-        <v>actie</v>
+        <v>definition</v>
       </c>
       <c r="Q1" t="str">
-        <v>intervalcategorie</v>
+        <v>note</v>
       </c>
       <c r="R1" t="str">
-        <v>normstatus</v>
+        <v>relevantProperty</v>
       </c>
       <c r="S1" t="str">
-        <v>relevantProperty</v>
+        <v>maxValue</v>
       </c>
       <c r="T1" t="str">
+        <v>minValue</v>
+      </c>
+      <c r="U1" t="str">
+        <v>operatie</v>
+      </c>
+      <c r="V1" t="str">
         <v>notation</v>
       </c>
-      <c r="U1" t="str">
+      <c r="W1" t="str">
         <v>hasTopConcept</v>
+      </c>
+      <c r="X1" t="str">
+        <v>altLabel</v>
       </c>
     </row>
     <row r="2">
@@ -531,6 +540,15 @@
       <c r="U2" t="str">
         <v>null</v>
       </c>
+      <c r="V2" t="str">
+        <v>null</v>
+      </c>
+      <c r="W2" t="str">
+        <v>null</v>
+      </c>
+      <c r="X2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -596,6 +614,15 @@
       <c r="U3" t="str">
         <v>null</v>
       </c>
+      <c r="V3" t="str">
+        <v>null</v>
+      </c>
+      <c r="W3" t="str">
+        <v>null</v>
+      </c>
+      <c r="X3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -661,6 +688,15 @@
       <c r="U4" t="str">
         <v>null</v>
       </c>
+      <c r="V4" t="str">
+        <v>null</v>
+      </c>
+      <c r="W4" t="str">
+        <v>null</v>
+      </c>
+      <c r="X4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -726,6 +762,15 @@
       <c r="U5" t="str">
         <v>null</v>
       </c>
+      <c r="V5" t="str">
+        <v>null</v>
+      </c>
+      <c r="W5" t="str">
+        <v>null</v>
+      </c>
+      <c r="X5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -791,6 +836,15 @@
       <c r="U6" t="str">
         <v>null</v>
       </c>
+      <c r="V6" t="str">
+        <v>null</v>
+      </c>
+      <c r="W6" t="str">
+        <v>null</v>
+      </c>
+      <c r="X6" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -856,6 +910,15 @@
       <c r="U7" t="str">
         <v>null</v>
       </c>
+      <c r="V7" t="str">
+        <v>null</v>
+      </c>
+      <c r="W7" t="str">
+        <v>null</v>
+      </c>
+      <c r="X7" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -921,6 +984,15 @@
       <c r="U8" t="str">
         <v>null</v>
       </c>
+      <c r="V8" t="str">
+        <v>null</v>
+      </c>
+      <c r="W8" t="str">
+        <v>null</v>
+      </c>
+      <c r="X8" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -986,6 +1058,15 @@
       <c r="U9" t="str">
         <v>null</v>
       </c>
+      <c r="V9" t="str">
+        <v>null</v>
+      </c>
+      <c r="W9" t="str">
+        <v>null</v>
+      </c>
+      <c r="X9" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1051,6 +1132,15 @@
       <c r="U10" t="str">
         <v>null</v>
       </c>
+      <c r="V10" t="str">
+        <v>null</v>
+      </c>
+      <c r="W10" t="str">
+        <v>null</v>
+      </c>
+      <c r="X10" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1066,23 +1156,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+      </c>
+      <c r="F11" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <v>Biobedspoelwaterproductie</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J11" t="str">
-        <v>null</v>
-      </c>
       <c r="K11" t="str">
         <v>null</v>
       </c>
@@ -1114,6 +1204,15 @@
         <v>null</v>
       </c>
       <c r="U11" t="str">
+        <v>null</v>
+      </c>
+      <c r="V11" t="str">
+        <v>null</v>
+      </c>
+      <c r="W11" t="str">
+        <v>null</v>
+      </c>
+      <c r="X11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1131,23 +1230,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+      </c>
+      <c r="F12" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <v>Biobedspuiwaterproductie</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J12" t="str">
-        <v>null</v>
-      </c>
       <c r="K12" t="str">
         <v>null</v>
       </c>
@@ -1179,6 +1278,15 @@
         <v>null</v>
       </c>
       <c r="U12" t="str">
+        <v>null</v>
+      </c>
+      <c r="V12" t="str">
+        <v>null</v>
+      </c>
+      <c r="W12" t="str">
+        <v>null</v>
+      </c>
+      <c r="X12" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1196,23 +1304,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="E13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F13" t="str">
         <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <v>Drukval over het systeem</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J13" t="str">
-        <v>null</v>
-      </c>
       <c r="K13" t="str">
         <v>null</v>
       </c>
@@ -1244,6 +1352,15 @@
         <v>null</v>
       </c>
       <c r="U13" t="str">
+        <v>null</v>
+      </c>
+      <c r="V13" t="str">
+        <v>null</v>
+      </c>
+      <c r="W13" t="str">
+        <v>null</v>
+      </c>
+      <c r="X13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1261,23 +1378,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F14" t="str">
         <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <v>Geleidbaarheid van het waswater</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J14" t="str">
-        <v>null</v>
-      </c>
       <c r="K14" t="str">
         <v>null</v>
       </c>
@@ -1309,6 +1426,15 @@
         <v>null</v>
       </c>
       <c r="U14" t="str">
+        <v>null</v>
+      </c>
+      <c r="V14" t="str">
+        <v>null</v>
+      </c>
+      <c r="W14" t="str">
+        <v>null</v>
+      </c>
+      <c r="X14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1326,23 +1452,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F15" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <v>Spuiwaterproductie</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J15" t="str">
-        <v>null</v>
-      </c>
       <c r="K15" t="str">
         <v>null</v>
       </c>
@@ -1374,6 +1500,15 @@
         <v>null</v>
       </c>
       <c r="U15" t="str">
+        <v>null</v>
+      </c>
+      <c r="V15" t="str">
+        <v>null</v>
+      </c>
+      <c r="W15" t="str">
+        <v>null</v>
+      </c>
+      <c r="X15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1391,23 +1526,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F16" t="str">
         <v>null</v>
       </c>
       <c r="G16" t="str">
+        <v>null</v>
+      </c>
+      <c r="H16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <v>Stalbezetting</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J16" t="str">
-        <v>null</v>
-      </c>
       <c r="K16" t="str">
         <v>null</v>
       </c>
@@ -1439,6 +1574,15 @@
         <v>null</v>
       </c>
       <c r="U16" t="str">
+        <v>null</v>
+      </c>
+      <c r="V16" t="str">
+        <v>null</v>
+      </c>
+      <c r="W16" t="str">
+        <v>null</v>
+      </c>
+      <c r="X16" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1456,23 +1600,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F17" t="str">
         <v>null</v>
       </c>
       <c r="G17" t="str">
+        <v>null</v>
+      </c>
+      <c r="H17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <v>SysteemStatus</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J17" t="str">
-        <v>null</v>
-      </c>
       <c r="K17" t="str">
         <v>null</v>
       </c>
@@ -1504,6 +1648,15 @@
         <v>null</v>
       </c>
       <c r="U17" t="str">
+        <v>null</v>
+      </c>
+      <c r="V17" t="str">
+        <v>null</v>
+      </c>
+      <c r="W17" t="str">
+        <v>null</v>
+      </c>
+      <c r="X17" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1521,23 +1674,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F18" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <v>Waswaterdebiet over het waspakket</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J18" t="str">
-        <v>null</v>
-      </c>
       <c r="K18" t="str">
         <v>null</v>
       </c>
@@ -1569,6 +1722,15 @@
         <v>null</v>
       </c>
       <c r="U18" t="str">
+        <v>null</v>
+      </c>
+      <c r="V18" t="str">
+        <v>null</v>
+      </c>
+      <c r="W18" t="str">
+        <v>null</v>
+      </c>
+      <c r="X18" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1586,23 +1748,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+      </c>
+      <c r="F19" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J19" t="str">
-        <v>null</v>
-      </c>
       <c r="K19" t="str">
         <v>null</v>
       </c>
@@ -1634,6 +1796,15 @@
         <v>null</v>
       </c>
       <c r="U19" t="str">
+        <v>null</v>
+      </c>
+      <c r="V19" t="str">
+        <v>null</v>
+      </c>
+      <c r="W19" t="str">
+        <v>null</v>
+      </c>
+      <c r="X19" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1651,23 +1822,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+      </c>
+      <c r="F20" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J20" t="str">
-        <v>null</v>
-      </c>
       <c r="K20" t="str">
         <v>null</v>
       </c>
@@ -1699,6 +1870,15 @@
         <v>null</v>
       </c>
       <c r="U20" t="str">
+        <v>null</v>
+      </c>
+      <c r="V20" t="str">
+        <v>null</v>
+      </c>
+      <c r="W20" t="str">
+        <v>null</v>
+      </c>
+      <c r="X20" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1716,23 +1896,23 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F21" t="str">
         <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <v>Zuurtegraad van het waswater</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
-      <c r="J21" t="str">
-        <v>null</v>
-      </c>
       <c r="K21" t="str">
         <v>null</v>
       </c>
@@ -1764,6 +1944,15 @@
         <v>null</v>
       </c>
       <c r="U21" t="str">
+        <v>null</v>
+      </c>
+      <c r="V21" t="str">
+        <v>null</v>
+      </c>
+      <c r="W21" t="str">
+        <v>null</v>
+      </c>
+      <c r="X21" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1787,31 +1976,31 @@
         <v>null</v>
       </c>
       <c r="G22" t="str">
+        <v>null</v>
+      </c>
+      <c r="H22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <v>Luchtwassysteem</v>
       </c>
-      <c r="I22" t="str">
-        <v>null</v>
-      </c>
       <c r="J22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="K22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="N22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="O22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P22" t="str">
         <v>null</v>
@@ -1829,6 +2018,15 @@
         <v>null</v>
       </c>
       <c r="U22" t="str">
+        <v>null</v>
+      </c>
+      <c r="V22" t="str">
+        <v>null</v>
+      </c>
+      <c r="W22" t="str">
+        <v>null</v>
+      </c>
+      <c r="X22" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1852,31 +2050,31 @@
         <v>null</v>
       </c>
       <c r="G23" t="str">
+        <v>null</v>
+      </c>
+      <c r="H23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <v>Luchtzuiveringssysteem</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
-      <c r="J23" t="str">
-        <v>null</v>
-      </c>
       <c r="K23" t="str">
         <v>null</v>
       </c>
       <c r="L23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>null</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="N23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="O23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="P23" t="str">
         <v>null</v>
@@ -1894,6 +2092,15 @@
         <v>null</v>
       </c>
       <c r="U23" t="str">
+        <v>null</v>
+      </c>
+      <c r="V23" t="str">
+        <v>null</v>
+      </c>
+      <c r="W23" t="str">
+        <v>null</v>
+      </c>
+      <c r="X23" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1917,17 +2124,17 @@
         <v>null</v>
       </c>
       <c r="G24" t="str">
+        <v>null</v>
+      </c>
+      <c r="H24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <v>Het elektronisch monitoringssysteem</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="J24" t="str">
-        <v>null</v>
-      </c>
       <c r="K24" t="str">
         <v>null</v>
       </c>
@@ -1959,6 +2166,15 @@
         <v>null</v>
       </c>
       <c r="U24" t="str">
+        <v>null</v>
+      </c>
+      <c r="V24" t="str">
+        <v>null</v>
+      </c>
+      <c r="W24" t="str">
+        <v>null</v>
+      </c>
+      <c r="X24" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1982,17 +2198,17 @@
         <v>null</v>
       </c>
       <c r="G25" t="str">
+        <v>null</v>
+      </c>
+      <c r="H25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <v>Lucht</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="J25" t="str">
-        <v>null</v>
-      </c>
       <c r="K25" t="str">
         <v>null</v>
       </c>
@@ -2024,6 +2240,15 @@
         <v>null</v>
       </c>
       <c r="U25" t="str">
+        <v>null</v>
+      </c>
+      <c r="V25" t="str">
+        <v>null</v>
+      </c>
+      <c r="W25" t="str">
+        <v>null</v>
+      </c>
+      <c r="X25" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2047,17 +2272,17 @@
         <v>null</v>
       </c>
       <c r="G26" t="str">
+        <v>null</v>
+      </c>
+      <c r="H26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <v>Spuiwater</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="J26" t="str">
-        <v>null</v>
-      </c>
       <c r="K26" t="str">
         <v>null</v>
       </c>
@@ -2089,6 +2314,15 @@
         <v>null</v>
       </c>
       <c r="U26" t="str">
+        <v>null</v>
+      </c>
+      <c r="V26" t="str">
+        <v>null</v>
+      </c>
+      <c r="W26" t="str">
+        <v>null</v>
+      </c>
+      <c r="X26" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2112,17 +2346,17 @@
         <v>null</v>
       </c>
       <c r="G27" t="str">
+        <v>null</v>
+      </c>
+      <c r="H27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <v>Stal</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="J27" t="str">
-        <v>null</v>
-      </c>
       <c r="K27" t="str">
         <v>null</v>
       </c>
@@ -2154,6 +2388,15 @@
         <v>null</v>
       </c>
       <c r="U27" t="str">
+        <v>null</v>
+      </c>
+      <c r="V27" t="str">
+        <v>null</v>
+      </c>
+      <c r="W27" t="str">
+        <v>null</v>
+      </c>
+      <c r="X27" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2177,17 +2420,17 @@
         <v>null</v>
       </c>
       <c r="G28" t="str">
+        <v>null</v>
+      </c>
+      <c r="H28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
         <v>Waswater</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
-      <c r="J28" t="str">
-        <v>null</v>
-      </c>
       <c r="K28" t="str">
         <v>null</v>
       </c>
@@ -2219,12 +2462,21 @@
         <v>null</v>
       </c>
       <c r="U28" t="str">
+        <v>null</v>
+      </c>
+      <c r="V28" t="str">
+        <v>null</v>
+      </c>
+      <c r="W28" t="str">
+        <v>null</v>
+      </c>
+      <c r="X28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2236,22 +2488,22 @@
         <v>null</v>
       </c>
       <c r="E29" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F29" t="str">
         <v>null</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>null</v>
       </c>
       <c r="H29" t="str">
-        <v>Zuurtegraad (pH) van het waswater is lager dan 6.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>Zuurtegraad waswater &lt; 6</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K29" t="str">
         <v>null</v>
@@ -2266,30 +2518,39 @@
         <v>null</v>
       </c>
       <c r="O29" t="str">
-        <v>http://www.w3.org/ns/shacl#Violation</v>
+        <v>null</v>
       </c>
       <c r="P29" t="str">
-        <v>Verklaring vragen</v>
+        <v>Onder de minimum grenswaarde van 6</v>
       </c>
       <c r="Q29" t="str">
-        <v>?value &lt; 6</v>
+        <v>Onder de minimum grenswaarde van 6</v>
       </c>
       <c r="R29" t="str">
-        <v>Buiten de norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="S29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>6.0</v>
       </c>
       <c r="T29" t="str">
         <v>null</v>
       </c>
       <c r="U29" t="str">
+        <v>null</v>
+      </c>
+      <c r="V29" t="str">
+        <v>null</v>
+      </c>
+      <c r="W29" t="str">
+        <v>null</v>
+      </c>
+      <c r="X29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2301,22 +2562,22 @@
         <v>null</v>
       </c>
       <c r="E30" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F30" t="str">
         <v>null</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>null</v>
       </c>
       <c r="H30" t="str">
-        <v>Zuurtegraad (pH) van het waswater ligt tussen 6 en 6,5.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>Zuurtegraad waswater &gt; 8,5</v>
       </c>
       <c r="J30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K30" t="str">
         <v>null</v>
@@ -2331,30 +2592,39 @@
         <v>null</v>
       </c>
       <c r="O30" t="str">
-        <v>http://www.w3.org/ns/shacl#Warning</v>
+        <v>null</v>
       </c>
       <c r="P30" t="str">
-        <v>Aandachtspunt</v>
+        <v>Boven de maximum grenswaarde van 8,5</v>
       </c>
       <c r="Q30" t="str">
-        <v>?value &gt;= 6 &amp;&amp; ?value &lt; 6.5</v>
+        <v>Boven de maximum grenswaarde van 8,5</v>
       </c>
       <c r="R30" t="str">
-        <v>Randgebied</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="S30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="T30" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="U30" t="str">
+        <v>null</v>
+      </c>
+      <c r="V30" t="str">
+        <v>null</v>
+      </c>
+      <c r="W30" t="str">
+        <v>null</v>
+      </c>
+      <c r="X30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2366,22 +2636,22 @@
         <v>null</v>
       </c>
       <c r="E31" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F31" t="str">
         <v>null</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>null</v>
       </c>
       <c r="H31" t="str">
-        <v>Zuurtegraad (pH) van het waswater ligt tussen 6,5 en 7,5.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>Geleidbaarheid &gt; maximum operationele waarde</v>
       </c>
       <c r="J31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K31" t="str">
         <v>null</v>
@@ -2396,30 +2666,39 @@
         <v>null</v>
       </c>
       <c r="O31" t="str">
-        <v>http://www.w3.org/ns/shacl#Trace</v>
+        <v>null</v>
       </c>
       <c r="P31" t="str">
-        <v>Geen actie</v>
+        <v>Boven de maximale waarde op technische fiche</v>
       </c>
       <c r="Q31" t="str">
-        <v>?value &gt;= 6.5 &amp;&amp; ?value &lt;= 7.5</v>
+        <v>Boven de maximale waarde op technische fiche</v>
       </c>
       <c r="R31" t="str">
-        <v>Binnen de norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="S31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="T31" t="str">
-        <v>null</v>
+        <v>0.0</v>
       </c>
       <c r="U31" t="str">
+        <v>som</v>
+      </c>
+      <c r="V31" t="str">
+        <v>null</v>
+      </c>
+      <c r="W31" t="str">
+        <v>null</v>
+      </c>
+      <c r="X31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2431,22 +2710,22 @@
         <v>null</v>
       </c>
       <c r="E32" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F32" t="str">
         <v>null</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>null</v>
       </c>
       <c r="H32" t="str">
-        <v>Zuurtegraad (pH) van het waswater ligt tussen 7,5 en 8,5.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>Waswaterdebiet afwijking &gt; 20% onder normale operationele waarde</v>
       </c>
       <c r="J32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K32" t="str">
         <v>null</v>
@@ -2461,30 +2740,39 @@
         <v>null</v>
       </c>
       <c r="O32" t="str">
-        <v>http://www.w3.org/ns/shacl#Warning</v>
+        <v>null</v>
       </c>
       <c r="P32" t="str">
-        <v>Aandachtspunt</v>
+        <v>Onder de minimum grenswaarde, een afwijking &gt; 20% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="Q32" t="str">
-        <v>?value &gt; 7.5 &amp;&amp; ?value &lt;= 8.5</v>
+        <v>Onder de minimum grenswaarde, een afwijking &gt; 20% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="R32" t="str">
-        <v>Randgebied</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="S32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>0.8</v>
       </c>
       <c r="T32" t="str">
         <v>null</v>
       </c>
       <c r="U32" t="str">
+        <v>product</v>
+      </c>
+      <c r="V32" t="str">
+        <v>null</v>
+      </c>
+      <c r="W32" t="str">
+        <v>null</v>
+      </c>
+      <c r="X32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2496,22 +2784,22 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F33" t="str">
         <v>null</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>null</v>
       </c>
       <c r="H33" t="str">
-        <v>Zuurtegraad (pH) van het waswater hoger dan 8,5.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>Spuiwaterproductie afwijking &gt; 10% normale operationele waarde</v>
       </c>
       <c r="J33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
@@ -2526,30 +2814,39 @@
         <v>null</v>
       </c>
       <c r="O33" t="str">
-        <v>http://www.w3.org/ns/shacl#Violation</v>
+        <v>null</v>
       </c>
       <c r="P33" t="str">
-        <v>Aandachtspunt</v>
+        <v>Onder de minimum grenswaarde, een afwijking &gt; 10% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="Q33" t="str">
-        <v>?value &gt; 8.5</v>
+        <v>Onder de minimum grenswaarde, een afwijking &gt; 10% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="R33" t="str">
-        <v>Buiten de norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="S33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>0.9</v>
       </c>
       <c r="T33" t="str">
         <v>null</v>
       </c>
       <c r="U33" t="str">
+        <v>product</v>
+      </c>
+      <c r="V33" t="str">
+        <v>null</v>
+      </c>
+      <c r="W33" t="str">
+        <v>null</v>
+      </c>
+      <c r="X33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2561,22 +2858,22 @@
         <v>null</v>
       </c>
       <c r="E34" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F34" t="str">
         <v>null</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>null</v>
       </c>
       <c r="H34" t="str">
-        <v>Geleidbaarheid (eC) van het waswater hoger dan 40.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>Drukval afwijking &gt; 40% onder normale operationele waarde</v>
       </c>
       <c r="J34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
@@ -2591,30 +2888,39 @@
         <v>null</v>
       </c>
       <c r="O34" t="str">
-        <v>http://www.w3.org/ns/shacl#Violation</v>
+        <v>null</v>
       </c>
       <c r="P34" t="str">
-        <v>Aandachtspunt</v>
+        <v>Onder de minimum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="Q34" t="str">
-        <v>?value &gt; 40</v>
+        <v>Onder de minimum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="R34" t="str">
-        <v>Buiten de norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="S34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>0.6</v>
       </c>
       <c r="T34" t="str">
         <v>null</v>
       </c>
       <c r="U34" t="str">
+        <v>product</v>
+      </c>
+      <c r="V34" t="str">
+        <v>null</v>
+      </c>
+      <c r="W34" t="str">
+        <v>null</v>
+      </c>
+      <c r="X34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2626,25 +2932,25 @@
         <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F35" t="str">
         <v>null</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I35" t="str">
-        <v>null</v>
+        <v>Drukval afwijking &gt; 40% normale operationele waarde</v>
       </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L35" t="str">
         <v>null</v>
@@ -2653,33 +2959,42 @@
         <v>null</v>
       </c>
       <c r="N35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="O35" t="str">
         <v>null</v>
       </c>
       <c r="P35" t="str">
-        <v>null</v>
+        <v>Boven de maximum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="Q35" t="str">
-        <v>null</v>
+        <v>Boven de maximum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
       </c>
       <c r="R35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="S35" t="str">
         <v>null</v>
       </c>
       <c r="T35" t="str">
-        <v>S1</v>
+        <v>1.4</v>
       </c>
       <c r="U35" t="str">
+        <v>product</v>
+      </c>
+      <c r="V35" t="str">
+        <v>null</v>
+      </c>
+      <c r="W35" t="str">
+        <v>null</v>
+      </c>
+      <c r="X35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2691,25 +3006,25 @@
         <v>null</v>
       </c>
       <c r="E36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F36" t="str">
         <v>null</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="H36" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I36" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater afwijking &gt; 1 pH-eenheid boven normale operationele waarde</v>
       </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L36" t="str">
         <v>null</v>
@@ -2718,33 +3033,42 @@
         <v>null</v>
       </c>
       <c r="N36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="O36" t="str">
         <v>null</v>
       </c>
       <c r="P36" t="str">
-        <v>null</v>
+        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 1 pH)</v>
       </c>
       <c r="Q36" t="str">
-        <v>null</v>
+        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 1 pH)</v>
       </c>
       <c r="R36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="S36" t="str">
         <v>null</v>
       </c>
       <c r="T36" t="str">
-        <v>S2</v>
+        <v>1.0</v>
       </c>
       <c r="U36" t="str">
+        <v>som</v>
+      </c>
+      <c r="V36" t="str">
+        <v>null</v>
+      </c>
+      <c r="W36" t="str">
+        <v>null</v>
+      </c>
+      <c r="X36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2756,25 +3080,25 @@
         <v>null</v>
       </c>
       <c r="E37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F37" t="str">
         <v>null</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>Biobed</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I37" t="str">
-        <v>null</v>
+        <v>Bandbreedte drukval afwijking &gt; 50 Pa boven normale operationele waarde</v>
       </c>
       <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L37" t="str">
         <v>null</v>
@@ -2783,33 +3107,42 @@
         <v>null</v>
       </c>
       <c r="N37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="O37" t="str">
         <v>null</v>
       </c>
       <c r="P37" t="str">
-        <v>null</v>
+        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 50 Pa)</v>
       </c>
       <c r="Q37" t="str">
-        <v>null</v>
+        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 50 Pa)</v>
       </c>
       <c r="R37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="S37" t="str">
         <v>null</v>
       </c>
       <c r="T37" t="str">
-        <v>S3</v>
+        <v>50.0</v>
       </c>
       <c r="U37" t="str">
+        <v>som</v>
+      </c>
+      <c r="V37" t="str">
+        <v>null</v>
+      </c>
+      <c r="W37" t="str">
+        <v>null</v>
+      </c>
+      <c r="X37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2827,22 +3160,22 @@
         <v>null</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>null</v>
       </c>
       <c r="H38" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="I38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="J38" t="str">
         <v>null</v>
       </c>
       <c r="K38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="L38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M38" t="str">
         <v>null</v>
@@ -2851,7 +3184,7 @@
         <v>null</v>
       </c>
       <c r="O38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P38" t="str">
         <v>null</v>
@@ -2869,12 +3202,21 @@
         <v>null</v>
       </c>
       <c r="U38" t="str">
+        <v>null</v>
+      </c>
+      <c r="V38" t="str">
+        <v>S1</v>
+      </c>
+      <c r="W38" t="str">
+        <v>null</v>
+      </c>
+      <c r="X38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2892,22 +3234,22 @@
         <v>null</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>null</v>
       </c>
       <c r="H39" t="str">
-        <v>Lege stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="J39" t="str">
         <v>null</v>
       </c>
       <c r="K39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
       </c>
       <c r="L39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M39" t="str">
         <v>null</v>
@@ -2916,7 +3258,7 @@
         <v>null</v>
       </c>
       <c r="O39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P39" t="str">
         <v>null</v>
@@ -2934,12 +3276,21 @@
         <v>null</v>
       </c>
       <c r="U39" t="str">
+        <v>null</v>
+      </c>
+      <c r="V39" t="str">
+        <v>S2</v>
+      </c>
+      <c r="W39" t="str">
+        <v>null</v>
+      </c>
+      <c r="X39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2957,22 +3308,22 @@
         <v>null</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="H40" t="str">
-        <v>In onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>Biobed</v>
       </c>
       <c r="J40" t="str">
         <v>null</v>
       </c>
       <c r="K40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="L40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="M40" t="str">
         <v>null</v>
@@ -2981,7 +3332,7 @@
         <v>null</v>
       </c>
       <c r="O40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
       </c>
       <c r="P40" t="str">
         <v>null</v>
@@ -2999,12 +3350,21 @@
         <v>null</v>
       </c>
       <c r="U40" t="str">
+        <v>null</v>
+      </c>
+      <c r="V40" t="str">
+        <v>S3</v>
+      </c>
+      <c r="W40" t="str">
+        <v>null</v>
+      </c>
+      <c r="X40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3022,16 +3382,16 @@
         <v>null</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="H41" t="str">
-        <v>Operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="J41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="K41" t="str">
         <v>null</v>
@@ -3064,12 +3424,21 @@
         <v>null</v>
       </c>
       <c r="U41" t="str">
+        <v>null</v>
+      </c>
+      <c r="V41" t="str">
+        <v>null</v>
+      </c>
+      <c r="W41" t="str">
+        <v>null</v>
+      </c>
+      <c r="X41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3087,16 +3456,16 @@
         <v>null</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>Storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>Lege stal</v>
       </c>
       <c r="J42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
       </c>
       <c r="K42" t="str">
         <v>null</v>
@@ -3129,15 +3498,24 @@
         <v>null</v>
       </c>
       <c r="U42" t="str">
+        <v>null</v>
+      </c>
+      <c r="V42" t="str">
+        <v>null</v>
+      </c>
+      <c r="W42" t="str">
+        <v>null</v>
+      </c>
+      <c r="X42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
       </c>
       <c r="B43" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
         <v>null</v>
@@ -3155,13 +3533,13 @@
         <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="I43" t="str">
-        <v>null</v>
+        <v>In onderhoud</v>
       </c>
       <c r="J43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -3194,15 +3572,24 @@
         <v>null</v>
       </c>
       <c r="U43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
+      </c>
+      <c r="V43" t="str">
+        <v>null</v>
+      </c>
+      <c r="W43" t="str">
+        <v>null</v>
+      </c>
+      <c r="X43" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
       </c>
       <c r="B44" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
         <v>null</v>
@@ -3220,13 +3607,13 @@
         <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="I44" t="str">
-        <v>null</v>
+        <v>Operationeel</v>
       </c>
       <c r="J44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -3259,15 +3646,24 @@
         <v>null</v>
       </c>
       <c r="U44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>null</v>
+      </c>
+      <c r="V44" t="str">
+        <v>null</v>
+      </c>
+      <c r="W44" t="str">
+        <v>null</v>
+      </c>
+      <c r="X44" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
       </c>
       <c r="B45" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
         <v>null</v>
@@ -3285,13 +3681,13 @@
         <v>null</v>
       </c>
       <c r="H45" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="I45" t="str">
-        <v>null</v>
+        <v>Storing</v>
       </c>
       <c r="J45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
       </c>
       <c r="K45" t="str">
         <v>null</v>
@@ -3324,12 +3720,21 @@
         <v>null</v>
       </c>
       <c r="U45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
+      </c>
+      <c r="V45" t="str">
+        <v>null</v>
+      </c>
+      <c r="W45" t="str">
+        <v>null</v>
+      </c>
+      <c r="X45" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -3350,10 +3755,10 @@
         <v>null</v>
       </c>
       <c r="H46" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>null</v>
       </c>
       <c r="I46" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem</v>
       </c>
       <c r="J46" t="str">
         <v>null</v>
@@ -3389,12 +3794,21 @@
         <v>null</v>
       </c>
       <c r="U46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>null</v>
+      </c>
+      <c r="V46" t="str">
+        <v>null</v>
+      </c>
+      <c r="W46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="X46" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -3415,10 +3829,10 @@
         <v>null</v>
       </c>
       <c r="H47" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="I47" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem medium</v>
       </c>
       <c r="J47" t="str">
         <v>null</v>
@@ -3454,12 +3868,21 @@
         <v>null</v>
       </c>
       <c r="U47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>null</v>
+      </c>
+      <c r="V47" t="str">
+        <v>null</v>
+      </c>
+      <c r="W47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+      </c>
+      <c r="X47" t="str">
+        <v>null</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/normatieve_structuur</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -3480,10 +3903,10 @@
         <v>null</v>
       </c>
       <c r="H48" t="str">
-        <v>conceptschema luchtzuiveringssysteem normatieve structuur</v>
+        <v>null</v>
       </c>
       <c r="I48" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
       </c>
       <c r="J48" t="str">
         <v>null</v>
@@ -3519,12 +3942,243 @@
         <v>null</v>
       </c>
       <c r="U48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/normatieve_structuur/6</v>
+        <v>null</v>
+      </c>
+      <c r="V48" t="str">
+        <v>null</v>
+      </c>
+      <c r="W48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="X48" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C49" t="str">
+        <v>null</v>
+      </c>
+      <c r="D49" t="str">
+        <v>null</v>
+      </c>
+      <c r="E49" t="str">
+        <v>null</v>
+      </c>
+      <c r="F49" t="str">
+        <v>null</v>
+      </c>
+      <c r="G49" t="str">
+        <v>null</v>
+      </c>
+      <c r="H49" t="str">
+        <v>null</v>
+      </c>
+      <c r="I49" t="str">
+        <v>conceptschema luchtzuiveringssysteem status</v>
+      </c>
+      <c r="J49" t="str">
+        <v>null</v>
+      </c>
+      <c r="K49" t="str">
+        <v>null</v>
+      </c>
+      <c r="L49" t="str">
+        <v>null</v>
+      </c>
+      <c r="M49" t="str">
+        <v>null</v>
+      </c>
+      <c r="N49" t="str">
+        <v>null</v>
+      </c>
+      <c r="O49" t="str">
+        <v>null</v>
+      </c>
+      <c r="P49" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>null</v>
+      </c>
+      <c r="R49" t="str">
+        <v>null</v>
+      </c>
+      <c r="S49" t="str">
+        <v>null</v>
+      </c>
+      <c r="T49" t="str">
+        <v>null</v>
+      </c>
+      <c r="U49" t="str">
+        <v>null</v>
+      </c>
+      <c r="V49" t="str">
+        <v>null</v>
+      </c>
+      <c r="W49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+      <c r="X49" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C50" t="str">
+        <v>null</v>
+      </c>
+      <c r="D50" t="str">
+        <v>null</v>
+      </c>
+      <c r="E50" t="str">
+        <v>null</v>
+      </c>
+      <c r="F50" t="str">
+        <v>null</v>
+      </c>
+      <c r="G50" t="str">
+        <v>null</v>
+      </c>
+      <c r="H50" t="str">
+        <v>null</v>
+      </c>
+      <c r="I50" t="str">
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+      </c>
+      <c r="J50" t="str">
+        <v>null</v>
+      </c>
+      <c r="K50" t="str">
+        <v>null</v>
+      </c>
+      <c r="L50" t="str">
+        <v>null</v>
+      </c>
+      <c r="M50" t="str">
+        <v>null</v>
+      </c>
+      <c r="N50" t="str">
+        <v>null</v>
+      </c>
+      <c r="O50" t="str">
+        <v>null</v>
+      </c>
+      <c r="P50" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>null</v>
+      </c>
+      <c r="R50" t="str">
+        <v>null</v>
+      </c>
+      <c r="S50" t="str">
+        <v>null</v>
+      </c>
+      <c r="T50" t="str">
+        <v>null</v>
+      </c>
+      <c r="U50" t="str">
+        <v>null</v>
+      </c>
+      <c r="V50" t="str">
+        <v>null</v>
+      </c>
+      <c r="W50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+      </c>
+      <c r="X50" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C51" t="str">
+        <v>null</v>
+      </c>
+      <c r="D51" t="str">
+        <v>null</v>
+      </c>
+      <c r="E51" t="str">
+        <v>null</v>
+      </c>
+      <c r="F51" t="str">
+        <v>null</v>
+      </c>
+      <c r="G51" t="str">
+        <v>null</v>
+      </c>
+      <c r="H51" t="str">
+        <v>null</v>
+      </c>
+      <c r="I51" t="str">
+        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+      </c>
+      <c r="J51" t="str">
+        <v>null</v>
+      </c>
+      <c r="K51" t="str">
+        <v>null</v>
+      </c>
+      <c r="L51" t="str">
+        <v>null</v>
+      </c>
+      <c r="M51" t="str">
+        <v>null</v>
+      </c>
+      <c r="N51" t="str">
+        <v>null</v>
+      </c>
+      <c r="O51" t="str">
+        <v>null</v>
+      </c>
+      <c r="P51" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>null</v>
+      </c>
+      <c r="R51" t="str">
+        <v>null</v>
+      </c>
+      <c r="S51" t="str">
+        <v>null</v>
+      </c>
+      <c r="T51" t="str">
+        <v>null</v>
+      </c>
+      <c r="U51" t="str">
+        <v>null</v>
+      </c>
+      <c r="V51" t="str">
+        <v>null</v>
+      </c>
+      <c r="W51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+      </c>
+      <c r="X51" t="str">
+        <v>Ranges</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X51"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -407,7 +407,7 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>_type</v>
+        <v>type</v>
       </c>
       <c r="C1" t="str">
         <v>applicableUnit</v>
@@ -416,7 +416,7 @@
         <v>subject</v>
       </c>
       <c r="E1" t="str">
-        <v>type</v>
+        <v>dct_type</v>
       </c>
       <c r="F1" t="str">
         <v>relevantQuantityKind</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -455,24 +455,33 @@
         <v>note</v>
       </c>
       <c r="R1" t="str">
+        <v>scopeNote</v>
+      </c>
+      <c r="S1" t="str">
         <v>relevantProperty</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>maxValue</v>
-      </c>
-      <c r="T1" t="str">
-        <v>minValue</v>
       </c>
       <c r="U1" t="str">
         <v>operatie</v>
       </c>
       <c r="V1" t="str">
+        <v>minValue</v>
+      </c>
+      <c r="W1" t="str">
+        <v>technishefiche</v>
+      </c>
+      <c r="X1" t="str">
+        <v>https://data\.omgeving\.vlaanderen\.be/ns/lzs#referentiewaardeType</v>
+      </c>
+      <c r="Y1" t="str">
         <v>notation</v>
       </c>
-      <c r="W1" t="str">
+      <c r="Z1" t="str">
         <v>hasTopConcept</v>
       </c>
-      <c r="X1" t="str">
+      <c r="AA1" t="str">
         <v>altLabel</v>
       </c>
     </row>
@@ -549,6 +558,15 @@
       <c r="X2" t="str">
         <v>null</v>
       </c>
+      <c r="Y2" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -623,6 +641,15 @@
       <c r="X3" t="str">
         <v>null</v>
       </c>
+      <c r="Y3" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -697,6 +724,15 @@
       <c r="X4" t="str">
         <v>null</v>
       </c>
+      <c r="Y4" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -771,6 +807,15 @@
       <c r="X5" t="str">
         <v>null</v>
       </c>
+      <c r="Y5" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -845,6 +890,15 @@
       <c r="X6" t="str">
         <v>null</v>
       </c>
+      <c r="Y6" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -919,6 +973,15 @@
       <c r="X7" t="str">
         <v>null</v>
       </c>
+      <c r="Y7" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA7" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -993,6 +1056,15 @@
       <c r="X8" t="str">
         <v>null</v>
       </c>
+      <c r="Y8" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA8" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1067,6 +1139,15 @@
       <c r="X9" t="str">
         <v>null</v>
       </c>
+      <c r="Y9" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1141,6 +1222,15 @@
       <c r="X10" t="str">
         <v>null</v>
       </c>
+      <c r="Y10" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA10" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1215,6 +1305,15 @@
       <c r="X11" t="str">
         <v>null</v>
       </c>
+      <c r="Y11" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z11" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA11" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1289,6 +1388,15 @@
       <c r="X12" t="str">
         <v>null</v>
       </c>
+      <c r="Y12" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1363,6 +1471,15 @@
       <c r="X13" t="str">
         <v>null</v>
       </c>
+      <c r="Y13" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1437,6 +1554,15 @@
       <c r="X14" t="str">
         <v>null</v>
       </c>
+      <c r="Y14" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z14" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA14" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1511,6 +1637,15 @@
       <c r="X15" t="str">
         <v>null</v>
       </c>
+      <c r="Y15" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA15" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1585,6 +1720,15 @@
       <c r="X16" t="str">
         <v>null</v>
       </c>
+      <c r="Y16" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z16" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1659,6 +1803,15 @@
       <c r="X17" t="str">
         <v>null</v>
       </c>
+      <c r="Y17" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z17" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA17" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1733,6 +1886,15 @@
       <c r="X18" t="str">
         <v>null</v>
       </c>
+      <c r="Y18" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z18" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA18" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1807,6 +1969,15 @@
       <c r="X19" t="str">
         <v>null</v>
       </c>
+      <c r="Y19" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1881,6 +2052,15 @@
       <c r="X20" t="str">
         <v>null</v>
       </c>
+      <c r="Y20" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z20" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA20" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1955,6 +2135,15 @@
       <c r="X21" t="str">
         <v>null</v>
       </c>
+      <c r="Y21" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z21" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA21" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -2029,6 +2218,15 @@
       <c r="X22" t="str">
         <v>null</v>
       </c>
+      <c r="Y22" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z22" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA22" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -2103,6 +2301,15 @@
       <c r="X23" t="str">
         <v>null</v>
       </c>
+      <c r="Y23" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z23" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA23" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -2177,6 +2384,15 @@
       <c r="X24" t="str">
         <v>null</v>
       </c>
+      <c r="Y24" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z24" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA24" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -2251,6 +2467,15 @@
       <c r="X25" t="str">
         <v>null</v>
       </c>
+      <c r="Y25" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z25" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA25" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -2325,6 +2550,15 @@
       <c r="X26" t="str">
         <v>null</v>
       </c>
+      <c r="Y26" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA26" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -2399,6 +2633,15 @@
       <c r="X27" t="str">
         <v>null</v>
       </c>
+      <c r="Y27" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z27" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA27" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -2473,6 +2716,15 @@
       <c r="X28" t="str">
         <v>null</v>
       </c>
+      <c r="Y28" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA28" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -2500,7 +2752,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I29" t="str">
-        <v>Zuurtegraad waswater &lt; 6</v>
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
       </c>
       <c r="J29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -2521,19 +2773,19 @@
         <v>null</v>
       </c>
       <c r="P29" t="str">
-        <v>Onder de minimum grenswaarde van 6</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
       <c r="Q29" t="str">
-        <v>Onder de minimum grenswaarde van 6</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
       <c r="R29" t="str">
+        <v>&lt; 6</v>
+      </c>
+      <c r="S29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
-      <c r="S29" t="str">
-        <v>6.0</v>
-      </c>
       <c r="T29" t="str">
-        <v>null</v>
+        <v>6</v>
       </c>
       <c r="U29" t="str">
         <v>null</v>
@@ -2545,12 +2797,21 @@
         <v>null</v>
       </c>
       <c r="X29" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2562,7 +2823,7 @@
         <v>null</v>
       </c>
       <c r="E30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F30" t="str">
         <v>null</v>
@@ -2574,7 +2835,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I30" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
       </c>
       <c r="J30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -2595,22 +2856,22 @@
         <v>null</v>
       </c>
       <c r="P30" t="str">
-        <v>Boven de maximum grenswaarde van 8,5</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q30" t="str">
-        <v>Boven de maximum grenswaarde van 8,5</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="R30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="S30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="T30" t="str">
-        <v>8.5</v>
+        <v>0.8</v>
       </c>
       <c r="U30" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="V30" t="str">
         <v>null</v>
@@ -2619,12 +2880,21 @@
         <v>null</v>
       </c>
       <c r="X30" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2636,7 +2906,7 @@
         <v>null</v>
       </c>
       <c r="E31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F31" t="str">
         <v>null</v>
@@ -2648,7 +2918,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I31" t="str">
-        <v>Geleidbaarheid &gt; maximum operationele waarde</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
       </c>
       <c r="J31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -2669,22 +2939,22 @@
         <v>null</v>
       </c>
       <c r="P31" t="str">
-        <v>Boven de maximale waarde op technische fiche</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q31" t="str">
-        <v>Boven de maximale waarde op technische fiche</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="R31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="S31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="T31" t="str">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="U31" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="V31" t="str">
         <v>null</v>
@@ -2693,12 +2963,21 @@
         <v>null</v>
       </c>
       <c r="X31" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z31" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2710,7 +2989,7 @@
         <v>null</v>
       </c>
       <c r="E32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F32" t="str">
         <v>null</v>
@@ -2722,7 +3001,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I32" t="str">
-        <v>Waswaterdebiet afwijking &gt; 20% onder normale operationele waarde</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
       </c>
       <c r="J32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -2743,19 +3022,19 @@
         <v>null</v>
       </c>
       <c r="P32" t="str">
-        <v>Onder de minimum grenswaarde, een afwijking &gt; 20% t.o.v referentiewaarde technische fiche</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q32" t="str">
-        <v>Onder de minimum grenswaarde, een afwijking &gt; 20% t.o.v referentiewaarde technische fiche</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="R32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="S32" t="str">
-        <v>0.8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="T32" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="U32" t="str">
         <v>product</v>
@@ -2769,10 +3048,19 @@
       <c r="X32" t="str">
         <v>null</v>
       </c>
+      <c r="Y32" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z32" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA32" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2784,7 +3072,7 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F33" t="str">
         <v>null</v>
@@ -2796,7 +3084,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I33" t="str">
-        <v>Spuiwaterproductie afwijking &gt; 10% normale operationele waarde</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
       </c>
       <c r="J33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -2817,16 +3105,16 @@
         <v>null</v>
       </c>
       <c r="P33" t="str">
-        <v>Onder de minimum grenswaarde, een afwijking &gt; 10% t.o.v referentiewaarde technische fiche</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q33" t="str">
-        <v>Onder de minimum grenswaarde, een afwijking &gt; 10% t.o.v referentiewaarde technische fiche</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="R33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="S33" t="str">
-        <v>0.9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="T33" t="str">
         <v>null</v>
@@ -2835,18 +3123,27 @@
         <v>product</v>
       </c>
       <c r="V33" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="str">
         <v>null</v>
       </c>
       <c r="X33" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z33" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2858,7 +3155,7 @@
         <v>null</v>
       </c>
       <c r="E34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F34" t="str">
         <v>null</v>
@@ -2870,7 +3167,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I34" t="str">
-        <v>Drukval afwijking &gt; 40% onder normale operationele waarde</v>
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="J34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -2891,19 +3188,19 @@
         <v>null</v>
       </c>
       <c r="P34" t="str">
-        <v>Onder de minimum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
+        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q34" t="str">
-        <v>Onder de minimum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="R34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="S34" t="str">
-        <v>0.6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="T34" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="U34" t="str">
         <v>product</v>
@@ -2917,10 +3214,19 @@
       <c r="X34" t="str">
         <v>null</v>
       </c>
+      <c r="Y34" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA34" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2932,7 +3238,7 @@
         <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F35" t="str">
         <v>null</v>
@@ -2944,7 +3250,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I35" t="str">
-        <v>Drukval afwijking &gt; 40% normale operationele waarde</v>
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="J35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -2965,19 +3271,19 @@
         <v>null</v>
       </c>
       <c r="P35" t="str">
-        <v>Boven de maximum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
+        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q35" t="str">
-        <v>Boven de maximum grenswaarde, een afwijking &gt; 40% t.o.v referentiewaarde technische fiche</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="R35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="S35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="T35" t="str">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="U35" t="str">
         <v>product</v>
@@ -2991,10 +3297,19 @@
       <c r="X35" t="str">
         <v>null</v>
       </c>
+      <c r="Y35" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z35" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA35" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3006,7 +3321,7 @@
         <v>null</v>
       </c>
       <c r="E36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F36" t="str">
         <v>null</v>
@@ -3018,7 +3333,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I36" t="str">
-        <v>Zuurtegraad waswater afwijking &gt; 1 pH-eenheid boven normale operationele waarde</v>
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
       </c>
       <c r="J36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -3039,36 +3354,45 @@
         <v>null</v>
       </c>
       <c r="P36" t="str">
-        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 1 pH)</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q36" t="str">
-        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 1 pH)</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="R36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="S36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="T36" t="str">
-        <v>1.0</v>
+        <v>null</v>
       </c>
       <c r="U36" t="str">
         <v>som</v>
       </c>
       <c r="V36" t="str">
-        <v>null</v>
+        <v>50</v>
       </c>
       <c r="W36" t="str">
         <v>null</v>
       </c>
       <c r="X36" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z36" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3080,7 +3404,7 @@
         <v>null</v>
       </c>
       <c r="E37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F37" t="str">
         <v>null</v>
@@ -3092,7 +3416,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I37" t="str">
-        <v>Bandbreedte drukval afwijking &gt; 50 Pa boven normale operationele waarde</v>
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
       </c>
       <c r="J37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
@@ -3113,36 +3437,45 @@
         <v>null</v>
       </c>
       <c r="P37" t="str">
-        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 50 Pa)</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
       <c r="Q37" t="str">
-        <v>Boven de maximum grenswaarde, een afwijking &gt; (waarde technische fiche + 50 Pa)</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
       <c r="R37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>&gt; 8,5</v>
       </c>
       <c r="S37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="T37" t="str">
-        <v>50.0</v>
+        <v>null</v>
       </c>
       <c r="U37" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="V37" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="W37" t="str">
         <v>null</v>
       </c>
       <c r="X37" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z37" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3154,7 +3487,7 @@
         <v>null</v>
       </c>
       <c r="E38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F38" t="str">
         <v>null</v>
@@ -3163,19 +3496,19 @@
         <v>null</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I38" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
       </c>
       <c r="J38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="L38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M38" t="str">
         <v>null</v>
@@ -3184,39 +3517,48 @@
         <v>null</v>
       </c>
       <c r="O38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P38" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q38" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="R38" t="str">
-        <v>null</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="S38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="T38" t="str">
         <v>null</v>
       </c>
       <c r="U38" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="V38" t="str">
-        <v>S1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="str">
         <v>null</v>
       </c>
       <c r="X38" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z38" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3228,7 +3570,7 @@
         <v>null</v>
       </c>
       <c r="E39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F39" t="str">
         <v>null</v>
@@ -3237,19 +3579,19 @@
         <v>null</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I39" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
       </c>
       <c r="J39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="L39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M39" t="str">
         <v>null</v>
@@ -3258,39 +3600,48 @@
         <v>null</v>
       </c>
       <c r="O39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P39" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q39" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="R39" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="S39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="T39" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="U39" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="V39" t="str">
-        <v>S2</v>
+        <v>null</v>
       </c>
       <c r="W39" t="str">
         <v>null</v>
       </c>
       <c r="X39" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z39" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3302,7 +3653,7 @@
         <v>null</v>
       </c>
       <c r="E40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F40" t="str">
         <v>null</v>
@@ -3311,19 +3662,19 @@
         <v>null</v>
       </c>
       <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I40" t="str">
-        <v>Biobed</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
       </c>
       <c r="J40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M40" t="str">
         <v>null</v>
@@ -3332,39 +3683,48 @@
         <v>null</v>
       </c>
       <c r="O40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P40" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q40" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="R40" t="str">
-        <v>null</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="S40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="T40" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="U40" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="V40" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="W40" t="str">
         <v>null</v>
       </c>
       <c r="X40" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y40" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z40" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3376,7 +3736,7 @@
         <v>null</v>
       </c>
       <c r="E41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F41" t="str">
         <v>null</v>
@@ -3385,13 +3745,13 @@
         <v>null</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I41" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
       </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K41" t="str">
         <v>null</v>
@@ -3409,22 +3769,22 @@
         <v>null</v>
       </c>
       <c r="P41" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q41" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="R41" t="str">
-        <v>null</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="S41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="T41" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="U41" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="V41" t="str">
         <v>null</v>
@@ -3433,12 +3793,21 @@
         <v>null</v>
       </c>
       <c r="X41" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z41" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3450,7 +3819,7 @@
         <v>null</v>
       </c>
       <c r="E42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F42" t="str">
         <v>null</v>
@@ -3459,13 +3828,13 @@
         <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I42" t="str">
-        <v>Lege stal</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K42" t="str">
         <v>null</v>
@@ -3483,36 +3852,45 @@
         <v>null</v>
       </c>
       <c r="P42" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q42" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="R42" t="str">
-        <v>null</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="S42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="T42" t="str">
         <v>null</v>
       </c>
       <c r="U42" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="V42" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="W42" t="str">
         <v>null</v>
       </c>
       <c r="X42" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z42" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3524,7 +3902,7 @@
         <v>null</v>
       </c>
       <c r="E43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F43" t="str">
         <v>null</v>
@@ -3533,13 +3911,13 @@
         <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I43" t="str">
-        <v>In onderhoud</v>
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -3557,36 +3935,45 @@
         <v>null</v>
       </c>
       <c r="P43" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q43" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="R43" t="str">
-        <v>null</v>
+        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="S43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="T43" t="str">
         <v>null</v>
       </c>
       <c r="U43" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="V43" t="str">
-        <v>null</v>
+        <v>1</v>
       </c>
       <c r="W43" t="str">
         <v>null</v>
       </c>
       <c r="X43" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y43" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z43" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA43" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3598,7 +3985,7 @@
         <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F44" t="str">
         <v>null</v>
@@ -3607,13 +3994,13 @@
         <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="I44" t="str">
-        <v>Operationeel</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -3631,48 +4018,57 @@
         <v>null</v>
       </c>
       <c r="P44" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="Q44" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="R44" t="str">
-        <v>null</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="S44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="T44" t="str">
         <v>null</v>
       </c>
       <c r="U44" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="V44" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="W44" t="str">
         <v>null</v>
       </c>
       <c r="X44" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y44" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z44" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA44" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/PH</v>
       </c>
       <c r="D45" t="str">
         <v>null</v>
       </c>
       <c r="E45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
       </c>
       <c r="F45" t="str">
         <v>null</v>
@@ -3681,13 +4077,13 @@
         <v>null</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="I45" t="str">
-        <v>Storing</v>
+        <v>Zuurtegraad waswater S1 systeem</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="K45" t="str">
         <v>null</v>
@@ -3714,7 +4110,7 @@
         <v>null</v>
       </c>
       <c r="S45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="T45" t="str">
         <v>null</v>
@@ -3726,27 +4122,36 @@
         <v>null</v>
       </c>
       <c r="W45" t="str">
-        <v>null</v>
+        <v>false</v>
       </c>
       <c r="X45" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y45" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z45" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA45" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10</v>
       </c>
       <c r="B46" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D46" t="str">
         <v>null</v>
       </c>
       <c r="E46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
       </c>
       <c r="F46" t="str">
         <v>null</v>
@@ -3755,13 +4160,13 @@
         <v>null</v>
       </c>
       <c r="H46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="I46" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>Drukval S2 systeem</v>
       </c>
       <c r="J46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="K46" t="str">
         <v>null</v>
@@ -3788,7 +4193,7 @@
         <v>null</v>
       </c>
       <c r="S46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="T46" t="str">
         <v>null</v>
@@ -3800,27 +4205,36 @@
         <v>null</v>
       </c>
       <c r="W46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>true</v>
       </c>
       <c r="X46" t="str">
+        <v>exact</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z46" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA46" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11</v>
       </c>
       <c r="B47" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D47" t="str">
         <v>null</v>
       </c>
       <c r="E47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F47" t="str">
         <v>null</v>
@@ -3829,13 +4243,13 @@
         <v>null</v>
       </c>
       <c r="H47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="I47" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
       </c>
       <c r="J47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="K47" t="str">
         <v>null</v>
@@ -3862,7 +4276,7 @@
         <v>null</v>
       </c>
       <c r="S47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="T47" t="str">
         <v>null</v>
@@ -3874,27 +4288,36 @@
         <v>null</v>
       </c>
       <c r="W47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>true</v>
       </c>
       <c r="X47" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y47" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z47" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA47" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12</v>
       </c>
       <c r="B48" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D48" t="str">
         <v>null</v>
       </c>
       <c r="E48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F48" t="str">
         <v>null</v>
@@ -3903,13 +4326,13 @@
         <v>null</v>
       </c>
       <c r="H48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="I48" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
       </c>
       <c r="J48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="K48" t="str">
         <v>null</v>
@@ -3936,7 +4359,7 @@
         <v>null</v>
       </c>
       <c r="S48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="T48" t="str">
         <v>null</v>
@@ -3948,27 +4371,36 @@
         <v>null</v>
       </c>
       <c r="W48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>true</v>
       </c>
       <c r="X48" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y48" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z48" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA48" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13</v>
       </c>
       <c r="B49" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D49" t="str">
         <v>null</v>
       </c>
       <c r="E49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F49" t="str">
         <v>null</v>
@@ -3977,13 +4409,13 @@
         <v>null</v>
       </c>
       <c r="H49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="I49" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>Biobedspuiwaterproductie S3 systeem</v>
       </c>
       <c r="J49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="K49" t="str">
         <v>null</v>
@@ -4010,7 +4442,7 @@
         <v>null</v>
       </c>
       <c r="S49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="T49" t="str">
         <v>null</v>
@@ -4022,27 +4454,36 @@
         <v>null</v>
       </c>
       <c r="W49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>true</v>
       </c>
       <c r="X49" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z49" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA49" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14</v>
       </c>
       <c r="B50" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D50" t="str">
         <v>null</v>
       </c>
       <c r="E50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
       </c>
       <c r="F50" t="str">
         <v>null</v>
@@ -4051,13 +4492,13 @@
         <v>null</v>
       </c>
       <c r="H50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="I50" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>Biobedspoelwaterproductie S3 systeem</v>
       </c>
       <c r="J50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
       </c>
       <c r="K50" t="str">
         <v>null</v>
@@ -4084,7 +4525,7 @@
         <v>null</v>
       </c>
       <c r="S50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="T50" t="str">
         <v>null</v>
@@ -4096,89 +4537,2016 @@
         <v>null</v>
       </c>
       <c r="W50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>true</v>
       </c>
       <c r="X50" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y50" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z50" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA50" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C51" t="str">
+        <v>http://qudt.org/vocab/unit/PA</v>
+      </c>
+      <c r="D51" t="str">
+        <v>null</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+      </c>
+      <c r="F51" t="str">
+        <v>null</v>
+      </c>
+      <c r="G51" t="str">
+        <v>null</v>
+      </c>
+      <c r="H51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Drukval S3 systeem</v>
+      </c>
+      <c r="J51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K51" t="str">
+        <v>null</v>
+      </c>
+      <c r="L51" t="str">
+        <v>null</v>
+      </c>
+      <c r="M51" t="str">
+        <v>null</v>
+      </c>
+      <c r="N51" t="str">
+        <v>null</v>
+      </c>
+      <c r="O51" t="str">
+        <v>null</v>
+      </c>
+      <c r="P51" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>null</v>
+      </c>
+      <c r="R51" t="str">
+        <v>null</v>
+      </c>
+      <c r="S51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+      </c>
+      <c r="T51" t="str">
+        <v>null</v>
+      </c>
+      <c r="U51" t="str">
+        <v>null</v>
+      </c>
+      <c r="V51" t="str">
+        <v>null</v>
+      </c>
+      <c r="W51" t="str">
+        <v>true</v>
+      </c>
+      <c r="X51" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="Y51" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z51" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA51" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C52" t="str">
+        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
+      </c>
+      <c r="D52" t="str">
+        <v>null</v>
+      </c>
+      <c r="E52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+      </c>
+      <c r="F52" t="str">
+        <v>null</v>
+      </c>
+      <c r="G52" t="str">
+        <v>null</v>
+      </c>
+      <c r="H52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Geleidbaarheid waswater S1 systeem</v>
+      </c>
+      <c r="J52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K52" t="str">
+        <v>null</v>
+      </c>
+      <c r="L52" t="str">
+        <v>null</v>
+      </c>
+      <c r="M52" t="str">
+        <v>null</v>
+      </c>
+      <c r="N52" t="str">
+        <v>null</v>
+      </c>
+      <c r="O52" t="str">
+        <v>null</v>
+      </c>
+      <c r="P52" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>null</v>
+      </c>
+      <c r="R52" t="str">
+        <v>null</v>
+      </c>
+      <c r="S52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+      </c>
+      <c r="T52" t="str">
+        <v>null</v>
+      </c>
+      <c r="U52" t="str">
+        <v>null</v>
+      </c>
+      <c r="V52" t="str">
+        <v>null</v>
+      </c>
+      <c r="W52" t="str">
+        <v>true</v>
+      </c>
+      <c r="X52" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="Y52" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z52" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA52" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C53" t="str">
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+      </c>
+      <c r="D53" t="str">
+        <v>null</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+      </c>
+      <c r="F53" t="str">
+        <v>null</v>
+      </c>
+      <c r="G53" t="str">
+        <v>null</v>
+      </c>
+      <c r="H53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Waswaterdebiet S1 systeem</v>
+      </c>
+      <c r="J53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K53" t="str">
+        <v>null</v>
+      </c>
+      <c r="L53" t="str">
+        <v>null</v>
+      </c>
+      <c r="M53" t="str">
+        <v>null</v>
+      </c>
+      <c r="N53" t="str">
+        <v>null</v>
+      </c>
+      <c r="O53" t="str">
+        <v>null</v>
+      </c>
+      <c r="P53" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>null</v>
+      </c>
+      <c r="R53" t="str">
+        <v>null</v>
+      </c>
+      <c r="S53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+      </c>
+      <c r="T53" t="str">
+        <v>null</v>
+      </c>
+      <c r="U53" t="str">
+        <v>null</v>
+      </c>
+      <c r="V53" t="str">
+        <v>null</v>
+      </c>
+      <c r="W53" t="str">
+        <v>true</v>
+      </c>
+      <c r="X53" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y53" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z53" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA53" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4</v>
+      </c>
+      <c r="B54" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C54" t="str">
+        <v>http://qudt.org/vocab/unit/M3</v>
+      </c>
+      <c r="D54" t="str">
+        <v>null</v>
+      </c>
+      <c r="E54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+      </c>
+      <c r="F54" t="str">
+        <v>null</v>
+      </c>
+      <c r="G54" t="str">
+        <v>null</v>
+      </c>
+      <c r="H54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Spuiwaterdebiet S1 systeem</v>
+      </c>
+      <c r="J54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K54" t="str">
+        <v>null</v>
+      </c>
+      <c r="L54" t="str">
+        <v>null</v>
+      </c>
+      <c r="M54" t="str">
+        <v>null</v>
+      </c>
+      <c r="N54" t="str">
+        <v>null</v>
+      </c>
+      <c r="O54" t="str">
+        <v>null</v>
+      </c>
+      <c r="P54" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>null</v>
+      </c>
+      <c r="R54" t="str">
+        <v>null</v>
+      </c>
+      <c r="S54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+      </c>
+      <c r="T54" t="str">
+        <v>null</v>
+      </c>
+      <c r="U54" t="str">
+        <v>null</v>
+      </c>
+      <c r="V54" t="str">
+        <v>null</v>
+      </c>
+      <c r="W54" t="str">
+        <v>true</v>
+      </c>
+      <c r="X54" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y54" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z54" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA54" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5</v>
+      </c>
+      <c r="B55" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C55" t="str">
+        <v>http://qudt.org/vocab/unit/PA</v>
+      </c>
+      <c r="D55" t="str">
+        <v>null</v>
+      </c>
+      <c r="E55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+      </c>
+      <c r="F55" t="str">
+        <v>null</v>
+      </c>
+      <c r="G55" t="str">
+        <v>null</v>
+      </c>
+      <c r="H55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Drukval S1 systeem</v>
+      </c>
+      <c r="J55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K55" t="str">
+        <v>null</v>
+      </c>
+      <c r="L55" t="str">
+        <v>null</v>
+      </c>
+      <c r="M55" t="str">
+        <v>null</v>
+      </c>
+      <c r="N55" t="str">
+        <v>null</v>
+      </c>
+      <c r="O55" t="str">
+        <v>null</v>
+      </c>
+      <c r="P55" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>null</v>
+      </c>
+      <c r="R55" t="str">
+        <v>null</v>
+      </c>
+      <c r="S55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+      </c>
+      <c r="T55" t="str">
+        <v>null</v>
+      </c>
+      <c r="U55" t="str">
+        <v>null</v>
+      </c>
+      <c r="V55" t="str">
+        <v>null</v>
+      </c>
+      <c r="W55" t="str">
+        <v>true</v>
+      </c>
+      <c r="X55" t="str">
+        <v>exact</v>
+      </c>
+      <c r="Y55" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z55" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA55" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C56" t="str">
+        <v>http://qudt.org/vocab/unit/PH</v>
+      </c>
+      <c r="D56" t="str">
+        <v>null</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F56" t="str">
+        <v>null</v>
+      </c>
+      <c r="G56" t="str">
+        <v>null</v>
+      </c>
+      <c r="H56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Zuurtegraad waswater S2 systeem</v>
+      </c>
+      <c r="J56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K56" t="str">
+        <v>null</v>
+      </c>
+      <c r="L56" t="str">
+        <v>null</v>
+      </c>
+      <c r="M56" t="str">
+        <v>null</v>
+      </c>
+      <c r="N56" t="str">
+        <v>null</v>
+      </c>
+      <c r="O56" t="str">
+        <v>null</v>
+      </c>
+      <c r="P56" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>null</v>
+      </c>
+      <c r="R56" t="str">
+        <v>null</v>
+      </c>
+      <c r="S56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="T56" t="str">
+        <v>null</v>
+      </c>
+      <c r="U56" t="str">
+        <v>null</v>
+      </c>
+      <c r="V56" t="str">
+        <v>null</v>
+      </c>
+      <c r="W56" t="str">
+        <v>true</v>
+      </c>
+      <c r="X56" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="Y56" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z56" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA56" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7</v>
+      </c>
+      <c r="B57" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C57" t="str">
+        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
+      </c>
+      <c r="D57" t="str">
+        <v>null</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F57" t="str">
+        <v>null</v>
+      </c>
+      <c r="G57" t="str">
+        <v>null</v>
+      </c>
+      <c r="H57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Geleidbaarheid waswater S2 systeem</v>
+      </c>
+      <c r="J57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K57" t="str">
+        <v>null</v>
+      </c>
+      <c r="L57" t="str">
+        <v>null</v>
+      </c>
+      <c r="M57" t="str">
+        <v>null</v>
+      </c>
+      <c r="N57" t="str">
+        <v>null</v>
+      </c>
+      <c r="O57" t="str">
+        <v>null</v>
+      </c>
+      <c r="P57" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>null</v>
+      </c>
+      <c r="R57" t="str">
+        <v>null</v>
+      </c>
+      <c r="S57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+      </c>
+      <c r="T57" t="str">
+        <v>null</v>
+      </c>
+      <c r="U57" t="str">
+        <v>null</v>
+      </c>
+      <c r="V57" t="str">
+        <v>null</v>
+      </c>
+      <c r="W57" t="str">
+        <v>true</v>
+      </c>
+      <c r="X57" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="Y57" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z57" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA57" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C58" t="str">
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+      </c>
+      <c r="D58" t="str">
+        <v>null</v>
+      </c>
+      <c r="E58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F58" t="str">
+        <v>null</v>
+      </c>
+      <c r="G58" t="str">
+        <v>null</v>
+      </c>
+      <c r="H58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Waswaterdebiet S2 systeem</v>
+      </c>
+      <c r="J58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K58" t="str">
+        <v>null</v>
+      </c>
+      <c r="L58" t="str">
+        <v>null</v>
+      </c>
+      <c r="M58" t="str">
+        <v>null</v>
+      </c>
+      <c r="N58" t="str">
+        <v>null</v>
+      </c>
+      <c r="O58" t="str">
+        <v>null</v>
+      </c>
+      <c r="P58" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>null</v>
+      </c>
+      <c r="R58" t="str">
+        <v>null</v>
+      </c>
+      <c r="S58" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+      </c>
+      <c r="T58" t="str">
+        <v>null</v>
+      </c>
+      <c r="U58" t="str">
+        <v>null</v>
+      </c>
+      <c r="V58" t="str">
+        <v>null</v>
+      </c>
+      <c r="W58" t="str">
+        <v>true</v>
+      </c>
+      <c r="X58" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y58" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z58" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA58" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C59" t="str">
+        <v>http://qudt.org/vocab/unit/M3</v>
+      </c>
+      <c r="D59" t="str">
+        <v>null</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="F59" t="str">
+        <v>null</v>
+      </c>
+      <c r="G59" t="str">
+        <v>null</v>
+      </c>
+      <c r="H59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Spuiwaterdebiet S2 systeem</v>
+      </c>
+      <c r="J59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="K59" t="str">
+        <v>null</v>
+      </c>
+      <c r="L59" t="str">
+        <v>null</v>
+      </c>
+      <c r="M59" t="str">
+        <v>null</v>
+      </c>
+      <c r="N59" t="str">
+        <v>null</v>
+      </c>
+      <c r="O59" t="str">
+        <v>null</v>
+      </c>
+      <c r="P59" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>null</v>
+      </c>
+      <c r="R59" t="str">
+        <v>null</v>
+      </c>
+      <c r="S59" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+      </c>
+      <c r="T59" t="str">
+        <v>null</v>
+      </c>
+      <c r="U59" t="str">
+        <v>null</v>
+      </c>
+      <c r="V59" t="str">
+        <v>null</v>
+      </c>
+      <c r="W59" t="str">
+        <v>true</v>
+      </c>
+      <c r="X59" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="Y59" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z59" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA59" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+      </c>
+      <c r="B60" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C60" t="str">
+        <v>null</v>
+      </c>
+      <c r="D60" t="str">
+        <v>null</v>
+      </c>
+      <c r="E60" t="str">
+        <v>null</v>
+      </c>
+      <c r="F60" t="str">
+        <v>null</v>
+      </c>
+      <c r="G60" t="str">
+        <v>null</v>
+      </c>
+      <c r="H60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Biologisch luchtwassysteem</v>
+      </c>
+      <c r="J60" t="str">
+        <v>null</v>
+      </c>
+      <c r="K60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+      </c>
+      <c r="L60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="M60" t="str">
+        <v>null</v>
+      </c>
+      <c r="N60" t="str">
+        <v>null</v>
+      </c>
+      <c r="O60" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="P60" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>null</v>
+      </c>
+      <c r="R60" t="str">
+        <v>null</v>
+      </c>
+      <c r="S60" t="str">
+        <v>null</v>
+      </c>
+      <c r="T60" t="str">
+        <v>null</v>
+      </c>
+      <c r="U60" t="str">
+        <v>null</v>
+      </c>
+      <c r="V60" t="str">
+        <v>null</v>
+      </c>
+      <c r="W60" t="str">
+        <v>null</v>
+      </c>
+      <c r="X60" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>S1</v>
+      </c>
+      <c r="Z60" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA60" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+      </c>
+      <c r="B61" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C61" t="str">
+        <v>null</v>
+      </c>
+      <c r="D61" t="str">
+        <v>null</v>
+      </c>
+      <c r="E61" t="str">
+        <v>null</v>
+      </c>
+      <c r="F61" t="str">
+        <v>null</v>
+      </c>
+      <c r="G61" t="str">
+        <v>null</v>
+      </c>
+      <c r="H61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Chemisch luchtwassysteem</v>
+      </c>
+      <c r="J61" t="str">
+        <v>null</v>
+      </c>
+      <c r="K61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+      </c>
+      <c r="L61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="M61" t="str">
+        <v>null</v>
+      </c>
+      <c r="N61" t="str">
+        <v>null</v>
+      </c>
+      <c r="O61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="P61" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>null</v>
+      </c>
+      <c r="R61" t="str">
+        <v>null</v>
+      </c>
+      <c r="S61" t="str">
+        <v>null</v>
+      </c>
+      <c r="T61" t="str">
+        <v>null</v>
+      </c>
+      <c r="U61" t="str">
+        <v>null</v>
+      </c>
+      <c r="V61" t="str">
+        <v>null</v>
+      </c>
+      <c r="W61" t="str">
+        <v>null</v>
+      </c>
+      <c r="X61" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y61" t="str">
+        <v>S2</v>
+      </c>
+      <c r="Z61" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA61" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+      </c>
+      <c r="B62" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C62" t="str">
+        <v>null</v>
+      </c>
+      <c r="D62" t="str">
+        <v>null</v>
+      </c>
+      <c r="E62" t="str">
+        <v>null</v>
+      </c>
+      <c r="F62" t="str">
+        <v>null</v>
+      </c>
+      <c r="G62" t="str">
+        <v>null</v>
+      </c>
+      <c r="H62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Biobed</v>
+      </c>
+      <c r="J62" t="str">
+        <v>null</v>
+      </c>
+      <c r="K62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="L62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="M62" t="str">
+        <v>null</v>
+      </c>
+      <c r="N62" t="str">
+        <v>null</v>
+      </c>
+      <c r="O62" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="P62" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>null</v>
+      </c>
+      <c r="R62" t="str">
+        <v>null</v>
+      </c>
+      <c r="S62" t="str">
+        <v>null</v>
+      </c>
+      <c r="T62" t="str">
+        <v>null</v>
+      </c>
+      <c r="U62" t="str">
+        <v>null</v>
+      </c>
+      <c r="V62" t="str">
+        <v>null</v>
+      </c>
+      <c r="W62" t="str">
+        <v>null</v>
+      </c>
+      <c r="X62" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y62" t="str">
+        <v>S3</v>
+      </c>
+      <c r="Z62" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA62" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+      </c>
+      <c r="B63" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C63" t="str">
+        <v>null</v>
+      </c>
+      <c r="D63" t="str">
+        <v>null</v>
+      </c>
+      <c r="E63" t="str">
+        <v>null</v>
+      </c>
+      <c r="F63" t="str">
+        <v>null</v>
+      </c>
+      <c r="G63" t="str">
+        <v>null</v>
+      </c>
+      <c r="H63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Stal in gebruik, dieren aanwezig.</v>
+      </c>
+      <c r="J63" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="K63" t="str">
+        <v>null</v>
+      </c>
+      <c r="L63" t="str">
+        <v>null</v>
+      </c>
+      <c r="M63" t="str">
+        <v>null</v>
+      </c>
+      <c r="N63" t="str">
+        <v>null</v>
+      </c>
+      <c r="O63" t="str">
+        <v>null</v>
+      </c>
+      <c r="P63" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>null</v>
+      </c>
+      <c r="R63" t="str">
+        <v>null</v>
+      </c>
+      <c r="S63" t="str">
+        <v>null</v>
+      </c>
+      <c r="T63" t="str">
+        <v>null</v>
+      </c>
+      <c r="U63" t="str">
+        <v>null</v>
+      </c>
+      <c r="V63" t="str">
+        <v>null</v>
+      </c>
+      <c r="W63" t="str">
+        <v>null</v>
+      </c>
+      <c r="X63" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y63" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z63" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA63" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+      </c>
+      <c r="B64" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C64" t="str">
+        <v>null</v>
+      </c>
+      <c r="D64" t="str">
+        <v>null</v>
+      </c>
+      <c r="E64" t="str">
+        <v>null</v>
+      </c>
+      <c r="F64" t="str">
+        <v>null</v>
+      </c>
+      <c r="G64" t="str">
+        <v>null</v>
+      </c>
+      <c r="H64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Lege stal</v>
+      </c>
+      <c r="J64" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="K64" t="str">
+        <v>null</v>
+      </c>
+      <c r="L64" t="str">
+        <v>null</v>
+      </c>
+      <c r="M64" t="str">
+        <v>null</v>
+      </c>
+      <c r="N64" t="str">
+        <v>null</v>
+      </c>
+      <c r="O64" t="str">
+        <v>null</v>
+      </c>
+      <c r="P64" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>null</v>
+      </c>
+      <c r="R64" t="str">
+        <v>null</v>
+      </c>
+      <c r="S64" t="str">
+        <v>null</v>
+      </c>
+      <c r="T64" t="str">
+        <v>null</v>
+      </c>
+      <c r="U64" t="str">
+        <v>null</v>
+      </c>
+      <c r="V64" t="str">
+        <v>null</v>
+      </c>
+      <c r="W64" t="str">
+        <v>null</v>
+      </c>
+      <c r="X64" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y64" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z64" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA64" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+      </c>
+      <c r="B65" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C65" t="str">
+        <v>null</v>
+      </c>
+      <c r="D65" t="str">
+        <v>null</v>
+      </c>
+      <c r="E65" t="str">
+        <v>null</v>
+      </c>
+      <c r="F65" t="str">
+        <v>null</v>
+      </c>
+      <c r="G65" t="str">
+        <v>null</v>
+      </c>
+      <c r="H65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="I65" t="str">
+        <v>In onderhoud</v>
+      </c>
+      <c r="J65" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="K65" t="str">
+        <v>null</v>
+      </c>
+      <c r="L65" t="str">
+        <v>null</v>
+      </c>
+      <c r="M65" t="str">
+        <v>null</v>
+      </c>
+      <c r="N65" t="str">
+        <v>null</v>
+      </c>
+      <c r="O65" t="str">
+        <v>null</v>
+      </c>
+      <c r="P65" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>null</v>
+      </c>
+      <c r="R65" t="str">
+        <v>null</v>
+      </c>
+      <c r="S65" t="str">
+        <v>null</v>
+      </c>
+      <c r="T65" t="str">
+        <v>null</v>
+      </c>
+      <c r="U65" t="str">
+        <v>null</v>
+      </c>
+      <c r="V65" t="str">
+        <v>null</v>
+      </c>
+      <c r="W65" t="str">
+        <v>null</v>
+      </c>
+      <c r="X65" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y65" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z65" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA65" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+      </c>
+      <c r="B66" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C66" t="str">
+        <v>null</v>
+      </c>
+      <c r="D66" t="str">
+        <v>null</v>
+      </c>
+      <c r="E66" t="str">
+        <v>null</v>
+      </c>
+      <c r="F66" t="str">
+        <v>null</v>
+      </c>
+      <c r="G66" t="str">
+        <v>null</v>
+      </c>
+      <c r="H66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Operationeel</v>
+      </c>
+      <c r="J66" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="K66" t="str">
+        <v>null</v>
+      </c>
+      <c r="L66" t="str">
+        <v>null</v>
+      </c>
+      <c r="M66" t="str">
+        <v>null</v>
+      </c>
+      <c r="N66" t="str">
+        <v>null</v>
+      </c>
+      <c r="O66" t="str">
+        <v>null</v>
+      </c>
+      <c r="P66" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>null</v>
+      </c>
+      <c r="R66" t="str">
+        <v>null</v>
+      </c>
+      <c r="S66" t="str">
+        <v>null</v>
+      </c>
+      <c r="T66" t="str">
+        <v>null</v>
+      </c>
+      <c r="U66" t="str">
+        <v>null</v>
+      </c>
+      <c r="V66" t="str">
+        <v>null</v>
+      </c>
+      <c r="W66" t="str">
+        <v>null</v>
+      </c>
+      <c r="X66" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y66" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z66" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA66" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+      <c r="B67" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C67" t="str">
+        <v>null</v>
+      </c>
+      <c r="D67" t="str">
+        <v>null</v>
+      </c>
+      <c r="E67" t="str">
+        <v>null</v>
+      </c>
+      <c r="F67" t="str">
+        <v>null</v>
+      </c>
+      <c r="G67" t="str">
+        <v>null</v>
+      </c>
+      <c r="H67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Storing</v>
+      </c>
+      <c r="J67" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="K67" t="str">
+        <v>null</v>
+      </c>
+      <c r="L67" t="str">
+        <v>null</v>
+      </c>
+      <c r="M67" t="str">
+        <v>null</v>
+      </c>
+      <c r="N67" t="str">
+        <v>null</v>
+      </c>
+      <c r="O67" t="str">
+        <v>null</v>
+      </c>
+      <c r="P67" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>null</v>
+      </c>
+      <c r="R67" t="str">
+        <v>null</v>
+      </c>
+      <c r="S67" t="str">
+        <v>null</v>
+      </c>
+      <c r="T67" t="str">
+        <v>null</v>
+      </c>
+      <c r="U67" t="str">
+        <v>null</v>
+      </c>
+      <c r="V67" t="str">
+        <v>null</v>
+      </c>
+      <c r="W67" t="str">
+        <v>null</v>
+      </c>
+      <c r="X67" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y67" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z67" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA67" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+      </c>
+      <c r="B68" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C68" t="str">
+        <v>null</v>
+      </c>
+      <c r="D68" t="str">
+        <v>null</v>
+      </c>
+      <c r="E68" t="str">
+        <v>null</v>
+      </c>
+      <c r="F68" t="str">
+        <v>null</v>
+      </c>
+      <c r="G68" t="str">
+        <v>null</v>
+      </c>
+      <c r="H68" t="str">
+        <v>null</v>
+      </c>
+      <c r="I68" t="str">
+        <v>conceptschema luchtzuiveringssysteem</v>
+      </c>
+      <c r="J68" t="str">
+        <v>null</v>
+      </c>
+      <c r="K68" t="str">
+        <v>null</v>
+      </c>
+      <c r="L68" t="str">
+        <v>null</v>
+      </c>
+      <c r="M68" t="str">
+        <v>null</v>
+      </c>
+      <c r="N68" t="str">
+        <v>null</v>
+      </c>
+      <c r="O68" t="str">
+        <v>null</v>
+      </c>
+      <c r="P68" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>null</v>
+      </c>
+      <c r="R68" t="str">
+        <v>null</v>
+      </c>
+      <c r="S68" t="str">
+        <v>null</v>
+      </c>
+      <c r="T68" t="str">
+        <v>null</v>
+      </c>
+      <c r="U68" t="str">
+        <v>null</v>
+      </c>
+      <c r="V68" t="str">
+        <v>null</v>
+      </c>
+      <c r="W68" t="str">
+        <v>null</v>
+      </c>
+      <c r="X68" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y68" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z68" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+      </c>
+      <c r="AA68" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+      </c>
+      <c r="B69" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C69" t="str">
+        <v>null</v>
+      </c>
+      <c r="D69" t="str">
+        <v>null</v>
+      </c>
+      <c r="E69" t="str">
+        <v>null</v>
+      </c>
+      <c r="F69" t="str">
+        <v>null</v>
+      </c>
+      <c r="G69" t="str">
+        <v>null</v>
+      </c>
+      <c r="H69" t="str">
+        <v>null</v>
+      </c>
+      <c r="I69" t="str">
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+      </c>
+      <c r="J69" t="str">
+        <v>null</v>
+      </c>
+      <c r="K69" t="str">
+        <v>null</v>
+      </c>
+      <c r="L69" t="str">
+        <v>null</v>
+      </c>
+      <c r="M69" t="str">
+        <v>null</v>
+      </c>
+      <c r="N69" t="str">
+        <v>null</v>
+      </c>
+      <c r="O69" t="str">
+        <v>null</v>
+      </c>
+      <c r="P69" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>null</v>
+      </c>
+      <c r="R69" t="str">
+        <v>null</v>
+      </c>
+      <c r="S69" t="str">
+        <v>null</v>
+      </c>
+      <c r="T69" t="str">
+        <v>null</v>
+      </c>
+      <c r="U69" t="str">
+        <v>null</v>
+      </c>
+      <c r="V69" t="str">
+        <v>null</v>
+      </c>
+      <c r="W69" t="str">
+        <v>null</v>
+      </c>
+      <c r="X69" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y69" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z69" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
+      </c>
+      <c r="AA69" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+      </c>
+      <c r="B70" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C70" t="str">
+        <v>null</v>
+      </c>
+      <c r="D70" t="str">
+        <v>null</v>
+      </c>
+      <c r="E70" t="str">
+        <v>null</v>
+      </c>
+      <c r="F70" t="str">
+        <v>null</v>
+      </c>
+      <c r="G70" t="str">
+        <v>null</v>
+      </c>
+      <c r="H70" t="str">
+        <v>null</v>
+      </c>
+      <c r="I70" t="str">
+        <v>conceptschema luchtzuiveringssysteem medium</v>
+      </c>
+      <c r="J70" t="str">
+        <v>null</v>
+      </c>
+      <c r="K70" t="str">
+        <v>null</v>
+      </c>
+      <c r="L70" t="str">
+        <v>null</v>
+      </c>
+      <c r="M70" t="str">
+        <v>null</v>
+      </c>
+      <c r="N70" t="str">
+        <v>null</v>
+      </c>
+      <c r="O70" t="str">
+        <v>null</v>
+      </c>
+      <c r="P70" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>null</v>
+      </c>
+      <c r="R70" t="str">
+        <v>null</v>
+      </c>
+      <c r="S70" t="str">
+        <v>null</v>
+      </c>
+      <c r="T70" t="str">
+        <v>null</v>
+      </c>
+      <c r="U70" t="str">
+        <v>null</v>
+      </c>
+      <c r="V70" t="str">
+        <v>null</v>
+      </c>
+      <c r="W70" t="str">
+        <v>null</v>
+      </c>
+      <c r="X70" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y70" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z70" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+      </c>
+      <c r="AA70" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+      </c>
+      <c r="B71" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C71" t="str">
+        <v>null</v>
+      </c>
+      <c r="D71" t="str">
+        <v>null</v>
+      </c>
+      <c r="E71" t="str">
+        <v>null</v>
+      </c>
+      <c r="F71" t="str">
+        <v>null</v>
+      </c>
+      <c r="G71" t="str">
+        <v>null</v>
+      </c>
+      <c r="H71" t="str">
+        <v>null</v>
+      </c>
+      <c r="I71" t="str">
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+      </c>
+      <c r="J71" t="str">
+        <v>null</v>
+      </c>
+      <c r="K71" t="str">
+        <v>null</v>
+      </c>
+      <c r="L71" t="str">
+        <v>null</v>
+      </c>
+      <c r="M71" t="str">
+        <v>null</v>
+      </c>
+      <c r="N71" t="str">
+        <v>null</v>
+      </c>
+      <c r="O71" t="str">
+        <v>null</v>
+      </c>
+      <c r="P71" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>null</v>
+      </c>
+      <c r="R71" t="str">
+        <v>null</v>
+      </c>
+      <c r="S71" t="str">
+        <v>null</v>
+      </c>
+      <c r="T71" t="str">
+        <v>null</v>
+      </c>
+      <c r="U71" t="str">
+        <v>null</v>
+      </c>
+      <c r="V71" t="str">
+        <v>null</v>
+      </c>
+      <c r="W71" t="str">
+        <v>null</v>
+      </c>
+      <c r="X71" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y71" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z71" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="AA71" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+      </c>
+      <c r="B72" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C72" t="str">
+        <v>null</v>
+      </c>
+      <c r="D72" t="str">
+        <v>null</v>
+      </c>
+      <c r="E72" t="str">
+        <v>null</v>
+      </c>
+      <c r="F72" t="str">
+        <v>null</v>
+      </c>
+      <c r="G72" t="str">
+        <v>null</v>
+      </c>
+      <c r="H72" t="str">
+        <v>null</v>
+      </c>
+      <c r="I72" t="str">
+        <v>conceptschema luchtzuiveringssysteem status</v>
+      </c>
+      <c r="J72" t="str">
+        <v>null</v>
+      </c>
+      <c r="K72" t="str">
+        <v>null</v>
+      </c>
+      <c r="L72" t="str">
+        <v>null</v>
+      </c>
+      <c r="M72" t="str">
+        <v>null</v>
+      </c>
+      <c r="N72" t="str">
+        <v>null</v>
+      </c>
+      <c r="O72" t="str">
+        <v>null</v>
+      </c>
+      <c r="P72" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>null</v>
+      </c>
+      <c r="R72" t="str">
+        <v>null</v>
+      </c>
+      <c r="S72" t="str">
+        <v>null</v>
+      </c>
+      <c r="T72" t="str">
+        <v>null</v>
+      </c>
+      <c r="U72" t="str">
+        <v>null</v>
+      </c>
+      <c r="V72" t="str">
+        <v>null</v>
+      </c>
+      <c r="W72" t="str">
+        <v>null</v>
+      </c>
+      <c r="X72" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y72" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z72" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+      <c r="AA72" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+      </c>
+      <c r="B73" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C73" t="str">
+        <v>null</v>
+      </c>
+      <c r="D73" t="str">
+        <v>null</v>
+      </c>
+      <c r="E73" t="str">
+        <v>null</v>
+      </c>
+      <c r="F73" t="str">
+        <v>null</v>
+      </c>
+      <c r="G73" t="str">
+        <v>null</v>
+      </c>
+      <c r="H73" t="str">
+        <v>null</v>
+      </c>
+      <c r="I73" t="str">
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+      </c>
+      <c r="J73" t="str">
+        <v>null</v>
+      </c>
+      <c r="K73" t="str">
+        <v>null</v>
+      </c>
+      <c r="L73" t="str">
+        <v>null</v>
+      </c>
+      <c r="M73" t="str">
+        <v>null</v>
+      </c>
+      <c r="N73" t="str">
+        <v>null</v>
+      </c>
+      <c r="O73" t="str">
+        <v>null</v>
+      </c>
+      <c r="P73" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>null</v>
+      </c>
+      <c r="R73" t="str">
+        <v>null</v>
+      </c>
+      <c r="S73" t="str">
+        <v>null</v>
+      </c>
+      <c r="T73" t="str">
+        <v>null</v>
+      </c>
+      <c r="U73" t="str">
+        <v>null</v>
+      </c>
+      <c r="V73" t="str">
+        <v>null</v>
+      </c>
+      <c r="W73" t="str">
+        <v>null</v>
+      </c>
+      <c r="X73" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y73" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z73" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+      </c>
+      <c r="AA73" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C51" t="str">
-        <v>null</v>
-      </c>
-      <c r="D51" t="str">
-        <v>null</v>
-      </c>
-      <c r="E51" t="str">
-        <v>null</v>
-      </c>
-      <c r="F51" t="str">
-        <v>null</v>
-      </c>
-      <c r="G51" t="str">
-        <v>null</v>
-      </c>
-      <c r="H51" t="str">
-        <v>null</v>
-      </c>
-      <c r="I51" t="str">
+      <c r="C74" t="str">
+        <v>null</v>
+      </c>
+      <c r="D74" t="str">
+        <v>null</v>
+      </c>
+      <c r="E74" t="str">
+        <v>null</v>
+      </c>
+      <c r="F74" t="str">
+        <v>null</v>
+      </c>
+      <c r="G74" t="str">
+        <v>null</v>
+      </c>
+      <c r="H74" t="str">
+        <v>null</v>
+      </c>
+      <c r="I74" t="str">
         <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
       </c>
-      <c r="J51" t="str">
-        <v>null</v>
-      </c>
-      <c r="K51" t="str">
-        <v>null</v>
-      </c>
-      <c r="L51" t="str">
-        <v>null</v>
-      </c>
-      <c r="M51" t="str">
-        <v>null</v>
-      </c>
-      <c r="N51" t="str">
-        <v>null</v>
-      </c>
-      <c r="O51" t="str">
-        <v>null</v>
-      </c>
-      <c r="P51" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q51" t="str">
-        <v>null</v>
-      </c>
-      <c r="R51" t="str">
-        <v>null</v>
-      </c>
-      <c r="S51" t="str">
-        <v>null</v>
-      </c>
-      <c r="T51" t="str">
-        <v>null</v>
-      </c>
-      <c r="U51" t="str">
-        <v>null</v>
-      </c>
-      <c r="V51" t="str">
-        <v>null</v>
-      </c>
-      <c r="W51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
-      </c>
-      <c r="X51" t="str">
+      <c r="J74" t="str">
+        <v>null</v>
+      </c>
+      <c r="K74" t="str">
+        <v>null</v>
+      </c>
+      <c r="L74" t="str">
+        <v>null</v>
+      </c>
+      <c r="M74" t="str">
+        <v>null</v>
+      </c>
+      <c r="N74" t="str">
+        <v>null</v>
+      </c>
+      <c r="O74" t="str">
+        <v>null</v>
+      </c>
+      <c r="P74" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>null</v>
+      </c>
+      <c r="R74" t="str">
+        <v>null</v>
+      </c>
+      <c r="S74" t="str">
+        <v>null</v>
+      </c>
+      <c r="T74" t="str">
+        <v>null</v>
+      </c>
+      <c r="U74" t="str">
+        <v>null</v>
+      </c>
+      <c r="V74" t="str">
+        <v>null</v>
+      </c>
+      <c r="W74" t="str">
+        <v>null</v>
+      </c>
+      <c r="X74" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z74" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+      </c>
+      <c r="AA74" t="str">
         <v>Ranges</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA74"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -470,10 +470,10 @@
         <v>minValue</v>
       </c>
       <c r="W1" t="str">
-        <v>technishefiche</v>
+        <v>technischefiche</v>
       </c>
       <c r="X1" t="str">
-        <v>https://data\.omgeving\.vlaanderen\.be/ns/lzs#referentiewaardeType</v>
+        <v>referentiewaardeType</v>
       </c>
       <c r="Y1" t="str">
         <v>notation</v>
@@ -1255,13 +1255,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I11" t="str">
         <v>Biobedspoelwaterproductie</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1338,13 +1338,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="H12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I12" t="str">
         <v>Biobedspuiwaterproductie</v>
       </c>
       <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1421,13 +1421,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I13" t="str">
         <v>Drukval over het systeem</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -1504,13 +1504,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I14" t="str">
         <v>Geleidbaarheid van het waswater</v>
       </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -1587,13 +1587,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I15" t="str">
         <v>Spuiwaterproductie</v>
       </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -1670,13 +1670,13 @@
         <v>null</v>
       </c>
       <c r="H16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I16" t="str">
         <v>Stalbezetting</v>
       </c>
       <c r="J16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -1753,13 +1753,13 @@
         <v>null</v>
       </c>
       <c r="H17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I17" t="str">
         <v>SysteemStatus</v>
       </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -1836,13 +1836,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="H18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I18" t="str">
         <v>Waswaterdebiet over het waspakket</v>
       </c>
       <c r="J18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K18" t="str">
         <v>null</v>
@@ -1919,13 +1919,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="H19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I19" t="str">
         <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -2002,13 +2002,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="H20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I20" t="str">
         <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
       <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -2085,13 +2085,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
       <c r="H21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="I21" t="str">
         <v>Zuurtegraad van het waswater</v>
       </c>
       <c r="J21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K21" t="str">
         <v>null</v>
@@ -2168,7 +2168,7 @@
         <v>null</v>
       </c>
       <c r="H22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I22" t="str">
         <v>Luchtwassysteem</v>
@@ -2251,13 +2251,13 @@
         <v>null</v>
       </c>
       <c r="H23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I23" t="str">
         <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -2334,13 +2334,13 @@
         <v>null</v>
       </c>
       <c r="H24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I24" t="str">
         <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -2417,13 +2417,13 @@
         <v>null</v>
       </c>
       <c r="H25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I25" t="str">
         <v>Lucht</v>
       </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -2500,13 +2500,13 @@
         <v>null</v>
       </c>
       <c r="H26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I26" t="str">
         <v>Spuiwater</v>
       </c>
       <c r="J26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="K26" t="str">
         <v>null</v>
@@ -2583,13 +2583,13 @@
         <v>null</v>
       </c>
       <c r="H27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I27" t="str">
         <v>Stal</v>
       </c>
       <c r="J27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="K27" t="str">
         <v>null</v>
@@ -2666,13 +2666,13 @@
         <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I28" t="str">
         <v>Waswater</v>
       </c>
       <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="K28" t="str">
         <v>null</v>
@@ -2749,13 +2749,13 @@
         <v>null</v>
       </c>
       <c r="H29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I29" t="str">
         <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
       </c>
       <c r="J29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K29" t="str">
         <v>null</v>
@@ -2832,13 +2832,13 @@
         <v>null</v>
       </c>
       <c r="H30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I30" t="str">
         <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
       </c>
       <c r="J30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K30" t="str">
         <v>null</v>
@@ -2915,13 +2915,13 @@
         <v>null</v>
       </c>
       <c r="H31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I31" t="str">
         <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
       </c>
       <c r="J31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K31" t="str">
         <v>null</v>
@@ -2998,13 +2998,13 @@
         <v>null</v>
       </c>
       <c r="H32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I32" t="str">
         <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
       </c>
       <c r="J32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K32" t="str">
         <v>null</v>
@@ -3081,13 +3081,13 @@
         <v>null</v>
       </c>
       <c r="H33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I33" t="str">
         <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
       </c>
       <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K33" t="str">
         <v>null</v>
@@ -3164,13 +3164,13 @@
         <v>null</v>
       </c>
       <c r="H34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I34" t="str">
         <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="J34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K34" t="str">
         <v>null</v>
@@ -3247,13 +3247,13 @@
         <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I35" t="str">
         <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K35" t="str">
         <v>null</v>
@@ -3330,13 +3330,13 @@
         <v>null</v>
       </c>
       <c r="H36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I36" t="str">
         <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
       </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K36" t="str">
         <v>null</v>
@@ -3413,13 +3413,13 @@
         <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I37" t="str">
         <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
       </c>
       <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K37" t="str">
         <v>null</v>
@@ -3496,13 +3496,13 @@
         <v>null</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I38" t="str">
         <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
       </c>
       <c r="J38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K38" t="str">
         <v>null</v>
@@ -3579,13 +3579,13 @@
         <v>null</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I39" t="str">
         <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
       </c>
       <c r="J39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K39" t="str">
         <v>null</v>
@@ -3662,13 +3662,13 @@
         <v>null</v>
       </c>
       <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I40" t="str">
         <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
       </c>
       <c r="J40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K40" t="str">
         <v>null</v>
@@ -3745,13 +3745,13 @@
         <v>null</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I41" t="str">
         <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
       </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K41" t="str">
         <v>null</v>
@@ -3828,13 +3828,13 @@
         <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I42" t="str">
         <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K42" t="str">
         <v>null</v>
@@ -3911,13 +3911,13 @@
         <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I43" t="str">
         <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -3994,13 +3994,13 @@
         <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I44" t="str">
         <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -4077,13 +4077,13 @@
         <v>null</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I45" t="str">
         <v>Zuurtegraad waswater S1 systeem</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K45" t="str">
         <v>null</v>
@@ -4160,13 +4160,13 @@
         <v>null</v>
       </c>
       <c r="H46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I46" t="str">
         <v>Drukval S2 systeem</v>
       </c>
       <c r="J46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K46" t="str">
         <v>null</v>
@@ -4243,13 +4243,13 @@
         <v>null</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I47" t="str">
         <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
       </c>
       <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K47" t="str">
         <v>null</v>
@@ -4326,13 +4326,13 @@
         <v>null</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I48" t="str">
         <v>Waswaterdebiet bevloeiing S3 systeem</v>
       </c>
       <c r="J48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K48" t="str">
         <v>null</v>
@@ -4409,13 +4409,13 @@
         <v>null</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I49" t="str">
         <v>Biobedspuiwaterproductie S3 systeem</v>
       </c>
       <c r="J49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K49" t="str">
         <v>null</v>
@@ -4492,13 +4492,13 @@
         <v>null</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I50" t="str">
         <v>Biobedspoelwaterproductie S3 systeem</v>
       </c>
       <c r="J50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K50" t="str">
         <v>null</v>
@@ -4575,13 +4575,13 @@
         <v>null</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I51" t="str">
         <v>Drukval S3 systeem</v>
       </c>
       <c r="J51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K51" t="str">
         <v>null</v>
@@ -4658,13 +4658,13 @@
         <v>null</v>
       </c>
       <c r="H52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I52" t="str">
         <v>Geleidbaarheid waswater S1 systeem</v>
       </c>
       <c r="J52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K52" t="str">
         <v>null</v>
@@ -4741,13 +4741,13 @@
         <v>null</v>
       </c>
       <c r="H53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I53" t="str">
         <v>Waswaterdebiet S1 systeem</v>
       </c>
       <c r="J53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K53" t="str">
         <v>null</v>
@@ -4824,13 +4824,13 @@
         <v>null</v>
       </c>
       <c r="H54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I54" t="str">
         <v>Spuiwaterdebiet S1 systeem</v>
       </c>
       <c r="J54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K54" t="str">
         <v>null</v>
@@ -4907,13 +4907,13 @@
         <v>null</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I55" t="str">
         <v>Drukval S1 systeem</v>
       </c>
       <c r="J55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K55" t="str">
         <v>null</v>
@@ -4990,13 +4990,13 @@
         <v>null</v>
       </c>
       <c r="H56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I56" t="str">
         <v>Zuurtegraad waswater S2 systeem</v>
       </c>
       <c r="J56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K56" t="str">
         <v>null</v>
@@ -5073,13 +5073,13 @@
         <v>null</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I57" t="str">
         <v>Geleidbaarheid waswater S2 systeem</v>
       </c>
       <c r="J57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K57" t="str">
         <v>null</v>
@@ -5156,13 +5156,13 @@
         <v>null</v>
       </c>
       <c r="H58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I58" t="str">
         <v>Waswaterdebiet S2 systeem</v>
       </c>
       <c r="J58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K58" t="str">
         <v>null</v>
@@ -5239,13 +5239,13 @@
         <v>null</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I59" t="str">
         <v>Spuiwaterdebiet S2 systeem</v>
       </c>
       <c r="J59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K59" t="str">
         <v>null</v>
@@ -5322,7 +5322,7 @@
         <v>null</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I60" t="str">
         <v>Biologisch luchtwassysteem</v>
@@ -5405,7 +5405,7 @@
         <v>null</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I61" t="str">
         <v>Chemisch luchtwassysteem</v>
@@ -5488,7 +5488,7 @@
         <v>null</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I62" t="str">
         <v>Biobed</v>
@@ -5571,13 +5571,13 @@
         <v>null</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="I63" t="str">
         <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="J63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="K63" t="str">
         <v>null</v>
@@ -5654,13 +5654,13 @@
         <v>null</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="I64" t="str">
         <v>Lege stal</v>
       </c>
       <c r="J64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="K64" t="str">
         <v>null</v>
@@ -5737,13 +5737,13 @@
         <v>null</v>
       </c>
       <c r="H65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="I65" t="str">
         <v>In onderhoud</v>
       </c>
       <c r="J65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="K65" t="str">
         <v>null</v>
@@ -5820,13 +5820,13 @@
         <v>null</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="I66" t="str">
         <v>Operationeel</v>
       </c>
       <c r="J66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="K66" t="str">
         <v>null</v>
@@ -5903,13 +5903,13 @@
         <v>null</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="I67" t="str">
         <v>Storing</v>
       </c>
       <c r="J67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="K67" t="str">
         <v>null</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -434,46 +434,46 @@
         <v>topConceptOf</v>
       </c>
       <c r="K1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="L1" t="str">
+        <v>note</v>
+      </c>
+      <c r="M1" t="str">
+        <v>scopeNote</v>
+      </c>
+      <c r="N1" t="str">
+        <v>relevantProperty</v>
+      </c>
+      <c r="O1" t="str">
+        <v>maxValue</v>
+      </c>
+      <c r="P1" t="str">
+        <v>operatie</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>minValue</v>
+      </c>
+      <c r="R1" t="str">
+        <v>technischefiche</v>
+      </c>
+      <c r="S1" t="str">
+        <v>referentiewaardeType</v>
+      </c>
+      <c r="T1" t="str">
         <v>broader</v>
       </c>
-      <c r="L1" t="str">
+      <c r="U1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="M1" t="str">
+      <c r="V1" t="str">
         <v>narrower</v>
       </c>
-      <c r="N1" t="str">
+      <c r="W1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="O1" t="str">
+      <c r="X1" t="str">
         <v>semanticRelation</v>
-      </c>
-      <c r="P1" t="str">
-        <v>definition</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>note</v>
-      </c>
-      <c r="R1" t="str">
-        <v>scopeNote</v>
-      </c>
-      <c r="S1" t="str">
-        <v>relevantProperty</v>
-      </c>
-      <c r="T1" t="str">
-        <v>maxValue</v>
-      </c>
-      <c r="U1" t="str">
-        <v>operatie</v>
-      </c>
-      <c r="V1" t="str">
-        <v>minValue</v>
-      </c>
-      <c r="W1" t="str">
-        <v>technischefiche</v>
-      </c>
-      <c r="X1" t="str">
-        <v>referentiewaardeType</v>
       </c>
       <c r="Y1" t="str">
         <v>notation</v>
@@ -1246,7 +1246,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F11" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
@@ -1329,7 +1329,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F12" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
@@ -1412,7 +1412,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="E13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F13" t="str">
         <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
@@ -1495,7 +1495,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F14" t="str">
         <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
@@ -1578,7 +1578,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F15" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
@@ -1661,7 +1661,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="E16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F16" t="str">
         <v>null</v>
@@ -1744,7 +1744,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="E17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F17" t="str">
         <v>null</v>
@@ -1827,7 +1827,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F18" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
@@ -1910,7 +1910,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F19" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
@@ -1993,7 +1993,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F20" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
@@ -2076,7 +2076,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F21" t="str">
         <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C22" t="str">
         <v>null</v>
@@ -2168,28 +2168,28 @@
         <v>null</v>
       </c>
       <c r="H22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I22" t="str">
-        <v>Luchtwassysteem</v>
+        <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="J22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="K22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="N22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="O22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P22" t="str">
         <v>null</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="B23" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C23" t="str">
         <v>null</v>
@@ -2251,13 +2251,13 @@
         <v>null</v>
       </c>
       <c r="H23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I23" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>Lucht</v>
       </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -2266,13 +2266,13 @@
         <v>null</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="N23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="O23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="P23" t="str">
         <v>null</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -2337,7 +2337,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I24" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
+        <v>Spuiwater</v>
       </c>
       <c r="J24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -2420,7 +2420,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I25" t="str">
-        <v>Lucht</v>
+        <v>Stal</v>
       </c>
       <c r="J25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -2503,7 +2503,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="I26" t="str">
-        <v>Spuiwater</v>
+        <v>Waswater</v>
       </c>
       <c r="J26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
       </c>
       <c r="B27" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
         <v>null</v>
@@ -2574,7 +2574,7 @@
         <v>null</v>
       </c>
       <c r="E27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F27" t="str">
         <v>null</v>
@@ -2583,28 +2583,28 @@
         <v>null</v>
       </c>
       <c r="H27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I27" t="str">
-        <v>Stal</v>
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
       </c>
       <c r="J27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K27" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
       <c r="L27" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
       <c r="M27" t="str">
-        <v>null</v>
+        <v>&lt; 6</v>
       </c>
       <c r="N27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O27" t="str">
-        <v>null</v>
+        <v>6</v>
       </c>
       <c r="P27" t="str">
         <v>null</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
         <v>null</v>
@@ -2657,7 +2657,7 @@
         <v>null</v>
       </c>
       <c r="E28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F28" t="str">
         <v>null</v>
@@ -2666,31 +2666,31 @@
         <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I28" t="str">
-        <v>Waswater</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
       </c>
       <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K28" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L28" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M28" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O28" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P28" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q28" t="str">
         <v>null</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2740,7 +2740,7 @@
         <v>null</v>
       </c>
       <c r="E29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F29" t="str">
         <v>null</v>
@@ -2752,40 +2752,40 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I29" t="str">
-        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
       </c>
       <c r="J29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K29" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L29" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M29" t="str">
-        <v>null</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="N29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O29" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="P29" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
+        <v>product</v>
       </c>
       <c r="Q29" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="R29" t="str">
-        <v>&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="S29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="T29" t="str">
-        <v>6</v>
+        <v>null</v>
       </c>
       <c r="U29" t="str">
         <v>null</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2823,7 +2823,7 @@
         <v>null</v>
       </c>
       <c r="E30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F30" t="str">
         <v>null</v>
@@ -2835,43 +2835,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I30" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
       </c>
       <c r="J30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K30" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L30" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M30" t="str">
-        <v>null</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O30" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="P30" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>product</v>
       </c>
       <c r="Q30" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="R30" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="S30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="T30" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="U30" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V30" t="str">
         <v>null</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2906,7 +2906,7 @@
         <v>null</v>
       </c>
       <c r="E31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F31" t="str">
         <v>null</v>
@@ -2918,43 +2918,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I31" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
       </c>
       <c r="J31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K31" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L31" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M31" t="str">
-        <v>null</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O31" t="str">
         <v>null</v>
       </c>
       <c r="P31" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>product</v>
       </c>
       <c r="Q31" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>1.4</v>
       </c>
       <c r="R31" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="S31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="T31" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="U31" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V31" t="str">
         <v>null</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2989,7 +2989,7 @@
         <v>null</v>
       </c>
       <c r="E32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F32" t="str">
         <v>null</v>
@@ -3001,43 +3001,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I32" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="J32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K32" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L32" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="M32" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O32" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P32" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>product</v>
       </c>
       <c r="Q32" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="R32" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="S32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="T32" t="str">
-        <v>0.6</v>
+        <v>null</v>
       </c>
       <c r="U32" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V32" t="str">
         <v>null</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3072,7 +3072,7 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F33" t="str">
         <v>null</v>
@@ -3084,46 +3084,46 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I33" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="J33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K33" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L33" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="M33" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="O33" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P33" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>product</v>
       </c>
       <c r="Q33" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="R33" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="S33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="T33" t="str">
         <v>null</v>
       </c>
       <c r="U33" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V33" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="W33" t="str">
         <v>null</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3155,7 +3155,7 @@
         <v>null</v>
       </c>
       <c r="E34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F34" t="str">
         <v>null</v>
@@ -3167,43 +3167,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I34" t="str">
-        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
       </c>
       <c r="J34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K34" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L34" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="M34" t="str">
-        <v>null</v>
+        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="N34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O34" t="str">
         <v>null</v>
       </c>
       <c r="P34" t="str">
-        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>som</v>
       </c>
       <c r="Q34" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>50</v>
       </c>
       <c r="R34" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="S34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>null</v>
       </c>
       <c r="T34" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="U34" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V34" t="str">
         <v>null</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3238,7 +3238,7 @@
         <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F35" t="str">
         <v>null</v>
@@ -3250,43 +3250,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I35" t="str">
-        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
       </c>
       <c r="J35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K35" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
       <c r="L35" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
       <c r="M35" t="str">
-        <v>null</v>
+        <v>&gt; 8,5</v>
       </c>
       <c r="N35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O35" t="str">
         <v>null</v>
       </c>
       <c r="P35" t="str">
-        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="Q35" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>8.5</v>
       </c>
       <c r="R35" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="S35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>null</v>
       </c>
       <c r="T35" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="U35" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V35" t="str">
         <v>null</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3321,7 +3321,7 @@
         <v>null</v>
       </c>
       <c r="E36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F36" t="str">
         <v>null</v>
@@ -3333,46 +3333,46 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I36" t="str">
-        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
       </c>
       <c r="J36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K36" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L36" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="M36" t="str">
-        <v>null</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="N36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O36" t="str">
         <v>null</v>
       </c>
       <c r="P36" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>som</v>
       </c>
       <c r="Q36" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>0</v>
       </c>
       <c r="R36" t="str">
-        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>null</v>
       </c>
       <c r="S36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="T36" t="str">
         <v>null</v>
       </c>
       <c r="U36" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="V36" t="str">
-        <v>50</v>
+        <v>null</v>
       </c>
       <c r="W36" t="str">
         <v>null</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3404,7 +3404,7 @@
         <v>null</v>
       </c>
       <c r="E37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F37" t="str">
         <v>null</v>
@@ -3416,37 +3416,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I37" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
       </c>
       <c r="J37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K37" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L37" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M37" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O37" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P37" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
+        <v>product</v>
       </c>
       <c r="Q37" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
+        <v>null</v>
       </c>
       <c r="R37" t="str">
-        <v>&gt; 8,5</v>
+        <v>null</v>
       </c>
       <c r="S37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="T37" t="str">
         <v>null</v>
@@ -3455,7 +3455,7 @@
         <v>null</v>
       </c>
       <c r="V37" t="str">
-        <v>8.5</v>
+        <v>null</v>
       </c>
       <c r="W37" t="str">
         <v>null</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3487,7 +3487,7 @@
         <v>null</v>
       </c>
       <c r="E38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F38" t="str">
         <v>null</v>
@@ -3499,46 +3499,46 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I38" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
       </c>
       <c r="J38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K38" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L38" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M38" t="str">
-        <v>null</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="N38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O38" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="P38" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>product</v>
       </c>
       <c r="Q38" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="R38" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="S38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>null</v>
       </c>
       <c r="T38" t="str">
         <v>null</v>
       </c>
       <c r="U38" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="V38" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="W38" t="str">
         <v>null</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3570,7 +3570,7 @@
         <v>null</v>
       </c>
       <c r="E39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F39" t="str">
         <v>null</v>
@@ -3582,43 +3582,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I39" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
       </c>
       <c r="J39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K39" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L39" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M39" t="str">
-        <v>null</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O39" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="P39" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>product</v>
       </c>
       <c r="Q39" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="R39" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="S39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="T39" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="U39" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V39" t="str">
         <v>null</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3653,7 +3653,7 @@
         <v>null</v>
       </c>
       <c r="E40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F40" t="str">
         <v>null</v>
@@ -3665,43 +3665,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I40" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
       </c>
       <c r="J40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K40" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L40" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M40" t="str">
-        <v>null</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O40" t="str">
         <v>null</v>
       </c>
       <c r="P40" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>product</v>
       </c>
       <c r="Q40" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>1.4</v>
       </c>
       <c r="R40" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="S40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="T40" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="U40" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V40" t="str">
         <v>null</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3736,7 +3736,7 @@
         <v>null</v>
       </c>
       <c r="E41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F41" t="str">
         <v>null</v>
@@ -3748,43 +3748,43 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I41" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
       </c>
       <c r="J41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K41" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L41" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="M41" t="str">
-        <v>null</v>
+        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="N41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O41" t="str">
         <v>null</v>
       </c>
       <c r="P41" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>som</v>
       </c>
       <c r="Q41" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>1</v>
       </c>
       <c r="R41" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="S41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="T41" t="str">
-        <v>0.6</v>
+        <v>null</v>
       </c>
       <c r="U41" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V41" t="str">
         <v>null</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3819,7 +3819,7 @@
         <v>null</v>
       </c>
       <c r="E42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F42" t="str">
         <v>null</v>
@@ -3831,46 +3831,46 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="I42" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
       </c>
       <c r="J42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K42" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L42" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="M42" t="str">
-        <v>null</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="N42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O42" t="str">
         <v>null</v>
       </c>
       <c r="P42" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>som</v>
       </c>
       <c r="Q42" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>0</v>
       </c>
       <c r="R42" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="S42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="T42" t="str">
         <v>null</v>
       </c>
       <c r="U42" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="V42" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="W42" t="str">
         <v>null</v>
@@ -3890,19 +3890,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/PH</v>
       </c>
       <c r="D43" t="str">
         <v>null</v>
       </c>
       <c r="E43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F43" t="str">
         <v>null</v>
@@ -3911,13 +3911,13 @@
         <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I43" t="str">
-        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+        <v>Zuurtegraad waswater S1 systeem</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -3929,31 +3929,31 @@
         <v>null</v>
       </c>
       <c r="N43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O43" t="str">
         <v>null</v>
       </c>
       <c r="P43" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="Q43" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>null</v>
       </c>
       <c r="R43" t="str">
-        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>false</v>
       </c>
       <c r="S43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="T43" t="str">
         <v>null</v>
       </c>
       <c r="U43" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="V43" t="str">
-        <v>1</v>
+        <v>null</v>
       </c>
       <c r="W43" t="str">
         <v>null</v>
@@ -3973,19 +3973,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D44" t="str">
         <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F44" t="str">
         <v>null</v>
@@ -3994,13 +3994,13 @@
         <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I44" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+        <v>Drukval S2 systeem</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -4012,31 +4012,31 @@
         <v>null</v>
       </c>
       <c r="N44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O44" t="str">
         <v>null</v>
       </c>
       <c r="P44" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="Q44" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="R44" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>true</v>
       </c>
       <c r="S44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>exact</v>
       </c>
       <c r="T44" t="str">
         <v>null</v>
       </c>
       <c r="U44" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="V44" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="W44" t="str">
         <v>null</v>
@@ -4056,19 +4056,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>http://qudt.org/vocab/unit/PH</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D45" t="str">
         <v>null</v>
       </c>
       <c r="E45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F45" t="str">
         <v>null</v>
@@ -4080,7 +4080,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I45" t="str">
-        <v>Zuurtegraad waswater S1 systeem</v>
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
       </c>
       <c r="J45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4095,7 +4095,7 @@
         <v>null</v>
       </c>
       <c r="N45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O45" t="str">
         <v>null</v>
@@ -4107,10 +4107,10 @@
         <v>null</v>
       </c>
       <c r="R45" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>minimum</v>
       </c>
       <c r="T45" t="str">
         <v>null</v>
@@ -4122,7 +4122,7 @@
         <v>null</v>
       </c>
       <c r="W45" t="str">
-        <v>false</v>
+        <v>null</v>
       </c>
       <c r="X45" t="str">
         <v>null</v>
@@ -4139,19 +4139,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D46" t="str">
         <v>null</v>
       </c>
       <c r="E46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F46" t="str">
         <v>null</v>
@@ -4163,7 +4163,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I46" t="str">
-        <v>Drukval S2 systeem</v>
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
       </c>
       <c r="J46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4178,7 +4178,7 @@
         <v>null</v>
       </c>
       <c r="N46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="O46" t="str">
         <v>null</v>
@@ -4190,10 +4190,10 @@
         <v>null</v>
       </c>
       <c r="R46" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>minimum</v>
       </c>
       <c r="T46" t="str">
         <v>null</v>
@@ -4205,10 +4205,10 @@
         <v>null</v>
       </c>
       <c r="W46" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X46" t="str">
-        <v>exact</v>
+        <v>null</v>
       </c>
       <c r="Y46" t="str">
         <v>null</v>
@@ -4222,19 +4222,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D47" t="str">
         <v>null</v>
       </c>
       <c r="E47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F47" t="str">
         <v>null</v>
@@ -4246,7 +4246,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I47" t="str">
-        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
+        <v>Biobedspuiwaterproductie S3 systeem</v>
       </c>
       <c r="J47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4261,7 +4261,7 @@
         <v>null</v>
       </c>
       <c r="N47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="O47" t="str">
         <v>null</v>
@@ -4273,10 +4273,10 @@
         <v>null</v>
       </c>
       <c r="R47" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>minimum</v>
       </c>
       <c r="T47" t="str">
         <v>null</v>
@@ -4288,10 +4288,10 @@
         <v>null</v>
       </c>
       <c r="W47" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X47" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y47" t="str">
         <v>null</v>
@@ -4305,19 +4305,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D48" t="str">
         <v>null</v>
       </c>
       <c r="E48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F48" t="str">
         <v>null</v>
@@ -4329,7 +4329,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I48" t="str">
-        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+        <v>Biobedspoelwaterproductie S3 systeem</v>
       </c>
       <c r="J48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4344,7 +4344,7 @@
         <v>null</v>
       </c>
       <c r="N48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="O48" t="str">
         <v>null</v>
@@ -4356,10 +4356,10 @@
         <v>null</v>
       </c>
       <c r="R48" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>minimum</v>
       </c>
       <c r="T48" t="str">
         <v>null</v>
@@ -4371,10 +4371,10 @@
         <v>null</v>
       </c>
       <c r="W48" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X48" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y48" t="str">
         <v>null</v>
@@ -4388,19 +4388,19 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D49" t="str">
         <v>null</v>
       </c>
       <c r="E49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="F49" t="str">
         <v>null</v>
@@ -4412,7 +4412,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I49" t="str">
-        <v>Biobedspuiwaterproductie S3 systeem</v>
+        <v>Drukval S3 systeem</v>
       </c>
       <c r="J49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4427,7 +4427,7 @@
         <v>null</v>
       </c>
       <c r="N49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O49" t="str">
         <v>null</v>
@@ -4439,10 +4439,10 @@
         <v>null</v>
       </c>
       <c r="R49" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>maximum</v>
       </c>
       <c r="T49" t="str">
         <v>null</v>
@@ -4454,10 +4454,10 @@
         <v>null</v>
       </c>
       <c r="W49" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X49" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y49" t="str">
         <v>null</v>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
       </c>
       <c r="D50" t="str">
         <v>null</v>
       </c>
       <c r="E50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F50" t="str">
         <v>null</v>
@@ -4495,7 +4495,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I50" t="str">
-        <v>Biobedspoelwaterproductie S3 systeem</v>
+        <v>Geleidbaarheid waswater S1 systeem</v>
       </c>
       <c r="J50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4510,7 +4510,7 @@
         <v>null</v>
       </c>
       <c r="N50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O50" t="str">
         <v>null</v>
@@ -4522,10 +4522,10 @@
         <v>null</v>
       </c>
       <c r="R50" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>maximum</v>
       </c>
       <c r="T50" t="str">
         <v>null</v>
@@ -4537,10 +4537,10 @@
         <v>null</v>
       </c>
       <c r="W50" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X50" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y50" t="str">
         <v>null</v>
@@ -4554,19 +4554,19 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D51" t="str">
         <v>null</v>
       </c>
       <c r="E51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F51" t="str">
         <v>null</v>
@@ -4578,7 +4578,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I51" t="str">
-        <v>Drukval S3 systeem</v>
+        <v>Waswaterdebiet S1 systeem</v>
       </c>
       <c r="J51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4593,7 +4593,7 @@
         <v>null</v>
       </c>
       <c r="N51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O51" t="str">
         <v>null</v>
@@ -4605,10 +4605,10 @@
         <v>null</v>
       </c>
       <c r="R51" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>minimum</v>
       </c>
       <c r="T51" t="str">
         <v>null</v>
@@ -4620,10 +4620,10 @@
         <v>null</v>
       </c>
       <c r="W51" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X51" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="Y51" t="str">
         <v>null</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D52" t="str">
         <v>null</v>
       </c>
       <c r="E52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F52" t="str">
         <v>null</v>
@@ -4661,7 +4661,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I52" t="str">
-        <v>Geleidbaarheid waswater S1 systeem</v>
+        <v>Spuiwaterdebiet S1 systeem</v>
       </c>
       <c r="J52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4676,7 +4676,7 @@
         <v>null</v>
       </c>
       <c r="N52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O52" t="str">
         <v>null</v>
@@ -4688,10 +4688,10 @@
         <v>null</v>
       </c>
       <c r="R52" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>minimum</v>
       </c>
       <c r="T52" t="str">
         <v>null</v>
@@ -4703,10 +4703,10 @@
         <v>null</v>
       </c>
       <c r="W52" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X52" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="Y52" t="str">
         <v>null</v>
@@ -4720,19 +4720,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D53" t="str">
         <v>null</v>
       </c>
       <c r="E53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="F53" t="str">
         <v>null</v>
@@ -4744,7 +4744,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I53" t="str">
-        <v>Waswaterdebiet S1 systeem</v>
+        <v>Drukval S1 systeem</v>
       </c>
       <c r="J53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4759,7 +4759,7 @@
         <v>null</v>
       </c>
       <c r="N53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O53" t="str">
         <v>null</v>
@@ -4771,10 +4771,10 @@
         <v>null</v>
       </c>
       <c r="R53" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>exact</v>
       </c>
       <c r="T53" t="str">
         <v>null</v>
@@ -4786,10 +4786,10 @@
         <v>null</v>
       </c>
       <c r="W53" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X53" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y53" t="str">
         <v>null</v>
@@ -4803,19 +4803,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>http://qudt.org/vocab/unit/PH</v>
       </c>
       <c r="D54" t="str">
         <v>null</v>
       </c>
       <c r="E54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F54" t="str">
         <v>null</v>
@@ -4827,7 +4827,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I54" t="str">
-        <v>Spuiwaterdebiet S1 systeem</v>
+        <v>Zuurtegraad waswater S2 systeem</v>
       </c>
       <c r="J54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4842,7 +4842,7 @@
         <v>null</v>
       </c>
       <c r="N54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O54" t="str">
         <v>null</v>
@@ -4854,10 +4854,10 @@
         <v>null</v>
       </c>
       <c r="R54" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>maximum</v>
       </c>
       <c r="T54" t="str">
         <v>null</v>
@@ -4869,10 +4869,10 @@
         <v>null</v>
       </c>
       <c r="W54" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X54" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y54" t="str">
         <v>null</v>
@@ -4886,19 +4886,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
       </c>
       <c r="D55" t="str">
         <v>null</v>
       </c>
       <c r="E55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F55" t="str">
         <v>null</v>
@@ -4910,7 +4910,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I55" t="str">
-        <v>Drukval S1 systeem</v>
+        <v>Geleidbaarheid waswater S2 systeem</v>
       </c>
       <c r="J55" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -4925,7 +4925,7 @@
         <v>null</v>
       </c>
       <c r="N55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O55" t="str">
         <v>null</v>
@@ -4937,10 +4937,10 @@
         <v>null</v>
       </c>
       <c r="R55" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>maximum</v>
       </c>
       <c r="T55" t="str">
         <v>null</v>
@@ -4952,10 +4952,10 @@
         <v>null</v>
       </c>
       <c r="W55" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X55" t="str">
-        <v>exact</v>
+        <v>null</v>
       </c>
       <c r="Y55" t="str">
         <v>null</v>
@@ -4969,19 +4969,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>http://qudt.org/vocab/unit/PH</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D56" t="str">
         <v>null</v>
       </c>
       <c r="E56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F56" t="str">
         <v>null</v>
@@ -4993,7 +4993,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I56" t="str">
-        <v>Zuurtegraad waswater S2 systeem</v>
+        <v>Waswaterdebiet S2 systeem</v>
       </c>
       <c r="J56" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -5008,7 +5008,7 @@
         <v>null</v>
       </c>
       <c r="N56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O56" t="str">
         <v>null</v>
@@ -5020,10 +5020,10 @@
         <v>null</v>
       </c>
       <c r="R56" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>minimum</v>
       </c>
       <c r="T56" t="str">
         <v>null</v>
@@ -5035,10 +5035,10 @@
         <v>null</v>
       </c>
       <c r="W56" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X56" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="Y56" t="str">
         <v>null</v>
@@ -5052,19 +5052,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D57" t="str">
         <v>null</v>
       </c>
       <c r="E57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="F57" t="str">
         <v>null</v>
@@ -5076,7 +5076,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="I57" t="str">
-        <v>Geleidbaarheid waswater S2 systeem</v>
+        <v>Spuiwaterdebiet S2 systeem</v>
       </c>
       <c r="J57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
@@ -5091,7 +5091,7 @@
         <v>null</v>
       </c>
       <c r="N57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O57" t="str">
         <v>null</v>
@@ -5103,10 +5103,10 @@
         <v>null</v>
       </c>
       <c r="R57" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>minimum</v>
       </c>
       <c r="T57" t="str">
         <v>null</v>
@@ -5118,10 +5118,10 @@
         <v>null</v>
       </c>
       <c r="W57" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X57" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="Y57" t="str">
         <v>null</v>
@@ -5135,19 +5135,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>null</v>
       </c>
       <c r="D58" t="str">
         <v>null</v>
       </c>
       <c r="E58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="F58" t="str">
         <v>null</v>
@@ -5156,13 +5156,13 @@
         <v>null</v>
       </c>
       <c r="H58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="I58" t="str">
-        <v>Waswaterdebiet S2 systeem</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="J58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="K58" t="str">
         <v>null</v>
@@ -5189,7 +5189,7 @@
         <v>null</v>
       </c>
       <c r="S58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="T58" t="str">
         <v>null</v>
@@ -5201,10 +5201,10 @@
         <v>null</v>
       </c>
       <c r="W58" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X58" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y58" t="str">
         <v>null</v>
@@ -5218,19 +5218,19 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>null</v>
       </c>
       <c r="D59" t="str">
         <v>null</v>
       </c>
       <c r="E59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>null</v>
       </c>
       <c r="F59" t="str">
         <v>null</v>
@@ -5239,13 +5239,13 @@
         <v>null</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="I59" t="str">
-        <v>Spuiwaterdebiet S2 systeem</v>
+        <v>Lege stal</v>
       </c>
       <c r="J59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="K59" t="str">
         <v>null</v>
@@ -5272,7 +5272,7 @@
         <v>null</v>
       </c>
       <c r="S59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="T59" t="str">
         <v>null</v>
@@ -5284,10 +5284,10 @@
         <v>null</v>
       </c>
       <c r="W59" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="X59" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="Y59" t="str">
         <v>null</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5322,19 +5322,19 @@
         <v>null</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="I60" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>In onderhoud</v>
       </c>
       <c r="J60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="K60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="L60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M60" t="str">
         <v>null</v>
@@ -5343,7 +5343,7 @@
         <v>null</v>
       </c>
       <c r="O60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P60" t="str">
         <v>null</v>
@@ -5373,7 +5373,7 @@
         <v>null</v>
       </c>
       <c r="Y60" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="Z60" t="str">
         <v>null</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5405,19 +5405,19 @@
         <v>null</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="I61" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>Operationeel</v>
       </c>
       <c r="J61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="K61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="L61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M61" t="str">
         <v>null</v>
@@ -5426,7 +5426,7 @@
         <v>null</v>
       </c>
       <c r="O61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P61" t="str">
         <v>null</v>
@@ -5456,7 +5456,7 @@
         <v>null</v>
       </c>
       <c r="Y61" t="str">
-        <v>S2</v>
+        <v>null</v>
       </c>
       <c r="Z61" t="str">
         <v>null</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5488,19 +5488,19 @@
         <v>null</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="I62" t="str">
-        <v>Biobed</v>
+        <v>Storing</v>
       </c>
       <c r="J62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="K62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="L62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="M62" t="str">
         <v>null</v>
@@ -5509,7 +5509,7 @@
         <v>null</v>
       </c>
       <c r="O62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="P62" t="str">
         <v>null</v>
@@ -5539,7 +5539,7 @@
         <v>null</v>
       </c>
       <c r="Y62" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="Z62" t="str">
         <v>null</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5571,13 +5571,13 @@
         <v>null</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I63" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="J63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="K63" t="str">
         <v>null</v>
@@ -5607,19 +5607,19 @@
         <v>null</v>
       </c>
       <c r="T63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="U63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="W63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="X63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y63" t="str">
         <v>null</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5654,13 +5654,13 @@
         <v>null</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I64" t="str">
-        <v>Lege stal</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="J64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="K64" t="str">
         <v>null</v>
@@ -5696,13 +5696,13 @@
         <v>null</v>
       </c>
       <c r="V64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="W64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="X64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="Y64" t="str">
         <v>null</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5737,13 +5737,13 @@
         <v>null</v>
       </c>
       <c r="H65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I65" t="str">
-        <v>In onderhoud</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="J65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="K65" t="str">
         <v>null</v>
@@ -5773,10 +5773,10 @@
         <v>null</v>
       </c>
       <c r="T65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="U65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V65" t="str">
         <v>null</v>
@@ -5785,10 +5785,10 @@
         <v>null</v>
       </c>
       <c r="X65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y65" t="str">
-        <v>null</v>
+        <v>S1</v>
       </c>
       <c r="Z65" t="str">
         <v>null</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5820,13 +5820,13 @@
         <v>null</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I66" t="str">
-        <v>Operationeel</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="J66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="K66" t="str">
         <v>null</v>
@@ -5856,10 +5856,10 @@
         <v>null</v>
       </c>
       <c r="T66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="U66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V66" t="str">
         <v>null</v>
@@ -5868,10 +5868,10 @@
         <v>null</v>
       </c>
       <c r="X66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y66" t="str">
-        <v>null</v>
+        <v>S2</v>
       </c>
       <c r="Z66" t="str">
         <v>null</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5903,13 +5903,13 @@
         <v>null</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="I67" t="str">
-        <v>Storing</v>
+        <v>Biobed</v>
       </c>
       <c r="J67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="K67" t="str">
         <v>null</v>
@@ -5939,10 +5939,10 @@
         <v>null</v>
       </c>
       <c r="T67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="U67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V67" t="str">
         <v>null</v>
@@ -5951,10 +5951,10 @@
         <v>null</v>
       </c>
       <c r="X67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y67" t="str">
-        <v>null</v>
+        <v>S3</v>
       </c>
       <c r="Z67" t="str">
         <v>null</v>
@@ -6040,7 +6040,7 @@
         <v>null</v>
       </c>
       <c r="Z68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA68" t="str">
         <v>null</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -416,22 +416,22 @@
         <v>subject</v>
       </c>
       <c r="E1" t="str">
-        <v>dct_type</v>
+        <v>relevantQuantityKind</v>
       </c>
       <c r="F1" t="str">
-        <v>relevantQuantityKind</v>
+        <v>seeAlso</v>
       </c>
       <c r="G1" t="str">
-        <v>seeAlso</v>
+        <v>inScheme</v>
       </c>
       <c r="H1" t="str">
-        <v>inScheme</v>
+        <v>prefLabel</v>
       </c>
       <c r="I1" t="str">
-        <v>prefLabel</v>
+        <v>topConceptOf</v>
       </c>
       <c r="J1" t="str">
-        <v>topConceptOf</v>
+        <v>relevantLZS</v>
       </c>
       <c r="K1" t="str">
         <v>definition</v>
@@ -1246,22 +1246,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E11" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Biobedspoelwaterproductie</v>
+      </c>
+      <c r="I11" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F11" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
-      </c>
-      <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
-      </c>
-      <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Biobedspoelwaterproductie</v>
-      </c>
-      <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1329,22 +1329,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E12" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+      </c>
+      <c r="G12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Biobedspuiwaterproductie</v>
+      </c>
+      <c r="I12" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F12" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
-      </c>
-      <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
-      </c>
-      <c r="H12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Biobedspuiwaterproductie</v>
-      </c>
-      <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1412,22 +1412,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="E13" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
+      </c>
+      <c r="G13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Drukval over het systeem</v>
+      </c>
+      <c r="I13" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F13" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
-      </c>
-      <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
-      </c>
-      <c r="H13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Drukval over het systeem</v>
-      </c>
-      <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -1495,22 +1495,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E14" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
+      </c>
+      <c r="G14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Geleidbaarheid van het waswater</v>
+      </c>
+      <c r="I14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F14" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
-      </c>
-      <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
-      </c>
-      <c r="H14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I14" t="str">
-        <v>Geleidbaarheid van het waswater</v>
-      </c>
-      <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -1578,22 +1578,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E15" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+      </c>
+      <c r="G15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Spuiwaterproductie</v>
+      </c>
+      <c r="I15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F15" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
-      </c>
-      <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
-      </c>
-      <c r="H15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I15" t="str">
-        <v>Spuiwaterproductie</v>
-      </c>
-      <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -1661,22 +1661,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="E16" t="str">
+        <v>null</v>
+      </c>
+      <c r="F16" t="str">
+        <v>null</v>
+      </c>
+      <c r="G16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Stalbezetting</v>
+      </c>
+      <c r="I16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F16" t="str">
-        <v>null</v>
-      </c>
-      <c r="G16" t="str">
-        <v>null</v>
-      </c>
-      <c r="H16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I16" t="str">
-        <v>Stalbezetting</v>
-      </c>
-      <c r="J16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K16" t="str">
         <v>null</v>
@@ -1744,22 +1744,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="E17" t="str">
+        <v>null</v>
+      </c>
+      <c r="F17" t="str">
+        <v>null</v>
+      </c>
+      <c r="G17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H17" t="str">
+        <v>SysteemStatus</v>
+      </c>
+      <c r="I17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F17" t="str">
-        <v>null</v>
-      </c>
-      <c r="G17" t="str">
-        <v>null</v>
-      </c>
-      <c r="H17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I17" t="str">
-        <v>SysteemStatus</v>
-      </c>
-      <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -1827,22 +1827,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E18" t="str">
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Waswaterdebiet over het waspakket</v>
+      </c>
+      <c r="I18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F18" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
-      </c>
-      <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
-      </c>
-      <c r="H18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I18" t="str">
-        <v>Waswaterdebiet over het waspakket</v>
-      </c>
-      <c r="J18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K18" t="str">
         <v>null</v>
@@ -1910,22 +1910,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E19" t="str">
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+      </c>
+      <c r="I19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F19" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
-      </c>
-      <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
-      </c>
-      <c r="H19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I19" t="str">
-        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
-      </c>
-      <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1993,22 +1993,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E20" t="str">
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+      </c>
+      <c r="I20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F20" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
-      </c>
-      <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
-      </c>
-      <c r="H20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I20" t="str">
-        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
-      </c>
-      <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -2076,22 +2076,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E21" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+      </c>
+      <c r="G21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Zuurtegraad van het waswater</v>
+      </c>
+      <c r="I21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="J21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F21" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
-      </c>
-      <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
-      </c>
-      <c r="H21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="I21" t="str">
-        <v>Zuurtegraad van het waswater</v>
-      </c>
-      <c r="J21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="K21" t="str">
         <v>null</v>
@@ -2165,16 +2165,16 @@
         <v>null</v>
       </c>
       <c r="G22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H22" t="str">
+        <v>Het elektronisch monitoringssysteem</v>
+      </c>
+      <c r="I22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
-      <c r="I22" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
-      </c>
       <c r="J22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="K22" t="str">
         <v>null</v>
@@ -2248,16 +2248,16 @@
         <v>null</v>
       </c>
       <c r="G23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H23" t="str">
+        <v>Lucht</v>
+      </c>
+      <c r="I23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
-      <c r="I23" t="str">
-        <v>Lucht</v>
-      </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -2331,16 +2331,16 @@
         <v>null</v>
       </c>
       <c r="G24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H24" t="str">
+        <v>Spuiwater</v>
+      </c>
+      <c r="I24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
-      <c r="I24" t="str">
-        <v>Spuiwater</v>
-      </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -2414,16 +2414,16 @@
         <v>null</v>
       </c>
       <c r="G25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H25" t="str">
+        <v>Stal</v>
+      </c>
+      <c r="I25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
-      <c r="I25" t="str">
-        <v>Stal</v>
-      </c>
       <c r="J25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="K25" t="str">
         <v>null</v>
@@ -2497,16 +2497,16 @@
         <v>null</v>
       </c>
       <c r="G26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H26" t="str">
+        <v>Waswater</v>
+      </c>
+      <c r="I26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
-      <c r="I26" t="str">
-        <v>Waswater</v>
-      </c>
       <c r="J26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="K26" t="str">
         <v>null</v>
@@ -2574,22 +2574,22 @@
         <v>null</v>
       </c>
       <c r="E27" t="str">
+        <v>null</v>
+      </c>
+      <c r="F27" t="str">
+        <v>null</v>
+      </c>
+      <c r="G27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
+      </c>
+      <c r="I27" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F27" t="str">
-        <v>null</v>
-      </c>
-      <c r="G27" t="str">
-        <v>null</v>
-      </c>
-      <c r="H27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I27" t="str">
-        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
-      </c>
-      <c r="J27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K27" t="str">
         <v>De zuurtegraad van het waswater is kleiner dan 6</v>
@@ -2657,22 +2657,22 @@
         <v>null</v>
       </c>
       <c r="E28" t="str">
+        <v>null</v>
+      </c>
+      <c r="F28" t="str">
+        <v>null</v>
+      </c>
+      <c r="G28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
+      </c>
+      <c r="I28" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F28" t="str">
-        <v>null</v>
-      </c>
-      <c r="G28" t="str">
-        <v>null</v>
-      </c>
-      <c r="H28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I28" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
-      </c>
-      <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K28" t="str">
         <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -2740,22 +2740,22 @@
         <v>null</v>
       </c>
       <c r="E29" t="str">
+        <v>null</v>
+      </c>
+      <c r="F29" t="str">
+        <v>null</v>
+      </c>
+      <c r="G29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
+      </c>
+      <c r="I29" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F29" t="str">
-        <v>null</v>
-      </c>
-      <c r="G29" t="str">
-        <v>null</v>
-      </c>
-      <c r="H29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I29" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
-      </c>
-      <c r="J29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K29" t="str">
         <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -2823,22 +2823,22 @@
         <v>null</v>
       </c>
       <c r="E30" t="str">
+        <v>null</v>
+      </c>
+      <c r="F30" t="str">
+        <v>null</v>
+      </c>
+      <c r="G30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+      </c>
+      <c r="I30" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F30" t="str">
-        <v>null</v>
-      </c>
-      <c r="G30" t="str">
-        <v>null</v>
-      </c>
-      <c r="H30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I30" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
-      </c>
-      <c r="J30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K30" t="str">
         <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -2906,22 +2906,22 @@
         <v>null</v>
       </c>
       <c r="E31" t="str">
+        <v>null</v>
+      </c>
+      <c r="F31" t="str">
+        <v>null</v>
+      </c>
+      <c r="G31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+      </c>
+      <c r="I31" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F31" t="str">
-        <v>null</v>
-      </c>
-      <c r="G31" t="str">
-        <v>null</v>
-      </c>
-      <c r="H31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I31" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
-      </c>
-      <c r="J31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K31" t="str">
         <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -2989,22 +2989,22 @@
         <v>null</v>
       </c>
       <c r="E32" t="str">
+        <v>null</v>
+      </c>
+      <c r="F32" t="str">
+        <v>null</v>
+      </c>
+      <c r="G32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+      </c>
+      <c r="I32" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F32" t="str">
-        <v>null</v>
-      </c>
-      <c r="G32" t="str">
-        <v>null</v>
-      </c>
-      <c r="H32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I32" t="str">
-        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
-      </c>
-      <c r="J32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K32" t="str">
         <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3072,22 +3072,22 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
+        <v>null</v>
+      </c>
+      <c r="F33" t="str">
+        <v>null</v>
+      </c>
+      <c r="G33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+      </c>
+      <c r="I33" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F33" t="str">
-        <v>null</v>
-      </c>
-      <c r="G33" t="str">
-        <v>null</v>
-      </c>
-      <c r="H33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I33" t="str">
-        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
-      </c>
-      <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K33" t="str">
         <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3155,22 +3155,22 @@
         <v>null</v>
       </c>
       <c r="E34" t="str">
+        <v>null</v>
+      </c>
+      <c r="F34" t="str">
+        <v>null</v>
+      </c>
+      <c r="G34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+      </c>
+      <c r="I34" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F34" t="str">
-        <v>null</v>
-      </c>
-      <c r="G34" t="str">
-        <v>null</v>
-      </c>
-      <c r="H34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I34" t="str">
-        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
-      </c>
-      <c r="J34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K34" t="str">
         <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3238,22 +3238,22 @@
         <v>null</v>
       </c>
       <c r="E35" t="str">
+        <v>null</v>
+      </c>
+      <c r="F35" t="str">
+        <v>null</v>
+      </c>
+      <c r="G35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+      </c>
+      <c r="I35" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F35" t="str">
-        <v>null</v>
-      </c>
-      <c r="G35" t="str">
-        <v>null</v>
-      </c>
-      <c r="H35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I35" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
-      </c>
-      <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K35" t="str">
         <v>De zuurtegraad van het waswater is groter dan 8,5</v>
@@ -3321,22 +3321,22 @@
         <v>null</v>
       </c>
       <c r="E36" t="str">
+        <v>null</v>
+      </c>
+      <c r="F36" t="str">
+        <v>null</v>
+      </c>
+      <c r="G36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+      </c>
+      <c r="I36" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F36" t="str">
-        <v>null</v>
-      </c>
-      <c r="G36" t="str">
-        <v>null</v>
-      </c>
-      <c r="H36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I36" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
-      </c>
-      <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K36" t="str">
         <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3404,22 +3404,22 @@
         <v>null</v>
       </c>
       <c r="E37" t="str">
+        <v>null</v>
+      </c>
+      <c r="F37" t="str">
+        <v>null</v>
+      </c>
+      <c r="G37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+      </c>
+      <c r="I37" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F37" t="str">
-        <v>null</v>
-      </c>
-      <c r="G37" t="str">
-        <v>null</v>
-      </c>
-      <c r="H37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I37" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
-      </c>
-      <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K37" t="str">
         <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3487,22 +3487,22 @@
         <v>null</v>
       </c>
       <c r="E38" t="str">
+        <v>null</v>
+      </c>
+      <c r="F38" t="str">
+        <v>null</v>
+      </c>
+      <c r="G38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+      </c>
+      <c r="I38" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F38" t="str">
-        <v>null</v>
-      </c>
-      <c r="G38" t="str">
-        <v>null</v>
-      </c>
-      <c r="H38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I38" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
-      </c>
-      <c r="J38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K38" t="str">
         <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3570,22 +3570,22 @@
         <v>null</v>
       </c>
       <c r="E39" t="str">
+        <v>null</v>
+      </c>
+      <c r="F39" t="str">
+        <v>null</v>
+      </c>
+      <c r="G39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
+      </c>
+      <c r="I39" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F39" t="str">
-        <v>null</v>
-      </c>
-      <c r="G39" t="str">
-        <v>null</v>
-      </c>
-      <c r="H39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I39" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
-      </c>
-      <c r="J39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K39" t="str">
         <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3653,22 +3653,22 @@
         <v>null</v>
       </c>
       <c r="E40" t="str">
+        <v>null</v>
+      </c>
+      <c r="F40" t="str">
+        <v>null</v>
+      </c>
+      <c r="G40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+      </c>
+      <c r="I40" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F40" t="str">
-        <v>null</v>
-      </c>
-      <c r="G40" t="str">
-        <v>null</v>
-      </c>
-      <c r="H40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I40" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
-      </c>
-      <c r="J40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K40" t="str">
         <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3736,22 +3736,22 @@
         <v>null</v>
       </c>
       <c r="E41" t="str">
+        <v>null</v>
+      </c>
+      <c r="F41" t="str">
+        <v>null</v>
+      </c>
+      <c r="G41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+      </c>
+      <c r="I41" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F41" t="str">
-        <v>null</v>
-      </c>
-      <c r="G41" t="str">
-        <v>null</v>
-      </c>
-      <c r="H41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I41" t="str">
-        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
-      </c>
-      <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K41" t="str">
         <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3819,22 +3819,22 @@
         <v>null</v>
       </c>
       <c r="E42" t="str">
+        <v>null</v>
+      </c>
+      <c r="F42" t="str">
+        <v>null</v>
+      </c>
+      <c r="G42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+      </c>
+      <c r="I42" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="J42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F42" t="str">
-        <v>null</v>
-      </c>
-      <c r="G42" t="str">
-        <v>null</v>
-      </c>
-      <c r="H42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="I42" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
-      </c>
-      <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="K42" t="str">
         <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
@@ -3902,22 +3902,22 @@
         <v>null</v>
       </c>
       <c r="E43" t="str">
+        <v>null</v>
+      </c>
+      <c r="F43" t="str">
+        <v>null</v>
+      </c>
+      <c r="G43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Zuurtegraad waswater S1 systeem</v>
+      </c>
+      <c r="I43" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F43" t="str">
-        <v>null</v>
-      </c>
-      <c r="G43" t="str">
-        <v>null</v>
-      </c>
-      <c r="H43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I43" t="str">
-        <v>Zuurtegraad waswater S1 systeem</v>
-      </c>
-      <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K43" t="str">
         <v>null</v>
@@ -3985,22 +3985,22 @@
         <v>null</v>
       </c>
       <c r="E44" t="str">
+        <v>null</v>
+      </c>
+      <c r="F44" t="str">
+        <v>null</v>
+      </c>
+      <c r="G44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Drukval S2 systeem</v>
+      </c>
+      <c r="I44" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F44" t="str">
-        <v>null</v>
-      </c>
-      <c r="G44" t="str">
-        <v>null</v>
-      </c>
-      <c r="H44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I44" t="str">
-        <v>Drukval S2 systeem</v>
-      </c>
-      <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K44" t="str">
         <v>null</v>
@@ -4068,22 +4068,22 @@
         <v>null</v>
       </c>
       <c r="E45" t="str">
+        <v>null</v>
+      </c>
+      <c r="F45" t="str">
+        <v>null</v>
+      </c>
+      <c r="G45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
+      </c>
+      <c r="I45" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F45" t="str">
-        <v>null</v>
-      </c>
-      <c r="G45" t="str">
-        <v>null</v>
-      </c>
-      <c r="H45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I45" t="str">
-        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
-      </c>
-      <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K45" t="str">
         <v>null</v>
@@ -4151,22 +4151,22 @@
         <v>null</v>
       </c>
       <c r="E46" t="str">
+        <v>null</v>
+      </c>
+      <c r="F46" t="str">
+        <v>null</v>
+      </c>
+      <c r="G46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+      </c>
+      <c r="I46" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F46" t="str">
-        <v>null</v>
-      </c>
-      <c r="G46" t="str">
-        <v>null</v>
-      </c>
-      <c r="H46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I46" t="str">
-        <v>Waswaterdebiet bevloeiing S3 systeem</v>
-      </c>
-      <c r="J46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K46" t="str">
         <v>null</v>
@@ -4234,22 +4234,22 @@
         <v>null</v>
       </c>
       <c r="E47" t="str">
+        <v>null</v>
+      </c>
+      <c r="F47" t="str">
+        <v>null</v>
+      </c>
+      <c r="G47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Biobedspuiwaterproductie S3 systeem</v>
+      </c>
+      <c r="I47" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F47" t="str">
-        <v>null</v>
-      </c>
-      <c r="G47" t="str">
-        <v>null</v>
-      </c>
-      <c r="H47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I47" t="str">
-        <v>Biobedspuiwaterproductie S3 systeem</v>
-      </c>
-      <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K47" t="str">
         <v>null</v>
@@ -4317,22 +4317,22 @@
         <v>null</v>
       </c>
       <c r="E48" t="str">
+        <v>null</v>
+      </c>
+      <c r="F48" t="str">
+        <v>null</v>
+      </c>
+      <c r="G48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Biobedspoelwaterproductie S3 systeem</v>
+      </c>
+      <c r="I48" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F48" t="str">
-        <v>null</v>
-      </c>
-      <c r="G48" t="str">
-        <v>null</v>
-      </c>
-      <c r="H48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I48" t="str">
-        <v>Biobedspoelwaterproductie S3 systeem</v>
-      </c>
-      <c r="J48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K48" t="str">
         <v>null</v>
@@ -4400,22 +4400,22 @@
         <v>null</v>
       </c>
       <c r="E49" t="str">
+        <v>null</v>
+      </c>
+      <c r="F49" t="str">
+        <v>null</v>
+      </c>
+      <c r="G49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Drukval S3 systeem</v>
+      </c>
+      <c r="I49" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
-      </c>
-      <c r="F49" t="str">
-        <v>null</v>
-      </c>
-      <c r="G49" t="str">
-        <v>null</v>
-      </c>
-      <c r="H49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I49" t="str">
-        <v>Drukval S3 systeem</v>
-      </c>
-      <c r="J49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K49" t="str">
         <v>null</v>
@@ -4483,22 +4483,22 @@
         <v>null</v>
       </c>
       <c r="E50" t="str">
+        <v>null</v>
+      </c>
+      <c r="F50" t="str">
+        <v>null</v>
+      </c>
+      <c r="G50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Geleidbaarheid waswater S1 systeem</v>
+      </c>
+      <c r="I50" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F50" t="str">
-        <v>null</v>
-      </c>
-      <c r="G50" t="str">
-        <v>null</v>
-      </c>
-      <c r="H50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I50" t="str">
-        <v>Geleidbaarheid waswater S1 systeem</v>
-      </c>
-      <c r="J50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K50" t="str">
         <v>null</v>
@@ -4566,22 +4566,22 @@
         <v>null</v>
       </c>
       <c r="E51" t="str">
+        <v>null</v>
+      </c>
+      <c r="F51" t="str">
+        <v>null</v>
+      </c>
+      <c r="G51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Waswaterdebiet S1 systeem</v>
+      </c>
+      <c r="I51" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F51" t="str">
-        <v>null</v>
-      </c>
-      <c r="G51" t="str">
-        <v>null</v>
-      </c>
-      <c r="H51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I51" t="str">
-        <v>Waswaterdebiet S1 systeem</v>
-      </c>
-      <c r="J51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K51" t="str">
         <v>null</v>
@@ -4649,22 +4649,22 @@
         <v>null</v>
       </c>
       <c r="E52" t="str">
+        <v>null</v>
+      </c>
+      <c r="F52" t="str">
+        <v>null</v>
+      </c>
+      <c r="G52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Spuiwaterdebiet S1 systeem</v>
+      </c>
+      <c r="I52" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F52" t="str">
-        <v>null</v>
-      </c>
-      <c r="G52" t="str">
-        <v>null</v>
-      </c>
-      <c r="H52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I52" t="str">
-        <v>Spuiwaterdebiet S1 systeem</v>
-      </c>
-      <c r="J52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K52" t="str">
         <v>null</v>
@@ -4732,22 +4732,22 @@
         <v>null</v>
       </c>
       <c r="E53" t="str">
+        <v>null</v>
+      </c>
+      <c r="F53" t="str">
+        <v>null</v>
+      </c>
+      <c r="G53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Drukval S1 systeem</v>
+      </c>
+      <c r="I53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
-      </c>
-      <c r="F53" t="str">
-        <v>null</v>
-      </c>
-      <c r="G53" t="str">
-        <v>null</v>
-      </c>
-      <c r="H53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I53" t="str">
-        <v>Drukval S1 systeem</v>
-      </c>
-      <c r="J53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K53" t="str">
         <v>null</v>
@@ -4815,22 +4815,22 @@
         <v>null</v>
       </c>
       <c r="E54" t="str">
+        <v>null</v>
+      </c>
+      <c r="F54" t="str">
+        <v>null</v>
+      </c>
+      <c r="G54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Zuurtegraad waswater S2 systeem</v>
+      </c>
+      <c r="I54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F54" t="str">
-        <v>null</v>
-      </c>
-      <c r="G54" t="str">
-        <v>null</v>
-      </c>
-      <c r="H54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I54" t="str">
-        <v>Zuurtegraad waswater S2 systeem</v>
-      </c>
-      <c r="J54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K54" t="str">
         <v>null</v>
@@ -4898,22 +4898,22 @@
         <v>null</v>
       </c>
       <c r="E55" t="str">
+        <v>null</v>
+      </c>
+      <c r="F55" t="str">
+        <v>null</v>
+      </c>
+      <c r="G55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Geleidbaarheid waswater S2 systeem</v>
+      </c>
+      <c r="I55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J55" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F55" t="str">
-        <v>null</v>
-      </c>
-      <c r="G55" t="str">
-        <v>null</v>
-      </c>
-      <c r="H55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I55" t="str">
-        <v>Geleidbaarheid waswater S2 systeem</v>
-      </c>
-      <c r="J55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K55" t="str">
         <v>null</v>
@@ -4981,22 +4981,22 @@
         <v>null</v>
       </c>
       <c r="E56" t="str">
+        <v>null</v>
+      </c>
+      <c r="F56" t="str">
+        <v>null</v>
+      </c>
+      <c r="G56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Waswaterdebiet S2 systeem</v>
+      </c>
+      <c r="I56" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J56" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F56" t="str">
-        <v>null</v>
-      </c>
-      <c r="G56" t="str">
-        <v>null</v>
-      </c>
-      <c r="H56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I56" t="str">
-        <v>Waswaterdebiet S2 systeem</v>
-      </c>
-      <c r="J56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K56" t="str">
         <v>null</v>
@@ -5064,22 +5064,22 @@
         <v>null</v>
       </c>
       <c r="E57" t="str">
+        <v>null</v>
+      </c>
+      <c r="F57" t="str">
+        <v>null</v>
+      </c>
+      <c r="G57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Spuiwaterdebiet S2 systeem</v>
+      </c>
+      <c r="I57" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+      </c>
+      <c r="J57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
-      </c>
-      <c r="F57" t="str">
-        <v>null</v>
-      </c>
-      <c r="G57" t="str">
-        <v>null</v>
-      </c>
-      <c r="H57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="I57" t="str">
-        <v>Spuiwaterdebiet S2 systeem</v>
-      </c>
-      <c r="J57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="K57" t="str">
         <v>null</v>
@@ -5153,16 +5153,16 @@
         <v>null</v>
       </c>
       <c r="G58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="H58" t="str">
+        <v>Stal in gebruik, dieren aanwezig.</v>
+      </c>
+      <c r="I58" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
-      <c r="I58" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
-      </c>
       <c r="J58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="K58" t="str">
         <v>null</v>
@@ -5236,16 +5236,16 @@
         <v>null</v>
       </c>
       <c r="G59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="H59" t="str">
+        <v>Lege stal</v>
+      </c>
+      <c r="I59" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
-      <c r="I59" t="str">
-        <v>Lege stal</v>
-      </c>
       <c r="J59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="K59" t="str">
         <v>null</v>
@@ -5319,16 +5319,16 @@
         <v>null</v>
       </c>
       <c r="G60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="H60" t="str">
+        <v>In onderhoud</v>
+      </c>
+      <c r="I60" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
-      <c r="I60" t="str">
-        <v>In onderhoud</v>
-      </c>
       <c r="J60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="K60" t="str">
         <v>null</v>
@@ -5402,16 +5402,16 @@
         <v>null</v>
       </c>
       <c r="G61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="H61" t="str">
+        <v>Operationeel</v>
+      </c>
+      <c r="I61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
-      <c r="I61" t="str">
-        <v>Operationeel</v>
-      </c>
       <c r="J61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="K61" t="str">
         <v>null</v>
@@ -5485,16 +5485,16 @@
         <v>null</v>
       </c>
       <c r="G62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="H62" t="str">
+        <v>Storing</v>
+      </c>
+      <c r="I62" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
-      <c r="I62" t="str">
-        <v>Storing</v>
-      </c>
       <c r="J62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="K62" t="str">
         <v>null</v>
@@ -5568,13 +5568,13 @@
         <v>null</v>
       </c>
       <c r="G63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="I63" t="str">
-        <v>Luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="J63" t="str">
         <v>null</v>
@@ -5651,16 +5651,16 @@
         <v>null</v>
       </c>
       <c r="G64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="H64" t="str">
+        <v>Luchtzuiveringssysteem</v>
+      </c>
+      <c r="I64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
-      <c r="I64" t="str">
-        <v>Luchtzuiveringssysteem</v>
-      </c>
       <c r="J64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>null</v>
       </c>
       <c r="K64" t="str">
         <v>null</v>
@@ -5734,13 +5734,13 @@
         <v>null</v>
       </c>
       <c r="G65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="H65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="I65" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="J65" t="str">
         <v>null</v>
@@ -5817,13 +5817,13 @@
         <v>null</v>
       </c>
       <c r="G66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="I66" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="J66" t="str">
         <v>null</v>
@@ -5900,13 +5900,13 @@
         <v>null</v>
       </c>
       <c r="G67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>Biobed</v>
       </c>
       <c r="I67" t="str">
-        <v>Biobed</v>
+        <v>null</v>
       </c>
       <c r="J67" t="str">
         <v>null</v>
@@ -5986,10 +5986,10 @@
         <v>null</v>
       </c>
       <c r="H68" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem</v>
       </c>
       <c r="I68" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="J68" t="str">
         <v>null</v>
@@ -6069,10 +6069,10 @@
         <v>null</v>
       </c>
       <c r="H69" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
       </c>
       <c r="I69" t="str">
-        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+        <v>null</v>
       </c>
       <c r="J69" t="str">
         <v>null</v>
@@ -6152,10 +6152,10 @@
         <v>null</v>
       </c>
       <c r="H70" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem medium</v>
       </c>
       <c r="I70" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>null</v>
       </c>
       <c r="J70" t="str">
         <v>null</v>
@@ -6235,10 +6235,10 @@
         <v>null</v>
       </c>
       <c r="H71" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
       </c>
       <c r="I71" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>null</v>
       </c>
       <c r="J71" t="str">
         <v>null</v>
@@ -6318,10 +6318,10 @@
         <v>null</v>
       </c>
       <c r="H72" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem status</v>
       </c>
       <c r="I72" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>null</v>
       </c>
       <c r="J72" t="str">
         <v>null</v>
@@ -6401,10 +6401,10 @@
         <v>null</v>
       </c>
       <c r="H73" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
       </c>
       <c r="I73" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="J73" t="str">
         <v>null</v>
@@ -6484,10 +6484,10 @@
         <v>null</v>
       </c>
       <c r="H74" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
       </c>
       <c r="I74" t="str">
-        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J74" t="str">
         <v>null</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,22 +413,22 @@
         <v>applicableUnit</v>
       </c>
       <c r="D1" t="str">
+        <v>inScheme</v>
+      </c>
+      <c r="E1" t="str">
+        <v>prefLabel</v>
+      </c>
+      <c r="F1" t="str">
+        <v>topConceptOf</v>
+      </c>
+      <c r="G1" t="str">
         <v>subject</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>relevantQuantityKind</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>seeAlso</v>
-      </c>
-      <c r="G1" t="str">
-        <v>inScheme</v>
-      </c>
-      <c r="H1" t="str">
-        <v>prefLabel</v>
-      </c>
-      <c r="I1" t="str">
-        <v>topConceptOf</v>
       </c>
       <c r="J1" t="str">
         <v>relevantLZS</v>
@@ -1234,34 +1234,34 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/1</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
         <v>null</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
       </c>
       <c r="E11" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>Klasse 1</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="H11" t="str">
-        <v>Biobedspoelwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1317,34 +1317,34 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/2</v>
       </c>
       <c r="B12" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
         <v>null</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
       </c>
       <c r="E12" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>Klasse 2</v>
       </c>
       <c r="F12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="H12" t="str">
-        <v>Biobedspuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1400,34 +1400,34 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/3</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
         <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
       </c>
       <c r="E13" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
+        <v>Klasse 3</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="H13" t="str">
-        <v>Drukval over het systeem</v>
+        <v>null</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1492,25 +1492,25 @@
         <v>null</v>
       </c>
       <c r="D14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Biobedspoelwaterproductie</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="G14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
-      <c r="E14" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
-      </c>
-      <c r="F14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
-      </c>
-      <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
       <c r="H14" t="str">
-        <v>Geleidbaarheid van het waswater</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1575,25 +1575,25 @@
         <v>null</v>
       </c>
       <c r="D15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Biobedspuiwaterproductie</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="G15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
-      <c r="E15" t="str">
+      <c r="H15" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="F15" t="str">
+      <c r="I15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
-      <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Spuiwaterproductie</v>
-      </c>
-      <c r="I15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1658,22 +1658,22 @@
         <v>null</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>Drukval over het systeem</v>
       </c>
       <c r="F16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="H16" t="str">
-        <v>Stalbezetting</v>
+        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="J16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1741,25 +1741,25 @@
         <v>null</v>
       </c>
       <c r="D17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid van het waswater</v>
       </c>
       <c r="F17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="H17" t="str">
-        <v>SysteemStatus</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1824,22 +1824,22 @@
         <v>null</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E18" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>Spuiwaterproductie</v>
       </c>
       <c r="F18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="H18" t="str">
-        <v>Waswaterdebiet over het waspakket</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="J18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1907,25 +1907,25 @@
         <v>null</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E19" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>Stalbezetting</v>
       </c>
       <c r="F19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="H19" t="str">
-        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+        <v>null</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1990,25 +1990,25 @@
         <v>null</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E20" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>SysteemStatus</v>
       </c>
       <c r="F20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="H20" t="str">
-        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+        <v>null</v>
       </c>
       <c r="I20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -2073,22 +2073,22 @@
         <v>null</v>
       </c>
       <c r="D21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Waswaterdebiet over het waspakket</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="G21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
-      <c r="E21" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
-      </c>
-      <c r="F21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
-      </c>
-      <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
       <c r="H21" t="str">
-        <v>Zuurtegraad van het waswater</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="J21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -2147,34 +2147,34 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C22" t="str">
         <v>null</v>
       </c>
       <c r="D22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E22" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
       <c r="F22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="H22" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="J22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K22" t="str">
         <v>null</v>
@@ -2230,34 +2230,34 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="B23" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C23" t="str">
         <v>null</v>
       </c>
       <c r="D23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E23" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
       <c r="F23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="H23" t="str">
-        <v>Lucht</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -2313,34 +2313,34 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C24" t="str">
         <v>null</v>
       </c>
       <c r="D24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="E24" t="str">
-        <v>null</v>
+        <v>Zuurtegraad van het waswater</v>
       </c>
       <c r="F24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="H24" t="str">
-        <v>Spuiwater</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -2405,22 +2405,22 @@
         <v>null</v>
       </c>
       <c r="D25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="E25" t="str">
-        <v>null</v>
+        <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="F25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="G25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="H25" t="str">
-        <v>Stal</v>
+        <v>null</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="J25" t="str">
         <v>null</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -2488,22 +2488,22 @@
         <v>null</v>
       </c>
       <c r="D26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="E26" t="str">
-        <v>null</v>
+        <v>Lucht</v>
       </c>
       <c r="F26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="G26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="H26" t="str">
-        <v>Waswater</v>
+        <v>null</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="J26" t="str">
         <v>null</v>
@@ -2562,49 +2562,49 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="B27" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C27" t="str">
         <v>null</v>
       </c>
       <c r="D27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="E27" t="str">
-        <v>null</v>
+        <v>Spuiwater</v>
       </c>
       <c r="F27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H27" t="str">
-        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K27" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
+        <v>null</v>
       </c>
       <c r="L27" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="M27" t="str">
-        <v>&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="N27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O27" t="str">
-        <v>6</v>
+        <v>null</v>
       </c>
       <c r="P27" t="str">
         <v>null</v>
@@ -2645,52 +2645,52 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C28" t="str">
         <v>null</v>
       </c>
       <c r="D28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="E28" t="str">
-        <v>null</v>
+        <v>Stal</v>
       </c>
       <c r="F28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="G28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K28" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="L28" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="M28" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="N28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="O28" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P28" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q28" t="str">
         <v>null</v>
@@ -2728,52 +2728,52 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="B29" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C29" t="str">
         <v>null</v>
       </c>
       <c r="D29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="E29" t="str">
-        <v>null</v>
+        <v>Waswater</v>
       </c>
       <c r="F29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H29" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K29" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="L29" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="M29" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="N29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O29" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="P29" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q29" t="str">
         <v>null</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2820,43 +2820,43 @@
         <v>null</v>
       </c>
       <c r="D30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E30" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
       </c>
       <c r="F30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H30" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K30" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
       <c r="L30" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
       <c r="M30" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 6</v>
       </c>
       <c r="N30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O30" t="str">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="P30" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q30" t="str">
         <v>null</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2903,46 +2903,46 @@
         <v>null</v>
       </c>
       <c r="D31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E31" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
       </c>
       <c r="F31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H31" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K31" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L31" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M31" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O31" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P31" t="str">
         <v>product</v>
       </c>
       <c r="Q31" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="R31" t="str">
         <v>null</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2986,40 +2986,40 @@
         <v>null</v>
       </c>
       <c r="D32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E32" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
       </c>
       <c r="F32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H32" t="str">
-        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K32" t="str">
-        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L32" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M32" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="N32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O32" t="str">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P32" t="str">
         <v>product</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3069,40 +3069,40 @@
         <v>null</v>
       </c>
       <c r="D33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E33" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
       </c>
       <c r="F33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H33" t="str">
-        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K33" t="str">
-        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L33" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M33" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O33" t="str">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P33" t="str">
         <v>product</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3152,34 +3152,34 @@
         <v>null</v>
       </c>
       <c r="D34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E34" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
       </c>
       <c r="F34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H34" t="str">
-        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K34" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L34" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M34" t="str">
-        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
@@ -3188,10 +3188,10 @@
         <v>null</v>
       </c>
       <c r="P34" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="Q34" t="str">
-        <v>50</v>
+        <v>1.4</v>
       </c>
       <c r="R34" t="str">
         <v>null</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3235,46 +3235,46 @@
         <v>null</v>
       </c>
       <c r="D35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E35" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="F35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K35" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
+        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L35" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="M35" t="str">
-        <v>&gt; 8,5</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O35" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P35" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q35" t="str">
-        <v>8.5</v>
+        <v>null</v>
       </c>
       <c r="R35" t="str">
         <v>null</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3318,46 +3318,46 @@
         <v>null</v>
       </c>
       <c r="D36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E36" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="F36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H36" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K36" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L36" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="M36" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="O36" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P36" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="Q36" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="R36" t="str">
         <v>null</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3401,46 +3401,46 @@
         <v>null</v>
       </c>
       <c r="D37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E37" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
       </c>
       <c r="F37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K37" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L37" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="M37" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="N37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O37" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P37" t="str">
-        <v>product</v>
+        <v>som</v>
       </c>
       <c r="Q37" t="str">
-        <v>null</v>
+        <v>50</v>
       </c>
       <c r="R37" t="str">
         <v>null</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3484,46 +3484,46 @@
         <v>null</v>
       </c>
       <c r="D38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E38" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
       </c>
       <c r="F38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H38" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K38" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
       <c r="L38" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
       <c r="M38" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>&gt; 8,5</v>
       </c>
       <c r="N38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O38" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="P38" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q38" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="R38" t="str">
         <v>null</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3567,46 +3567,46 @@
         <v>null</v>
       </c>
       <c r="D39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E39" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
       </c>
       <c r="F39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H39" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K39" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L39" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="M39" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="N39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O39" t="str">
-        <v>0.6</v>
+        <v>null</v>
       </c>
       <c r="P39" t="str">
-        <v>product</v>
+        <v>som</v>
       </c>
       <c r="Q39" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R39" t="str">
         <v>null</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3650,46 +3650,46 @@
         <v>null</v>
       </c>
       <c r="D40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E40" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
       </c>
       <c r="F40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H40" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K40" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L40" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M40" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O40" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P40" t="str">
         <v>product</v>
       </c>
       <c r="Q40" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="R40" t="str">
         <v>null</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3733,46 +3733,46 @@
         <v>null</v>
       </c>
       <c r="D41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E41" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
       </c>
       <c r="F41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H41" t="str">
-        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K41" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L41" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M41" t="str">
-        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="N41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O41" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="P41" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="Q41" t="str">
-        <v>1</v>
+        <v>null</v>
       </c>
       <c r="R41" t="str">
         <v>null</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3816,46 +3816,46 @@
         <v>null</v>
       </c>
       <c r="D42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E42" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
       </c>
       <c r="F42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K42" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L42" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M42" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O42" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="P42" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="Q42" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="R42" t="str">
         <v>null</v>
@@ -3890,58 +3890,58 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>http://qudt.org/vocab/unit/PH</v>
+        <v>null</v>
       </c>
       <c r="D43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E43" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
       </c>
       <c r="F43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>Zuurtegraad waswater S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K43" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L43" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M43" t="str">
-        <v>null</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O43" t="str">
         <v>null</v>
       </c>
       <c r="P43" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q43" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="R43" t="str">
-        <v>false</v>
+        <v>null</v>
       </c>
       <c r="S43" t="str">
         <v>null</v>
@@ -3973,61 +3973,61 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>null</v>
       </c>
       <c r="D44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E44" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
       </c>
       <c r="F44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>Drukval S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K44" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L44" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="M44" t="str">
-        <v>null</v>
+        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="N44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O44" t="str">
         <v>null</v>
       </c>
       <c r="P44" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="Q44" t="str">
-        <v>null</v>
+        <v>1</v>
       </c>
       <c r="R44" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S44" t="str">
-        <v>exact</v>
+        <v>null</v>
       </c>
       <c r="T44" t="str">
         <v>null</v>
@@ -4056,61 +4056,61 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>null</v>
       </c>
       <c r="D45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="E45" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
       </c>
       <c r="F45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H45" t="str">
-        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K45" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L45" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="M45" t="str">
-        <v>null</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="N45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O45" t="str">
         <v>null</v>
       </c>
       <c r="P45" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="Q45" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R45" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S45" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="T45" t="str">
         <v>null</v>
@@ -4139,34 +4139,34 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>null</v>
       </c>
       <c r="D46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E46" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater S1 systeem</v>
       </c>
       <c r="F46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H46" t="str">
-        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K46" t="str">
         <v>null</v>
@@ -4178,7 +4178,7 @@
         <v>null</v>
       </c>
       <c r="N46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O46" t="str">
         <v>null</v>
@@ -4190,10 +4190,10 @@
         <v>null</v>
       </c>
       <c r="R46" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="S46" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="T46" t="str">
         <v>null</v>
@@ -4222,34 +4222,34 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>null</v>
       </c>
       <c r="D47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E47" t="str">
-        <v>null</v>
+        <v>Drukval S2 systeem</v>
       </c>
       <c r="F47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H47" t="str">
-        <v>Biobedspuiwaterproductie S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K47" t="str">
         <v>null</v>
@@ -4261,7 +4261,7 @@
         <v>null</v>
       </c>
       <c r="N47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O47" t="str">
         <v>null</v>
@@ -4276,7 +4276,7 @@
         <v>true</v>
       </c>
       <c r="S47" t="str">
-        <v>minimum</v>
+        <v>exact</v>
       </c>
       <c r="T47" t="str">
         <v>null</v>
@@ -4305,31 +4305,31 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>null</v>
       </c>
       <c r="D48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E48" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
       </c>
       <c r="F48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H48" t="str">
-        <v>Biobedspoelwaterproductie S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
@@ -4344,7 +4344,7 @@
         <v>null</v>
       </c>
       <c r="N48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O48" t="str">
         <v>null</v>
@@ -4388,31 +4388,31 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>null</v>
       </c>
       <c r="D49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E49" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
       </c>
       <c r="F49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H49" t="str">
-        <v>Drukval S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
@@ -4427,7 +4427,7 @@
         <v>null</v>
       </c>
       <c r="N49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="O49" t="str">
         <v>null</v>
@@ -4442,7 +4442,7 @@
         <v>true</v>
       </c>
       <c r="S49" t="str">
-        <v>maximum</v>
+        <v>minimum</v>
       </c>
       <c r="T49" t="str">
         <v>null</v>
@@ -4471,34 +4471,34 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
+        <v>null</v>
       </c>
       <c r="D50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E50" t="str">
-        <v>null</v>
+        <v>Biobedspuiwaterproductie S3 systeem</v>
       </c>
       <c r="F50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H50" t="str">
-        <v>Geleidbaarheid waswater S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K50" t="str">
         <v>null</v>
@@ -4510,7 +4510,7 @@
         <v>null</v>
       </c>
       <c r="N50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="O50" t="str">
         <v>null</v>
@@ -4525,7 +4525,7 @@
         <v>true</v>
       </c>
       <c r="S50" t="str">
-        <v>maximum</v>
+        <v>minimum</v>
       </c>
       <c r="T50" t="str">
         <v>null</v>
@@ -4554,34 +4554,34 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>null</v>
       </c>
       <c r="D51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E51" t="str">
-        <v>null</v>
+        <v>Biobedspoelwaterproductie S3 systeem</v>
       </c>
       <c r="F51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H51" t="str">
-        <v>Waswaterdebiet S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K51" t="str">
         <v>null</v>
@@ -4593,7 +4593,7 @@
         <v>null</v>
       </c>
       <c r="N51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="O51" t="str">
         <v>null</v>
@@ -4637,34 +4637,34 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>null</v>
       </c>
       <c r="D52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E52" t="str">
-        <v>null</v>
+        <v>Drukval S3 systeem</v>
       </c>
       <c r="F52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H52" t="str">
-        <v>Spuiwaterdebiet S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K52" t="str">
         <v>null</v>
@@ -4676,7 +4676,7 @@
         <v>null</v>
       </c>
       <c r="N52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O52" t="str">
         <v>null</v>
@@ -4691,7 +4691,7 @@
         <v>true</v>
       </c>
       <c r="S52" t="str">
-        <v>minimum</v>
+        <v>maximum</v>
       </c>
       <c r="T52" t="str">
         <v>null</v>
@@ -4720,31 +4720,31 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>null</v>
       </c>
       <c r="D53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E53" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater S1 systeem</v>
       </c>
       <c r="F53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H53" t="str">
-        <v>Drukval S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
@@ -4759,7 +4759,7 @@
         <v>null</v>
       </c>
       <c r="N53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O53" t="str">
         <v>null</v>
@@ -4774,7 +4774,7 @@
         <v>true</v>
       </c>
       <c r="S53" t="str">
-        <v>exact</v>
+        <v>maximum</v>
       </c>
       <c r="T53" t="str">
         <v>null</v>
@@ -4803,34 +4803,34 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>http://qudt.org/vocab/unit/PH</v>
+        <v>null</v>
       </c>
       <c r="D54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E54" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet S1 systeem</v>
       </c>
       <c r="F54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H54" t="str">
-        <v>Zuurtegraad waswater S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K54" t="str">
         <v>null</v>
@@ -4842,7 +4842,7 @@
         <v>null</v>
       </c>
       <c r="N54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O54" t="str">
         <v>null</v>
@@ -4857,7 +4857,7 @@
         <v>true</v>
       </c>
       <c r="S54" t="str">
-        <v>maximum</v>
+        <v>minimum</v>
       </c>
       <c r="T54" t="str">
         <v>null</v>
@@ -4886,34 +4886,34 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
+        <v>null</v>
       </c>
       <c r="D55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E55" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet S1 systeem</v>
       </c>
       <c r="F55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H55" t="str">
-        <v>Geleidbaarheid waswater S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K55" t="str">
         <v>null</v>
@@ -4925,7 +4925,7 @@
         <v>null</v>
       </c>
       <c r="N55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O55" t="str">
         <v>null</v>
@@ -4940,7 +4940,7 @@
         <v>true</v>
       </c>
       <c r="S55" t="str">
-        <v>maximum</v>
+        <v>minimum</v>
       </c>
       <c r="T55" t="str">
         <v>null</v>
@@ -4969,34 +4969,34 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>null</v>
       </c>
       <c r="D56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E56" t="str">
-        <v>null</v>
+        <v>Drukval S1 systeem</v>
       </c>
       <c r="F56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H56" t="str">
-        <v>Waswaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K56" t="str">
         <v>null</v>
@@ -5008,7 +5008,7 @@
         <v>null</v>
       </c>
       <c r="N56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O56" t="str">
         <v>null</v>
@@ -5023,7 +5023,7 @@
         <v>true</v>
       </c>
       <c r="S56" t="str">
-        <v>minimum</v>
+        <v>exact</v>
       </c>
       <c r="T56" t="str">
         <v>null</v>
@@ -5052,31 +5052,31 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>null</v>
       </c>
       <c r="D57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E57" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater S2 systeem</v>
       </c>
       <c r="F57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="H57" t="str">
-        <v>Spuiwaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -5091,7 +5091,7 @@
         <v>null</v>
       </c>
       <c r="N57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O57" t="str">
         <v>null</v>
@@ -5106,7 +5106,7 @@
         <v>true</v>
       </c>
       <c r="S57" t="str">
-        <v>minimum</v>
+        <v>maximum</v>
       </c>
       <c r="T57" t="str">
         <v>null</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5144,25 +5144,25 @@
         <v>null</v>
       </c>
       <c r="D58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E58" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater S2 systeem</v>
       </c>
       <c r="F58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="H58" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>null</v>
       </c>
       <c r="I58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="J58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K58" t="str">
         <v>null</v>
@@ -5174,7 +5174,7 @@
         <v>null</v>
       </c>
       <c r="N58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O58" t="str">
         <v>null</v>
@@ -5186,10 +5186,10 @@
         <v>null</v>
       </c>
       <c r="R58" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S58" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="T58" t="str">
         <v>null</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5227,25 +5227,25 @@
         <v>null</v>
       </c>
       <c r="D59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E59" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet S2 systeem</v>
       </c>
       <c r="F59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="H59" t="str">
-        <v>Lege stal</v>
+        <v>null</v>
       </c>
       <c r="I59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="J59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K59" t="str">
         <v>null</v>
@@ -5257,7 +5257,7 @@
         <v>null</v>
       </c>
       <c r="N59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O59" t="str">
         <v>null</v>
@@ -5269,10 +5269,10 @@
         <v>null</v>
       </c>
       <c r="R59" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S59" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="T59" t="str">
         <v>null</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5310,25 +5310,25 @@
         <v>null</v>
       </c>
       <c r="D60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="E60" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet S2 systeem</v>
       </c>
       <c r="F60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="G60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="H60" t="str">
-        <v>In onderhoud</v>
+        <v>null</v>
       </c>
       <c r="I60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="J60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K60" t="str">
         <v>null</v>
@@ -5340,7 +5340,7 @@
         <v>null</v>
       </c>
       <c r="N60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O60" t="str">
         <v>null</v>
@@ -5352,10 +5352,10 @@
         <v>null</v>
       </c>
       <c r="R60" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S60" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="T60" t="str">
         <v>null</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5393,22 +5393,22 @@
         <v>null</v>
       </c>
       <c r="D61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="E61" t="str">
-        <v>null</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="F61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="H61" t="str">
-        <v>Operationeel</v>
+        <v>null</v>
       </c>
       <c r="I61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="J61" t="str">
         <v>null</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5476,22 +5476,22 @@
         <v>null</v>
       </c>
       <c r="D62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="E62" t="str">
-        <v>null</v>
+        <v>Lege stal</v>
       </c>
       <c r="F62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="H62" t="str">
-        <v>Storing</v>
+        <v>null</v>
       </c>
       <c r="I62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="J62" t="str">
         <v>null</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5559,19 +5559,19 @@
         <v>null</v>
       </c>
       <c r="D63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="E63" t="str">
-        <v>null</v>
+        <v>Gereinigd</v>
       </c>
       <c r="F63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>null</v>
       </c>
       <c r="H63" t="str">
-        <v>Luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="I63" t="str">
         <v>null</v>
@@ -5607,19 +5607,19 @@
         <v>null</v>
       </c>
       <c r="T63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="U63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="W63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="X63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y63" t="str">
         <v>null</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5642,22 +5642,22 @@
         <v>null</v>
       </c>
       <c r="D64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="E64" t="str">
-        <v>null</v>
+        <v>In onderhoud</v>
       </c>
       <c r="F64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>null</v>
       </c>
       <c r="H64" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="I64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>null</v>
       </c>
       <c r="J64" t="str">
         <v>null</v>
@@ -5696,13 +5696,13 @@
         <v>null</v>
       </c>
       <c r="V64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="W64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="Y64" t="str">
         <v>null</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5725,19 +5725,19 @@
         <v>null</v>
       </c>
       <c r="D65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="E65" t="str">
-        <v>null</v>
+        <v>Operationeel</v>
       </c>
       <c r="F65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="G65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>null</v>
       </c>
       <c r="H65" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="I65" t="str">
         <v>null</v>
@@ -5773,10 +5773,10 @@
         <v>null</v>
       </c>
       <c r="T65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="U65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V65" t="str">
         <v>null</v>
@@ -5785,10 +5785,10 @@
         <v>null</v>
       </c>
       <c r="X65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y65" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="Z65" t="str">
         <v>null</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5808,19 +5808,19 @@
         <v>null</v>
       </c>
       <c r="D66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="E66" t="str">
-        <v>null</v>
+        <v>Storing</v>
       </c>
       <c r="F66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>null</v>
       </c>
       <c r="H66" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="I66" t="str">
         <v>null</v>
@@ -5856,10 +5856,10 @@
         <v>null</v>
       </c>
       <c r="T66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="U66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V66" t="str">
         <v>null</v>
@@ -5868,10 +5868,10 @@
         <v>null</v>
       </c>
       <c r="X66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y66" t="str">
-        <v>S2</v>
+        <v>null</v>
       </c>
       <c r="Z66" t="str">
         <v>null</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5891,19 +5891,19 @@
         <v>null</v>
       </c>
       <c r="D67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="E67" t="str">
-        <v>null</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="F67" t="str">
         <v>null</v>
       </c>
       <c r="G67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>null</v>
       </c>
       <c r="H67" t="str">
-        <v>Biobed</v>
+        <v>null</v>
       </c>
       <c r="I67" t="str">
         <v>null</v>
@@ -5945,16 +5945,16 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="W67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="X67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y67" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="Z67" t="str">
         <v>null</v>
@@ -5965,28 +5965,28 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="B68" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
         <v>null</v>
       </c>
       <c r="D68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="E68" t="str">
-        <v>null</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="F68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="G68" t="str">
         <v>null</v>
       </c>
       <c r="H68" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="I68" t="str">
         <v>null</v>
@@ -6028,19 +6028,19 @@
         <v>null</v>
       </c>
       <c r="V68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="W68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="X68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="Y68" t="str">
         <v>null</v>
       </c>
       <c r="Z68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA68" t="str">
         <v>null</v>
@@ -6048,19 +6048,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="B69" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
         <v>null</v>
       </c>
       <c r="D69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="E69" t="str">
-        <v>null</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="F69" t="str">
         <v>null</v>
@@ -6069,7 +6069,7 @@
         <v>null</v>
       </c>
       <c r="H69" t="str">
-        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+        <v>null</v>
       </c>
       <c r="I69" t="str">
         <v>null</v>
@@ -6087,7 +6087,7 @@
         <v>null</v>
       </c>
       <c r="N69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O69" t="str">
         <v>null</v>
@@ -6105,10 +6105,10 @@
         <v>null</v>
       </c>
       <c r="T69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="U69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V69" t="str">
         <v>null</v>
@@ -6117,13 +6117,13 @@
         <v>null</v>
       </c>
       <c r="X69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y69" t="str">
-        <v>null</v>
+        <v>S1</v>
       </c>
       <c r="Z69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
+        <v>null</v>
       </c>
       <c r="AA69" t="str">
         <v>null</v>
@@ -6131,19 +6131,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="B70" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
         <v>null</v>
       </c>
       <c r="D70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="E70" t="str">
-        <v>null</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="F70" t="str">
         <v>null</v>
@@ -6152,7 +6152,7 @@
         <v>null</v>
       </c>
       <c r="H70" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>null</v>
       </c>
       <c r="I70" t="str">
         <v>null</v>
@@ -6170,7 +6170,7 @@
         <v>null</v>
       </c>
       <c r="N70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O70" t="str">
         <v>null</v>
@@ -6188,10 +6188,10 @@
         <v>null</v>
       </c>
       <c r="T70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="U70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V70" t="str">
         <v>null</v>
@@ -6200,13 +6200,13 @@
         <v>null</v>
       </c>
       <c r="X70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y70" t="str">
-        <v>null</v>
+        <v>S2</v>
       </c>
       <c r="Z70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA70" t="str">
         <v>null</v>
@@ -6214,19 +6214,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="B71" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
         <v>null</v>
       </c>
       <c r="D71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="E71" t="str">
-        <v>null</v>
+        <v>Biobed</v>
       </c>
       <c r="F71" t="str">
         <v>null</v>
@@ -6235,7 +6235,7 @@
         <v>null</v>
       </c>
       <c r="H71" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>null</v>
       </c>
       <c r="I71" t="str">
         <v>null</v>
@@ -6253,7 +6253,7 @@
         <v>null</v>
       </c>
       <c r="N71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O71" t="str">
         <v>null</v>
@@ -6271,10 +6271,10 @@
         <v>null</v>
       </c>
       <c r="T71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="U71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V71" t="str">
         <v>null</v>
@@ -6283,13 +6283,13 @@
         <v>null</v>
       </c>
       <c r="X71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y71" t="str">
-        <v>null</v>
+        <v>S3</v>
       </c>
       <c r="Z71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="AA71" t="str">
         <v>null</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6309,7 +6309,7 @@
         <v>null</v>
       </c>
       <c r="E72" t="str">
-        <v>null</v>
+        <v>conceptschema iioa bedrijfsklassen</v>
       </c>
       <c r="F72" t="str">
         <v>null</v>
@@ -6318,7 +6318,7 @@
         <v>null</v>
       </c>
       <c r="H72" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>null</v>
       </c>
       <c r="I72" t="str">
         <v>null</v>
@@ -6372,7 +6372,7 @@
         <v>null</v>
       </c>
       <c r="Z72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/1|https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/2|https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/3</v>
       </c>
       <c r="AA72" t="str">
         <v>null</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6392,7 +6392,7 @@
         <v>null</v>
       </c>
       <c r="E73" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
       </c>
       <c r="F73" t="str">
         <v>null</v>
@@ -6401,7 +6401,7 @@
         <v>null</v>
       </c>
       <c r="H73" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="I73" t="str">
         <v>null</v>
@@ -6455,7 +6455,7 @@
         <v>null</v>
       </c>
       <c r="Z73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
       </c>
       <c r="AA73" t="str">
         <v>null</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6475,7 +6475,7 @@
         <v>null</v>
       </c>
       <c r="E74" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem medium</v>
       </c>
       <c r="F74" t="str">
         <v>null</v>
@@ -6484,69 +6484,484 @@
         <v>null</v>
       </c>
       <c r="H74" t="str">
+        <v>null</v>
+      </c>
+      <c r="I74" t="str">
+        <v>null</v>
+      </c>
+      <c r="J74" t="str">
+        <v>null</v>
+      </c>
+      <c r="K74" t="str">
+        <v>null</v>
+      </c>
+      <c r="L74" t="str">
+        <v>null</v>
+      </c>
+      <c r="M74" t="str">
+        <v>null</v>
+      </c>
+      <c r="N74" t="str">
+        <v>null</v>
+      </c>
+      <c r="O74" t="str">
+        <v>null</v>
+      </c>
+      <c r="P74" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>null</v>
+      </c>
+      <c r="R74" t="str">
+        <v>null</v>
+      </c>
+      <c r="S74" t="str">
+        <v>null</v>
+      </c>
+      <c r="T74" t="str">
+        <v>null</v>
+      </c>
+      <c r="U74" t="str">
+        <v>null</v>
+      </c>
+      <c r="V74" t="str">
+        <v>null</v>
+      </c>
+      <c r="W74" t="str">
+        <v>null</v>
+      </c>
+      <c r="X74" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z74" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+      </c>
+      <c r="AA74" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+      </c>
+      <c r="B75" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C75" t="str">
+        <v>null</v>
+      </c>
+      <c r="D75" t="str">
+        <v>null</v>
+      </c>
+      <c r="E75" t="str">
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+      </c>
+      <c r="F75" t="str">
+        <v>null</v>
+      </c>
+      <c r="G75" t="str">
+        <v>null</v>
+      </c>
+      <c r="H75" t="str">
+        <v>null</v>
+      </c>
+      <c r="I75" t="str">
+        <v>null</v>
+      </c>
+      <c r="J75" t="str">
+        <v>null</v>
+      </c>
+      <c r="K75" t="str">
+        <v>null</v>
+      </c>
+      <c r="L75" t="str">
+        <v>null</v>
+      </c>
+      <c r="M75" t="str">
+        <v>null</v>
+      </c>
+      <c r="N75" t="str">
+        <v>null</v>
+      </c>
+      <c r="O75" t="str">
+        <v>null</v>
+      </c>
+      <c r="P75" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>null</v>
+      </c>
+      <c r="R75" t="str">
+        <v>null</v>
+      </c>
+      <c r="S75" t="str">
+        <v>null</v>
+      </c>
+      <c r="T75" t="str">
+        <v>null</v>
+      </c>
+      <c r="U75" t="str">
+        <v>null</v>
+      </c>
+      <c r="V75" t="str">
+        <v>null</v>
+      </c>
+      <c r="W75" t="str">
+        <v>null</v>
+      </c>
+      <c r="X75" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y75" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z75" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+      </c>
+      <c r="AA75" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+      </c>
+      <c r="B76" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C76" t="str">
+        <v>null</v>
+      </c>
+      <c r="D76" t="str">
+        <v>null</v>
+      </c>
+      <c r="E76" t="str">
+        <v>conceptschema luchtzuiveringssysteem status</v>
+      </c>
+      <c r="F76" t="str">
+        <v>null</v>
+      </c>
+      <c r="G76" t="str">
+        <v>null</v>
+      </c>
+      <c r="H76" t="str">
+        <v>null</v>
+      </c>
+      <c r="I76" t="str">
+        <v>null</v>
+      </c>
+      <c r="J76" t="str">
+        <v>null</v>
+      </c>
+      <c r="K76" t="str">
+        <v>null</v>
+      </c>
+      <c r="L76" t="str">
+        <v>null</v>
+      </c>
+      <c r="M76" t="str">
+        <v>null</v>
+      </c>
+      <c r="N76" t="str">
+        <v>null</v>
+      </c>
+      <c r="O76" t="str">
+        <v>null</v>
+      </c>
+      <c r="P76" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>null</v>
+      </c>
+      <c r="R76" t="str">
+        <v>null</v>
+      </c>
+      <c r="S76" t="str">
+        <v>null</v>
+      </c>
+      <c r="T76" t="str">
+        <v>null</v>
+      </c>
+      <c r="U76" t="str">
+        <v>null</v>
+      </c>
+      <c r="V76" t="str">
+        <v>null</v>
+      </c>
+      <c r="W76" t="str">
+        <v>null</v>
+      </c>
+      <c r="X76" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y76" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z76" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+      </c>
+      <c r="AA76" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+      </c>
+      <c r="B77" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C77" t="str">
+        <v>null</v>
+      </c>
+      <c r="D77" t="str">
+        <v>null</v>
+      </c>
+      <c r="E77" t="str">
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+      </c>
+      <c r="F77" t="str">
+        <v>null</v>
+      </c>
+      <c r="G77" t="str">
+        <v>null</v>
+      </c>
+      <c r="H77" t="str">
+        <v>null</v>
+      </c>
+      <c r="I77" t="str">
+        <v>null</v>
+      </c>
+      <c r="J77" t="str">
+        <v>null</v>
+      </c>
+      <c r="K77" t="str">
+        <v>null</v>
+      </c>
+      <c r="L77" t="str">
+        <v>null</v>
+      </c>
+      <c r="M77" t="str">
+        <v>null</v>
+      </c>
+      <c r="N77" t="str">
+        <v>null</v>
+      </c>
+      <c r="O77" t="str">
+        <v>null</v>
+      </c>
+      <c r="P77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>null</v>
+      </c>
+      <c r="R77" t="str">
+        <v>null</v>
+      </c>
+      <c r="S77" t="str">
+        <v>null</v>
+      </c>
+      <c r="T77" t="str">
+        <v>null</v>
+      </c>
+      <c r="U77" t="str">
+        <v>null</v>
+      </c>
+      <c r="V77" t="str">
+        <v>null</v>
+      </c>
+      <c r="W77" t="str">
+        <v>null</v>
+      </c>
+      <c r="X77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+      </c>
+      <c r="AA77" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+      </c>
+      <c r="B78" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C78" t="str">
+        <v>null</v>
+      </c>
+      <c r="D78" t="str">
+        <v>null</v>
+      </c>
+      <c r="E78" t="str">
+        <v>conceptschema luchtzuiveringssysteem</v>
+      </c>
+      <c r="F78" t="str">
+        <v>null</v>
+      </c>
+      <c r="G78" t="str">
+        <v>null</v>
+      </c>
+      <c r="H78" t="str">
+        <v>null</v>
+      </c>
+      <c r="I78" t="str">
+        <v>null</v>
+      </c>
+      <c r="J78" t="str">
+        <v>null</v>
+      </c>
+      <c r="K78" t="str">
+        <v>null</v>
+      </c>
+      <c r="L78" t="str">
+        <v>null</v>
+      </c>
+      <c r="M78" t="str">
+        <v>null</v>
+      </c>
+      <c r="N78" t="str">
+        <v>null</v>
+      </c>
+      <c r="O78" t="str">
+        <v>null</v>
+      </c>
+      <c r="P78" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>null</v>
+      </c>
+      <c r="R78" t="str">
+        <v>null</v>
+      </c>
+      <c r="S78" t="str">
+        <v>null</v>
+      </c>
+      <c r="T78" t="str">
+        <v>null</v>
+      </c>
+      <c r="U78" t="str">
+        <v>null</v>
+      </c>
+      <c r="V78" t="str">
+        <v>null</v>
+      </c>
+      <c r="W78" t="str">
+        <v>null</v>
+      </c>
+      <c r="X78" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y78" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+      </c>
+      <c r="AA78" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+      </c>
+      <c r="B79" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C79" t="str">
+        <v>null</v>
+      </c>
+      <c r="D79" t="str">
+        <v>null</v>
+      </c>
+      <c r="E79" t="str">
         <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
       </c>
-      <c r="I74" t="str">
-        <v>null</v>
-      </c>
-      <c r="J74" t="str">
-        <v>null</v>
-      </c>
-      <c r="K74" t="str">
-        <v>null</v>
-      </c>
-      <c r="L74" t="str">
-        <v>null</v>
-      </c>
-      <c r="M74" t="str">
-        <v>null</v>
-      </c>
-      <c r="N74" t="str">
-        <v>null</v>
-      </c>
-      <c r="O74" t="str">
-        <v>null</v>
-      </c>
-      <c r="P74" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q74" t="str">
-        <v>null</v>
-      </c>
-      <c r="R74" t="str">
-        <v>null</v>
-      </c>
-      <c r="S74" t="str">
-        <v>null</v>
-      </c>
-      <c r="T74" t="str">
-        <v>null</v>
-      </c>
-      <c r="U74" t="str">
-        <v>null</v>
-      </c>
-      <c r="V74" t="str">
-        <v>null</v>
-      </c>
-      <c r="W74" t="str">
-        <v>null</v>
-      </c>
-      <c r="X74" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y74" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z74" t="str">
+      <c r="F79" t="str">
+        <v>null</v>
+      </c>
+      <c r="G79" t="str">
+        <v>null</v>
+      </c>
+      <c r="H79" t="str">
+        <v>null</v>
+      </c>
+      <c r="I79" t="str">
+        <v>null</v>
+      </c>
+      <c r="J79" t="str">
+        <v>null</v>
+      </c>
+      <c r="K79" t="str">
+        <v>null</v>
+      </c>
+      <c r="L79" t="str">
+        <v>null</v>
+      </c>
+      <c r="M79" t="str">
+        <v>null</v>
+      </c>
+      <c r="N79" t="str">
+        <v>null</v>
+      </c>
+      <c r="O79" t="str">
+        <v>null</v>
+      </c>
+      <c r="P79" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>null</v>
+      </c>
+      <c r="R79" t="str">
+        <v>null</v>
+      </c>
+      <c r="S79" t="str">
+        <v>null</v>
+      </c>
+      <c r="T79" t="str">
+        <v>null</v>
+      </c>
+      <c r="U79" t="str">
+        <v>null</v>
+      </c>
+      <c r="V79" t="str">
+        <v>null</v>
+      </c>
+      <c r="W79" t="str">
+        <v>null</v>
+      </c>
+      <c r="X79" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y79" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z79" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
       </c>
-      <c r="AA74" t="str">
+      <c r="AA79" t="str">
         <v>Ranges</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA79"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -413,22 +413,22 @@
         <v>applicableUnit</v>
       </c>
       <c r="D1" t="str">
+        <v>subject</v>
+      </c>
+      <c r="E1" t="str">
+        <v>relevantQuantityKind</v>
+      </c>
+      <c r="F1" t="str">
+        <v>seeAlso</v>
+      </c>
+      <c r="G1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="F1" t="str">
+      <c r="I1" t="str">
         <v>topConceptOf</v>
-      </c>
-      <c r="G1" t="str">
-        <v>subject</v>
-      </c>
-      <c r="H1" t="str">
-        <v>relevantQuantityKind</v>
-      </c>
-      <c r="I1" t="str">
-        <v>seeAlso</v>
       </c>
       <c r="J1" t="str">
         <v>relevantLZS</v>
@@ -479,10 +479,10 @@
         <v>notation</v>
       </c>
       <c r="Z1" t="str">
+        <v>altLabel</v>
+      </c>
+      <c r="AA1" t="str">
         <v>hasTopConcept</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>altLabel</v>
       </c>
     </row>
     <row r="2">
@@ -1234,34 +1234,34 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C11" t="str">
         <v>null</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="E11" t="str">
-        <v>Klasse 1</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="G11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="H11" t="str">
-        <v>null</v>
+        <v>Biobedspoelwaterproductie</v>
       </c>
       <c r="I11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1317,34 +1317,34 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="B12" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C12" t="str">
         <v>null</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="E12" t="str">
-        <v>Klasse 2</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="F12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="G12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="H12" t="str">
-        <v>null</v>
+        <v>Biobedspuiwaterproductie</v>
       </c>
       <c r="I12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="J12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1400,34 +1400,34 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C13" t="str">
         <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="E13" t="str">
-        <v>Klasse 3</v>
+        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="G13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="H13" t="str">
-        <v>null</v>
+        <v>Drukval over het systeem</v>
       </c>
       <c r="I13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="J13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K13" t="str">
         <v>null</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1492,25 +1492,25 @@
         <v>null</v>
       </c>
       <c r="D14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+      </c>
+      <c r="E14" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
+      </c>
+      <c r="G14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E14" t="str">
-        <v>Biobedspoelwaterproductie</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="H14" t="str">
+        <v>Geleidbaarheid van het waswater</v>
+      </c>
+      <c r="I14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
-      </c>
-      <c r="H14" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
-      </c>
-      <c r="I14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
-      </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K14" t="str">
         <v>null</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1575,25 +1575,25 @@
         <v>null</v>
       </c>
       <c r="D15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+      </c>
+      <c r="E15" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+      </c>
+      <c r="G15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E15" t="str">
-        <v>Biobedspuiwaterproductie</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="H15" t="str">
+        <v>Spuiwaterproductie</v>
+      </c>
+      <c r="I15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
-      </c>
-      <c r="H15" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
-      </c>
-      <c r="I15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
-      </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K15" t="str">
         <v>null</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1658,22 +1658,22 @@
         <v>null</v>
       </c>
       <c r="D16" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+      </c>
+      <c r="E16" t="str">
+        <v>null</v>
+      </c>
+      <c r="F16" t="str">
+        <v>null</v>
+      </c>
+      <c r="G16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E16" t="str">
-        <v>Drukval over het systeem</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="H16" t="str">
+        <v>Stalbezetting</v>
+      </c>
+      <c r="I16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
-      </c>
-      <c r="H16" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
-      </c>
-      <c r="I16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="J16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1741,25 +1741,25 @@
         <v>null</v>
       </c>
       <c r="D17" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+      </c>
+      <c r="E17" t="str">
+        <v>null</v>
+      </c>
+      <c r="F17" t="str">
+        <v>null</v>
+      </c>
+      <c r="G17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E17" t="str">
-        <v>Geleidbaarheid van het waswater</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="H17" t="str">
+        <v>SysteemStatus</v>
+      </c>
+      <c r="I17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
-      </c>
-      <c r="H17" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
-      </c>
-      <c r="I17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
-      </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K17" t="str">
         <v>null</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1824,22 +1824,22 @@
         <v>null</v>
       </c>
       <c r="D18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+      </c>
+      <c r="E18" t="str">
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E18" t="str">
-        <v>Spuiwaterproductie</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="H18" t="str">
+        <v>Waswaterdebiet over het waspakket</v>
+      </c>
+      <c r="I18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
-      </c>
-      <c r="H18" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
-      </c>
-      <c r="I18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="J18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1907,25 +1907,25 @@
         <v>null</v>
       </c>
       <c r="D19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+      </c>
+      <c r="E19" t="str">
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E19" t="str">
-        <v>Stalbezetting</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="H19" t="str">
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+      </c>
+      <c r="I19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
-      </c>
-      <c r="H19" t="str">
-        <v>null</v>
-      </c>
-      <c r="I19" t="str">
-        <v>null</v>
-      </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K19" t="str">
         <v>null</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -1990,25 +1990,25 @@
         <v>null</v>
       </c>
       <c r="D20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+      </c>
+      <c r="E20" t="str">
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+      </c>
+      <c r="G20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E20" t="str">
-        <v>SysteemStatus</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="H20" t="str">
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+      </c>
+      <c r="I20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
-      </c>
-      <c r="H20" t="str">
-        <v>null</v>
-      </c>
-      <c r="I20" t="str">
-        <v>null</v>
-      </c>
       <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K20" t="str">
         <v>null</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -2073,22 +2073,22 @@
         <v>null</v>
       </c>
       <c r="D21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+      </c>
+      <c r="E21" t="str">
+        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+      </c>
+      <c r="G21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
-      <c r="E21" t="str">
-        <v>Waswaterdebiet over het waspakket</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="H21" t="str">
+        <v>Zuurtegraad van het waswater</v>
+      </c>
+      <c r="I21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
-      </c>
-      <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
-      </c>
-      <c r="H21" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
-      </c>
-      <c r="I21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="J21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -2147,34 +2147,34 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C22" t="str">
         <v>null</v>
       </c>
       <c r="D22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="E22" t="str">
-        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+        <v>null</v>
       </c>
       <c r="F22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="G22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H22" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="J22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K22" t="str">
         <v>null</v>
@@ -2230,34 +2230,34 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
       </c>
       <c r="B23" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C23" t="str">
         <v>null</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="E23" t="str">
-        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+        <v>null</v>
       </c>
       <c r="F23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H23" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>Lucht</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="J23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K23" t="str">
         <v>null</v>
@@ -2313,34 +2313,34 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C24" t="str">
         <v>null</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="E24" t="str">
-        <v>Zuurtegraad van het waswater</v>
+        <v>null</v>
       </c>
       <c r="F24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="H24" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>Spuiwater</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="J24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K24" t="str">
         <v>null</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -2405,22 +2405,22 @@
         <v>null</v>
       </c>
       <c r="D25" t="str">
+        <v>null</v>
+      </c>
+      <c r="E25" t="str">
+        <v>null</v>
+      </c>
+      <c r="F25" t="str">
+        <v>null</v>
+      </c>
+      <c r="G25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
-      <c r="E25" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
-      </c>
-      <c r="F25" t="str">
+      <c r="H25" t="str">
+        <v>Stal</v>
+      </c>
+      <c r="I25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
-      </c>
-      <c r="G25" t="str">
-        <v>null</v>
-      </c>
-      <c r="H25" t="str">
-        <v>null</v>
-      </c>
-      <c r="I25" t="str">
-        <v>null</v>
       </c>
       <c r="J25" t="str">
         <v>null</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
@@ -2488,22 +2488,22 @@
         <v>null</v>
       </c>
       <c r="D26" t="str">
+        <v>null</v>
+      </c>
+      <c r="E26" t="str">
+        <v>null</v>
+      </c>
+      <c r="F26" t="str">
+        <v>null</v>
+      </c>
+      <c r="G26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
-      <c r="E26" t="str">
-        <v>Lucht</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="H26" t="str">
+        <v>Waswater</v>
+      </c>
+      <c r="I26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
-      </c>
-      <c r="G26" t="str">
-        <v>null</v>
-      </c>
-      <c r="H26" t="str">
-        <v>null</v>
-      </c>
-      <c r="I26" t="str">
-        <v>null</v>
       </c>
       <c r="J26" t="str">
         <v>null</v>
@@ -2562,49 +2562,49 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
       </c>
       <c r="B27" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
         <v>null</v>
       </c>
       <c r="D27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="E27" t="str">
-        <v>Spuiwater</v>
+        <v>null</v>
       </c>
       <c r="F27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="G27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="H27" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
       </c>
       <c r="I27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="J27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K27" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
       <c r="L27" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
       <c r="M27" t="str">
-        <v>null</v>
+        <v>&lt; 6</v>
       </c>
       <c r="N27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O27" t="str">
-        <v>null</v>
+        <v>6</v>
       </c>
       <c r="P27" t="str">
         <v>null</v>
@@ -2645,52 +2645,52 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
         <v>null</v>
       </c>
       <c r="D28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="E28" t="str">
-        <v>Stal</v>
+        <v>null</v>
       </c>
       <c r="F28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="G28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="H28" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
       </c>
       <c r="I28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="J28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K28" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L28" t="str">
-        <v>null</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M28" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O28" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P28" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q28" t="str">
         <v>null</v>
@@ -2728,52 +2728,52 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
       </c>
       <c r="B29" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
         <v>null</v>
       </c>
       <c r="D29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="E29" t="str">
-        <v>Waswater</v>
+        <v>null</v>
       </c>
       <c r="F29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>null</v>
       </c>
       <c r="G29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="H29" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
       </c>
       <c r="I29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K29" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L29" t="str">
-        <v>null</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M29" t="str">
-        <v>null</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="N29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O29" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="P29" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q29" t="str">
         <v>null</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2820,43 +2820,43 @@
         <v>null</v>
       </c>
       <c r="D30" t="str">
+        <v>null</v>
+      </c>
+      <c r="E30" t="str">
+        <v>null</v>
+      </c>
+      <c r="F30" t="str">
+        <v>null</v>
+      </c>
+      <c r="G30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E30" t="str">
-        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="H30" t="str">
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+      </c>
+      <c r="I30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G30" t="str">
-        <v>null</v>
-      </c>
-      <c r="H30" t="str">
-        <v>null</v>
-      </c>
-      <c r="I30" t="str">
-        <v>null</v>
-      </c>
       <c r="J30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K30" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L30" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M30" t="str">
-        <v>&lt; 6</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O30" t="str">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="P30" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q30" t="str">
         <v>null</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2903,46 +2903,46 @@
         <v>null</v>
       </c>
       <c r="D31" t="str">
+        <v>null</v>
+      </c>
+      <c r="E31" t="str">
+        <v>null</v>
+      </c>
+      <c r="F31" t="str">
+        <v>null</v>
+      </c>
+      <c r="G31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E31" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="H31" t="str">
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+      </c>
+      <c r="I31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="G31" t="str">
-        <v>null</v>
-      </c>
-      <c r="H31" t="str">
-        <v>null</v>
-      </c>
-      <c r="I31" t="str">
-        <v>null</v>
       </c>
       <c r="J31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K31" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L31" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M31" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O31" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P31" t="str">
         <v>product</v>
       </c>
       <c r="Q31" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="R31" t="str">
         <v>null</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2986,40 +2986,40 @@
         <v>null</v>
       </c>
       <c r="D32" t="str">
+        <v>null</v>
+      </c>
+      <c r="E32" t="str">
+        <v>null</v>
+      </c>
+      <c r="F32" t="str">
+        <v>null</v>
+      </c>
+      <c r="G32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E32" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="H32" t="str">
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+      </c>
+      <c r="I32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G32" t="str">
-        <v>null</v>
-      </c>
-      <c r="H32" t="str">
-        <v>null</v>
-      </c>
-      <c r="I32" t="str">
-        <v>null</v>
-      </c>
       <c r="J32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K32" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L32" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="M32" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O32" t="str">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P32" t="str">
         <v>product</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3069,40 +3069,40 @@
         <v>null</v>
       </c>
       <c r="D33" t="str">
+        <v>null</v>
+      </c>
+      <c r="E33" t="str">
+        <v>null</v>
+      </c>
+      <c r="F33" t="str">
+        <v>null</v>
+      </c>
+      <c r="G33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E33" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="H33" t="str">
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+      </c>
+      <c r="I33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G33" t="str">
-        <v>null</v>
-      </c>
-      <c r="H33" t="str">
-        <v>null</v>
-      </c>
-      <c r="I33" t="str">
-        <v>null</v>
-      </c>
       <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K33" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L33" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="M33" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="O33" t="str">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P33" t="str">
         <v>product</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3152,34 +3152,34 @@
         <v>null</v>
       </c>
       <c r="D34" t="str">
+        <v>null</v>
+      </c>
+      <c r="E34" t="str">
+        <v>null</v>
+      </c>
+      <c r="F34" t="str">
+        <v>null</v>
+      </c>
+      <c r="G34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E34" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="H34" t="str">
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+      </c>
+      <c r="I34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G34" t="str">
-        <v>null</v>
-      </c>
-      <c r="H34" t="str">
-        <v>null</v>
-      </c>
-      <c r="I34" t="str">
-        <v>null</v>
-      </c>
       <c r="J34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K34" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L34" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="M34" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="N34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
@@ -3188,10 +3188,10 @@
         <v>null</v>
       </c>
       <c r="P34" t="str">
-        <v>product</v>
+        <v>som</v>
       </c>
       <c r="Q34" t="str">
-        <v>1.4</v>
+        <v>50</v>
       </c>
       <c r="R34" t="str">
         <v>null</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3235,46 +3235,46 @@
         <v>null</v>
       </c>
       <c r="D35" t="str">
+        <v>null</v>
+      </c>
+      <c r="E35" t="str">
+        <v>null</v>
+      </c>
+      <c r="F35" t="str">
+        <v>null</v>
+      </c>
+      <c r="G35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E35" t="str">
-        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="H35" t="str">
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+      </c>
+      <c r="I35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G35" t="str">
-        <v>null</v>
-      </c>
-      <c r="H35" t="str">
-        <v>null</v>
-      </c>
-      <c r="I35" t="str">
-        <v>null</v>
-      </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K35" t="str">
-        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
       <c r="L35" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
       <c r="M35" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&gt; 8,5</v>
       </c>
       <c r="N35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O35" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P35" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q35" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="R35" t="str">
         <v>null</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3318,46 +3318,46 @@
         <v>null</v>
       </c>
       <c r="D36" t="str">
+        <v>null</v>
+      </c>
+      <c r="E36" t="str">
+        <v>null</v>
+      </c>
+      <c r="F36" t="str">
+        <v>null</v>
+      </c>
+      <c r="G36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E36" t="str">
-        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="H36" t="str">
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+      </c>
+      <c r="I36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G36" t="str">
-        <v>null</v>
-      </c>
-      <c r="H36" t="str">
-        <v>null</v>
-      </c>
-      <c r="I36" t="str">
-        <v>null</v>
-      </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K36" t="str">
-        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L36" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="M36" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="N36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O36" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P36" t="str">
-        <v>product</v>
+        <v>som</v>
       </c>
       <c r="Q36" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R36" t="str">
         <v>null</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3401,46 +3401,46 @@
         <v>null</v>
       </c>
       <c r="D37" t="str">
+        <v>null</v>
+      </c>
+      <c r="E37" t="str">
+        <v>null</v>
+      </c>
+      <c r="F37" t="str">
+        <v>null</v>
+      </c>
+      <c r="G37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E37" t="str">
-        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
-      </c>
-      <c r="F37" t="str">
+      <c r="H37" t="str">
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+      </c>
+      <c r="I37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G37" t="str">
-        <v>null</v>
-      </c>
-      <c r="H37" t="str">
-        <v>null</v>
-      </c>
-      <c r="I37" t="str">
-        <v>null</v>
-      </c>
       <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K37" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L37" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M37" t="str">
-        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="N37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O37" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="P37" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="Q37" t="str">
-        <v>50</v>
+        <v>null</v>
       </c>
       <c r="R37" t="str">
         <v>null</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3484,46 +3484,46 @@
         <v>null</v>
       </c>
       <c r="D38" t="str">
+        <v>null</v>
+      </c>
+      <c r="E38" t="str">
+        <v>null</v>
+      </c>
+      <c r="F38" t="str">
+        <v>null</v>
+      </c>
+      <c r="G38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E38" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
-      </c>
-      <c r="F38" t="str">
+      <c r="H38" t="str">
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+      </c>
+      <c r="I38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="G38" t="str">
-        <v>null</v>
-      </c>
-      <c r="H38" t="str">
-        <v>null</v>
-      </c>
-      <c r="I38" t="str">
-        <v>null</v>
       </c>
       <c r="J38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K38" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L38" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M38" t="str">
-        <v>&gt; 8,5</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="N38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O38" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="P38" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q38" t="str">
-        <v>8.5</v>
+        <v>null</v>
       </c>
       <c r="R38" t="str">
         <v>null</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3567,46 +3567,46 @@
         <v>null</v>
       </c>
       <c r="D39" t="str">
+        <v>null</v>
+      </c>
+      <c r="E39" t="str">
+        <v>null</v>
+      </c>
+      <c r="F39" t="str">
+        <v>null</v>
+      </c>
+      <c r="G39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E39" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="H39" t="str">
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
+      </c>
+      <c r="I39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="G39" t="str">
-        <v>null</v>
-      </c>
-      <c r="H39" t="str">
-        <v>null</v>
-      </c>
-      <c r="I39" t="str">
-        <v>null</v>
       </c>
       <c r="J39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K39" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L39" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M39" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O39" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="P39" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="Q39" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="R39" t="str">
         <v>null</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3650,46 +3650,46 @@
         <v>null</v>
       </c>
       <c r="D40" t="str">
+        <v>null</v>
+      </c>
+      <c r="E40" t="str">
+        <v>null</v>
+      </c>
+      <c r="F40" t="str">
+        <v>null</v>
+      </c>
+      <c r="G40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E40" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="H40" t="str">
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+      </c>
+      <c r="I40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="G40" t="str">
-        <v>null</v>
-      </c>
-      <c r="H40" t="str">
-        <v>null</v>
-      </c>
-      <c r="I40" t="str">
-        <v>null</v>
       </c>
       <c r="J40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K40" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L40" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M40" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="N40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O40" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P40" t="str">
         <v>product</v>
       </c>
       <c r="Q40" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="R40" t="str">
         <v>null</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3733,46 +3733,46 @@
         <v>null</v>
       </c>
       <c r="D41" t="str">
+        <v>null</v>
+      </c>
+      <c r="E41" t="str">
+        <v>null</v>
+      </c>
+      <c r="F41" t="str">
+        <v>null</v>
+      </c>
+      <c r="G41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E41" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
-      </c>
-      <c r="F41" t="str">
+      <c r="H41" t="str">
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+      </c>
+      <c r="I41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G41" t="str">
-        <v>null</v>
-      </c>
-      <c r="H41" t="str">
-        <v>null</v>
-      </c>
-      <c r="I41" t="str">
-        <v>null</v>
-      </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K41" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L41" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="M41" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="N41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O41" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="P41" t="str">
-        <v>product</v>
+        <v>som</v>
       </c>
       <c r="Q41" t="str">
-        <v>null</v>
+        <v>1</v>
       </c>
       <c r="R41" t="str">
         <v>null</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3816,46 +3816,46 @@
         <v>null</v>
       </c>
       <c r="D42" t="str">
+        <v>null</v>
+      </c>
+      <c r="E42" t="str">
+        <v>null</v>
+      </c>
+      <c r="F42" t="str">
+        <v>null</v>
+      </c>
+      <c r="G42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="E42" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="H42" t="str">
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+      </c>
+      <c r="I42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
-      <c r="G42" t="str">
-        <v>null</v>
-      </c>
-      <c r="H42" t="str">
-        <v>null</v>
-      </c>
-      <c r="I42" t="str">
-        <v>null</v>
-      </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K42" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L42" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="M42" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="N42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O42" t="str">
-        <v>0.6</v>
+        <v>null</v>
       </c>
       <c r="P42" t="str">
-        <v>product</v>
+        <v>som</v>
       </c>
       <c r="Q42" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R42" t="str">
         <v>null</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_1</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3899,49 +3899,49 @@
         <v>null</v>
       </c>
       <c r="D43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="E43" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="F43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="G43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="H43" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater S1 systeem</v>
       </c>
       <c r="I43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="J43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K43" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="L43" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="M43" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="N43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O43" t="str">
         <v>null</v>
       </c>
       <c r="P43" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q43" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="R43" t="str">
-        <v>null</v>
+        <v>false</v>
       </c>
       <c r="S43" t="str">
         <v>null</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_10</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3982,52 +3982,52 @@
         <v>null</v>
       </c>
       <c r="D44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="F44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="G44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="H44" t="str">
-        <v>null</v>
+        <v>Drukval S2 systeem</v>
       </c>
       <c r="I44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="J44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K44" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="L44" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>null</v>
       </c>
       <c r="M44" t="str">
-        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>null</v>
       </c>
       <c r="N44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O44" t="str">
         <v>null</v>
       </c>
       <c r="P44" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="Q44" t="str">
-        <v>1</v>
+        <v>null</v>
       </c>
       <c r="R44" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S44" t="str">
-        <v>null</v>
+        <v>exact</v>
       </c>
       <c r="T44" t="str">
         <v>null</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_11</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4065,52 +4065,52 @@
         <v>null</v>
       </c>
       <c r="D45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="E45" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="F45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="G45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="H45" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
       </c>
       <c r="I45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K45" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="L45" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="M45" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="N45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O45" t="str">
         <v>null</v>
       </c>
       <c r="P45" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="Q45" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="R45" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="S45" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="T45" t="str">
         <v>null</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_12</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4148,25 +4148,25 @@
         <v>null</v>
       </c>
       <c r="D46" t="str">
+        <v>null</v>
+      </c>
+      <c r="E46" t="str">
+        <v>null</v>
+      </c>
+      <c r="F46" t="str">
+        <v>null</v>
+      </c>
+      <c r="G46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E46" t="str">
-        <v>Zuurtegraad waswater S1 systeem</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="H46" t="str">
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+      </c>
+      <c r="I46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G46" t="str">
-        <v>null</v>
-      </c>
-      <c r="H46" t="str">
-        <v>null</v>
-      </c>
-      <c r="I46" t="str">
-        <v>null</v>
-      </c>
       <c r="J46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K46" t="str">
         <v>null</v>
@@ -4178,7 +4178,7 @@
         <v>null</v>
       </c>
       <c r="N46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
       </c>
       <c r="O46" t="str">
         <v>null</v>
@@ -4190,10 +4190,10 @@
         <v>null</v>
       </c>
       <c r="R46" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="S46" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="T46" t="str">
         <v>null</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_13</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4231,25 +4231,25 @@
         <v>null</v>
       </c>
       <c r="D47" t="str">
+        <v>null</v>
+      </c>
+      <c r="E47" t="str">
+        <v>null</v>
+      </c>
+      <c r="F47" t="str">
+        <v>null</v>
+      </c>
+      <c r="G47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E47" t="str">
-        <v>Drukval S2 systeem</v>
-      </c>
-      <c r="F47" t="str">
+      <c r="H47" t="str">
+        <v>Biobedspuiwaterproductie S3 systeem</v>
+      </c>
+      <c r="I47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G47" t="str">
-        <v>null</v>
-      </c>
-      <c r="H47" t="str">
-        <v>null</v>
-      </c>
-      <c r="I47" t="str">
-        <v>null</v>
-      </c>
       <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="K47" t="str">
         <v>null</v>
@@ -4261,7 +4261,7 @@
         <v>null</v>
       </c>
       <c r="N47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
       </c>
       <c r="O47" t="str">
         <v>null</v>
@@ -4276,7 +4276,7 @@
         <v>true</v>
       </c>
       <c r="S47" t="str">
-        <v>exact</v>
+        <v>minimum</v>
       </c>
       <c r="T47" t="str">
         <v>null</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_14</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4314,22 +4314,22 @@
         <v>null</v>
       </c>
       <c r="D48" t="str">
+        <v>null</v>
+      </c>
+      <c r="E48" t="str">
+        <v>null</v>
+      </c>
+      <c r="F48" t="str">
+        <v>null</v>
+      </c>
+      <c r="G48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E48" t="str">
-        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="H48" t="str">
+        <v>Biobedspoelwaterproductie S3 systeem</v>
+      </c>
+      <c r="I48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="G48" t="str">
-        <v>null</v>
-      </c>
-      <c r="H48" t="str">
-        <v>null</v>
-      </c>
-      <c r="I48" t="str">
-        <v>null</v>
       </c>
       <c r="J48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
@@ -4344,7 +4344,7 @@
         <v>null</v>
       </c>
       <c r="N48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
       </c>
       <c r="O48" t="str">
         <v>null</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_15</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4397,22 +4397,22 @@
         <v>null</v>
       </c>
       <c r="D49" t="str">
+        <v>null</v>
+      </c>
+      <c r="E49" t="str">
+        <v>null</v>
+      </c>
+      <c r="F49" t="str">
+        <v>null</v>
+      </c>
+      <c r="G49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E49" t="str">
-        <v>Waswaterdebiet bevloeiing S3 systeem</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="H49" t="str">
+        <v>Drukval S3 systeem</v>
+      </c>
+      <c r="I49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="G49" t="str">
-        <v>null</v>
-      </c>
-      <c r="H49" t="str">
-        <v>null</v>
-      </c>
-      <c r="I49" t="str">
-        <v>null</v>
       </c>
       <c r="J49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
@@ -4427,7 +4427,7 @@
         <v>null</v>
       </c>
       <c r="N49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O49" t="str">
         <v>null</v>
@@ -4442,7 +4442,7 @@
         <v>true</v>
       </c>
       <c r="S49" t="str">
-        <v>minimum</v>
+        <v>maximum</v>
       </c>
       <c r="T49" t="str">
         <v>null</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_2</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4480,25 +4480,25 @@
         <v>null</v>
       </c>
       <c r="D50" t="str">
+        <v>null</v>
+      </c>
+      <c r="E50" t="str">
+        <v>null</v>
+      </c>
+      <c r="F50" t="str">
+        <v>null</v>
+      </c>
+      <c r="G50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E50" t="str">
-        <v>Biobedspuiwaterproductie S3 systeem</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="H50" t="str">
+        <v>Geleidbaarheid waswater S1 systeem</v>
+      </c>
+      <c r="I50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G50" t="str">
-        <v>null</v>
-      </c>
-      <c r="H50" t="str">
-        <v>null</v>
-      </c>
-      <c r="I50" t="str">
-        <v>null</v>
-      </c>
       <c r="J50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K50" t="str">
         <v>null</v>
@@ -4510,7 +4510,7 @@
         <v>null</v>
       </c>
       <c r="N50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O50" t="str">
         <v>null</v>
@@ -4525,7 +4525,7 @@
         <v>true</v>
       </c>
       <c r="S50" t="str">
-        <v>minimum</v>
+        <v>maximum</v>
       </c>
       <c r="T50" t="str">
         <v>null</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_3</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4563,25 +4563,25 @@
         <v>null</v>
       </c>
       <c r="D51" t="str">
+        <v>null</v>
+      </c>
+      <c r="E51" t="str">
+        <v>null</v>
+      </c>
+      <c r="F51" t="str">
+        <v>null</v>
+      </c>
+      <c r="G51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E51" t="str">
-        <v>Biobedspoelwaterproductie S3 systeem</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="H51" t="str">
+        <v>Waswaterdebiet S1 systeem</v>
+      </c>
+      <c r="I51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G51" t="str">
-        <v>null</v>
-      </c>
-      <c r="H51" t="str">
-        <v>null</v>
-      </c>
-      <c r="I51" t="str">
-        <v>null</v>
-      </c>
       <c r="J51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K51" t="str">
         <v>null</v>
@@ -4593,7 +4593,7 @@
         <v>null</v>
       </c>
       <c r="N51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O51" t="str">
         <v>null</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_4</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4646,25 +4646,25 @@
         <v>null</v>
       </c>
       <c r="D52" t="str">
+        <v>null</v>
+      </c>
+      <c r="E52" t="str">
+        <v>null</v>
+      </c>
+      <c r="F52" t="str">
+        <v>null</v>
+      </c>
+      <c r="G52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E52" t="str">
-        <v>Drukval S3 systeem</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="H52" t="str">
+        <v>Spuiwaterdebiet S1 systeem</v>
+      </c>
+      <c r="I52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G52" t="str">
-        <v>null</v>
-      </c>
-      <c r="H52" t="str">
-        <v>null</v>
-      </c>
-      <c r="I52" t="str">
-        <v>null</v>
-      </c>
       <c r="J52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="K52" t="str">
         <v>null</v>
@@ -4676,7 +4676,7 @@
         <v>null</v>
       </c>
       <c r="N52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O52" t="str">
         <v>null</v>
@@ -4691,7 +4691,7 @@
         <v>true</v>
       </c>
       <c r="S52" t="str">
-        <v>maximum</v>
+        <v>minimum</v>
       </c>
       <c r="T52" t="str">
         <v>null</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_5</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4729,22 +4729,22 @@
         <v>null</v>
       </c>
       <c r="D53" t="str">
+        <v>null</v>
+      </c>
+      <c r="E53" t="str">
+        <v>null</v>
+      </c>
+      <c r="F53" t="str">
+        <v>null</v>
+      </c>
+      <c r="G53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E53" t="str">
-        <v>Geleidbaarheid waswater S1 systeem</v>
-      </c>
-      <c r="F53" t="str">
+      <c r="H53" t="str">
+        <v>Drukval S1 systeem</v>
+      </c>
+      <c r="I53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="G53" t="str">
-        <v>null</v>
-      </c>
-      <c r="H53" t="str">
-        <v>null</v>
-      </c>
-      <c r="I53" t="str">
-        <v>null</v>
       </c>
       <c r="J53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
@@ -4759,7 +4759,7 @@
         <v>null</v>
       </c>
       <c r="N53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
       </c>
       <c r="O53" t="str">
         <v>null</v>
@@ -4774,7 +4774,7 @@
         <v>true</v>
       </c>
       <c r="S53" t="str">
-        <v>maximum</v>
+        <v>exact</v>
       </c>
       <c r="T53" t="str">
         <v>null</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_6</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4812,25 +4812,25 @@
         <v>null</v>
       </c>
       <c r="D54" t="str">
+        <v>null</v>
+      </c>
+      <c r="E54" t="str">
+        <v>null</v>
+      </c>
+      <c r="F54" t="str">
+        <v>null</v>
+      </c>
+      <c r="G54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E54" t="str">
-        <v>Waswaterdebiet S1 systeem</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="H54" t="str">
+        <v>Zuurtegraad waswater S2 systeem</v>
+      </c>
+      <c r="I54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G54" t="str">
-        <v>null</v>
-      </c>
-      <c r="H54" t="str">
-        <v>null</v>
-      </c>
-      <c r="I54" t="str">
-        <v>null</v>
-      </c>
       <c r="J54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K54" t="str">
         <v>null</v>
@@ -4842,7 +4842,7 @@
         <v>null</v>
       </c>
       <c r="N54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O54" t="str">
         <v>null</v>
@@ -4857,7 +4857,7 @@
         <v>true</v>
       </c>
       <c r="S54" t="str">
-        <v>minimum</v>
+        <v>maximum</v>
       </c>
       <c r="T54" t="str">
         <v>null</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_7</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4895,25 +4895,25 @@
         <v>null</v>
       </c>
       <c r="D55" t="str">
+        <v>null</v>
+      </c>
+      <c r="E55" t="str">
+        <v>null</v>
+      </c>
+      <c r="F55" t="str">
+        <v>null</v>
+      </c>
+      <c r="G55" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E55" t="str">
-        <v>Spuiwaterdebiet S1 systeem</v>
-      </c>
-      <c r="F55" t="str">
+      <c r="H55" t="str">
+        <v>Geleidbaarheid waswater S2 systeem</v>
+      </c>
+      <c r="I55" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G55" t="str">
-        <v>null</v>
-      </c>
-      <c r="H55" t="str">
-        <v>null</v>
-      </c>
-      <c r="I55" t="str">
-        <v>null</v>
-      </c>
       <c r="J55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K55" t="str">
         <v>null</v>
@@ -4925,7 +4925,7 @@
         <v>null</v>
       </c>
       <c r="N55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O55" t="str">
         <v>null</v>
@@ -4940,7 +4940,7 @@
         <v>true</v>
       </c>
       <c r="S55" t="str">
-        <v>minimum</v>
+        <v>maximum</v>
       </c>
       <c r="T55" t="str">
         <v>null</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_8</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4978,25 +4978,25 @@
         <v>null</v>
       </c>
       <c r="D56" t="str">
+        <v>null</v>
+      </c>
+      <c r="E56" t="str">
+        <v>null</v>
+      </c>
+      <c r="F56" t="str">
+        <v>null</v>
+      </c>
+      <c r="G56" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E56" t="str">
-        <v>Drukval S1 systeem</v>
-      </c>
-      <c r="F56" t="str">
+      <c r="H56" t="str">
+        <v>Waswaterdebiet S2 systeem</v>
+      </c>
+      <c r="I56" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="G56" t="str">
-        <v>null</v>
-      </c>
-      <c r="H56" t="str">
-        <v>null</v>
-      </c>
-      <c r="I56" t="str">
-        <v>null</v>
-      </c>
       <c r="J56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="K56" t="str">
         <v>null</v>
@@ -5008,7 +5008,7 @@
         <v>null</v>
       </c>
       <c r="N56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
       </c>
       <c r="O56" t="str">
         <v>null</v>
@@ -5023,7 +5023,7 @@
         <v>true</v>
       </c>
       <c r="S56" t="str">
-        <v>exact</v>
+        <v>minimum</v>
       </c>
       <c r="T56" t="str">
         <v>null</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_9</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5061,22 +5061,22 @@
         <v>null</v>
       </c>
       <c r="D57" t="str">
+        <v>null</v>
+      </c>
+      <c r="E57" t="str">
+        <v>null</v>
+      </c>
+      <c r="F57" t="str">
+        <v>null</v>
+      </c>
+      <c r="G57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
-      <c r="E57" t="str">
-        <v>Zuurtegraad waswater S2 systeem</v>
-      </c>
-      <c r="F57" t="str">
+      <c r="H57" t="str">
+        <v>Spuiwaterdebiet S2 systeem</v>
+      </c>
+      <c r="I57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
-      </c>
-      <c r="G57" t="str">
-        <v>null</v>
-      </c>
-      <c r="H57" t="str">
-        <v>null</v>
-      </c>
-      <c r="I57" t="str">
-        <v>null</v>
       </c>
       <c r="J57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
@@ -5091,7 +5091,7 @@
         <v>null</v>
       </c>
       <c r="N57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
       </c>
       <c r="O57" t="str">
         <v>null</v>
@@ -5106,7 +5106,7 @@
         <v>true</v>
       </c>
       <c r="S57" t="str">
-        <v>maximum</v>
+        <v>minimum</v>
       </c>
       <c r="T57" t="str">
         <v>null</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5144,25 +5144,25 @@
         <v>null</v>
       </c>
       <c r="D58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="E58" t="str">
-        <v>Geleidbaarheid waswater S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="F58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="G58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="H58" t="str">
-        <v>null</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="I58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="J58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K58" t="str">
         <v>null</v>
@@ -5174,7 +5174,7 @@
         <v>null</v>
       </c>
       <c r="N58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>null</v>
       </c>
       <c r="O58" t="str">
         <v>null</v>
@@ -5186,10 +5186,10 @@
         <v>null</v>
       </c>
       <c r="R58" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S58" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="T58" t="str">
         <v>null</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5227,25 +5227,25 @@
         <v>null</v>
       </c>
       <c r="D59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="E59" t="str">
-        <v>Waswaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="F59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="G59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="H59" t="str">
-        <v>null</v>
+        <v>Lege stal</v>
       </c>
       <c r="I59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="J59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K59" t="str">
         <v>null</v>
@@ -5257,7 +5257,7 @@
         <v>null</v>
       </c>
       <c r="N59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="O59" t="str">
         <v>null</v>
@@ -5269,10 +5269,10 @@
         <v>null</v>
       </c>
       <c r="R59" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S59" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="T59" t="str">
         <v>null</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5310,25 +5310,25 @@
         <v>null</v>
       </c>
       <c r="D60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="E60" t="str">
-        <v>Spuiwaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="F60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="G60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="H60" t="str">
-        <v>null</v>
+        <v>Gereinigd</v>
       </c>
       <c r="I60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="J60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K60" t="str">
         <v>null</v>
@@ -5340,7 +5340,7 @@
         <v>null</v>
       </c>
       <c r="N60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O60" t="str">
         <v>null</v>
@@ -5352,10 +5352,10 @@
         <v>null</v>
       </c>
       <c r="R60" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S60" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="T60" t="str">
         <v>null</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5393,22 +5393,22 @@
         <v>null</v>
       </c>
       <c r="D61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="E61" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>null</v>
       </c>
       <c r="F61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="G61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="H61" t="str">
-        <v>null</v>
+        <v>In onderhoud</v>
       </c>
       <c r="I61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="J61" t="str">
         <v>null</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5476,22 +5476,22 @@
         <v>null</v>
       </c>
       <c r="D62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="E62" t="str">
-        <v>Lege stal</v>
+        <v>null</v>
       </c>
       <c r="F62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="G62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="H62" t="str">
-        <v>null</v>
+        <v>Operationeel</v>
       </c>
       <c r="I62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="J62" t="str">
         <v>null</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5559,22 +5559,22 @@
         <v>null</v>
       </c>
       <c r="D63" t="str">
+        <v>null</v>
+      </c>
+      <c r="E63" t="str">
+        <v>null</v>
+      </c>
+      <c r="F63" t="str">
+        <v>null</v>
+      </c>
+      <c r="G63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
-      <c r="E63" t="str">
-        <v>Gereinigd</v>
-      </c>
-      <c r="F63" t="str">
+      <c r="H63" t="str">
+        <v>Storing</v>
+      </c>
+      <c r="I63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
-      </c>
-      <c r="G63" t="str">
-        <v>null</v>
-      </c>
-      <c r="H63" t="str">
-        <v>null</v>
-      </c>
-      <c r="I63" t="str">
-        <v>null</v>
       </c>
       <c r="J63" t="str">
         <v>null</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5642,19 +5642,19 @@
         <v>null</v>
       </c>
       <c r="D64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="E64" t="str">
-        <v>In onderhoud</v>
+        <v>null</v>
       </c>
       <c r="F64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="G64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="H64" t="str">
-        <v>null</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="I64" t="str">
         <v>null</v>
@@ -5690,19 +5690,19 @@
         <v>null</v>
       </c>
       <c r="T64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="U64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="W64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="X64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y64" t="str">
         <v>null</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5725,22 +5725,22 @@
         <v>null</v>
       </c>
       <c r="D65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="E65" t="str">
-        <v>Operationeel</v>
+        <v>null</v>
       </c>
       <c r="F65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="G65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="H65" t="str">
-        <v>null</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="I65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="J65" t="str">
         <v>null</v>
@@ -5779,13 +5779,13 @@
         <v>null</v>
       </c>
       <c r="V65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="W65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="X65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="Y65" t="str">
         <v>null</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5808,19 +5808,19 @@
         <v>null</v>
       </c>
       <c r="D66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="E66" t="str">
-        <v>Storing</v>
+        <v>null</v>
       </c>
       <c r="F66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="G66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="H66" t="str">
-        <v>null</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="I66" t="str">
         <v>null</v>
@@ -5838,7 +5838,7 @@
         <v>null</v>
       </c>
       <c r="N66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O66" t="str">
         <v>null</v>
@@ -5856,10 +5856,10 @@
         <v>null</v>
       </c>
       <c r="T66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="U66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V66" t="str">
         <v>null</v>
@@ -5868,10 +5868,10 @@
         <v>null</v>
       </c>
       <c r="X66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y66" t="str">
-        <v>null</v>
+        <v>S1</v>
       </c>
       <c r="Z66" t="str">
         <v>null</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5891,19 +5891,19 @@
         <v>null</v>
       </c>
       <c r="D67" t="str">
+        <v>null</v>
+      </c>
+      <c r="E67" t="str">
+        <v>null</v>
+      </c>
+      <c r="F67" t="str">
+        <v>null</v>
+      </c>
+      <c r="G67" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
-      <c r="E67" t="str">
-        <v>Luchtwassysteem</v>
-      </c>
-      <c r="F67" t="str">
-        <v>null</v>
-      </c>
-      <c r="G67" t="str">
-        <v>null</v>
-      </c>
       <c r="H67" t="str">
-        <v>null</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="I67" t="str">
         <v>null</v>
@@ -5921,7 +5921,7 @@
         <v>null</v>
       </c>
       <c r="N67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
       <c r="O67" t="str">
         <v>null</v>
@@ -5939,22 +5939,22 @@
         <v>null</v>
       </c>
       <c r="T67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
       </c>
       <c r="U67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="W67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="X67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y67" t="str">
-        <v>null</v>
+        <v>S2</v>
       </c>
       <c r="Z67" t="str">
         <v>null</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5974,19 +5974,19 @@
         <v>null</v>
       </c>
       <c r="D68" t="str">
+        <v>null</v>
+      </c>
+      <c r="E68" t="str">
+        <v>null</v>
+      </c>
+      <c r="F68" t="str">
+        <v>null</v>
+      </c>
+      <c r="G68" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
-      <c r="E68" t="str">
-        <v>Luchtzuiveringssysteem</v>
-      </c>
-      <c r="F68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
-      </c>
-      <c r="G68" t="str">
-        <v>null</v>
-      </c>
       <c r="H68" t="str">
-        <v>null</v>
+        <v>Biobed</v>
       </c>
       <c r="I68" t="str">
         <v>null</v>
@@ -6004,7 +6004,7 @@
         <v>null</v>
       </c>
       <c r="N68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O68" t="str">
         <v>null</v>
@@ -6022,22 +6022,22 @@
         <v>null</v>
       </c>
       <c r="T68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="U68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="W68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y68" t="str">
-        <v>null</v>
+        <v>S3</v>
       </c>
       <c r="Z68" t="str">
         <v>null</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6057,37 +6057,37 @@
         <v>null</v>
       </c>
       <c r="D69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>null</v>
       </c>
       <c r="E69" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="F69" t="str">
         <v>null</v>
       </c>
       <c r="G69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H69" t="str">
-        <v>null</v>
+        <v>Klasse 1</v>
       </c>
       <c r="I69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="J69" t="str">
         <v>null</v>
       </c>
       <c r="K69" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="L69" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="M69" t="str">
         <v>null</v>
       </c>
       <c r="N69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O69" t="str">
         <v>null</v>
@@ -6105,10 +6105,10 @@
         <v>null</v>
       </c>
       <c r="T69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="U69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V69" t="str">
         <v>null</v>
@@ -6117,13 +6117,13 @@
         <v>null</v>
       </c>
       <c r="X69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y69" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="Z69" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 1</v>
       </c>
       <c r="AA69" t="str">
         <v>null</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6140,37 +6140,37 @@
         <v>null</v>
       </c>
       <c r="D70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>null</v>
       </c>
       <c r="E70" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="F70" t="str">
         <v>null</v>
       </c>
       <c r="G70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H70" t="str">
-        <v>null</v>
+        <v>Klasse 2</v>
       </c>
       <c r="I70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="J70" t="str">
         <v>null</v>
       </c>
       <c r="K70" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="L70" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="M70" t="str">
         <v>null</v>
       </c>
       <c r="N70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O70" t="str">
         <v>null</v>
@@ -6188,10 +6188,10 @@
         <v>null</v>
       </c>
       <c r="T70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="U70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V70" t="str">
         <v>null</v>
@@ -6200,13 +6200,13 @@
         <v>null</v>
       </c>
       <c r="X70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y70" t="str">
-        <v>S2</v>
+        <v>null</v>
       </c>
       <c r="Z70" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 2</v>
       </c>
       <c r="AA70" t="str">
         <v>null</v>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6223,37 +6223,37 @@
         <v>null</v>
       </c>
       <c r="D71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>null</v>
       </c>
       <c r="E71" t="str">
-        <v>Biobed</v>
+        <v>null</v>
       </c>
       <c r="F71" t="str">
         <v>null</v>
       </c>
       <c r="G71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H71" t="str">
-        <v>null</v>
+        <v>Klasse 3</v>
       </c>
       <c r="I71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="J71" t="str">
         <v>null</v>
       </c>
       <c r="K71" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="L71" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="M71" t="str">
         <v>null</v>
       </c>
       <c r="N71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>null</v>
       </c>
       <c r="O71" t="str">
         <v>null</v>
@@ -6271,10 +6271,10 @@
         <v>null</v>
       </c>
       <c r="T71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="U71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V71" t="str">
         <v>null</v>
@@ -6283,13 +6283,13 @@
         <v>null</v>
       </c>
       <c r="X71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y71" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="Z71" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 3</v>
       </c>
       <c r="AA71" t="str">
         <v>null</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/bedrijfsklasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6309,7 +6309,7 @@
         <v>null</v>
       </c>
       <c r="E72" t="str">
-        <v>conceptschema iioa bedrijfsklassen</v>
+        <v>null</v>
       </c>
       <c r="F72" t="str">
         <v>null</v>
@@ -6318,7 +6318,7 @@
         <v>null</v>
       </c>
       <c r="H72" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
       </c>
       <c r="I72" t="str">
         <v>null</v>
@@ -6327,10 +6327,10 @@
         <v>null</v>
       </c>
       <c r="K72" t="str">
-        <v>null</v>
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="L72" t="str">
-        <v>null</v>
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="M72" t="str">
         <v>null</v>
@@ -6372,15 +6372,15 @@
         <v>null</v>
       </c>
       <c r="Z72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/1|https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/2|https://data.omgeving.vlaanderen.be/id/concept/bedrijfklasse/3</v>
+        <v>null</v>
       </c>
       <c r="AA72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6392,7 +6392,7 @@
         <v>null</v>
       </c>
       <c r="E73" t="str">
-        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+        <v>null</v>
       </c>
       <c r="F73" t="str">
         <v>null</v>
@@ -6401,7 +6401,7 @@
         <v>null</v>
       </c>
       <c r="H73" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem medium</v>
       </c>
       <c r="I73" t="str">
         <v>null</v>
@@ -6455,15 +6455,15 @@
         <v>null</v>
       </c>
       <c r="Z73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/9</v>
+        <v>null</v>
       </c>
       <c r="AA73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6475,7 +6475,7 @@
         <v>null</v>
       </c>
       <c r="E74" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>null</v>
       </c>
       <c r="F74" t="str">
         <v>null</v>
@@ -6484,7 +6484,7 @@
         <v>null</v>
       </c>
       <c r="H74" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
       </c>
       <c r="I74" t="str">
         <v>null</v>
@@ -6538,15 +6538,15 @@
         <v>null</v>
       </c>
       <c r="Z74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6558,7 +6558,7 @@
         <v>null</v>
       </c>
       <c r="E75" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>null</v>
       </c>
       <c r="F75" t="str">
         <v>null</v>
@@ -6567,7 +6567,7 @@
         <v>null</v>
       </c>
       <c r="H75" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem status</v>
       </c>
       <c r="I75" t="str">
         <v>null</v>
@@ -6621,15 +6621,15 @@
         <v>null</v>
       </c>
       <c r="Z75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="AA75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6641,7 +6641,7 @@
         <v>null</v>
       </c>
       <c r="E76" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>null</v>
       </c>
       <c r="F76" t="str">
         <v>null</v>
@@ -6650,7 +6650,7 @@
         <v>null</v>
       </c>
       <c r="H76" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
       </c>
       <c r="I76" t="str">
         <v>null</v>
@@ -6704,15 +6704,15 @@
         <v>null</v>
       </c>
       <c r="Z76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>null</v>
       </c>
       <c r="AA76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6724,7 +6724,7 @@
         <v>null</v>
       </c>
       <c r="E77" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="F77" t="str">
         <v>null</v>
@@ -6733,7 +6733,7 @@
         <v>null</v>
       </c>
       <c r="H77" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem</v>
       </c>
       <c r="I77" t="str">
         <v>null</v>
@@ -6787,15 +6787,15 @@
         <v>null</v>
       </c>
       <c r="Z77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>null</v>
       </c>
       <c r="AA77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6807,7 +6807,7 @@
         <v>null</v>
       </c>
       <c r="E78" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="F78" t="str">
         <v>null</v>
@@ -6816,7 +6816,7 @@
         <v>null</v>
       </c>
       <c r="H78" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
       </c>
       <c r="I78" t="str">
         <v>null</v>
@@ -6870,15 +6870,15 @@
         <v>null</v>
       </c>
       <c r="Z78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>Ranges</v>
       </c>
       <c r="AA78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6890,7 +6890,7 @@
         <v>null</v>
       </c>
       <c r="E79" t="str">
-        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+        <v>null</v>
       </c>
       <c r="F79" t="str">
         <v>null</v>
@@ -6899,7 +6899,7 @@
         <v>null</v>
       </c>
       <c r="H79" t="str">
-        <v>null</v>
+        <v>VLAREM indelingsklassen</v>
       </c>
       <c r="I79" t="str">
         <v>null</v>
@@ -6953,10 +6953,10 @@
         <v>null</v>
       </c>
       <c r="Z79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+        <v>null</v>
       </c>
       <c r="AA79" t="str">
-        <v>Ranges</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,73 +413,73 @@
         <v>applicableUnit</v>
       </c>
       <c r="D1" t="str">
+        <v>altLabel</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inScheme</v>
+      </c>
+      <c r="F1" t="str">
+        <v>prefLabel</v>
+      </c>
+      <c r="G1" t="str">
+        <v>topConceptOf</v>
+      </c>
+      <c r="H1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="I1" t="str">
+        <v>note</v>
+      </c>
+      <c r="J1" t="str">
+        <v>scopeNote</v>
+      </c>
+      <c r="K1" t="str">
+        <v>relevantLZS</v>
+      </c>
+      <c r="L1" t="str">
+        <v>relevantProperty</v>
+      </c>
+      <c r="M1" t="str">
+        <v>maxValue</v>
+      </c>
+      <c r="N1" t="str">
+        <v>operatie</v>
+      </c>
+      <c r="O1" t="str">
+        <v>minValue</v>
+      </c>
+      <c r="P1" t="str">
         <v>subject</v>
       </c>
-      <c r="E1" t="str">
+      <c r="Q1" t="str">
         <v>relevantQuantityKind</v>
       </c>
-      <c r="F1" t="str">
+      <c r="R1" t="str">
         <v>seeAlso</v>
       </c>
-      <c r="G1" t="str">
-        <v>inScheme</v>
-      </c>
-      <c r="H1" t="str">
-        <v>prefLabel</v>
-      </c>
-      <c r="I1" t="str">
-        <v>topConceptOf</v>
-      </c>
-      <c r="J1" t="str">
-        <v>relevantLZS</v>
-      </c>
-      <c r="K1" t="str">
-        <v>definition</v>
-      </c>
-      <c r="L1" t="str">
-        <v>note</v>
-      </c>
-      <c r="M1" t="str">
-        <v>scopeNote</v>
-      </c>
-      <c r="N1" t="str">
-        <v>relevantProperty</v>
-      </c>
-      <c r="O1" t="str">
-        <v>maxValue</v>
-      </c>
-      <c r="P1" t="str">
-        <v>operatie</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>minValue</v>
-      </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>technischefiche</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>referentiewaardeType</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>broader</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>narrower</v>
       </c>
-      <c r="W1" t="str">
+      <c r="X1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="X1" t="str">
+      <c r="Y1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Z1" t="str">
         <v>notation</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>altLabel</v>
       </c>
       <c r="AA1" t="str">
         <v>hasTopConcept</v>
@@ -496,7 +496,7 @@
         <v>http://qudt.org/vocab/unit/PH</v>
       </c>
       <c r="D2" t="str">
-        <v>null</v>
+        <v>Zuurtegraad</v>
       </c>
       <c r="E2" t="str">
         <v>null</v>
@@ -570,16 +570,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="B3" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C3" t="str">
-        <v>http://qudt.org/vocab/unit/PH</v>
+        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
       </c>
       <c r="D3" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid</v>
       </c>
       <c r="E3" t="str">
         <v>null</v>
@@ -653,16 +653,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
+        <v>http://qudt.org/vocab/quantitykind/Count</v>
       </c>
       <c r="B4" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C4" t="str">
-        <v>http://qudt.org/vocab/unit/MilliS-PER-CentiM</v>
+        <v>http://qudt.org/vocab/unit/NUM</v>
       </c>
       <c r="D4" t="str">
-        <v>null</v>
+        <v>Aantal</v>
       </c>
       <c r="E4" t="str">
         <v>null</v>
@@ -736,16 +736,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Count</v>
+        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="B5" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C5" t="str">
-        <v>http://qudt.org/vocab/unit/NUM</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D5" t="str">
-        <v>null</v>
+        <v>Dampdruk</v>
       </c>
       <c r="E5" t="str">
         <v>null</v>
@@ -819,16 +819,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Fugacity</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="B6" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C6" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D6" t="str">
-        <v>null</v>
+        <v>Volume</v>
       </c>
       <c r="E6" t="str">
         <v>null</v>
@@ -902,16 +902,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="B7" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C7" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D7" t="str">
-        <v>null</v>
+        <v>Volume per tijdseenheid</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
@@ -985,25 +985,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B8" t="str">
-        <v>http://qudt.org/schema/qudt/QuantityKind</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>null</v>
       </c>
       <c r="D8" t="str">
         <v>null</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F8" t="str">
-        <v>null</v>
+        <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="G8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="H8" t="str">
         <v>null</v>
@@ -1068,25 +1068,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
       </c>
       <c r="B9" t="str">
-        <v>http://qudt.org/schema/qudt/QuantityKind</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>null</v>
       </c>
       <c r="D9" t="str">
         <v>null</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F9" t="str">
-        <v>null</v>
+        <v>Lucht</v>
       </c>
       <c r="G9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="H9" t="str">
         <v>null</v>
@@ -1151,25 +1151,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="B10" t="str">
-        <v>http://qudt.org/schema/qudt/QuantityKind</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>null</v>
       </c>
       <c r="D10" t="str">
         <v>null</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F10" t="str">
-        <v>null</v>
+        <v>Spuiwater</v>
       </c>
       <c r="G10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="H10" t="str">
         <v>null</v>
@@ -1234,34 +1234,34 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
         <v>null</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="E11" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>Stal</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="H11" t="str">
-        <v>Biobedspoelwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="I11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="J11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K11" t="str">
         <v>null</v>
@@ -1317,34 +1317,34 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="B12" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
         <v>null</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>null</v>
       </c>
       <c r="E12" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>Waswater</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="H12" t="str">
-        <v>Biobedspuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="I12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K12" t="str">
         <v>null</v>
@@ -1400,43 +1400,43 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
         <v>null</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>null</v>
       </c>
       <c r="E13" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Fugacity|http://qudt.org/vocab/quantitykind/VaporPressure</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H13" t="str">
-        <v>Drukval over het systeem</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
       <c r="I13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
       <c r="J13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&lt; 6</v>
       </c>
       <c r="K13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L13" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="M13" t="str">
-        <v>null</v>
+        <v>6</v>
       </c>
       <c r="N13" t="str">
         <v>null</v>
@@ -1483,46 +1483,46 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10</v>
       </c>
       <c r="B14" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
         <v>null</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="E14" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H14" t="str">
-        <v>Geleidbaarheid van het waswater</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="J14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="K14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L14" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="M14" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="N14" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O14" t="str">
         <v>null</v>
@@ -1566,46 +1566,46 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
         <v>null</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>null</v>
       </c>
       <c r="E15" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H15" t="str">
-        <v>Spuiwaterproductie</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="J15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="K15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L15" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="M15" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="N15" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O15" t="str">
         <v>null</v>
@@ -1649,46 +1649,46 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
         <v>null</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>null</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F16" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H16" t="str">
-        <v>Stalbezetting</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="J16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L16" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M16" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="N16" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O16" t="str">
         <v>null</v>
@@ -1732,49 +1732,49 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13</v>
       </c>
       <c r="B17" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
         <v>null</v>
       </c>
       <c r="D17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>null</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F17" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H17" t="str">
-        <v>SysteemStatus</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="J17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L17" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M17" t="str">
         <v>null</v>
       </c>
       <c r="N17" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O17" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="str">
         <v>null</v>
@@ -1815,46 +1815,46 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14</v>
       </c>
       <c r="B18" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
         <v>null</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="E18" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="G18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H18" t="str">
-        <v>Waswaterdebiet over het waspakket</v>
+        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="K18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="M18" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="N18" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O18" t="str">
         <v>null</v>
@@ -1898,46 +1898,46 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15</v>
       </c>
       <c r="B19" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
         <v>null</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="E19" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="G19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H19" t="str">
-        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="K19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L19" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="M19" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="N19" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O19" t="str">
         <v>null</v>
@@ -1981,49 +1981,49 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16</v>
       </c>
       <c r="B20" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
         <v>null</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="E20" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate|http://qudt.org/vocab/quantitykind/VolumePerTime</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
       </c>
       <c r="G20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H20" t="str">
-        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="J20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="K20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L20" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M20" t="str">
         <v>null</v>
       </c>
       <c r="N20" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="O20" t="str">
-        <v>null</v>
+        <v>50</v>
       </c>
       <c r="P20" t="str">
         <v>null</v>
@@ -2064,40 +2064,40 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2</v>
       </c>
       <c r="B21" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
         <v>null</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="E21" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity|http://qudt.org/vocab/quantitykind/Basicity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
       </c>
       <c r="G21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H21" t="str">
-        <v>Zuurtegraad van het waswater</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
       <c r="I21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
       <c r="J21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&gt; 8,5</v>
       </c>
       <c r="K21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L21" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="M21" t="str">
         <v>null</v>
@@ -2106,7 +2106,7 @@
         <v>null</v>
       </c>
       <c r="O21" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="P21" t="str">
         <v>null</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
         <v>null</v>
@@ -2159,37 +2159,37 @@
         <v>null</v>
       </c>
       <c r="E22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F22" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
       </c>
       <c r="G22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H22" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="J22" t="str">
-        <v>null</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="K22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="M22" t="str">
         <v>null</v>
       </c>
       <c r="N22" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="O22" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="P22" t="str">
         <v>null</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4</v>
       </c>
       <c r="B23" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
         <v>null</v>
@@ -2242,34 +2242,34 @@
         <v>null</v>
       </c>
       <c r="E23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F23" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
       </c>
       <c r="G23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H23" t="str">
-        <v>Lucht</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="K23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="M23" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="N23" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O23" t="str">
         <v>null</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
         <v>null</v>
@@ -2325,34 +2325,34 @@
         <v>null</v>
       </c>
       <c r="E24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F24" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
       </c>
       <c r="G24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H24" t="str">
-        <v>Spuiwater</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="K24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L24" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="M24" t="str">
-        <v>null</v>
+        <v>0.9</v>
       </c>
       <c r="N24" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O24" t="str">
         <v>null</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6</v>
       </c>
       <c r="B25" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
         <v>null</v>
@@ -2408,34 +2408,34 @@
         <v>null</v>
       </c>
       <c r="E25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F25" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
       </c>
       <c r="G25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H25" t="str">
-        <v>Stal</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="J25" t="str">
-        <v>null</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L25" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M25" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="N25" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O25" t="str">
         <v>null</v>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7</v>
       </c>
       <c r="B26" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
         <v>null</v>
@@ -2491,37 +2491,37 @@
         <v>null</v>
       </c>
       <c r="E26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F26" t="str">
-        <v>null</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
       </c>
       <c r="G26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H26" t="str">
-        <v>Waswater</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="J26" t="str">
-        <v>null</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L26" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M26" t="str">
         <v>null</v>
       </c>
       <c r="N26" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="O26" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="str">
         <v>null</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2574,37 +2574,37 @@
         <v>null</v>
       </c>
       <c r="E27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F27" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
       </c>
       <c r="G27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H27" t="str">
-        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="J27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="K27" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L27" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="M27" t="str">
-        <v>&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="N27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>som</v>
       </c>
       <c r="O27" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P27" t="str">
         <v>null</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2657,40 +2657,40 @@
         <v>null</v>
       </c>
       <c r="E28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F28" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
       </c>
       <c r="G28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H28" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="I28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="J28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="K28" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L28" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="M28" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="N28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>som</v>
       </c>
       <c r="O28" t="str">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P28" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q28" t="str">
         <v>null</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
       </c>
       <c r="B29" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C29" t="str">
         <v>null</v>
@@ -2740,46 +2740,46 @@
         <v>null</v>
       </c>
       <c r="E29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F29" t="str">
-        <v>null</v>
+        <v>Biobedspoelwaterproductie</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H29" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K29" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L29" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="M29" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="N29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O29" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="P29" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="Q29" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="R29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="S29" t="str">
         <v>null</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
       </c>
       <c r="B30" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C30" t="str">
         <v>null</v>
@@ -2823,46 +2823,46 @@
         <v>null</v>
       </c>
       <c r="E30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F30" t="str">
-        <v>null</v>
+        <v>Biobedspuiwaterproductie</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H30" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K30" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L30" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="M30" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="N30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O30" t="str">
-        <v>0.6</v>
+        <v>null</v>
       </c>
       <c r="P30" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="Q30" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="R30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="S30" t="str">
         <v>null</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="B31" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C31" t="str">
         <v>null</v>
@@ -2906,46 +2906,46 @@
         <v>null</v>
       </c>
       <c r="E31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F31" t="str">
-        <v>null</v>
+        <v>Drukval over het systeem</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H31" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K31" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L31" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="M31" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="N31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O31" t="str">
         <v>null</v>
       </c>
       <c r="P31" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
       </c>
       <c r="Q31" t="str">
-        <v>1.4</v>
+        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="R31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="S31" t="str">
         <v>null</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="B32" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C32" t="str">
         <v>null</v>
@@ -2989,46 +2989,46 @@
         <v>null</v>
       </c>
       <c r="E32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F32" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid van het waswater</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H32" t="str">
-        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K32" t="str">
-        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L32" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="M32" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="N32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>null</v>
       </c>
       <c r="O32" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P32" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="Q32" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="R32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
       <c r="S32" t="str">
         <v>null</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="B33" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C33" t="str">
         <v>null</v>
@@ -3072,46 +3072,46 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F33" t="str">
-        <v>null</v>
+        <v>Spuiwaterproductie</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H33" t="str">
-        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K33" t="str">
-        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L33" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="M33" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="N33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>null</v>
       </c>
       <c r="O33" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P33" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="Q33" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="R33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="S33" t="str">
         <v>null</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting</v>
       </c>
       <c r="B34" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C34" t="str">
         <v>null</v>
@@ -3155,43 +3155,43 @@
         <v>null</v>
       </c>
       <c r="E34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F34" t="str">
-        <v>null</v>
+        <v>Stalbezetting</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H34" t="str">
-        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K34" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L34" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>null</v>
       </c>
       <c r="M34" t="str">
-        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>null</v>
       </c>
       <c r="N34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O34" t="str">
         <v>null</v>
       </c>
       <c r="P34" t="str">
-        <v>som</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
       </c>
       <c r="Q34" t="str">
-        <v>50</v>
+        <v>null</v>
       </c>
       <c r="R34" t="str">
         <v>null</v>
@@ -3226,10 +3226,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="B35" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C35" t="str">
         <v>null</v>
@@ -3238,43 +3238,43 @@
         <v>null</v>
       </c>
       <c r="E35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F35" t="str">
-        <v>null</v>
+        <v>SysteemStatus</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H35" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K35" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L35" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
+        <v>null</v>
       </c>
       <c r="M35" t="str">
-        <v>&gt; 8,5</v>
+        <v>null</v>
       </c>
       <c r="N35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O35" t="str">
         <v>null</v>
       </c>
       <c r="P35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="Q35" t="str">
-        <v>8.5</v>
+        <v>null</v>
       </c>
       <c r="R35" t="str">
         <v>null</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="B36" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C36" t="str">
         <v>null</v>
@@ -3321,46 +3321,46 @@
         <v>null</v>
       </c>
       <c r="E36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F36" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet over het waspakket</v>
       </c>
       <c r="G36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H36" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K36" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L36" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="M36" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="N36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>null</v>
       </c>
       <c r="O36" t="str">
         <v>null</v>
       </c>
       <c r="P36" t="str">
-        <v>som</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="Q36" t="str">
-        <v>0</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="R36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="S36" t="str">
         <v>null</v>
@@ -3392,10 +3392,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="B37" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C37" t="str">
         <v>null</v>
@@ -3404,46 +3404,46 @@
         <v>null</v>
       </c>
       <c r="E37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F37" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
       <c r="G37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H37" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K37" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L37" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="M37" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="N37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="O37" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="P37" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="Q37" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="R37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="S37" t="str">
         <v>null</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="B38" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C38" t="str">
         <v>null</v>
@@ -3487,46 +3487,46 @@
         <v>null</v>
       </c>
       <c r="E38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F38" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
       <c r="G38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H38" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K38" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L38" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="M38" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="N38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O38" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="P38" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="Q38" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="R38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="S38" t="str">
         <v>null</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="B39" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C39" t="str">
         <v>null</v>
@@ -3570,46 +3570,46 @@
         <v>null</v>
       </c>
       <c r="E39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F39" t="str">
-        <v>null</v>
+        <v>Zuurtegraad van het waswater</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H39" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K39" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L39" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="M39" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="N39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O39" t="str">
-        <v>0.6</v>
+        <v>null</v>
       </c>
       <c r="P39" t="str">
-        <v>product</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="Q39" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity</v>
       </c>
       <c r="R39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
       <c r="S39" t="str">
         <v>null</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3653,49 +3653,49 @@
         <v>null</v>
       </c>
       <c r="E40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F40" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater S1 systeem</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H40" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K40" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L40" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="M40" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="N40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O40" t="str">
         <v>null</v>
       </c>
       <c r="P40" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="Q40" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="R40" t="str">
         <v>null</v>
       </c>
       <c r="S40" t="str">
-        <v>null</v>
+        <v>false</v>
       </c>
       <c r="T40" t="str">
         <v>null</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3736,52 +3736,52 @@
         <v>null</v>
       </c>
       <c r="E41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F41" t="str">
-        <v>null</v>
+        <v>Drukval S2 systeem</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H41" t="str">
-        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K41" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L41" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M41" t="str">
-        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>null</v>
       </c>
       <c r="N41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O41" t="str">
         <v>null</v>
       </c>
       <c r="P41" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="Q41" t="str">
-        <v>1</v>
+        <v>null</v>
       </c>
       <c r="R41" t="str">
         <v>null</v>
       </c>
       <c r="S41" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="T41" t="str">
-        <v>null</v>
+        <v>exact</v>
       </c>
       <c r="U41" t="str">
         <v>null</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3819,52 +3819,52 @@
         <v>null</v>
       </c>
       <c r="E42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F42" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H42" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="I42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
+        <v>null</v>
       </c>
       <c r="J42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K42" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L42" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="M42" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>null</v>
       </c>
       <c r="N42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>null</v>
       </c>
       <c r="O42" t="str">
         <v>null</v>
       </c>
       <c r="P42" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="Q42" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="R42" t="str">
         <v>null</v>
       </c>
       <c r="S42" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="T42" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="U42" t="str">
         <v>null</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3902,34 +3902,34 @@
         <v>null</v>
       </c>
       <c r="E43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F43" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H43" t="str">
-        <v>Zuurtegraad waswater S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="M43" t="str">
         <v>null</v>
       </c>
       <c r="N43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O43" t="str">
         <v>null</v>
@@ -3941,13 +3941,13 @@
         <v>null</v>
       </c>
       <c r="R43" t="str">
-        <v>false</v>
+        <v>null</v>
       </c>
       <c r="S43" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="T43" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="U43" t="str">
         <v>null</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -3985,34 +3985,34 @@
         <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F44" t="str">
-        <v>null</v>
+        <v>Biobedspuiwaterproductie S3 systeem</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H44" t="str">
-        <v>Drukval S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
       </c>
       <c r="M44" t="str">
         <v>null</v>
       </c>
       <c r="N44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O44" t="str">
         <v>null</v>
@@ -4024,13 +4024,13 @@
         <v>null</v>
       </c>
       <c r="R44" t="str">
+        <v>null</v>
+      </c>
+      <c r="S44" t="str">
         <v>true</v>
       </c>
-      <c r="S44" t="str">
-        <v>exact</v>
-      </c>
       <c r="T44" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="U44" t="str">
         <v>null</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4068,34 +4068,34 @@
         <v>null</v>
       </c>
       <c r="E45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F45" t="str">
-        <v>null</v>
+        <v>Biobedspoelwaterproductie S3 systeem</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H45" t="str">
-        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
       </c>
       <c r="M45" t="str">
         <v>null</v>
       </c>
       <c r="N45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>null</v>
       </c>
       <c r="O45" t="str">
         <v>null</v>
@@ -4107,13 +4107,13 @@
         <v>null</v>
       </c>
       <c r="R45" t="str">
+        <v>null</v>
+      </c>
+      <c r="S45" t="str">
         <v>true</v>
       </c>
-      <c r="S45" t="str">
+      <c r="T45" t="str">
         <v>minimum</v>
-      </c>
-      <c r="T45" t="str">
-        <v>null</v>
       </c>
       <c r="U45" t="str">
         <v>null</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4151,34 +4151,34 @@
         <v>null</v>
       </c>
       <c r="E46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F46" t="str">
-        <v>null</v>
+        <v>Drukval S3 systeem</v>
       </c>
       <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H46" t="str">
-        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="L46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M46" t="str">
         <v>null</v>
       </c>
       <c r="N46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing</v>
+        <v>null</v>
       </c>
       <c r="O46" t="str">
         <v>null</v>
@@ -4190,13 +4190,13 @@
         <v>null</v>
       </c>
       <c r="R46" t="str">
+        <v>null</v>
+      </c>
+      <c r="S46" t="str">
         <v>true</v>
       </c>
-      <c r="S46" t="str">
-        <v>minimum</v>
-      </c>
       <c r="T46" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="U46" t="str">
         <v>null</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4234,34 +4234,34 @@
         <v>null</v>
       </c>
       <c r="E47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F47" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater S1 systeem</v>
       </c>
       <c r="G47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H47" t="str">
-        <v>Biobedspuiwaterproductie S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="M47" t="str">
         <v>null</v>
       </c>
       <c r="N47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O47" t="str">
         <v>null</v>
@@ -4273,13 +4273,13 @@
         <v>null</v>
       </c>
       <c r="R47" t="str">
+        <v>null</v>
+      </c>
+      <c r="S47" t="str">
         <v>true</v>
       </c>
-      <c r="S47" t="str">
-        <v>minimum</v>
-      </c>
       <c r="T47" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="U47" t="str">
         <v>null</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4317,34 +4317,34 @@
         <v>null</v>
       </c>
       <c r="E48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F48" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet S1 systeem</v>
       </c>
       <c r="G48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H48" t="str">
-        <v>Biobedspoelwaterproductie S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L48" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="M48" t="str">
         <v>null</v>
       </c>
       <c r="N48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O48" t="str">
         <v>null</v>
@@ -4356,13 +4356,13 @@
         <v>null</v>
       </c>
       <c r="R48" t="str">
+        <v>null</v>
+      </c>
+      <c r="S48" t="str">
         <v>true</v>
       </c>
-      <c r="S48" t="str">
+      <c r="T48" t="str">
         <v>minimum</v>
-      </c>
-      <c r="T48" t="str">
-        <v>null</v>
       </c>
       <c r="U48" t="str">
         <v>null</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4400,34 +4400,34 @@
         <v>null</v>
       </c>
       <c r="E49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F49" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet S1 systeem</v>
       </c>
       <c r="G49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H49" t="str">
-        <v>Drukval S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="I49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>null</v>
       </c>
       <c r="K49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="M49" t="str">
         <v>null</v>
       </c>
       <c r="N49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O49" t="str">
         <v>null</v>
@@ -4439,13 +4439,13 @@
         <v>null</v>
       </c>
       <c r="R49" t="str">
+        <v>null</v>
+      </c>
+      <c r="S49" t="str">
         <v>true</v>
       </c>
-      <c r="S49" t="str">
-        <v>maximum</v>
-      </c>
       <c r="T49" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="U49" t="str">
         <v>null</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4483,34 +4483,34 @@
         <v>null</v>
       </c>
       <c r="E50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F50" t="str">
-        <v>null</v>
+        <v>Drukval S1 systeem</v>
       </c>
       <c r="G50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H50" t="str">
-        <v>Geleidbaarheid waswater S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="L50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="M50" t="str">
         <v>null</v>
       </c>
       <c r="N50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>null</v>
       </c>
       <c r="O50" t="str">
         <v>null</v>
@@ -4522,13 +4522,13 @@
         <v>null</v>
       </c>
       <c r="R50" t="str">
+        <v>null</v>
+      </c>
+      <c r="S50" t="str">
         <v>true</v>
       </c>
-      <c r="S50" t="str">
-        <v>maximum</v>
-      </c>
       <c r="T50" t="str">
-        <v>null</v>
+        <v>exact</v>
       </c>
       <c r="U50" t="str">
         <v>null</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4566,34 +4566,34 @@
         <v>null</v>
       </c>
       <c r="E51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F51" t="str">
-        <v>null</v>
+        <v>Zuurtegraad waswater S2 systeem</v>
       </c>
       <c r="G51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H51" t="str">
-        <v>Waswaterdebiet S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="M51" t="str">
         <v>null</v>
       </c>
       <c r="N51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="O51" t="str">
         <v>null</v>
@@ -4605,13 +4605,13 @@
         <v>null</v>
       </c>
       <c r="R51" t="str">
+        <v>null</v>
+      </c>
+      <c r="S51" t="str">
         <v>true</v>
       </c>
-      <c r="S51" t="str">
-        <v>minimum</v>
-      </c>
       <c r="T51" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="U51" t="str">
         <v>null</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4649,34 +4649,34 @@
         <v>null</v>
       </c>
       <c r="E52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F52" t="str">
-        <v>null</v>
+        <v>Geleidbaarheid waswater S2 systeem</v>
       </c>
       <c r="G52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H52" t="str">
-        <v>Spuiwaterdebiet S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="M52" t="str">
         <v>null</v>
       </c>
       <c r="N52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O52" t="str">
         <v>null</v>
@@ -4688,13 +4688,13 @@
         <v>null</v>
       </c>
       <c r="R52" t="str">
+        <v>null</v>
+      </c>
+      <c r="S52" t="str">
         <v>true</v>
       </c>
-      <c r="S52" t="str">
-        <v>minimum</v>
-      </c>
       <c r="T52" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="U52" t="str">
         <v>null</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4732,34 +4732,34 @@
         <v>null</v>
       </c>
       <c r="E53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F53" t="str">
-        <v>null</v>
+        <v>Waswaterdebiet S2 systeem</v>
       </c>
       <c r="G53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H53" t="str">
-        <v>Drukval S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="I53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>null</v>
       </c>
       <c r="K53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L53" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="M53" t="str">
         <v>null</v>
       </c>
       <c r="N53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="O53" t="str">
         <v>null</v>
@@ -4771,13 +4771,13 @@
         <v>null</v>
       </c>
       <c r="R53" t="str">
+        <v>null</v>
+      </c>
+      <c r="S53" t="str">
         <v>true</v>
       </c>
-      <c r="S53" t="str">
-        <v>exact</v>
-      </c>
       <c r="T53" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="U53" t="str">
         <v>null</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4815,34 +4815,34 @@
         <v>null</v>
       </c>
       <c r="E54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F54" t="str">
-        <v>null</v>
+        <v>Spuiwaterdebiet S2 systeem</v>
       </c>
       <c r="G54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H54" t="str">
-        <v>Zuurtegraad waswater S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="L54" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="M54" t="str">
         <v>null</v>
       </c>
       <c r="N54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O54" t="str">
         <v>null</v>
@@ -4854,13 +4854,13 @@
         <v>null</v>
       </c>
       <c r="R54" t="str">
+        <v>null</v>
+      </c>
+      <c r="S54" t="str">
         <v>true</v>
       </c>
-      <c r="S54" t="str">
-        <v>maximum</v>
-      </c>
       <c r="T54" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="U54" t="str">
         <v>null</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4898,22 +4898,22 @@
         <v>null</v>
       </c>
       <c r="E55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="F55" t="str">
-        <v>null</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="G55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="H55" t="str">
-        <v>Geleidbaarheid waswater S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K55" t="str">
         <v>null</v>
@@ -4925,7 +4925,7 @@
         <v>null</v>
       </c>
       <c r="N55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater</v>
+        <v>null</v>
       </c>
       <c r="O55" t="str">
         <v>null</v>
@@ -4937,10 +4937,10 @@
         <v>null</v>
       </c>
       <c r="R55" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S55" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="T55" t="str">
         <v>null</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4981,22 +4981,22 @@
         <v>null</v>
       </c>
       <c r="E56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="F56" t="str">
-        <v>null</v>
+        <v>Lege stal</v>
       </c>
       <c r="G56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="H56" t="str">
-        <v>Waswaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K56" t="str">
         <v>null</v>
@@ -5008,7 +5008,7 @@
         <v>null</v>
       </c>
       <c r="N56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="O56" t="str">
         <v>null</v>
@@ -5020,10 +5020,10 @@
         <v>null</v>
       </c>
       <c r="R56" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S56" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="T56" t="str">
         <v>null</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5064,22 +5064,22 @@
         <v>null</v>
       </c>
       <c r="E57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F57" t="str">
-        <v>null</v>
+        <v>Gereinigd</v>
       </c>
       <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H57" t="str">
-        <v>Spuiwaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="I57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>null</v>
       </c>
       <c r="J57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="K57" t="str">
         <v>null</v>
@@ -5091,7 +5091,7 @@
         <v>null</v>
       </c>
       <c r="N57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="O57" t="str">
         <v>null</v>
@@ -5103,10 +5103,10 @@
         <v>null</v>
       </c>
       <c r="R57" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="S57" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="T57" t="str">
         <v>null</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5147,19 +5147,19 @@
         <v>null</v>
       </c>
       <c r="E58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F58" t="str">
-        <v>null</v>
+        <v>In onderhoud</v>
       </c>
       <c r="G58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H58" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>null</v>
       </c>
       <c r="I58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="J58" t="str">
         <v>null</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5230,19 +5230,19 @@
         <v>null</v>
       </c>
       <c r="E59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F59" t="str">
-        <v>null</v>
+        <v>Operationeel</v>
       </c>
       <c r="G59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H59" t="str">
-        <v>Lege stal</v>
+        <v>null</v>
       </c>
       <c r="I59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>null</v>
       </c>
       <c r="J59" t="str">
         <v>null</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5313,19 +5313,19 @@
         <v>null</v>
       </c>
       <c r="E60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F60" t="str">
-        <v>null</v>
+        <v>Storing</v>
       </c>
       <c r="G60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H60" t="str">
-        <v>Gereinigd</v>
+        <v>null</v>
       </c>
       <c r="I60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="J60" t="str">
         <v>null</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5396,19 +5396,19 @@
         <v>null</v>
       </c>
       <c r="E61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F61" t="str">
-        <v>null</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="H61" t="str">
-        <v>In onderhoud</v>
+        <v>null</v>
       </c>
       <c r="I61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="J61" t="str">
         <v>null</v>
@@ -5444,19 +5444,19 @@
         <v>null</v>
       </c>
       <c r="U61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="W61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="X61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="Y61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z61" t="str">
         <v>null</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5479,19 +5479,19 @@
         <v>null</v>
       </c>
       <c r="E62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F62" t="str">
-        <v>null</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="H62" t="str">
-        <v>Operationeel</v>
+        <v>null</v>
       </c>
       <c r="I62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="J62" t="str">
         <v>null</v>
@@ -5533,13 +5533,13 @@
         <v>null</v>
       </c>
       <c r="W62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="X62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Y62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Z62" t="str">
         <v>null</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5562,19 +5562,19 @@
         <v>null</v>
       </c>
       <c r="E63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F63" t="str">
-        <v>null</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="H63" t="str">
-        <v>Storing</v>
+        <v>null</v>
       </c>
       <c r="I63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>null</v>
       </c>
       <c r="J63" t="str">
         <v>null</v>
@@ -5583,7 +5583,7 @@
         <v>null</v>
       </c>
       <c r="L63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="M63" t="str">
         <v>null</v>
@@ -5610,10 +5610,10 @@
         <v>null</v>
       </c>
       <c r="U63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="V63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="W63" t="str">
         <v>null</v>
@@ -5622,10 +5622,10 @@
         <v>null</v>
       </c>
       <c r="Y63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z63" t="str">
-        <v>null</v>
+        <v>S1</v>
       </c>
       <c r="AA63" t="str">
         <v>null</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5645,16 +5645,16 @@
         <v>null</v>
       </c>
       <c r="E64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F64" t="str">
-        <v>null</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>null</v>
       </c>
       <c r="H64" t="str">
-        <v>Luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="I64" t="str">
         <v>null</v>
@@ -5666,7 +5666,7 @@
         <v>null</v>
       </c>
       <c r="L64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="M64" t="str">
         <v>null</v>
@@ -5690,25 +5690,25 @@
         <v>null</v>
       </c>
       <c r="T64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="U64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="V64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="W64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>null</v>
       </c>
       <c r="X64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z64" t="str">
-        <v>null</v>
+        <v>S2</v>
       </c>
       <c r="AA64" t="str">
         <v>null</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5728,19 +5728,19 @@
         <v>null</v>
       </c>
       <c r="E65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F65" t="str">
-        <v>null</v>
+        <v>Biobed</v>
       </c>
       <c r="G65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>null</v>
       </c>
       <c r="H65" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="I65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>null</v>
       </c>
       <c r="J65" t="str">
         <v>null</v>
@@ -5749,7 +5749,7 @@
         <v>null</v>
       </c>
       <c r="L65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="M65" t="str">
         <v>null</v>
@@ -5776,22 +5776,22 @@
         <v>null</v>
       </c>
       <c r="U65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="V65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="W65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="Y65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z65" t="str">
-        <v>null</v>
+        <v>S3</v>
       </c>
       <c r="AA65" t="str">
         <v>null</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5808,22 +5808,22 @@
         <v>null</v>
       </c>
       <c r="D66" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 1</v>
       </c>
       <c r="E66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F66" t="str">
-        <v>null</v>
+        <v>Klasse 1</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H66" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="I66" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="J66" t="str">
         <v>null</v>
@@ -5838,7 +5838,7 @@
         <v>null</v>
       </c>
       <c r="N66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O66" t="str">
         <v>null</v>
@@ -5856,10 +5856,10 @@
         <v>null</v>
       </c>
       <c r="T66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="U66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V66" t="str">
         <v>null</v>
@@ -5868,10 +5868,10 @@
         <v>null</v>
       </c>
       <c r="X66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y66" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="Z66" t="str">
         <v>null</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5891,22 +5891,22 @@
         <v>null</v>
       </c>
       <c r="D67" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 2</v>
       </c>
       <c r="E67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F67" t="str">
-        <v>null</v>
+        <v>Klasse 2</v>
       </c>
       <c r="G67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H67" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="I67" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="J67" t="str">
         <v>null</v>
@@ -5921,7 +5921,7 @@
         <v>null</v>
       </c>
       <c r="N67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="O67" t="str">
         <v>null</v>
@@ -5939,10 +5939,10 @@
         <v>null</v>
       </c>
       <c r="T67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="U67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V67" t="str">
         <v>null</v>
@@ -5951,10 +5951,10 @@
         <v>null</v>
       </c>
       <c r="X67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y67" t="str">
-        <v>S2</v>
+        <v>null</v>
       </c>
       <c r="Z67" t="str">
         <v>null</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5974,22 +5974,22 @@
         <v>null</v>
       </c>
       <c r="D68" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 3</v>
       </c>
       <c r="E68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F68" t="str">
-        <v>null</v>
+        <v>Klasse 3</v>
       </c>
       <c r="G68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H68" t="str">
-        <v>Biobed</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="I68" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="J68" t="str">
         <v>null</v>
@@ -6004,7 +6004,7 @@
         <v>null</v>
       </c>
       <c r="N68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging</v>
+        <v>null</v>
       </c>
       <c r="O68" t="str">
         <v>null</v>
@@ -6022,10 +6022,10 @@
         <v>null</v>
       </c>
       <c r="T68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="U68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V68" t="str">
         <v>null</v>
@@ -6034,10 +6034,10 @@
         <v>null</v>
       </c>
       <c r="X68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y68" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="Z68" t="str">
         <v>null</v>
@@ -6048,10 +6048,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="B69" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C69" t="str">
         <v>null</v>
@@ -6063,25 +6063,25 @@
         <v>null</v>
       </c>
       <c r="F69" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem medium</v>
       </c>
       <c r="G69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="H69" t="str">
-        <v>Klasse 1</v>
+        <v>null</v>
       </c>
       <c r="I69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="J69" t="str">
         <v>null</v>
       </c>
       <c r="K69" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="L69" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="M69" t="str">
         <v>null</v>
@@ -6123,48 +6123,48 @@
         <v>null</v>
       </c>
       <c r="Z69" t="str">
-        <v>VLAREM klasse 1</v>
+        <v>null</v>
       </c>
       <c r="AA69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="B70" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C70" t="str">
         <v>null</v>
       </c>
       <c r="D70" t="str">
-        <v>null</v>
+        <v>Ranges</v>
       </c>
       <c r="E70" t="str">
         <v>null</v>
       </c>
       <c r="F70" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
       </c>
       <c r="G70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="H70" t="str">
-        <v>Klasse 2</v>
+        <v>null</v>
       </c>
       <c r="I70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="J70" t="str">
         <v>null</v>
       </c>
       <c r="K70" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>null</v>
       </c>
       <c r="L70" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>null</v>
       </c>
       <c r="M70" t="str">
         <v>null</v>
@@ -6206,18 +6206,18 @@
         <v>null</v>
       </c>
       <c r="Z70" t="str">
-        <v>VLAREM klasse 2</v>
+        <v>null</v>
       </c>
       <c r="AA70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="B71" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C71" t="str">
         <v>null</v>
@@ -6229,25 +6229,25 @@
         <v>null</v>
       </c>
       <c r="F71" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
       </c>
       <c r="G71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="H71" t="str">
-        <v>Klasse 3</v>
+        <v>null</v>
       </c>
       <c r="I71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="J71" t="str">
         <v>null</v>
       </c>
       <c r="K71" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>null</v>
       </c>
       <c r="L71" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>null</v>
       </c>
       <c r="M71" t="str">
         <v>null</v>
@@ -6289,15 +6289,15 @@
         <v>null</v>
       </c>
       <c r="Z71" t="str">
-        <v>VLAREM klasse 3</v>
+        <v>null</v>
       </c>
       <c r="AA71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzs-param-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6312,25 +6312,25 @@
         <v>null</v>
       </c>
       <c r="F72" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
       </c>
       <c r="G72" t="str">
         <v>null</v>
       </c>
       <c r="H72" t="str">
-        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="I72" t="str">
-        <v>null</v>
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="J72" t="str">
         <v>null</v>
       </c>
       <c r="K72" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="L72" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="M72" t="str">
         <v>null</v>
@@ -6375,12 +6375,12 @@
         <v>null</v>
       </c>
       <c r="AA72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/parameter_norm/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6395,13 +6395,13 @@
         <v>null</v>
       </c>
       <c r="F73" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
       </c>
       <c r="G73" t="str">
         <v>null</v>
       </c>
       <c r="H73" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>null</v>
       </c>
       <c r="I73" t="str">
         <v>null</v>
@@ -6458,12 +6458,12 @@
         <v>null</v>
       </c>
       <c r="AA73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/waswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsp</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6478,13 +6478,13 @@
         <v>null</v>
       </c>
       <c r="F74" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem status</v>
       </c>
       <c r="G74" t="str">
         <v>null</v>
       </c>
       <c r="H74" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>null</v>
       </c>
       <c r="I74" t="str">
         <v>null</v>
@@ -6541,12 +6541,12 @@
         <v>null</v>
       </c>
       <c r="AA74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/systeemstatus|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/eigenschap/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6561,13 +6561,13 @@
         <v>null</v>
       </c>
       <c r="F75" t="str">
-        <v>null</v>
+        <v>conceptschema luchtzuiveringssysteem</v>
       </c>
       <c r="G75" t="str">
         <v>null</v>
       </c>
       <c r="H75" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>null</v>
       </c>
       <c r="I75" t="str">
         <v>null</v>
@@ -6624,12 +6624,12 @@
         <v>null</v>
       </c>
       <c r="AA75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -6644,13 +6644,13 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
-        <v>null</v>
+        <v>VLAREM indelingsklassen</v>
       </c>
       <c r="G76" t="str">
         <v>null</v>
       </c>
       <c r="H76" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="I76" t="str">
         <v>null</v>
@@ -6707,261 +6707,12 @@
         <v>null</v>
       </c>
       <c r="AA76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/stalgebruik/leeg</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzstype</v>
-      </c>
-      <c r="B77" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C77" t="str">
-        <v>null</v>
-      </c>
-      <c r="D77" t="str">
-        <v>null</v>
-      </c>
-      <c r="E77" t="str">
-        <v>null</v>
-      </c>
-      <c r="F77" t="str">
-        <v>null</v>
-      </c>
-      <c r="G77" t="str">
-        <v>null</v>
-      </c>
-      <c r="H77" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
-      </c>
-      <c r="I77" t="str">
-        <v>null</v>
-      </c>
-      <c r="J77" t="str">
-        <v>null</v>
-      </c>
-      <c r="K77" t="str">
-        <v>null</v>
-      </c>
-      <c r="L77" t="str">
-        <v>null</v>
-      </c>
-      <c r="M77" t="str">
-        <v>null</v>
-      </c>
-      <c r="N77" t="str">
-        <v>null</v>
-      </c>
-      <c r="O77" t="str">
-        <v>null</v>
-      </c>
-      <c r="P77" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q77" t="str">
-        <v>null</v>
-      </c>
-      <c r="R77" t="str">
-        <v>null</v>
-      </c>
-      <c r="S77" t="str">
-        <v>null</v>
-      </c>
-      <c r="T77" t="str">
-        <v>null</v>
-      </c>
-      <c r="U77" t="str">
-        <v>null</v>
-      </c>
-      <c r="V77" t="str">
-        <v>null</v>
-      </c>
-      <c r="W77" t="str">
-        <v>null</v>
-      </c>
-      <c r="X77" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y77" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z77" t="str">
-        <v>null</v>
-      </c>
-      <c r="AA77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/type/luchtzuiveringssysteem</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm_bandbreedte</v>
-      </c>
-      <c r="B78" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C78" t="str">
-        <v>null</v>
-      </c>
-      <c r="D78" t="str">
-        <v>null</v>
-      </c>
-      <c r="E78" t="str">
-        <v>null</v>
-      </c>
-      <c r="F78" t="str">
-        <v>null</v>
-      </c>
-      <c r="G78" t="str">
-        <v>null</v>
-      </c>
-      <c r="H78" t="str">
-        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
-      </c>
-      <c r="I78" t="str">
-        <v>null</v>
-      </c>
-      <c r="J78" t="str">
-        <v>null</v>
-      </c>
-      <c r="K78" t="str">
-        <v>null</v>
-      </c>
-      <c r="L78" t="str">
-        <v>null</v>
-      </c>
-      <c r="M78" t="str">
-        <v>null</v>
-      </c>
-      <c r="N78" t="str">
-        <v>null</v>
-      </c>
-      <c r="O78" t="str">
-        <v>null</v>
-      </c>
-      <c r="P78" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q78" t="str">
-        <v>null</v>
-      </c>
-      <c r="R78" t="str">
-        <v>null</v>
-      </c>
-      <c r="S78" t="str">
-        <v>null</v>
-      </c>
-      <c r="T78" t="str">
-        <v>null</v>
-      </c>
-      <c r="U78" t="str">
-        <v>null</v>
-      </c>
-      <c r="V78" t="str">
-        <v>null</v>
-      </c>
-      <c r="W78" t="str">
-        <v>null</v>
-      </c>
-      <c r="X78" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y78" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z78" t="str">
-        <v>Ranges</v>
-      </c>
-      <c r="AA78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/10|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/11|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/12|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/13|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/14|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/15|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/16|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/1|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/2|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/3|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/4|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/5|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/6|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/7|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/8|https://data.omgeving.vlaanderen.be/id/concept/luchtzuiveringssysteem/norm_bandbreedte/9</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
-      </c>
-      <c r="B79" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C79" t="str">
-        <v>null</v>
-      </c>
-      <c r="D79" t="str">
-        <v>null</v>
-      </c>
-      <c r="E79" t="str">
-        <v>null</v>
-      </c>
-      <c r="F79" t="str">
-        <v>null</v>
-      </c>
-      <c r="G79" t="str">
-        <v>null</v>
-      </c>
-      <c r="H79" t="str">
-        <v>VLAREM indelingsklassen</v>
-      </c>
-      <c r="I79" t="str">
-        <v>null</v>
-      </c>
-      <c r="J79" t="str">
-        <v>null</v>
-      </c>
-      <c r="K79" t="str">
-        <v>null</v>
-      </c>
-      <c r="L79" t="str">
-        <v>null</v>
-      </c>
-      <c r="M79" t="str">
-        <v>null</v>
-      </c>
-      <c r="N79" t="str">
-        <v>null</v>
-      </c>
-      <c r="O79" t="str">
-        <v>null</v>
-      </c>
-      <c r="P79" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q79" t="str">
-        <v>null</v>
-      </c>
-      <c r="R79" t="str">
-        <v>null</v>
-      </c>
-      <c r="S79" t="str">
-        <v>null</v>
-      </c>
-      <c r="T79" t="str">
-        <v>null</v>
-      </c>
-      <c r="U79" t="str">
-        <v>null</v>
-      </c>
-      <c r="V79" t="str">
-        <v>null</v>
-      </c>
-      <c r="W79" t="str">
-        <v>null</v>
-      </c>
-      <c r="X79" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y79" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z79" t="str">
-        <v>null</v>
-      </c>
-      <c r="AA79" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA79"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,17 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>_id</v>
       </c>
       <c r="B1" t="str">
-        <v>type</v>
+        <v>_type</v>
       </c>
       <c r="C1" t="str">
         <v>applicableUnit</v>
@@ -425,63 +425,66 @@
         <v>topConceptOf</v>
       </c>
       <c r="H1" t="str">
+        <v>dc_type</v>
+      </c>
+      <c r="I1" t="str">
         <v>definition</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>note</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>scopeNote</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>relevantLZS</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>relevantProperty</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>maxValue</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>operatie</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>minValue</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>subject</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>relevantQuantityKind</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>seeAlso</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>technischefiche</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>referentiewaardeType</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>broader</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="W1" t="str">
+      <c r="X1" t="str">
         <v>narrower</v>
       </c>
-      <c r="X1" t="str">
+      <c r="Y1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Z1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="Z1" t="str">
-        <v>notation</v>
-      </c>
       <c r="AA1" t="str">
+        <v>code</v>
+      </c>
+      <c r="AB1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
@@ -567,6 +570,9 @@
       <c r="AA2" t="str">
         <v>null</v>
       </c>
+      <c r="AB2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -650,6 +656,9 @@
       <c r="AA3" t="str">
         <v>null</v>
       </c>
+      <c r="AB3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -733,6 +742,9 @@
       <c r="AA4" t="str">
         <v>null</v>
       </c>
+      <c r="AB4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -816,6 +828,9 @@
       <c r="AA5" t="str">
         <v>null</v>
       </c>
+      <c r="AB5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -899,6 +914,9 @@
       <c r="AA6" t="str">
         <v>null</v>
       </c>
+      <c r="AB6" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -982,6 +1000,9 @@
       <c r="AA7" t="str">
         <v>null</v>
       </c>
+      <c r="AB7" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1065,6 +1086,9 @@
       <c r="AA8" t="str">
         <v>null</v>
       </c>
+      <c r="AB8" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1148,6 +1172,9 @@
       <c r="AA9" t="str">
         <v>null</v>
       </c>
+      <c r="AB9" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1231,6 +1258,9 @@
       <c r="AA10" t="str">
         <v>null</v>
       </c>
+      <c r="AB10" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1314,6 +1344,9 @@
       <c r="AA11" t="str">
         <v>null</v>
       </c>
+      <c r="AB11" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1397,6 +1430,9 @@
       <c r="AA12" t="str">
         <v>null</v>
       </c>
+      <c r="AB12" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1421,26 +1457,26 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H13" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I13" t="str">
         <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <v>&lt; 6</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <v>6</v>
       </c>
-      <c r="N13" t="str">
-        <v>null</v>
-      </c>
       <c r="O13" t="str">
         <v>null</v>
       </c>
@@ -1478,6 +1514,9 @@
         <v>null</v>
       </c>
       <c r="AA13" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1504,29 +1543,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H14" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I14" t="str">
         <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <v>0.8</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" t="str">
         <v>product</v>
       </c>
-      <c r="O14" t="str">
-        <v>null</v>
-      </c>
       <c r="P14" t="str">
         <v>null</v>
       </c>
@@ -1561,6 +1600,9 @@
         <v>null</v>
       </c>
       <c r="AA14" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1587,29 +1629,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H15" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I15" t="str">
         <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
-      <c r="M15" t="str">
+      <c r="N15" t="str">
         <v>0.9</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" t="str">
         <v>product</v>
       </c>
-      <c r="O15" t="str">
-        <v>null</v>
-      </c>
       <c r="P15" t="str">
         <v>null</v>
       </c>
@@ -1644,6 +1686,9 @@
         <v>null</v>
       </c>
       <c r="AA15" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1670,29 +1715,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H16" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I16" t="str">
         <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <v>0.6</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <v>product</v>
       </c>
-      <c r="O16" t="str">
-        <v>null</v>
-      </c>
       <c r="P16" t="str">
         <v>null</v>
       </c>
@@ -1727,6 +1772,9 @@
         <v>null</v>
       </c>
       <c r="AA16" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB16" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1753,32 +1801,32 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H17" t="str">
+        <v>Boven maximum grenswaarde</v>
+      </c>
+      <c r="I17" t="str">
         <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M17" t="str">
-        <v>null</v>
-      </c>
       <c r="N17" t="str">
+        <v>null</v>
+      </c>
+      <c r="O17" t="str">
         <v>product</v>
       </c>
-      <c r="O17" t="str">
+      <c r="P17" t="str">
         <v>1.4</v>
       </c>
-      <c r="P17" t="str">
-        <v>null</v>
-      </c>
       <c r="Q17" t="str">
         <v>null</v>
       </c>
@@ -1810,6 +1858,9 @@
         <v>null</v>
       </c>
       <c r="AA17" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB17" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1836,29 +1887,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H18" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I18" t="str">
         <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <v>0.8</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O18" t="str">
         <v>product</v>
       </c>
-      <c r="O18" t="str">
-        <v>null</v>
-      </c>
       <c r="P18" t="str">
         <v>null</v>
       </c>
@@ -1893,6 +1944,9 @@
         <v>null</v>
       </c>
       <c r="AA18" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB18" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1919,29 +1973,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H19" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I19" t="str">
         <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <v>0.8</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O19" t="str">
         <v>product</v>
       </c>
-      <c r="O19" t="str">
-        <v>null</v>
-      </c>
       <c r="P19" t="str">
         <v>null</v>
       </c>
@@ -1976,6 +2030,9 @@
         <v>null</v>
       </c>
       <c r="AA19" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB19" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2002,32 +2059,32 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H20" t="str">
+        <v>Boven maximum grenswaarde</v>
+      </c>
+      <c r="I20" t="str">
         <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L20" t="str">
+      <c r="M20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M20" t="str">
-        <v>null</v>
-      </c>
       <c r="N20" t="str">
+        <v>null</v>
+      </c>
+      <c r="O20" t="str">
         <v>som</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <v>50</v>
       </c>
-      <c r="P20" t="str">
-        <v>null</v>
-      </c>
       <c r="Q20" t="str">
         <v>null</v>
       </c>
@@ -2059,6 +2116,9 @@
         <v>null</v>
       </c>
       <c r="AA20" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB20" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2085,32 +2145,32 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H21" t="str">
+        <v>Boven maximum grenswaarde</v>
+      </c>
+      <c r="I21" t="str">
         <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <v>&gt; 8,5</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L21" t="str">
+      <c r="M21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
-      <c r="M21" t="str">
-        <v>null</v>
-      </c>
       <c r="N21" t="str">
         <v>null</v>
       </c>
       <c r="O21" t="str">
+        <v>null</v>
+      </c>
+      <c r="P21" t="str">
         <v>8.5</v>
       </c>
-      <c r="P21" t="str">
-        <v>null</v>
-      </c>
       <c r="Q21" t="str">
         <v>null</v>
       </c>
@@ -2142,6 +2202,9 @@
         <v>null</v>
       </c>
       <c r="AA21" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB21" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2168,32 +2231,32 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H22" t="str">
+        <v>Boven maximum grenswaarde</v>
+      </c>
+      <c r="I22" t="str">
         <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <v>&gt; waarde technische fiche</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L22" t="str">
+      <c r="M22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
-      <c r="M22" t="str">
-        <v>null</v>
-      </c>
       <c r="N22" t="str">
+        <v>null</v>
+      </c>
+      <c r="O22" t="str">
         <v>som</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <v>0</v>
       </c>
-      <c r="P22" t="str">
-        <v>null</v>
-      </c>
       <c r="Q22" t="str">
         <v>null</v>
       </c>
@@ -2225,6 +2288,9 @@
         <v>null</v>
       </c>
       <c r="AA22" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB22" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2251,29 +2317,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H23" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I23" t="str">
         <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L23" t="str">
+      <c r="M23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <v>0.8</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O23" t="str">
         <v>product</v>
       </c>
-      <c r="O23" t="str">
-        <v>null</v>
-      </c>
       <c r="P23" t="str">
         <v>null</v>
       </c>
@@ -2308,6 +2374,9 @@
         <v>null</v>
       </c>
       <c r="AA23" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB23" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2334,29 +2403,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H24" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I24" t="str">
         <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L24" t="str">
+      <c r="M24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <v>0.9</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O24" t="str">
         <v>product</v>
       </c>
-      <c r="O24" t="str">
-        <v>null</v>
-      </c>
       <c r="P24" t="str">
         <v>null</v>
       </c>
@@ -2391,6 +2460,9 @@
         <v>null</v>
       </c>
       <c r="AA24" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB24" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2417,29 +2489,29 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H25" t="str">
+        <v>Onder minimum grenswaarde</v>
+      </c>
+      <c r="I25" t="str">
         <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L25" t="str">
+      <c r="M25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <v>0.6</v>
       </c>
-      <c r="N25" t="str">
+      <c r="O25" t="str">
         <v>product</v>
       </c>
-      <c r="O25" t="str">
-        <v>null</v>
-      </c>
       <c r="P25" t="str">
         <v>null</v>
       </c>
@@ -2474,6 +2546,9 @@
         <v>null</v>
       </c>
       <c r="AA25" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB25" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2500,32 +2575,32 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H26" t="str">
+        <v>Boven maximum grenswaarde</v>
+      </c>
+      <c r="I26" t="str">
         <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L26" t="str">
+      <c r="M26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M26" t="str">
-        <v>null</v>
-      </c>
       <c r="N26" t="str">
+        <v>null</v>
+      </c>
+      <c r="O26" t="str">
         <v>product</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <v>1.4</v>
       </c>
-      <c r="P26" t="str">
-        <v>null</v>
-      </c>
       <c r="Q26" t="str">
         <v>null</v>
       </c>
@@ -2557,6 +2632,9 @@
         <v>null</v>
       </c>
       <c r="AA26" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB26" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2583,32 +2661,32 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H27" t="str">
+        <v>Boven maximum grenswaarde</v>
+      </c>
+      <c r="I27" t="str">
         <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L27" t="str">
+      <c r="M27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
-      <c r="M27" t="str">
-        <v>null</v>
-      </c>
       <c r="N27" t="str">
+        <v>null</v>
+      </c>
+      <c r="O27" t="str">
         <v>som</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <v>1</v>
       </c>
-      <c r="P27" t="str">
-        <v>null</v>
-      </c>
       <c r="Q27" t="str">
         <v>null</v>
       </c>
@@ -2640,6 +2718,9 @@
         <v>null</v>
       </c>
       <c r="AA27" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB27" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2666,32 +2747,32 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H28" t="str">
+        <v>Boven maximum grenswaarde</v>
+      </c>
+      <c r="I28" t="str">
         <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <v>&gt; waarde technische fiche</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
-      <c r="M28" t="str">
-        <v>null</v>
-      </c>
       <c r="N28" t="str">
+        <v>null</v>
+      </c>
+      <c r="O28" t="str">
         <v>som</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <v>0</v>
       </c>
-      <c r="P28" t="str">
-        <v>null</v>
-      </c>
       <c r="Q28" t="str">
         <v>null</v>
       </c>
@@ -2723,6 +2804,9 @@
         <v>null</v>
       </c>
       <c r="AA28" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB28" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2758,11 +2842,11 @@
         <v>null</v>
       </c>
       <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L29" t="str">
-        <v>null</v>
-      </c>
       <c r="M29" t="str">
         <v>null</v>
       </c>
@@ -2773,17 +2857,17 @@
         <v>null</v>
       </c>
       <c r="P29" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="R29" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="R29" t="str">
+      <c r="S29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="S29" t="str">
-        <v>null</v>
-      </c>
       <c r="T29" t="str">
         <v>null</v>
       </c>
@@ -2806,6 +2890,9 @@
         <v>null</v>
       </c>
       <c r="AA29" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB29" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2841,11 +2928,11 @@
         <v>null</v>
       </c>
       <c r="K30" t="str">
+        <v>null</v>
+      </c>
+      <c r="L30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L30" t="str">
-        <v>null</v>
-      </c>
       <c r="M30" t="str">
         <v>null</v>
       </c>
@@ -2856,17 +2943,17 @@
         <v>null</v>
       </c>
       <c r="P30" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="R30" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="R30" t="str">
+      <c r="S30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
-      <c r="S30" t="str">
-        <v>null</v>
-      </c>
       <c r="T30" t="str">
         <v>null</v>
       </c>
@@ -2889,6 +2976,9 @@
         <v>null</v>
       </c>
       <c r="AA30" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB30" t="str">
         <v>null</v>
       </c>
     </row>
@@ -2924,11 +3014,11 @@
         <v>null</v>
       </c>
       <c r="K31" t="str">
+        <v>null</v>
+      </c>
+      <c r="L31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L31" t="str">
-        <v>null</v>
-      </c>
       <c r="M31" t="str">
         <v>null</v>
       </c>
@@ -2939,17 +3029,17 @@
         <v>null</v>
       </c>
       <c r="P31" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="R31" t="str">
         <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
-      <c r="R31" t="str">
+      <c r="S31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
-      <c r="S31" t="str">
-        <v>null</v>
-      </c>
       <c r="T31" t="str">
         <v>null</v>
       </c>
@@ -2972,6 +3062,9 @@
         <v>null</v>
       </c>
       <c r="AA31" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB31" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3007,11 +3100,11 @@
         <v>null</v>
       </c>
       <c r="K32" t="str">
+        <v>null</v>
+      </c>
+      <c r="L32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L32" t="str">
-        <v>null</v>
-      </c>
       <c r="M32" t="str">
         <v>null</v>
       </c>
@@ -3022,17 +3115,17 @@
         <v>null</v>
       </c>
       <c r="P32" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="R32" t="str">
         <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
-      <c r="R32" t="str">
+      <c r="S32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
-      <c r="S32" t="str">
-        <v>null</v>
-      </c>
       <c r="T32" t="str">
         <v>null</v>
       </c>
@@ -3055,6 +3148,9 @@
         <v>null</v>
       </c>
       <c r="AA32" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB32" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3090,11 +3186,11 @@
         <v>null</v>
       </c>
       <c r="K33" t="str">
+        <v>null</v>
+      </c>
+      <c r="L33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L33" t="str">
-        <v>null</v>
-      </c>
       <c r="M33" t="str">
         <v>null</v>
       </c>
@@ -3105,17 +3201,17 @@
         <v>null</v>
       </c>
       <c r="P33" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="R33" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="R33" t="str">
+      <c r="S33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
-      <c r="S33" t="str">
-        <v>null</v>
-      </c>
       <c r="T33" t="str">
         <v>null</v>
       </c>
@@ -3138,6 +3234,9 @@
         <v>null</v>
       </c>
       <c r="AA33" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB33" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3173,11 +3272,11 @@
         <v>null</v>
       </c>
       <c r="K34" t="str">
+        <v>null</v>
+      </c>
+      <c r="L34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L34" t="str">
-        <v>null</v>
-      </c>
       <c r="M34" t="str">
         <v>null</v>
       </c>
@@ -3188,11 +3287,11 @@
         <v>null</v>
       </c>
       <c r="P34" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
       </c>
-      <c r="Q34" t="str">
-        <v>null</v>
-      </c>
       <c r="R34" t="str">
         <v>null</v>
       </c>
@@ -3221,6 +3320,9 @@
         <v>null</v>
       </c>
       <c r="AA34" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB34" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3256,11 +3358,11 @@
         <v>null</v>
       </c>
       <c r="K35" t="str">
+        <v>null</v>
+      </c>
+      <c r="L35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L35" t="str">
-        <v>null</v>
-      </c>
       <c r="M35" t="str">
         <v>null</v>
       </c>
@@ -3271,11 +3373,11 @@
         <v>null</v>
       </c>
       <c r="P35" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
       </c>
-      <c r="Q35" t="str">
-        <v>null</v>
-      </c>
       <c r="R35" t="str">
         <v>null</v>
       </c>
@@ -3304,6 +3406,9 @@
         <v>null</v>
       </c>
       <c r="AA35" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB35" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3339,11 +3444,11 @@
         <v>null</v>
       </c>
       <c r="K36" t="str">
+        <v>null</v>
+      </c>
+      <c r="L36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L36" t="str">
-        <v>null</v>
-      </c>
       <c r="M36" t="str">
         <v>null</v>
       </c>
@@ -3354,17 +3459,17 @@
         <v>null</v>
       </c>
       <c r="P36" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="Q36" t="str">
+      <c r="R36" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
-      <c r="R36" t="str">
+      <c r="S36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="S36" t="str">
-        <v>null</v>
-      </c>
       <c r="T36" t="str">
         <v>null</v>
       </c>
@@ -3387,6 +3492,9 @@
         <v>null</v>
       </c>
       <c r="AA36" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB36" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3422,11 +3530,11 @@
         <v>null</v>
       </c>
       <c r="K37" t="str">
+        <v>null</v>
+      </c>
+      <c r="L37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L37" t="str">
-        <v>null</v>
-      </c>
       <c r="M37" t="str">
         <v>null</v>
       </c>
@@ -3437,17 +3545,17 @@
         <v>null</v>
       </c>
       <c r="P37" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="Q37" t="str">
+      <c r="R37" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
-      <c r="R37" t="str">
+      <c r="S37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="S37" t="str">
-        <v>null</v>
-      </c>
       <c r="T37" t="str">
         <v>null</v>
       </c>
@@ -3470,6 +3578,9 @@
         <v>null</v>
       </c>
       <c r="AA37" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB37" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3505,11 +3616,11 @@
         <v>null</v>
       </c>
       <c r="K38" t="str">
+        <v>null</v>
+      </c>
+      <c r="L38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L38" t="str">
-        <v>null</v>
-      </c>
       <c r="M38" t="str">
         <v>null</v>
       </c>
@@ -3520,17 +3631,17 @@
         <v>null</v>
       </c>
       <c r="P38" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="Q38" t="str">
+      <c r="R38" t="str">
         <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
-      <c r="R38" t="str">
+      <c r="S38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
-      <c r="S38" t="str">
-        <v>null</v>
-      </c>
       <c r="T38" t="str">
         <v>null</v>
       </c>
@@ -3553,6 +3664,9 @@
         <v>null</v>
       </c>
       <c r="AA38" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB38" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3588,11 +3702,11 @@
         <v>null</v>
       </c>
       <c r="K39" t="str">
+        <v>null</v>
+      </c>
+      <c r="L39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L39" t="str">
-        <v>null</v>
-      </c>
       <c r="M39" t="str">
         <v>null</v>
       </c>
@@ -3603,17 +3717,17 @@
         <v>null</v>
       </c>
       <c r="P39" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="R39" t="str">
         <v>http://qudt.org/vocab/quantitykind/Acidity</v>
       </c>
-      <c r="R39" t="str">
+      <c r="S39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
-      <c r="S39" t="str">
-        <v>null</v>
-      </c>
       <c r="T39" t="str">
         <v>null</v>
       </c>
@@ -3636,6 +3750,9 @@
         <v>null</v>
       </c>
       <c r="AA39" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB39" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3671,14 +3788,14 @@
         <v>null</v>
       </c>
       <c r="K40" t="str">
+        <v>null</v>
+      </c>
+      <c r="L40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
-      <c r="M40" t="str">
-        <v>null</v>
-      </c>
       <c r="N40" t="str">
         <v>null</v>
       </c>
@@ -3695,11 +3812,11 @@
         <v>null</v>
       </c>
       <c r="S40" t="str">
+        <v>null</v>
+      </c>
+      <c r="T40" t="str">
         <v>false</v>
       </c>
-      <c r="T40" t="str">
-        <v>null</v>
-      </c>
       <c r="U40" t="str">
         <v>null</v>
       </c>
@@ -3719,6 +3836,9 @@
         <v>null</v>
       </c>
       <c r="AA40" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB40" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3754,14 +3874,14 @@
         <v>null</v>
       </c>
       <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M41" t="str">
-        <v>null</v>
-      </c>
       <c r="N41" t="str">
         <v>null</v>
       </c>
@@ -3778,14 +3898,14 @@
         <v>null</v>
       </c>
       <c r="S41" t="str">
+        <v>null</v>
+      </c>
+      <c r="T41" t="str">
         <v>true</v>
       </c>
-      <c r="T41" t="str">
+      <c r="U41" t="str">
         <v>exact</v>
       </c>
-      <c r="U41" t="str">
-        <v>null</v>
-      </c>
       <c r="V41" t="str">
         <v>null</v>
       </c>
@@ -3802,6 +3922,9 @@
         <v>null</v>
       </c>
       <c r="AA41" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB41" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3837,14 +3960,14 @@
         <v>null</v>
       </c>
       <c r="K42" t="str">
+        <v>null</v>
+      </c>
+      <c r="L42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
-      <c r="M42" t="str">
-        <v>null</v>
-      </c>
       <c r="N42" t="str">
         <v>null</v>
       </c>
@@ -3861,14 +3984,14 @@
         <v>null</v>
       </c>
       <c r="S42" t="str">
+        <v>null</v>
+      </c>
+      <c r="T42" t="str">
         <v>true</v>
       </c>
-      <c r="T42" t="str">
+      <c r="U42" t="str">
         <v>minimum</v>
       </c>
-      <c r="U42" t="str">
-        <v>null</v>
-      </c>
       <c r="V42" t="str">
         <v>null</v>
       </c>
@@ -3885,6 +4008,9 @@
         <v>null</v>
       </c>
       <c r="AA42" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB42" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3920,14 +4046,14 @@
         <v>null</v>
       </c>
       <c r="K43" t="str">
+        <v>null</v>
+      </c>
+      <c r="L43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
-      <c r="M43" t="str">
-        <v>null</v>
-      </c>
       <c r="N43" t="str">
         <v>null</v>
       </c>
@@ -3944,14 +4070,14 @@
         <v>null</v>
       </c>
       <c r="S43" t="str">
+        <v>null</v>
+      </c>
+      <c r="T43" t="str">
         <v>true</v>
       </c>
-      <c r="T43" t="str">
+      <c r="U43" t="str">
         <v>minimum</v>
       </c>
-      <c r="U43" t="str">
-        <v>null</v>
-      </c>
       <c r="V43" t="str">
         <v>null</v>
       </c>
@@ -3968,6 +4094,9 @@
         <v>null</v>
       </c>
       <c r="AA43" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB43" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4003,14 +4132,14 @@
         <v>null</v>
       </c>
       <c r="K44" t="str">
+        <v>null</v>
+      </c>
+      <c r="L44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
       </c>
-      <c r="M44" t="str">
-        <v>null</v>
-      </c>
       <c r="N44" t="str">
         <v>null</v>
       </c>
@@ -4027,14 +4156,14 @@
         <v>null</v>
       </c>
       <c r="S44" t="str">
+        <v>null</v>
+      </c>
+      <c r="T44" t="str">
         <v>true</v>
       </c>
-      <c r="T44" t="str">
+      <c r="U44" t="str">
         <v>minimum</v>
       </c>
-      <c r="U44" t="str">
-        <v>null</v>
-      </c>
       <c r="V44" t="str">
         <v>null</v>
       </c>
@@ -4051,6 +4180,9 @@
         <v>null</v>
       </c>
       <c r="AA44" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB44" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4086,14 +4218,14 @@
         <v>null</v>
       </c>
       <c r="K45" t="str">
+        <v>null</v>
+      </c>
+      <c r="L45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L45" t="str">
+      <c r="M45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
       </c>
-      <c r="M45" t="str">
-        <v>null</v>
-      </c>
       <c r="N45" t="str">
         <v>null</v>
       </c>
@@ -4110,14 +4242,14 @@
         <v>null</v>
       </c>
       <c r="S45" t="str">
+        <v>null</v>
+      </c>
+      <c r="T45" t="str">
         <v>true</v>
       </c>
-      <c r="T45" t="str">
+      <c r="U45" t="str">
         <v>minimum</v>
       </c>
-      <c r="U45" t="str">
-        <v>null</v>
-      </c>
       <c r="V45" t="str">
         <v>null</v>
       </c>
@@ -4134,6 +4266,9 @@
         <v>null</v>
       </c>
       <c r="AA45" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB45" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4169,14 +4304,14 @@
         <v>null</v>
       </c>
       <c r="K46" t="str">
+        <v>null</v>
+      </c>
+      <c r="L46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="L46" t="str">
+      <c r="M46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M46" t="str">
-        <v>null</v>
-      </c>
       <c r="N46" t="str">
         <v>null</v>
       </c>
@@ -4193,14 +4328,14 @@
         <v>null</v>
       </c>
       <c r="S46" t="str">
+        <v>null</v>
+      </c>
+      <c r="T46" t="str">
         <v>true</v>
       </c>
-      <c r="T46" t="str">
+      <c r="U46" t="str">
         <v>maximum</v>
       </c>
-      <c r="U46" t="str">
-        <v>null</v>
-      </c>
       <c r="V46" t="str">
         <v>null</v>
       </c>
@@ -4217,6 +4352,9 @@
         <v>null</v>
       </c>
       <c r="AA46" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB46" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4252,14 +4390,14 @@
         <v>null</v>
       </c>
       <c r="K47" t="str">
+        <v>null</v>
+      </c>
+      <c r="L47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L47" t="str">
+      <c r="M47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
-      <c r="M47" t="str">
-        <v>null</v>
-      </c>
       <c r="N47" t="str">
         <v>null</v>
       </c>
@@ -4276,14 +4414,14 @@
         <v>null</v>
       </c>
       <c r="S47" t="str">
+        <v>null</v>
+      </c>
+      <c r="T47" t="str">
         <v>true</v>
       </c>
-      <c r="T47" t="str">
+      <c r="U47" t="str">
         <v>maximum</v>
       </c>
-      <c r="U47" t="str">
-        <v>null</v>
-      </c>
       <c r="V47" t="str">
         <v>null</v>
       </c>
@@ -4300,6 +4438,9 @@
         <v>null</v>
       </c>
       <c r="AA47" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB47" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4335,14 +4476,14 @@
         <v>null</v>
       </c>
       <c r="K48" t="str">
+        <v>null</v>
+      </c>
+      <c r="L48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
-      <c r="M48" t="str">
-        <v>null</v>
-      </c>
       <c r="N48" t="str">
         <v>null</v>
       </c>
@@ -4359,14 +4500,14 @@
         <v>null</v>
       </c>
       <c r="S48" t="str">
+        <v>null</v>
+      </c>
+      <c r="T48" t="str">
         <v>true</v>
       </c>
-      <c r="T48" t="str">
+      <c r="U48" t="str">
         <v>minimum</v>
       </c>
-      <c r="U48" t="str">
-        <v>null</v>
-      </c>
       <c r="V48" t="str">
         <v>null</v>
       </c>
@@ -4383,6 +4524,9 @@
         <v>null</v>
       </c>
       <c r="AA48" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB48" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4418,14 +4562,14 @@
         <v>null</v>
       </c>
       <c r="K49" t="str">
+        <v>null</v>
+      </c>
+      <c r="L49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
-      <c r="M49" t="str">
-        <v>null</v>
-      </c>
       <c r="N49" t="str">
         <v>null</v>
       </c>
@@ -4442,14 +4586,14 @@
         <v>null</v>
       </c>
       <c r="S49" t="str">
+        <v>null</v>
+      </c>
+      <c r="T49" t="str">
         <v>true</v>
       </c>
-      <c r="T49" t="str">
+      <c r="U49" t="str">
         <v>minimum</v>
       </c>
-      <c r="U49" t="str">
-        <v>null</v>
-      </c>
       <c r="V49" t="str">
         <v>null</v>
       </c>
@@ -4466,6 +4610,9 @@
         <v>null</v>
       </c>
       <c r="AA49" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB49" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4501,14 +4648,14 @@
         <v>null</v>
       </c>
       <c r="K50" t="str">
+        <v>null</v>
+      </c>
+      <c r="L50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="M50" t="str">
-        <v>null</v>
-      </c>
       <c r="N50" t="str">
         <v>null</v>
       </c>
@@ -4525,14 +4672,14 @@
         <v>null</v>
       </c>
       <c r="S50" t="str">
+        <v>null</v>
+      </c>
+      <c r="T50" t="str">
         <v>true</v>
       </c>
-      <c r="T50" t="str">
+      <c r="U50" t="str">
         <v>exact</v>
       </c>
-      <c r="U50" t="str">
-        <v>null</v>
-      </c>
       <c r="V50" t="str">
         <v>null</v>
       </c>
@@ -4549,6 +4696,9 @@
         <v>null</v>
       </c>
       <c r="AA50" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB50" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4584,14 +4734,14 @@
         <v>null</v>
       </c>
       <c r="K51" t="str">
+        <v>null</v>
+      </c>
+      <c r="L51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
-      <c r="M51" t="str">
-        <v>null</v>
-      </c>
       <c r="N51" t="str">
         <v>null</v>
       </c>
@@ -4608,14 +4758,14 @@
         <v>null</v>
       </c>
       <c r="S51" t="str">
+        <v>null</v>
+      </c>
+      <c r="T51" t="str">
         <v>true</v>
       </c>
-      <c r="T51" t="str">
+      <c r="U51" t="str">
         <v>maximum</v>
       </c>
-      <c r="U51" t="str">
-        <v>null</v>
-      </c>
       <c r="V51" t="str">
         <v>null</v>
       </c>
@@ -4632,6 +4782,9 @@
         <v>null</v>
       </c>
       <c r="AA51" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB51" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4667,14 +4820,14 @@
         <v>null</v>
       </c>
       <c r="K52" t="str">
+        <v>null</v>
+      </c>
+      <c r="L52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
-      <c r="M52" t="str">
-        <v>null</v>
-      </c>
       <c r="N52" t="str">
         <v>null</v>
       </c>
@@ -4691,14 +4844,14 @@
         <v>null</v>
       </c>
       <c r="S52" t="str">
+        <v>null</v>
+      </c>
+      <c r="T52" t="str">
         <v>true</v>
       </c>
-      <c r="T52" t="str">
+      <c r="U52" t="str">
         <v>maximum</v>
       </c>
-      <c r="U52" t="str">
-        <v>null</v>
-      </c>
       <c r="V52" t="str">
         <v>null</v>
       </c>
@@ -4715,6 +4868,9 @@
         <v>null</v>
       </c>
       <c r="AA52" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB52" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4750,14 +4906,14 @@
         <v>null</v>
       </c>
       <c r="K53" t="str">
+        <v>null</v>
+      </c>
+      <c r="L53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
-      <c r="M53" t="str">
-        <v>null</v>
-      </c>
       <c r="N53" t="str">
         <v>null</v>
       </c>
@@ -4774,14 +4930,14 @@
         <v>null</v>
       </c>
       <c r="S53" t="str">
+        <v>null</v>
+      </c>
+      <c r="T53" t="str">
         <v>true</v>
       </c>
-      <c r="T53" t="str">
+      <c r="U53" t="str">
         <v>minimum</v>
       </c>
-      <c r="U53" t="str">
-        <v>null</v>
-      </c>
       <c r="V53" t="str">
         <v>null</v>
       </c>
@@ -4798,6 +4954,9 @@
         <v>null</v>
       </c>
       <c r="AA53" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB53" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4833,14 +4992,14 @@
         <v>null</v>
       </c>
       <c r="K54" t="str">
+        <v>null</v>
+      </c>
+      <c r="L54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
-      <c r="L54" t="str">
+      <c r="M54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
-      <c r="M54" t="str">
-        <v>null</v>
-      </c>
       <c r="N54" t="str">
         <v>null</v>
       </c>
@@ -4857,14 +5016,14 @@
         <v>null</v>
       </c>
       <c r="S54" t="str">
+        <v>null</v>
+      </c>
+      <c r="T54" t="str">
         <v>true</v>
       </c>
-      <c r="T54" t="str">
+      <c r="U54" t="str">
         <v>minimum</v>
       </c>
-      <c r="U54" t="str">
-        <v>null</v>
-      </c>
       <c r="V54" t="str">
         <v>null</v>
       </c>
@@ -4881,6 +5040,9 @@
         <v>null</v>
       </c>
       <c r="AA54" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB54" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4966,6 +5128,9 @@
       <c r="AA55" t="str">
         <v>null</v>
       </c>
+      <c r="AB55" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -5049,6 +5214,9 @@
       <c r="AA56" t="str">
         <v>null</v>
       </c>
+      <c r="AB56" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -5132,6 +5300,9 @@
       <c r="AA57" t="str">
         <v>null</v>
       </c>
+      <c r="AB57" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -5215,6 +5386,9 @@
       <c r="AA58" t="str">
         <v>null</v>
       </c>
+      <c r="AB58" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -5298,6 +5472,9 @@
       <c r="AA59" t="str">
         <v>null</v>
       </c>
+      <c r="AB59" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -5381,6 +5558,9 @@
       <c r="AA60" t="str">
         <v>null</v>
       </c>
+      <c r="AB60" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -5444,24 +5624,27 @@
         <v>null</v>
       </c>
       <c r="U61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="W61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="X61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="Y61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+      </c>
+      <c r="Z61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="Z61" t="str">
-        <v>null</v>
-      </c>
       <c r="AA61" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB61" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5533,18 +5716,21 @@
         <v>null</v>
       </c>
       <c r="W62" t="str">
+        <v>null</v>
+      </c>
+      <c r="X62" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
-      </c>
-      <c r="X62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Y62" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Z62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AA62" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB62" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5583,11 +5769,11 @@
         <v>null</v>
       </c>
       <c r="L63" t="str">
+        <v>null</v>
+      </c>
+      <c r="M63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
-      <c r="M63" t="str">
-        <v>null</v>
-      </c>
       <c r="N63" t="str">
         <v>null</v>
       </c>
@@ -5610,24 +5796,27 @@
         <v>null</v>
       </c>
       <c r="U63" t="str">
+        <v>null</v>
+      </c>
+      <c r="V63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
-      <c r="V63" t="str">
+      <c r="W63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="W63" t="str">
-        <v>null</v>
-      </c>
       <c r="X63" t="str">
         <v>null</v>
       </c>
       <c r="Y63" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="Z63" t="str">
+      <c r="AA63" t="str">
         <v>S1</v>
       </c>
-      <c r="AA63" t="str">
+      <c r="AB63" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5666,11 +5855,11 @@
         <v>null</v>
       </c>
       <c r="L64" t="str">
+        <v>null</v>
+      </c>
+      <c r="M64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
-      <c r="M64" t="str">
-        <v>null</v>
-      </c>
       <c r="N64" t="str">
         <v>null</v>
       </c>
@@ -5693,24 +5882,27 @@
         <v>null</v>
       </c>
       <c r="U64" t="str">
+        <v>null</v>
+      </c>
+      <c r="V64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
-      <c r="V64" t="str">
+      <c r="W64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="W64" t="str">
-        <v>null</v>
-      </c>
       <c r="X64" t="str">
         <v>null</v>
       </c>
       <c r="Y64" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="Z64" t="str">
+      <c r="AA64" t="str">
         <v>S2</v>
       </c>
-      <c r="AA64" t="str">
+      <c r="AB64" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5749,11 +5941,11 @@
         <v>null</v>
       </c>
       <c r="L65" t="str">
+        <v>null</v>
+      </c>
+      <c r="M65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
-      <c r="M65" t="str">
-        <v>null</v>
-      </c>
       <c r="N65" t="str">
         <v>null</v>
       </c>
@@ -5776,24 +5968,27 @@
         <v>null</v>
       </c>
       <c r="U65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="V65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="W65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="X65" t="str">
         <v>null</v>
       </c>
       <c r="Y65" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="Z65" t="str">
+      <c r="AA65" t="str">
         <v>S3</v>
       </c>
-      <c r="AA65" t="str">
+      <c r="AB65" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5820,13 +6015,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H66" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="I66" t="str">
         <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="J66" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="K66" t="str">
         <v>null</v>
@@ -5877,6 +6072,9 @@
         <v>null</v>
       </c>
       <c r="AA66" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB66" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5903,13 +6101,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H67" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>null</v>
       </c>
       <c r="I67" t="str">
         <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="J67" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="K67" t="str">
         <v>null</v>
@@ -5960,6 +6158,9 @@
         <v>null</v>
       </c>
       <c r="AA67" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB67" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5986,13 +6187,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H68" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>null</v>
       </c>
       <c r="I68" t="str">
         <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="J68" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="K68" t="str">
         <v>null</v>
@@ -6043,6 +6244,9 @@
         <v>null</v>
       </c>
       <c r="AA68" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB68" t="str">
         <v>null</v>
       </c>
     </row>
@@ -6126,6 +6330,9 @@
         <v>null</v>
       </c>
       <c r="AA69" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB69" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
     </row>
@@ -6209,6 +6416,9 @@
         <v>null</v>
       </c>
       <c r="AA70" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB70" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
       </c>
     </row>
@@ -6292,6 +6502,9 @@
         <v>null</v>
       </c>
       <c r="AA71" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB71" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
     </row>
@@ -6318,13 +6531,13 @@
         <v>null</v>
       </c>
       <c r="H72" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="I72" t="str">
         <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="J72" t="str">
-        <v>null</v>
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="K72" t="str">
         <v>null</v>
@@ -6375,6 +6588,9 @@
         <v>null</v>
       </c>
       <c r="AA72" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB72" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
       </c>
     </row>
@@ -6458,6 +6674,9 @@
         <v>null</v>
       </c>
       <c r="AA73" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB73" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
       </c>
     </row>
@@ -6541,6 +6760,9 @@
         <v>null</v>
       </c>
       <c r="AA74" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB74" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
     </row>
@@ -6624,6 +6846,9 @@
         <v>null</v>
       </c>
       <c r="AA75" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB75" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
     </row>
@@ -6707,12 +6932,15 @@
         <v>null</v>
       </c>
       <c r="AA76" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB76" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AA76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>_id</v>
+        <v>id</v>
       </c>
       <c r="B1" t="str">
         <v>_type</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,30 +461,33 @@
         <v>seeAlso</v>
       </c>
       <c r="T1" t="str">
+        <v>relevantCodeList</v>
+      </c>
+      <c r="U1" t="str">
         <v>technischefiche</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>referentiewaardeType</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>broader</v>
       </c>
-      <c r="W1" t="str">
+      <c r="X1" t="str">
         <v>broaderTransitive</v>
       </c>
-      <c r="X1" t="str">
+      <c r="Y1" t="str">
         <v>narrower</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="Z1" t="str">
         <v>narrowerTransitive</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AA1" t="str">
         <v>semanticRelation</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AB1" t="str">
         <v>code</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AC1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
@@ -573,6 +576,9 @@
       <c r="AB2" t="str">
         <v>null</v>
       </c>
+      <c r="AC2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -659,6 +665,9 @@
       <c r="AB3" t="str">
         <v>null</v>
       </c>
+      <c r="AC3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -745,6 +754,9 @@
       <c r="AB4" t="str">
         <v>null</v>
       </c>
+      <c r="AC4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -831,6 +843,9 @@
       <c r="AB5" t="str">
         <v>null</v>
       </c>
+      <c r="AC5" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -917,6 +932,9 @@
       <c r="AB6" t="str">
         <v>null</v>
       </c>
+      <c r="AC6" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1003,6 +1021,9 @@
       <c r="AB7" t="str">
         <v>null</v>
       </c>
+      <c r="AC7" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1089,6 +1110,9 @@
       <c r="AB8" t="str">
         <v>null</v>
       </c>
+      <c r="AC8" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1175,6 +1199,9 @@
       <c r="AB9" t="str">
         <v>null</v>
       </c>
+      <c r="AC9" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1261,6 +1288,9 @@
       <c r="AB10" t="str">
         <v>null</v>
       </c>
+      <c r="AC10" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1347,6 +1377,9 @@
       <c r="AB11" t="str">
         <v>null</v>
       </c>
+      <c r="AC11" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1433,6 +1466,9 @@
       <c r="AB12" t="str">
         <v>null</v>
       </c>
+      <c r="AC12" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1519,6 +1555,9 @@
       <c r="AB13" t="str">
         <v>null</v>
       </c>
+      <c r="AC13" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1605,6 +1644,9 @@
       <c r="AB14" t="str">
         <v>null</v>
       </c>
+      <c r="AC14" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -1691,6 +1733,9 @@
       <c r="AB15" t="str">
         <v>null</v>
       </c>
+      <c r="AC15" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1777,6 +1822,9 @@
       <c r="AB16" t="str">
         <v>null</v>
       </c>
+      <c r="AC16" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1863,6 +1911,9 @@
       <c r="AB17" t="str">
         <v>null</v>
       </c>
+      <c r="AC17" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1949,6 +2000,9 @@
       <c r="AB18" t="str">
         <v>null</v>
       </c>
+      <c r="AC18" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -2035,6 +2089,9 @@
       <c r="AB19" t="str">
         <v>null</v>
       </c>
+      <c r="AC19" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -2121,6 +2178,9 @@
       <c r="AB20" t="str">
         <v>null</v>
       </c>
+      <c r="AC20" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -2207,6 +2267,9 @@
       <c r="AB21" t="str">
         <v>null</v>
       </c>
+      <c r="AC21" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -2293,6 +2356,9 @@
       <c r="AB22" t="str">
         <v>null</v>
       </c>
+      <c r="AC22" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -2379,6 +2445,9 @@
       <c r="AB23" t="str">
         <v>null</v>
       </c>
+      <c r="AC23" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -2465,6 +2534,9 @@
       <c r="AB24" t="str">
         <v>null</v>
       </c>
+      <c r="AC24" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -2551,6 +2623,9 @@
       <c r="AB25" t="str">
         <v>null</v>
       </c>
+      <c r="AC25" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -2637,6 +2712,9 @@
       <c r="AB26" t="str">
         <v>null</v>
       </c>
+      <c r="AC26" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -2723,6 +2801,9 @@
       <c r="AB27" t="str">
         <v>null</v>
       </c>
+      <c r="AC27" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -2809,6 +2890,9 @@
       <c r="AB28" t="str">
         <v>null</v>
       </c>
+      <c r="AC28" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -2895,6 +2979,9 @@
       <c r="AB29" t="str">
         <v>null</v>
       </c>
+      <c r="AC29" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -2981,6 +3068,9 @@
       <c r="AB30" t="str">
         <v>null</v>
       </c>
+      <c r="AC30" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -3067,6 +3157,9 @@
       <c r="AB31" t="str">
         <v>null</v>
       </c>
+      <c r="AC31" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -3153,6 +3246,9 @@
       <c r="AB32" t="str">
         <v>null</v>
       </c>
+      <c r="AC32" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -3239,6 +3335,9 @@
       <c r="AB33" t="str">
         <v>null</v>
       </c>
+      <c r="AC33" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -3299,7 +3398,7 @@
         <v>null</v>
       </c>
       <c r="T34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
       </c>
       <c r="U34" t="str">
         <v>null</v>
@@ -3323,6 +3422,9 @@
         <v>null</v>
       </c>
       <c r="AB34" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC34" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3385,7 +3487,7 @@
         <v>null</v>
       </c>
       <c r="T35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
       </c>
       <c r="U35" t="str">
         <v>null</v>
@@ -3409,6 +3511,9 @@
         <v>null</v>
       </c>
       <c r="AB35" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC35" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3497,6 +3602,9 @@
       <c r="AB36" t="str">
         <v>null</v>
       </c>
+      <c r="AC36" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -3583,6 +3691,9 @@
       <c r="AB37" t="str">
         <v>null</v>
       </c>
+      <c r="AC37" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -3669,6 +3780,9 @@
       <c r="AB38" t="str">
         <v>null</v>
       </c>
+      <c r="AC38" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -3755,6 +3869,9 @@
       <c r="AB39" t="str">
         <v>null</v>
       </c>
+      <c r="AC39" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -3815,11 +3932,11 @@
         <v>null</v>
       </c>
       <c r="T40" t="str">
+        <v>null</v>
+      </c>
+      <c r="U40" t="str">
         <v>false</v>
       </c>
-      <c r="U40" t="str">
-        <v>null</v>
-      </c>
       <c r="V40" t="str">
         <v>null</v>
       </c>
@@ -3839,6 +3956,9 @@
         <v>null</v>
       </c>
       <c r="AB40" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC40" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3901,14 +4021,14 @@
         <v>null</v>
       </c>
       <c r="T41" t="str">
+        <v>null</v>
+      </c>
+      <c r="U41" t="str">
         <v>true</v>
       </c>
-      <c r="U41" t="str">
+      <c r="V41" t="str">
         <v>exact</v>
       </c>
-      <c r="V41" t="str">
-        <v>null</v>
-      </c>
       <c r="W41" t="str">
         <v>null</v>
       </c>
@@ -3925,6 +4045,9 @@
         <v>null</v>
       </c>
       <c r="AB41" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC41" t="str">
         <v>null</v>
       </c>
     </row>
@@ -3987,14 +4110,14 @@
         <v>null</v>
       </c>
       <c r="T42" t="str">
+        <v>null</v>
+      </c>
+      <c r="U42" t="str">
         <v>true</v>
       </c>
-      <c r="U42" t="str">
+      <c r="V42" t="str">
         <v>minimum</v>
       </c>
-      <c r="V42" t="str">
-        <v>null</v>
-      </c>
       <c r="W42" t="str">
         <v>null</v>
       </c>
@@ -4011,6 +4134,9 @@
         <v>null</v>
       </c>
       <c r="AB42" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC42" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4073,14 +4199,14 @@
         <v>null</v>
       </c>
       <c r="T43" t="str">
+        <v>null</v>
+      </c>
+      <c r="U43" t="str">
         <v>true</v>
       </c>
-      <c r="U43" t="str">
+      <c r="V43" t="str">
         <v>minimum</v>
       </c>
-      <c r="V43" t="str">
-        <v>null</v>
-      </c>
       <c r="W43" t="str">
         <v>null</v>
       </c>
@@ -4097,6 +4223,9 @@
         <v>null</v>
       </c>
       <c r="AB43" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC43" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4159,14 +4288,14 @@
         <v>null</v>
       </c>
       <c r="T44" t="str">
+        <v>null</v>
+      </c>
+      <c r="U44" t="str">
         <v>true</v>
       </c>
-      <c r="U44" t="str">
+      <c r="V44" t="str">
         <v>minimum</v>
       </c>
-      <c r="V44" t="str">
-        <v>null</v>
-      </c>
       <c r="W44" t="str">
         <v>null</v>
       </c>
@@ -4183,6 +4312,9 @@
         <v>null</v>
       </c>
       <c r="AB44" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC44" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4245,14 +4377,14 @@
         <v>null</v>
       </c>
       <c r="T45" t="str">
+        <v>null</v>
+      </c>
+      <c r="U45" t="str">
         <v>true</v>
       </c>
-      <c r="U45" t="str">
+      <c r="V45" t="str">
         <v>minimum</v>
       </c>
-      <c r="V45" t="str">
-        <v>null</v>
-      </c>
       <c r="W45" t="str">
         <v>null</v>
       </c>
@@ -4269,6 +4401,9 @@
         <v>null</v>
       </c>
       <c r="AB45" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC45" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4331,14 +4466,14 @@
         <v>null</v>
       </c>
       <c r="T46" t="str">
+        <v>null</v>
+      </c>
+      <c r="U46" t="str">
         <v>true</v>
       </c>
-      <c r="U46" t="str">
+      <c r="V46" t="str">
         <v>maximum</v>
       </c>
-      <c r="V46" t="str">
-        <v>null</v>
-      </c>
       <c r="W46" t="str">
         <v>null</v>
       </c>
@@ -4355,6 +4490,9 @@
         <v>null</v>
       </c>
       <c r="AB46" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC46" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4417,14 +4555,14 @@
         <v>null</v>
       </c>
       <c r="T47" t="str">
+        <v>null</v>
+      </c>
+      <c r="U47" t="str">
         <v>true</v>
       </c>
-      <c r="U47" t="str">
+      <c r="V47" t="str">
         <v>maximum</v>
       </c>
-      <c r="V47" t="str">
-        <v>null</v>
-      </c>
       <c r="W47" t="str">
         <v>null</v>
       </c>
@@ -4441,6 +4579,9 @@
         <v>null</v>
       </c>
       <c r="AB47" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC47" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4503,14 +4644,14 @@
         <v>null</v>
       </c>
       <c r="T48" t="str">
+        <v>null</v>
+      </c>
+      <c r="U48" t="str">
         <v>true</v>
       </c>
-      <c r="U48" t="str">
+      <c r="V48" t="str">
         <v>minimum</v>
       </c>
-      <c r="V48" t="str">
-        <v>null</v>
-      </c>
       <c r="W48" t="str">
         <v>null</v>
       </c>
@@ -4527,6 +4668,9 @@
         <v>null</v>
       </c>
       <c r="AB48" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC48" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4589,14 +4733,14 @@
         <v>null</v>
       </c>
       <c r="T49" t="str">
+        <v>null</v>
+      </c>
+      <c r="U49" t="str">
         <v>true</v>
       </c>
-      <c r="U49" t="str">
+      <c r="V49" t="str">
         <v>minimum</v>
       </c>
-      <c r="V49" t="str">
-        <v>null</v>
-      </c>
       <c r="W49" t="str">
         <v>null</v>
       </c>
@@ -4613,6 +4757,9 @@
         <v>null</v>
       </c>
       <c r="AB49" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC49" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4675,14 +4822,14 @@
         <v>null</v>
       </c>
       <c r="T50" t="str">
+        <v>null</v>
+      </c>
+      <c r="U50" t="str">
         <v>true</v>
       </c>
-      <c r="U50" t="str">
+      <c r="V50" t="str">
         <v>exact</v>
       </c>
-      <c r="V50" t="str">
-        <v>null</v>
-      </c>
       <c r="W50" t="str">
         <v>null</v>
       </c>
@@ -4699,6 +4846,9 @@
         <v>null</v>
       </c>
       <c r="AB50" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC50" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4761,14 +4911,14 @@
         <v>null</v>
       </c>
       <c r="T51" t="str">
+        <v>null</v>
+      </c>
+      <c r="U51" t="str">
         <v>true</v>
       </c>
-      <c r="U51" t="str">
+      <c r="V51" t="str">
         <v>maximum</v>
       </c>
-      <c r="V51" t="str">
-        <v>null</v>
-      </c>
       <c r="W51" t="str">
         <v>null</v>
       </c>
@@ -4785,6 +4935,9 @@
         <v>null</v>
       </c>
       <c r="AB51" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC51" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4847,14 +5000,14 @@
         <v>null</v>
       </c>
       <c r="T52" t="str">
+        <v>null</v>
+      </c>
+      <c r="U52" t="str">
         <v>true</v>
       </c>
-      <c r="U52" t="str">
+      <c r="V52" t="str">
         <v>maximum</v>
       </c>
-      <c r="V52" t="str">
-        <v>null</v>
-      </c>
       <c r="W52" t="str">
         <v>null</v>
       </c>
@@ -4871,6 +5024,9 @@
         <v>null</v>
       </c>
       <c r="AB52" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC52" t="str">
         <v>null</v>
       </c>
     </row>
@@ -4933,14 +5089,14 @@
         <v>null</v>
       </c>
       <c r="T53" t="str">
+        <v>null</v>
+      </c>
+      <c r="U53" t="str">
         <v>true</v>
       </c>
-      <c r="U53" t="str">
+      <c r="V53" t="str">
         <v>minimum</v>
       </c>
-      <c r="V53" t="str">
-        <v>null</v>
-      </c>
       <c r="W53" t="str">
         <v>null</v>
       </c>
@@ -4957,6 +5113,9 @@
         <v>null</v>
       </c>
       <c r="AB53" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC53" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5019,14 +5178,14 @@
         <v>null</v>
       </c>
       <c r="T54" t="str">
+        <v>null</v>
+      </c>
+      <c r="U54" t="str">
         <v>true</v>
       </c>
-      <c r="U54" t="str">
+      <c r="V54" t="str">
         <v>minimum</v>
       </c>
-      <c r="V54" t="str">
-        <v>null</v>
-      </c>
       <c r="W54" t="str">
         <v>null</v>
       </c>
@@ -5043,6 +5202,9 @@
         <v>null</v>
       </c>
       <c r="AB54" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC54" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5131,6 +5293,9 @@
       <c r="AB55" t="str">
         <v>null</v>
       </c>
+      <c r="AC55" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -5217,6 +5382,9 @@
       <c r="AB56" t="str">
         <v>null</v>
       </c>
+      <c r="AC56" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -5303,6 +5471,9 @@
       <c r="AB57" t="str">
         <v>null</v>
       </c>
+      <c r="AC57" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -5389,6 +5560,9 @@
       <c r="AB58" t="str">
         <v>null</v>
       </c>
+      <c r="AC58" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -5475,6 +5649,9 @@
       <c r="AB59" t="str">
         <v>null</v>
       </c>
+      <c r="AC59" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -5561,6 +5738,9 @@
       <c r="AB60" t="str">
         <v>null</v>
       </c>
+      <c r="AC60" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -5627,24 +5807,27 @@
         <v>null</v>
       </c>
       <c r="V61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="W61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="X61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="Z61" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+      </c>
+      <c r="AA61" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="AA61" t="str">
-        <v>null</v>
-      </c>
       <c r="AB61" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC61" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5719,18 +5902,21 @@
         <v>null</v>
       </c>
       <c r="X62" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y62" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
-      </c>
-      <c r="Y62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Z62" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AA62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AB62" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC62" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5799,24 +5985,27 @@
         <v>null</v>
       </c>
       <c r="V63" t="str">
+        <v>null</v>
+      </c>
+      <c r="W63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
-      <c r="W63" t="str">
+      <c r="X63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="X63" t="str">
-        <v>null</v>
-      </c>
       <c r="Y63" t="str">
         <v>null</v>
       </c>
       <c r="Z63" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA63" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="AA63" t="str">
+      <c r="AB63" t="str">
         <v>S1</v>
       </c>
-      <c r="AB63" t="str">
+      <c r="AC63" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5885,24 +6074,27 @@
         <v>null</v>
       </c>
       <c r="V64" t="str">
+        <v>null</v>
+      </c>
+      <c r="W64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
-      <c r="W64" t="str">
+      <c r="X64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="X64" t="str">
-        <v>null</v>
-      </c>
       <c r="Y64" t="str">
         <v>null</v>
       </c>
       <c r="Z64" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA64" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="AA64" t="str">
+      <c r="AB64" t="str">
         <v>S2</v>
       </c>
-      <c r="AB64" t="str">
+      <c r="AC64" t="str">
         <v>null</v>
       </c>
     </row>
@@ -5971,24 +6163,27 @@
         <v>null</v>
       </c>
       <c r="V65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="W65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="X65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y65" t="str">
         <v>null</v>
       </c>
       <c r="Z65" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA65" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
-      <c r="AA65" t="str">
+      <c r="AB65" t="str">
         <v>S3</v>
       </c>
-      <c r="AB65" t="str">
+      <c r="AC65" t="str">
         <v>null</v>
       </c>
     </row>
@@ -6077,6 +6272,9 @@
       <c r="AB66" t="str">
         <v>null</v>
       </c>
+      <c r="AC66" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -6163,6 +6361,9 @@
       <c r="AB67" t="str">
         <v>null</v>
       </c>
+      <c r="AC67" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -6249,6 +6450,9 @@
       <c r="AB68" t="str">
         <v>null</v>
       </c>
+      <c r="AC68" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -6333,6 +6537,9 @@
         <v>null</v>
       </c>
       <c r="AB69" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC69" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
     </row>
@@ -6419,6 +6626,9 @@
         <v>null</v>
       </c>
       <c r="AB70" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC70" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
       </c>
     </row>
@@ -6505,6 +6715,9 @@
         <v>null</v>
       </c>
       <c r="AB71" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC71" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
     </row>
@@ -6591,6 +6804,9 @@
         <v>null</v>
       </c>
       <c r="AB72" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC72" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
       </c>
     </row>
@@ -6677,6 +6893,9 @@
         <v>null</v>
       </c>
       <c r="AB73" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC73" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
       </c>
     </row>
@@ -6763,6 +6982,9 @@
         <v>null</v>
       </c>
       <c r="AB74" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC74" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
     </row>
@@ -6849,6 +7071,9 @@
         <v>null</v>
       </c>
       <c r="AB75" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC75" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
     </row>
@@ -6935,12 +7160,15 @@
         <v>null</v>
       </c>
       <c r="AB76" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC76" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -3398,7 +3398,7 @@
         <v>null</v>
       </c>
       <c r="T34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzsst</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="U34" t="str">
         <v>null</v>
@@ -3487,7 +3487,7 @@
         <v>null</v>
       </c>
       <c r="T35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/lzss</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="U35" t="str">
         <v>null</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC76"/>
+  <dimension ref="A1:AC83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,10 +464,10 @@
         <v>relevantCodeList</v>
       </c>
       <c r="U1" t="str">
+        <v>referentiewaardeType</v>
+      </c>
+      <c r="V1" t="str">
         <v>technischefiche</v>
-      </c>
-      <c r="V1" t="str">
-        <v>referentiewaardeType</v>
       </c>
       <c r="W1" t="str">
         <v>broader</v>
@@ -476,16 +476,16 @@
         <v>broaderTransitive</v>
       </c>
       <c r="Y1" t="str">
+        <v>code</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="AA1" t="str">
         <v>narrower</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AB1" t="str">
         <v>narrowerTransitive</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>semanticRelation</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>code</v>
       </c>
       <c r="AC1" t="str">
         <v>hasTopConcept</v>
@@ -760,16 +760,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
+        <v>http://qudt.org/vocab/quantitykind/Energy</v>
       </c>
       <c r="B5" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C5" t="str">
-        <v>http://qudt.org/vocab/unit/PA</v>
+        <v>http://qudt.org/vocab/unit/KiloW-HR</v>
       </c>
       <c r="D5" t="str">
-        <v>Dampdruk</v>
+        <v>Vermogen</v>
       </c>
       <c r="E5" t="str">
         <v>null</v>
@@ -849,16 +849,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="B6" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C6" t="str">
-        <v>http://qudt.org/vocab/unit/M3</v>
+        <v>http://qudt.org/vocab/unit/PA</v>
       </c>
       <c r="D6" t="str">
-        <v>Volume</v>
+        <v>Dampdruk</v>
       </c>
       <c r="E6" t="str">
         <v>null</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="B7" t="str">
         <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C7" t="str">
-        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
+        <v>http://qudt.org/vocab/unit/M3</v>
       </c>
       <c r="D7" t="str">
-        <v>Volume per tijdseenheid</v>
+        <v>Volume</v>
       </c>
       <c r="E7" t="str">
         <v>null</v>
@@ -1027,25 +1027,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="B8" t="str">
-        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://qudt.org/schema/qudt/QuantityKind</v>
       </c>
       <c r="C8" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/unit/M3-PER-HR</v>
       </c>
       <c r="D8" t="str">
-        <v>null</v>
+        <v>Volume per tijdseenheid</v>
       </c>
       <c r="E8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>null</v>
       </c>
       <c r="F8" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
+        <v>null</v>
       </c>
       <c r="G8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>null</v>
       </c>
       <c r="H8" t="str">
         <v>null</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1131,7 +1131,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F9" t="str">
-        <v>Lucht</v>
+        <v>Het elektronisch monitoringssysteem</v>
       </c>
       <c r="G9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1220,7 +1220,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F10" t="str">
-        <v>Spuiwater</v>
+        <v>Lucht</v>
       </c>
       <c r="G10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1309,7 +1309,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F11" t="str">
-        <v>Stal</v>
+        <v>Spuiwater</v>
       </c>
       <c r="G11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1398,7 +1398,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F12" t="str">
-        <v>Waswater</v>
+        <v>Stal</v>
       </c>
       <c r="G12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
         <v>null</v>
@@ -1484,34 +1484,34 @@
         <v>null</v>
       </c>
       <c r="E13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F13" t="str">
-        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
+        <v>Waswater</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="H13" t="str">
-        <v>Onder minimum grenswaarde</v>
+        <v>null</v>
       </c>
       <c r="I13" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
+        <v>null</v>
       </c>
       <c r="J13" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="K13" t="str">
-        <v>&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="L13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="N13" t="str">
-        <v>6</v>
+        <v>null</v>
       </c>
       <c r="O13" t="str">
         <v>null</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1576,7 +1576,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F14" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
       </c>
       <c r="G14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -1585,25 +1585,25 @@
         <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I14" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
       <c r="J14" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
       <c r="K14" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&lt; 6</v>
       </c>
       <c r="L14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="N14" t="str">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="O14" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="P14" t="str">
         <v>null</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1665,7 +1665,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F15" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
       </c>
       <c r="G15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -1674,22 +1674,22 @@
         <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I15" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J15" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="K15" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="L15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="N15" t="str">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O15" t="str">
         <v>product</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1754,7 +1754,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F16" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
       </c>
       <c r="G16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -1763,22 +1763,22 @@
         <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I16" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J16" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="K16" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="L16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="N16" t="str">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O16" t="str">
         <v>product</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1843,22 +1843,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F17" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
       </c>
       <c r="G17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H17" t="str">
-        <v>Boven maximum grenswaarde</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I17" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J17" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K17" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
@@ -1867,13 +1867,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N17" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="O17" t="str">
         <v>product</v>
       </c>
       <c r="P17" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="Q17" t="str">
         <v>null</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1932,37 +1932,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F18" t="str">
-        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
       </c>
       <c r="G18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H18" t="str">
-        <v>Onder minimum grenswaarde</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="I18" t="str">
-        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J18" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K18" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N18" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="O18" t="str">
         <v>product</v>
       </c>
       <c r="P18" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="str">
         <v>null</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2021,7 +2021,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F19" t="str">
-        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="G19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -2030,10 +2030,10 @@
         <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I19" t="str">
-        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J19" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K19" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
@@ -2042,7 +2042,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="N19" t="str">
         <v>0.8</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2110,37 +2110,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F20" t="str">
-        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
       </c>
       <c r="G20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H20" t="str">
-        <v>Boven maximum grenswaarde</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I20" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J20" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K20" t="str">
-        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="L20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="N20" t="str">
-        <v>null</v>
+        <v>0.8</v>
       </c>
       <c r="O20" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="P20" t="str">
-        <v>50</v>
+        <v>null</v>
       </c>
       <c r="Q20" t="str">
         <v>null</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2199,7 +2199,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F21" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
       </c>
       <c r="G21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -2208,28 +2208,28 @@
         <v>Boven maximum grenswaarde</v>
       </c>
       <c r="I21" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J21" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="K21" t="str">
-        <v>&gt; 8,5</v>
+        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="L21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N21" t="str">
         <v>null</v>
       </c>
       <c r="O21" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="P21" t="str">
-        <v>8.5</v>
+        <v>50</v>
       </c>
       <c r="Q21" t="str">
         <v>null</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2288,7 +2288,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F22" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
       </c>
       <c r="G22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -2297,28 +2297,28 @@
         <v>Boven maximum grenswaarde</v>
       </c>
       <c r="I22" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
       <c r="J22" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
       <c r="K22" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>&gt; 8,5</v>
       </c>
       <c r="L22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="N22" t="str">
         <v>null</v>
       </c>
       <c r="O22" t="str">
-        <v>som</v>
+        <v>null</v>
       </c>
       <c r="P22" t="str">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q22" t="str">
         <v>null</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2377,37 +2377,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F23" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
       </c>
       <c r="G23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H23" t="str">
-        <v>Onder minimum grenswaarde</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="I23" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J23" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="K23" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="L23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="N23" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="O23" t="str">
-        <v>product</v>
+        <v>som</v>
       </c>
       <c r="P23" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="str">
         <v>null</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2466,7 +2466,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F24" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
       </c>
       <c r="G24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -2475,22 +2475,22 @@
         <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I24" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J24" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="K24" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="L24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="N24" t="str">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O24" t="str">
         <v>product</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2555,7 +2555,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F25" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
       </c>
       <c r="G25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -2564,22 +2564,22 @@
         <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I25" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J25" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="K25" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="L25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="N25" t="str">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O25" t="str">
         <v>product</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2644,22 +2644,22 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F26" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
       </c>
       <c r="G26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H26" t="str">
-        <v>Boven maximum grenswaarde</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="I26" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J26" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K26" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
@@ -2668,13 +2668,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N26" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="O26" t="str">
         <v>product</v>
       </c>
       <c r="P26" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="Q26" t="str">
         <v>null</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2733,7 +2733,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F27" t="str">
-        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
       </c>
       <c r="G27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -2742,28 +2742,28 @@
         <v>Boven maximum grenswaarde</v>
       </c>
       <c r="I27" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J27" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="K27" t="str">
-        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N27" t="str">
         <v>null</v>
       </c>
       <c r="O27" t="str">
-        <v>som</v>
+        <v>product</v>
       </c>
       <c r="P27" t="str">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="str">
         <v>null</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2822,7 +2822,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F28" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
       </c>
       <c r="G28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
@@ -2831,19 +2831,19 @@
         <v>Boven maximum grenswaarde</v>
       </c>
       <c r="I28" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J28" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="K28" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="L28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="N28" t="str">
         <v>null</v>
@@ -2852,7 +2852,7 @@
         <v>som</v>
       </c>
       <c r="P28" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="str">
         <v>null</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
       </c>
       <c r="B29" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
         <v>null</v>
@@ -2908,49 +2908,49 @@
         <v>null</v>
       </c>
       <c r="E29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F29" t="str">
-        <v>Biobedspoelwaterproductie</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
       </c>
       <c r="G29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="H29" t="str">
-        <v>null</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="I29" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="K29" t="str">
-        <v>null</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="L29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="N29" t="str">
         <v>null</v>
       </c>
       <c r="O29" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="P29" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="R29" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>null</v>
       </c>
       <c r="S29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="T29" t="str">
         <v>null</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3000,7 +3000,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F30" t="str">
-        <v>Biobedspuiwaterproductie</v>
+        <v>Biobedspoelwaterproductie</v>
       </c>
       <c r="G30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3033,13 +3033,13 @@
         <v>null</v>
       </c>
       <c r="Q30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="R30" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="S30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="T30" t="str">
         <v>null</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3089,7 +3089,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F31" t="str">
-        <v>Drukval over het systeem</v>
+        <v>Biobedspuiwaterproductie</v>
       </c>
       <c r="G31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3107,7 +3107,7 @@
         <v>null</v>
       </c>
       <c r="L31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M31" t="str">
         <v>null</v>
@@ -3122,13 +3122,13 @@
         <v>null</v>
       </c>
       <c r="Q31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="R31" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="S31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="T31" t="str">
         <v>null</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3178,7 +3178,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F32" t="str">
-        <v>Geleidbaarheid van het waswater</v>
+        <v>Drukval over het systeem</v>
       </c>
       <c r="G32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3196,7 +3196,7 @@
         <v>null</v>
       </c>
       <c r="L32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M32" t="str">
         <v>null</v>
@@ -3211,13 +3211,13 @@
         <v>null</v>
       </c>
       <c r="Q32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
       </c>
       <c r="R32" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
+        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="S32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="T32" t="str">
         <v>null</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3267,7 +3267,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F33" t="str">
-        <v>Spuiwaterproductie</v>
+        <v>Elektriciteitsverbruik van de waswaterpomp(en)</v>
       </c>
       <c r="G33" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3285,7 +3285,7 @@
         <v>null</v>
       </c>
       <c r="L33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M33" t="str">
         <v>null</v>
@@ -3300,13 +3300,13 @@
         <v>null</v>
       </c>
       <c r="Q33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
+        <v>null</v>
       </c>
       <c r="R33" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>http://qudt.org/vocab/quantitykind/Energy</v>
       </c>
       <c r="S33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>null</v>
       </c>
       <c r="T33" t="str">
         <v>null</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3356,7 +3356,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F34" t="str">
-        <v>Stalbezetting</v>
+        <v>Geleidbaarheid van het waswater</v>
       </c>
       <c r="G34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3374,7 +3374,7 @@
         <v>null</v>
       </c>
       <c r="L34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M34" t="str">
         <v>null</v>
@@ -3389,16 +3389,16 @@
         <v>null</v>
       </c>
       <c r="Q34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="R34" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="S34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
       <c r="T34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="U34" t="str">
         <v>null</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3445,7 +3445,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F35" t="str">
-        <v>SysteemStatus</v>
+        <v>Spuiwaterproductie</v>
       </c>
       <c r="G35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3463,7 +3463,7 @@
         <v>null</v>
       </c>
       <c r="L35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M35" t="str">
         <v>null</v>
@@ -3478,16 +3478,16 @@
         <v>null</v>
       </c>
       <c r="Q35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="R35" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="S35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="T35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="U35" t="str">
         <v>null</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3534,7 +3534,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F36" t="str">
-        <v>Waswaterdebiet over het waspakket</v>
+        <v>Stalbezetting</v>
       </c>
       <c r="G36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3552,7 +3552,7 @@
         <v>null</v>
       </c>
       <c r="L36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M36" t="str">
         <v>null</v>
@@ -3567,16 +3567,16 @@
         <v>null</v>
       </c>
       <c r="Q36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
       </c>
       <c r="R36" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
+        <v>null</v>
       </c>
       <c r="S36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="T36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="U36" t="str">
         <v>null</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3623,7 +3623,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F37" t="str">
-        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+        <v>SysteemStatus</v>
       </c>
       <c r="G37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3641,7 +3641,7 @@
         <v>null</v>
       </c>
       <c r="L37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M37" t="str">
         <v>null</v>
@@ -3656,16 +3656,16 @@
         <v>null</v>
       </c>
       <c r="Q37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="R37" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
+        <v>null</v>
       </c>
       <c r="S37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="T37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="U37" t="str">
         <v>null</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3712,7 +3712,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F38" t="str">
-        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+        <v>Waswaterdebiet over het waspakket</v>
       </c>
       <c r="G38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3730,7 +3730,7 @@
         <v>null</v>
       </c>
       <c r="L38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M38" t="str">
         <v>null</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3801,7 +3801,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F39" t="str">
-        <v>Zuurtegraad van het waswater</v>
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
       <c r="G39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
@@ -3819,7 +3819,7 @@
         <v>null</v>
       </c>
       <c r="L39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M39" t="str">
         <v>null</v>
@@ -3837,10 +3837,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="R39" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="S39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="T39" t="str">
         <v>null</v>
@@ -3875,10 +3875,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="B40" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C40" t="str">
         <v>null</v>
@@ -3887,13 +3887,13 @@
         <v>null</v>
       </c>
       <c r="E40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F40" t="str">
-        <v>Zuurtegraad waswater S1 systeem</v>
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H40" t="str">
         <v>null</v>
@@ -3908,10 +3908,10 @@
         <v>null</v>
       </c>
       <c r="L40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="N40" t="str">
         <v>null</v>
@@ -3923,19 +3923,19 @@
         <v>null</v>
       </c>
       <c r="Q40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="R40" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="S40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="T40" t="str">
         <v>null</v>
       </c>
       <c r="U40" t="str">
-        <v>false</v>
+        <v>null</v>
       </c>
       <c r="V40" t="str">
         <v>null</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="B41" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C41" t="str">
         <v>null</v>
@@ -3976,13 +3976,13 @@
         <v>null</v>
       </c>
       <c r="E41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F41" t="str">
-        <v>Drukval S2 systeem</v>
+        <v>Zuurtegraad van het waswater</v>
       </c>
       <c r="G41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="H41" t="str">
         <v>null</v>
@@ -3997,10 +3997,10 @@
         <v>null</v>
       </c>
       <c r="L41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="N41" t="str">
         <v>null</v>
@@ -4012,22 +4012,22 @@
         <v>null</v>
       </c>
       <c r="Q41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="R41" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity</v>
       </c>
       <c r="S41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
       <c r="T41" t="str">
         <v>null</v>
       </c>
       <c r="U41" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="V41" t="str">
-        <v>exact</v>
+        <v>null</v>
       </c>
       <c r="W41" t="str">
         <v>null</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4068,7 +4068,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F42" t="str">
-        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
+        <v>Zuurtegraad waswater S1 systeem</v>
       </c>
       <c r="G42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4086,19 +4086,19 @@
         <v>null</v>
       </c>
       <c r="L42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="N42" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="O42" t="str">
         <v>null</v>
       </c>
       <c r="P42" t="str">
-        <v>null</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="str">
         <v>null</v>
@@ -4113,10 +4113,10 @@
         <v>null</v>
       </c>
       <c r="U42" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="V42" t="str">
         <v>true</v>
-      </c>
-      <c r="V42" t="str">
-        <v>minimum</v>
       </c>
       <c r="W42" t="str">
         <v>null</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4157,7 +4157,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F43" t="str">
-        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+        <v>Drukval S2 systeem</v>
       </c>
       <c r="G43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4175,19 +4175,19 @@
         <v>null</v>
       </c>
       <c r="L43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N43" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="O43" t="str">
         <v>null</v>
       </c>
       <c r="P43" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="str">
         <v>null</v>
@@ -4202,10 +4202,10 @@
         <v>null</v>
       </c>
       <c r="U43" t="str">
+        <v>exact</v>
+      </c>
+      <c r="V43" t="str">
         <v>true</v>
-      </c>
-      <c r="V43" t="str">
-        <v>minimum</v>
       </c>
       <c r="W43" t="str">
         <v>null</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4246,7 +4246,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F44" t="str">
-        <v>Biobedspuiwaterproductie S3 systeem</v>
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
       </c>
       <c r="G44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4267,7 +4267,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="N44" t="str">
         <v>null</v>
@@ -4291,10 +4291,10 @@
         <v>null</v>
       </c>
       <c r="U44" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V44" t="str">
         <v>true</v>
-      </c>
-      <c r="V44" t="str">
-        <v>minimum</v>
       </c>
       <c r="W44" t="str">
         <v>null</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4335,7 +4335,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F45" t="str">
-        <v>Biobedspoelwaterproductie S3 systeem</v>
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
       </c>
       <c r="G45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4356,7 +4356,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="N45" t="str">
         <v>null</v>
@@ -4380,10 +4380,10 @@
         <v>null</v>
       </c>
       <c r="U45" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V45" t="str">
         <v>true</v>
-      </c>
-      <c r="V45" t="str">
-        <v>minimum</v>
       </c>
       <c r="W45" t="str">
         <v>null</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4424,7 +4424,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F46" t="str">
-        <v>Drukval S3 systeem</v>
+        <v>Biobedspuiwaterproductie S3 systeem</v>
       </c>
       <c r="G46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4445,7 +4445,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
       </c>
       <c r="N46" t="str">
         <v>null</v>
@@ -4469,10 +4469,10 @@
         <v>null</v>
       </c>
       <c r="U46" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V46" t="str">
         <v>true</v>
-      </c>
-      <c r="V46" t="str">
-        <v>maximum</v>
       </c>
       <c r="W46" t="str">
         <v>null</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4513,7 +4513,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F47" t="str">
-        <v>Geleidbaarheid waswater S1 systeem</v>
+        <v>Biobedspoelwaterproductie S3 systeem</v>
       </c>
       <c r="G47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4531,10 +4531,10 @@
         <v>null</v>
       </c>
       <c r="L47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
       </c>
       <c r="N47" t="str">
         <v>null</v>
@@ -4558,10 +4558,10 @@
         <v>null</v>
       </c>
       <c r="U47" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V47" t="str">
         <v>true</v>
-      </c>
-      <c r="V47" t="str">
-        <v>maximum</v>
       </c>
       <c r="W47" t="str">
         <v>null</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4602,7 +4602,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F48" t="str">
-        <v>Waswaterdebiet S1 systeem</v>
+        <v>Drukval S3 systeem</v>
       </c>
       <c r="G48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4620,19 +4620,19 @@
         <v>null</v>
       </c>
       <c r="L48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="M48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N48" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="O48" t="str">
         <v>null</v>
       </c>
       <c r="P48" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="str">
         <v>null</v>
@@ -4647,10 +4647,10 @@
         <v>null</v>
       </c>
       <c r="U48" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="V48" t="str">
         <v>true</v>
-      </c>
-      <c r="V48" t="str">
-        <v>minimum</v>
       </c>
       <c r="W48" t="str">
         <v>null</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4691,7 +4691,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F49" t="str">
-        <v>Spuiwaterdebiet S1 systeem</v>
+        <v>Geleidbaarheid waswater Lely Sphere systeem</v>
       </c>
       <c r="G49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4709,10 +4709,10 @@
         <v>null</v>
       </c>
       <c r="L49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="N49" t="str">
         <v>null</v>
@@ -4736,10 +4736,10 @@
         <v>null</v>
       </c>
       <c r="U49" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="V49" t="str">
         <v>true</v>
-      </c>
-      <c r="V49" t="str">
-        <v>minimum</v>
       </c>
       <c r="W49" t="str">
         <v>null</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4780,7 +4780,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F50" t="str">
-        <v>Drukval S1 systeem</v>
+        <v>Waswaterdebiet Lely Sphere systeem</v>
       </c>
       <c r="G50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4798,10 +4798,10 @@
         <v>null</v>
       </c>
       <c r="L50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="N50" t="str">
         <v>null</v>
@@ -4825,10 +4825,10 @@
         <v>null</v>
       </c>
       <c r="U50" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V50" t="str">
         <v>true</v>
-      </c>
-      <c r="V50" t="str">
-        <v>exact</v>
       </c>
       <c r="W50" t="str">
         <v>null</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4869,7 +4869,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F51" t="str">
-        <v>Zuurtegraad waswater S2 systeem</v>
+        <v>Spuiwaterdebiet Lely Sphere systeem</v>
       </c>
       <c r="G51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4887,10 +4887,10 @@
         <v>null</v>
       </c>
       <c r="L51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="N51" t="str">
         <v>null</v>
@@ -4914,10 +4914,10 @@
         <v>null</v>
       </c>
       <c r="U51" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V51" t="str">
         <v>true</v>
-      </c>
-      <c r="V51" t="str">
-        <v>maximum</v>
       </c>
       <c r="W51" t="str">
         <v>null</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4958,7 +4958,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F52" t="str">
-        <v>Geleidbaarheid waswater S2 systeem</v>
+        <v>Elektriciteitsverbruik van de waswaterpomp(en) Lely Sphere systeem</v>
       </c>
       <c r="G52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -4976,10 +4976,10 @@
         <v>null</v>
       </c>
       <c r="L52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="M52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
       </c>
       <c r="N52" t="str">
         <v>null</v>
@@ -5003,10 +5003,10 @@
         <v>null</v>
       </c>
       <c r="U52" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V52" t="str">
         <v>true</v>
-      </c>
-      <c r="V52" t="str">
-        <v>maximum</v>
       </c>
       <c r="W52" t="str">
         <v>null</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5047,7 +5047,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F53" t="str">
-        <v>Waswaterdebiet S2 systeem</v>
+        <v>Geleidbaarheid waswater S1 systeem</v>
       </c>
       <c r="G53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -5065,19 +5065,19 @@
         <v>null</v>
       </c>
       <c r="L53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="N53" t="str">
-        <v>null</v>
+        <v>30</v>
       </c>
       <c r="O53" t="str">
         <v>null</v>
       </c>
       <c r="P53" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="str">
         <v>null</v>
@@ -5092,10 +5092,10 @@
         <v>null</v>
       </c>
       <c r="U53" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="V53" t="str">
         <v>true</v>
-      </c>
-      <c r="V53" t="str">
-        <v>minimum</v>
       </c>
       <c r="W53" t="str">
         <v>null</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5136,7 +5136,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F54" t="str">
-        <v>Spuiwaterdebiet S2 systeem</v>
+        <v>Waswaterdebiet S1 systeem</v>
       </c>
       <c r="G54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
@@ -5154,10 +5154,10 @@
         <v>null</v>
       </c>
       <c r="L54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="N54" t="str">
         <v>null</v>
@@ -5181,10 +5181,10 @@
         <v>null</v>
       </c>
       <c r="U54" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="V54" t="str">
         <v>true</v>
-      </c>
-      <c r="V54" t="str">
-        <v>minimum</v>
       </c>
       <c r="W54" t="str">
         <v>null</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5222,13 +5222,13 @@
         <v>null</v>
       </c>
       <c r="E55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F55" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>Spuiwaterdebiet S1 systeem</v>
       </c>
       <c r="G55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H55" t="str">
         <v>null</v>
@@ -5243,10 +5243,10 @@
         <v>null</v>
       </c>
       <c r="L55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M55" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="N55" t="str">
         <v>null</v>
@@ -5270,10 +5270,10 @@
         <v>null</v>
       </c>
       <c r="U55" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="V55" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="W55" t="str">
         <v>null</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5311,13 +5311,13 @@
         <v>null</v>
       </c>
       <c r="E56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F56" t="str">
-        <v>Lege stal</v>
+        <v>Drukval S1 systeem</v>
       </c>
       <c r="G56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H56" t="str">
         <v>null</v>
@@ -5332,19 +5332,19 @@
         <v>null</v>
       </c>
       <c r="L56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="M56" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="N56" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="O56" t="str">
         <v>null</v>
       </c>
       <c r="P56" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="str">
         <v>null</v>
@@ -5359,10 +5359,10 @@
         <v>null</v>
       </c>
       <c r="U56" t="str">
-        <v>null</v>
+        <v>exact</v>
       </c>
       <c r="V56" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="W56" t="str">
         <v>null</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5400,13 +5400,13 @@
         <v>null</v>
       </c>
       <c r="E57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F57" t="str">
-        <v>Gereinigd</v>
+        <v>Zuurtegraad waswater S2 systeem</v>
       </c>
       <c r="G57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H57" t="str">
         <v>null</v>
@@ -5421,19 +5421,19 @@
         <v>null</v>
       </c>
       <c r="L57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M57" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="N57" t="str">
-        <v>null</v>
+        <v>14</v>
       </c>
       <c r="O57" t="str">
         <v>null</v>
       </c>
       <c r="P57" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="str">
         <v>null</v>
@@ -5448,10 +5448,10 @@
         <v>null</v>
       </c>
       <c r="U57" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="V57" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="W57" t="str">
         <v>null</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5489,13 +5489,13 @@
         <v>null</v>
       </c>
       <c r="E58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F58" t="str">
-        <v>In onderhoud</v>
+        <v>Geleidbaarheid waswater S2 systeem</v>
       </c>
       <c r="G58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H58" t="str">
         <v>null</v>
@@ -5510,19 +5510,19 @@
         <v>null</v>
       </c>
       <c r="L58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M58" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="N58" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="O58" t="str">
         <v>null</v>
       </c>
       <c r="P58" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="str">
         <v>null</v>
@@ -5537,10 +5537,10 @@
         <v>null</v>
       </c>
       <c r="U58" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="V58" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="W58" t="str">
         <v>null</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5578,13 +5578,13 @@
         <v>null</v>
       </c>
       <c r="E59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F59" t="str">
-        <v>Operationeel</v>
+        <v>Waswaterdebiet S2 systeem</v>
       </c>
       <c r="G59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H59" t="str">
         <v>null</v>
@@ -5599,10 +5599,10 @@
         <v>null</v>
       </c>
       <c r="L59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="N59" t="str">
         <v>null</v>
@@ -5626,10 +5626,10 @@
         <v>null</v>
       </c>
       <c r="U59" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="V59" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="W59" t="str">
         <v>null</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5667,13 +5667,13 @@
         <v>null</v>
       </c>
       <c r="E60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F60" t="str">
-        <v>Storing</v>
+        <v>Spuiwaterdebiet S2 systeem</v>
       </c>
       <c r="G60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="H60" t="str">
         <v>null</v>
@@ -5688,10 +5688,10 @@
         <v>null</v>
       </c>
       <c r="L60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="M60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="N60" t="str">
         <v>null</v>
@@ -5715,10 +5715,10 @@
         <v>null</v>
       </c>
       <c r="U60" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="V60" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="W60" t="str">
         <v>null</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5756,13 +5756,13 @@
         <v>null</v>
       </c>
       <c r="E61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="F61" t="str">
-        <v>Luchtwassysteem</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="G61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="H61" t="str">
         <v>null</v>
@@ -5810,19 +5810,19 @@
         <v>null</v>
       </c>
       <c r="W61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="X61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="Z61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="AA61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AB61" t="str">
         <v>null</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5845,13 +5845,13 @@
         <v>null</v>
       </c>
       <c r="E62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="F62" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>Lege stal</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="H62" t="str">
         <v>null</v>
@@ -5905,13 +5905,13 @@
         <v>null</v>
       </c>
       <c r="Y62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="Z62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="AA62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="AB62" t="str">
         <v>null</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5934,13 +5934,13 @@
         <v>null</v>
       </c>
       <c r="E63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F63" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>Gereinigd</v>
       </c>
       <c r="G63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H63" t="str">
         <v>null</v>
@@ -5958,7 +5958,7 @@
         <v>null</v>
       </c>
       <c r="M63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="N63" t="str">
         <v>null</v>
@@ -5988,10 +5988,10 @@
         <v>null</v>
       </c>
       <c r="W63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y63" t="str">
         <v>null</v>
@@ -6000,10 +6000,10 @@
         <v>null</v>
       </c>
       <c r="AA63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AB63" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="AC63" t="str">
         <v>null</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6023,13 +6023,13 @@
         <v>null</v>
       </c>
       <c r="E64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F64" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>In onderhoud</v>
       </c>
       <c r="G64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H64" t="str">
         <v>null</v>
@@ -6047,7 +6047,7 @@
         <v>null</v>
       </c>
       <c r="M64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="N64" t="str">
         <v>null</v>
@@ -6077,10 +6077,10 @@
         <v>null</v>
       </c>
       <c r="W64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y64" t="str">
         <v>null</v>
@@ -6089,10 +6089,10 @@
         <v>null</v>
       </c>
       <c r="AA64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AB64" t="str">
-        <v>S2</v>
+        <v>null</v>
       </c>
       <c r="AC64" t="str">
         <v>null</v>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6112,13 +6112,13 @@
         <v>null</v>
       </c>
       <c r="E65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F65" t="str">
-        <v>Biobed</v>
+        <v>Operationeel</v>
       </c>
       <c r="G65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H65" t="str">
         <v>null</v>
@@ -6136,7 +6136,7 @@
         <v>null</v>
       </c>
       <c r="M65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="N65" t="str">
         <v>null</v>
@@ -6166,10 +6166,10 @@
         <v>null</v>
       </c>
       <c r="W65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="X65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y65" t="str">
         <v>null</v>
@@ -6178,10 +6178,10 @@
         <v>null</v>
       </c>
       <c r="AA65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AB65" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="AC65" t="str">
         <v>null</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6198,25 +6198,25 @@
         <v>null</v>
       </c>
       <c r="D66" t="str">
-        <v>VLAREM klasse 1</v>
+        <v>null</v>
       </c>
       <c r="E66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F66" t="str">
-        <v>Klasse 1</v>
+        <v>Storing</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="H66" t="str">
         <v>null</v>
       </c>
       <c r="I66" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="J66" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="K66" t="str">
         <v>null</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6287,25 +6287,25 @@
         <v>null</v>
       </c>
       <c r="D67" t="str">
-        <v>VLAREM klasse 2</v>
+        <v>null</v>
       </c>
       <c r="E67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F67" t="str">
-        <v>Klasse 2</v>
+        <v>Lely Sphere</v>
       </c>
       <c r="G67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="H67" t="str">
         <v>null</v>
       </c>
       <c r="I67" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>null</v>
       </c>
       <c r="J67" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>null</v>
       </c>
       <c r="K67" t="str">
         <v>null</v>
@@ -6314,7 +6314,7 @@
         <v>null</v>
       </c>
       <c r="M67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
       </c>
       <c r="N67" t="str">
         <v>null</v>
@@ -6344,16 +6344,16 @@
         <v>null</v>
       </c>
       <c r="W67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="X67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y67" t="str">
-        <v>null</v>
+        <v>Lelysphere</v>
       </c>
       <c r="Z67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA67" t="str">
         <v>null</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6376,25 +6376,25 @@
         <v>null</v>
       </c>
       <c r="D68" t="str">
-        <v>VLAREM klasse 3</v>
+        <v>null</v>
       </c>
       <c r="E68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F68" t="str">
-        <v>Klasse 3</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="G68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="H68" t="str">
         <v>null</v>
       </c>
       <c r="I68" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>null</v>
       </c>
       <c r="J68" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>null</v>
       </c>
       <c r="K68" t="str">
         <v>null</v>
@@ -6433,22 +6433,22 @@
         <v>null</v>
       </c>
       <c r="W68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="X68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y68" t="str">
         <v>null</v>
       </c>
       <c r="Z68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="AB68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="AC68" t="str">
         <v>null</v>
@@ -6456,10 +6456,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="B69" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
         <v>null</v>
@@ -6468,13 +6468,13 @@
         <v>null</v>
       </c>
       <c r="E69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F69" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="G69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="H69" t="str">
         <v>null</v>
@@ -6531,36 +6531,36 @@
         <v>null</v>
       </c>
       <c r="Z69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AA69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AB69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AC69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>null</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="B70" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
         <v>null</v>
       </c>
       <c r="D70" t="str">
-        <v>Ranges</v>
+        <v>null</v>
       </c>
       <c r="E70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F70" t="str">
-        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="G70" t="str">
         <v>null</v>
@@ -6581,7 +6581,7 @@
         <v>null</v>
       </c>
       <c r="M70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="N70" t="str">
         <v>null</v>
@@ -6611,16 +6611,16 @@
         <v>null</v>
       </c>
       <c r="W70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="X70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y70" t="str">
-        <v>null</v>
+        <v>S1</v>
       </c>
       <c r="Z70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA70" t="str">
         <v>null</v>
@@ -6629,15 +6629,15 @@
         <v>null</v>
       </c>
       <c r="AC70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
+        <v>null</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="B71" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
         <v>null</v>
@@ -6646,10 +6646,10 @@
         <v>null</v>
       </c>
       <c r="E71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F71" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="G71" t="str">
         <v>null</v>
@@ -6670,7 +6670,7 @@
         <v>null</v>
       </c>
       <c r="M71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="N71" t="str">
         <v>null</v>
@@ -6700,16 +6700,16 @@
         <v>null</v>
       </c>
       <c r="W71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="X71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y71" t="str">
-        <v>null</v>
+        <v>S2</v>
       </c>
       <c r="Z71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA71" t="str">
         <v>null</v>
@@ -6718,15 +6718,15 @@
         <v>null</v>
       </c>
       <c r="AC71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="B72" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
         <v>null</v>
@@ -6735,10 +6735,10 @@
         <v>null</v>
       </c>
       <c r="E72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F72" t="str">
-        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+        <v>Biobed</v>
       </c>
       <c r="G72" t="str">
         <v>null</v>
@@ -6747,10 +6747,10 @@
         <v>null</v>
       </c>
       <c r="I72" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="J72" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="K72" t="str">
         <v>null</v>
@@ -6759,7 +6759,7 @@
         <v>null</v>
       </c>
       <c r="M72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="N72" t="str">
         <v>null</v>
@@ -6789,16 +6789,16 @@
         <v>null</v>
       </c>
       <c r="W72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="X72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y72" t="str">
-        <v>null</v>
+        <v>S3</v>
       </c>
       <c r="Z72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA72" t="str">
         <v>null</v>
@@ -6807,39 +6807,39 @@
         <v>null</v>
       </c>
       <c r="AC72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
+        <v>null</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
       </c>
       <c r="B73" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C73" t="str">
         <v>null</v>
       </c>
       <c r="D73" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 1</v>
       </c>
       <c r="E73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F73" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>Klasse 1</v>
       </c>
       <c r="G73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H73" t="str">
         <v>null</v>
       </c>
       <c r="I73" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="J73" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="K73" t="str">
         <v>null</v>
@@ -6896,39 +6896,39 @@
         <v>null</v>
       </c>
       <c r="AC73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
+        <v>null</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
       </c>
       <c r="B74" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
         <v>null</v>
       </c>
       <c r="D74" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 2</v>
       </c>
       <c r="E74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F74" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>Klasse 2</v>
       </c>
       <c r="G74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H74" t="str">
         <v>null</v>
       </c>
       <c r="I74" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="J74" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="K74" t="str">
         <v>null</v>
@@ -6985,39 +6985,39 @@
         <v>null</v>
       </c>
       <c r="AC74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+        <v>null</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
       <c r="B75" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
         <v>null</v>
       </c>
       <c r="D75" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 3</v>
       </c>
       <c r="E75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F75" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>Klasse 3</v>
       </c>
       <c r="G75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="H75" t="str">
         <v>null</v>
       </c>
       <c r="I75" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="J75" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="K75" t="str">
         <v>null</v>
@@ -7074,12 +7074,12 @@
         <v>null</v>
       </c>
       <c r="AC75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -7094,81 +7094,704 @@
         <v>null</v>
       </c>
       <c r="F76" t="str">
+        <v>conceptschema luchtzuiveringssysteem medium</v>
+      </c>
+      <c r="G76" t="str">
+        <v>null</v>
+      </c>
+      <c r="H76" t="str">
+        <v>null</v>
+      </c>
+      <c r="I76" t="str">
+        <v>null</v>
+      </c>
+      <c r="J76" t="str">
+        <v>null</v>
+      </c>
+      <c r="K76" t="str">
+        <v>null</v>
+      </c>
+      <c r="L76" t="str">
+        <v>null</v>
+      </c>
+      <c r="M76" t="str">
+        <v>null</v>
+      </c>
+      <c r="N76" t="str">
+        <v>null</v>
+      </c>
+      <c r="O76" t="str">
+        <v>null</v>
+      </c>
+      <c r="P76" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>null</v>
+      </c>
+      <c r="R76" t="str">
+        <v>null</v>
+      </c>
+      <c r="S76" t="str">
+        <v>null</v>
+      </c>
+      <c r="T76" t="str">
+        <v>null</v>
+      </c>
+      <c r="U76" t="str">
+        <v>null</v>
+      </c>
+      <c r="V76" t="str">
+        <v>null</v>
+      </c>
+      <c r="W76" t="str">
+        <v>null</v>
+      </c>
+      <c r="X76" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y76" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z76" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA76" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB76" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC76" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+      </c>
+      <c r="B77" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C77" t="str">
+        <v>null</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Ranges</v>
+      </c>
+      <c r="E77" t="str">
+        <v>null</v>
+      </c>
+      <c r="F77" t="str">
+        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+      </c>
+      <c r="G77" t="str">
+        <v>null</v>
+      </c>
+      <c r="H77" t="str">
+        <v>null</v>
+      </c>
+      <c r="I77" t="str">
+        <v>null</v>
+      </c>
+      <c r="J77" t="str">
+        <v>null</v>
+      </c>
+      <c r="K77" t="str">
+        <v>null</v>
+      </c>
+      <c r="L77" t="str">
+        <v>null</v>
+      </c>
+      <c r="M77" t="str">
+        <v>null</v>
+      </c>
+      <c r="N77" t="str">
+        <v>null</v>
+      </c>
+      <c r="O77" t="str">
+        <v>null</v>
+      </c>
+      <c r="P77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>null</v>
+      </c>
+      <c r="R77" t="str">
+        <v>null</v>
+      </c>
+      <c r="S77" t="str">
+        <v>null</v>
+      </c>
+      <c r="T77" t="str">
+        <v>null</v>
+      </c>
+      <c r="U77" t="str">
+        <v>null</v>
+      </c>
+      <c r="V77" t="str">
+        <v>null</v>
+      </c>
+      <c r="W77" t="str">
+        <v>null</v>
+      </c>
+      <c r="X77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y77" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z77" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA77" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB77" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC77" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+      </c>
+      <c r="B78" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C78" t="str">
+        <v>null</v>
+      </c>
+      <c r="D78" t="str">
+        <v>null</v>
+      </c>
+      <c r="E78" t="str">
+        <v>null</v>
+      </c>
+      <c r="F78" t="str">
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+      </c>
+      <c r="G78" t="str">
+        <v>null</v>
+      </c>
+      <c r="H78" t="str">
+        <v>null</v>
+      </c>
+      <c r="I78" t="str">
+        <v>null</v>
+      </c>
+      <c r="J78" t="str">
+        <v>null</v>
+      </c>
+      <c r="K78" t="str">
+        <v>null</v>
+      </c>
+      <c r="L78" t="str">
+        <v>null</v>
+      </c>
+      <c r="M78" t="str">
+        <v>null</v>
+      </c>
+      <c r="N78" t="str">
+        <v>null</v>
+      </c>
+      <c r="O78" t="str">
+        <v>null</v>
+      </c>
+      <c r="P78" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>null</v>
+      </c>
+      <c r="R78" t="str">
+        <v>null</v>
+      </c>
+      <c r="S78" t="str">
+        <v>null</v>
+      </c>
+      <c r="T78" t="str">
+        <v>null</v>
+      </c>
+      <c r="U78" t="str">
+        <v>null</v>
+      </c>
+      <c r="V78" t="str">
+        <v>null</v>
+      </c>
+      <c r="W78" t="str">
+        <v>null</v>
+      </c>
+      <c r="X78" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y78" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z78" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA78" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB78" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC78" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+      </c>
+      <c r="B79" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C79" t="str">
+        <v>null</v>
+      </c>
+      <c r="D79" t="str">
+        <v>null</v>
+      </c>
+      <c r="E79" t="str">
+        <v>null</v>
+      </c>
+      <c r="F79" t="str">
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+      </c>
+      <c r="G79" t="str">
+        <v>null</v>
+      </c>
+      <c r="H79" t="str">
+        <v>null</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+      </c>
+      <c r="K79" t="str">
+        <v>null</v>
+      </c>
+      <c r="L79" t="str">
+        <v>null</v>
+      </c>
+      <c r="M79" t="str">
+        <v>null</v>
+      </c>
+      <c r="N79" t="str">
+        <v>null</v>
+      </c>
+      <c r="O79" t="str">
+        <v>null</v>
+      </c>
+      <c r="P79" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>null</v>
+      </c>
+      <c r="R79" t="str">
+        <v>null</v>
+      </c>
+      <c r="S79" t="str">
+        <v>null</v>
+      </c>
+      <c r="T79" t="str">
+        <v>null</v>
+      </c>
+      <c r="U79" t="str">
+        <v>null</v>
+      </c>
+      <c r="V79" t="str">
+        <v>null</v>
+      </c>
+      <c r="W79" t="str">
+        <v>null</v>
+      </c>
+      <c r="X79" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y79" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z79" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA79" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB79" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC79" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+      </c>
+      <c r="B80" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C80" t="str">
+        <v>null</v>
+      </c>
+      <c r="D80" t="str">
+        <v>null</v>
+      </c>
+      <c r="E80" t="str">
+        <v>null</v>
+      </c>
+      <c r="F80" t="str">
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+      </c>
+      <c r="G80" t="str">
+        <v>null</v>
+      </c>
+      <c r="H80" t="str">
+        <v>null</v>
+      </c>
+      <c r="I80" t="str">
+        <v>null</v>
+      </c>
+      <c r="J80" t="str">
+        <v>null</v>
+      </c>
+      <c r="K80" t="str">
+        <v>null</v>
+      </c>
+      <c r="L80" t="str">
+        <v>null</v>
+      </c>
+      <c r="M80" t="str">
+        <v>null</v>
+      </c>
+      <c r="N80" t="str">
+        <v>null</v>
+      </c>
+      <c r="O80" t="str">
+        <v>null</v>
+      </c>
+      <c r="P80" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>null</v>
+      </c>
+      <c r="R80" t="str">
+        <v>null</v>
+      </c>
+      <c r="S80" t="str">
+        <v>null</v>
+      </c>
+      <c r="T80" t="str">
+        <v>null</v>
+      </c>
+      <c r="U80" t="str">
+        <v>null</v>
+      </c>
+      <c r="V80" t="str">
+        <v>null</v>
+      </c>
+      <c r="W80" t="str">
+        <v>null</v>
+      </c>
+      <c r="X80" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y80" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z80" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA80" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB80" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC80" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+      </c>
+      <c r="B81" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C81" t="str">
+        <v>null</v>
+      </c>
+      <c r="D81" t="str">
+        <v>null</v>
+      </c>
+      <c r="E81" t="str">
+        <v>null</v>
+      </c>
+      <c r="F81" t="str">
+        <v>conceptschema luchtzuiveringssysteem status</v>
+      </c>
+      <c r="G81" t="str">
+        <v>null</v>
+      </c>
+      <c r="H81" t="str">
+        <v>null</v>
+      </c>
+      <c r="I81" t="str">
+        <v>null</v>
+      </c>
+      <c r="J81" t="str">
+        <v>null</v>
+      </c>
+      <c r="K81" t="str">
+        <v>null</v>
+      </c>
+      <c r="L81" t="str">
+        <v>null</v>
+      </c>
+      <c r="M81" t="str">
+        <v>null</v>
+      </c>
+      <c r="N81" t="str">
+        <v>null</v>
+      </c>
+      <c r="O81" t="str">
+        <v>null</v>
+      </c>
+      <c r="P81" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>null</v>
+      </c>
+      <c r="R81" t="str">
+        <v>null</v>
+      </c>
+      <c r="S81" t="str">
+        <v>null</v>
+      </c>
+      <c r="T81" t="str">
+        <v>null</v>
+      </c>
+      <c r="U81" t="str">
+        <v>null</v>
+      </c>
+      <c r="V81" t="str">
+        <v>null</v>
+      </c>
+      <c r="W81" t="str">
+        <v>null</v>
+      </c>
+      <c r="X81" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y81" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z81" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA81" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB81" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC81" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+      </c>
+      <c r="B82" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C82" t="str">
+        <v>null</v>
+      </c>
+      <c r="D82" t="str">
+        <v>null</v>
+      </c>
+      <c r="E82" t="str">
+        <v>null</v>
+      </c>
+      <c r="F82" t="str">
+        <v>conceptschema luchtzuiveringssysteem</v>
+      </c>
+      <c r="G82" t="str">
+        <v>null</v>
+      </c>
+      <c r="H82" t="str">
+        <v>null</v>
+      </c>
+      <c r="I82" t="str">
+        <v>null</v>
+      </c>
+      <c r="J82" t="str">
+        <v>null</v>
+      </c>
+      <c r="K82" t="str">
+        <v>null</v>
+      </c>
+      <c r="L82" t="str">
+        <v>null</v>
+      </c>
+      <c r="M82" t="str">
+        <v>null</v>
+      </c>
+      <c r="N82" t="str">
+        <v>null</v>
+      </c>
+      <c r="O82" t="str">
+        <v>null</v>
+      </c>
+      <c r="P82" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>null</v>
+      </c>
+      <c r="R82" t="str">
+        <v>null</v>
+      </c>
+      <c r="S82" t="str">
+        <v>null</v>
+      </c>
+      <c r="T82" t="str">
+        <v>null</v>
+      </c>
+      <c r="U82" t="str">
+        <v>null</v>
+      </c>
+      <c r="V82" t="str">
+        <v>null</v>
+      </c>
+      <c r="W82" t="str">
+        <v>null</v>
+      </c>
+      <c r="X82" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y82" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z82" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA82" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB82" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC82" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+      </c>
+      <c r="B83" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C83" t="str">
+        <v>null</v>
+      </c>
+      <c r="D83" t="str">
+        <v>null</v>
+      </c>
+      <c r="E83" t="str">
+        <v>null</v>
+      </c>
+      <c r="F83" t="str">
         <v>VLAREM indelingsklassen</v>
       </c>
-      <c r="G76" t="str">
-        <v>null</v>
-      </c>
-      <c r="H76" t="str">
-        <v>null</v>
-      </c>
-      <c r="I76" t="str">
-        <v>null</v>
-      </c>
-      <c r="J76" t="str">
-        <v>null</v>
-      </c>
-      <c r="K76" t="str">
-        <v>null</v>
-      </c>
-      <c r="L76" t="str">
-        <v>null</v>
-      </c>
-      <c r="M76" t="str">
-        <v>null</v>
-      </c>
-      <c r="N76" t="str">
-        <v>null</v>
-      </c>
-      <c r="O76" t="str">
-        <v>null</v>
-      </c>
-      <c r="P76" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q76" t="str">
-        <v>null</v>
-      </c>
-      <c r="R76" t="str">
-        <v>null</v>
-      </c>
-      <c r="S76" t="str">
-        <v>null</v>
-      </c>
-      <c r="T76" t="str">
-        <v>null</v>
-      </c>
-      <c r="U76" t="str">
-        <v>null</v>
-      </c>
-      <c r="V76" t="str">
-        <v>null</v>
-      </c>
-      <c r="W76" t="str">
-        <v>null</v>
-      </c>
-      <c r="X76" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y76" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z76" t="str">
-        <v>null</v>
-      </c>
-      <c r="AA76" t="str">
-        <v>null</v>
-      </c>
-      <c r="AB76" t="str">
-        <v>null</v>
-      </c>
-      <c r="AC76" t="str">
+      <c r="G83" t="str">
+        <v>null</v>
+      </c>
+      <c r="H83" t="str">
+        <v>null</v>
+      </c>
+      <c r="I83" t="str">
+        <v>null</v>
+      </c>
+      <c r="J83" t="str">
+        <v>null</v>
+      </c>
+      <c r="K83" t="str">
+        <v>null</v>
+      </c>
+      <c r="L83" t="str">
+        <v>null</v>
+      </c>
+      <c r="M83" t="str">
+        <v>null</v>
+      </c>
+      <c r="N83" t="str">
+        <v>null</v>
+      </c>
+      <c r="O83" t="str">
+        <v>null</v>
+      </c>
+      <c r="P83" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>null</v>
+      </c>
+      <c r="R83" t="str">
+        <v>null</v>
+      </c>
+      <c r="S83" t="str">
+        <v>null</v>
+      </c>
+      <c r="T83" t="str">
+        <v>null</v>
+      </c>
+      <c r="U83" t="str">
+        <v>null</v>
+      </c>
+      <c r="V83" t="str">
+        <v>null</v>
+      </c>
+      <c r="W83" t="str">
+        <v>null</v>
+      </c>
+      <c r="X83" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z83" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA83" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB83" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC83" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC83"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC83"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,64 +419,64 @@
         <v>inScheme</v>
       </c>
       <c r="F1" t="str">
+        <v>code</v>
+      </c>
+      <c r="G1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>dc_type</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>definition</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>note</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>scopeNote</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>relevantLZS</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>relevantProperty</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>maxValue</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>operatie</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>minValue</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>subject</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>relevantQuantityKind</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>seeAlso</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>relevantCodeList</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>referentiewaardeType</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>technischefiche</v>
       </c>
-      <c r="W1" t="str">
+      <c r="X1" t="str">
         <v>broader</v>
       </c>
-      <c r="X1" t="str">
+      <c r="Y1" t="str">
         <v>broaderTransitive</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>code</v>
       </c>
       <c r="Z1" t="str">
         <v>semanticRelation</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/gevalideerd</v>
       </c>
       <c r="B9" t="str">
-        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
         <v>null</v>
@@ -1128,16 +1128,16 @@
         <v>null</v>
       </c>
       <c r="E9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="F9" t="str">
-        <v>Het elektronisch monitoringssysteem</v>
+        <v>gevalideerd</v>
       </c>
       <c r="G9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>Gevalideerd</v>
       </c>
       <c r="H9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="I9" t="str">
         <v>null</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/geweigerd</v>
       </c>
       <c r="B10" t="str">
-        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
         <v>null</v>
@@ -1217,16 +1217,16 @@
         <v>null</v>
       </c>
       <c r="E10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="F10" t="str">
-        <v>Lucht</v>
+        <v>geweigerd</v>
       </c>
       <c r="G10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>Geweigerd</v>
       </c>
       <c r="H10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="I10" t="str">
         <v>null</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/ingetrokken</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
         <v>null</v>
@@ -1306,16 +1306,16 @@
         <v>null</v>
       </c>
       <c r="E11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="F11" t="str">
-        <v>Spuiwater</v>
+        <v>ingetrokken</v>
       </c>
       <c r="G11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>Ingetrokken</v>
       </c>
       <c r="H11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="I11" t="str">
         <v>null</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/nietgevalideerd</v>
       </c>
       <c r="B12" t="str">
-        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
         <v>null</v>
@@ -1395,16 +1395,16 @@
         <v>null</v>
       </c>
       <c r="E12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="F12" t="str">
-        <v>Stal</v>
+        <v>nietgevalideerd</v>
       </c>
       <c r="G12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>Niet gevalideerd</v>
       </c>
       <c r="H12" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="I12" t="str">
         <v>null</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2000/01/rdf-schema#Resource|http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C13" t="str">
         <v>null</v>
@@ -1487,13 +1487,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F13" t="str">
-        <v>Waswater</v>
+        <v>null</v>
       </c>
       <c r="G13" t="str">
+        <v>Het elektronisch monitoringssysteem</v>
+      </c>
+      <c r="H13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
-      </c>
-      <c r="H13" t="str">
-        <v>null</v>
       </c>
       <c r="I13" t="str">
         <v>null</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
       </c>
       <c r="B14" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C14" t="str">
         <v>null</v>
@@ -1573,34 +1573,34 @@
         <v>null</v>
       </c>
       <c r="E14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F14" t="str">
-        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>Lucht</v>
       </c>
       <c r="H14" t="str">
-        <v>Onder minimum grenswaarde</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="I14" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
+        <v>null</v>
       </c>
       <c r="J14" t="str">
-        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="K14" t="str">
-        <v>&lt; 6</v>
+        <v>null</v>
       </c>
       <c r="L14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M14" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>null</v>
       </c>
       <c r="N14" t="str">
-        <v>6</v>
+        <v>null</v>
       </c>
       <c r="O14" t="str">
         <v>null</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C15" t="str">
         <v>null</v>
@@ -1662,37 +1662,37 @@
         <v>null</v>
       </c>
       <c r="E15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F15" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>Spuiwater</v>
       </c>
       <c r="H15" t="str">
-        <v>Onder minimum grenswaarde</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="I15" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="J15" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="K15" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>null</v>
       </c>
       <c r="L15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>null</v>
       </c>
       <c r="N15" t="str">
-        <v>0.8</v>
+        <v>null</v>
       </c>
       <c r="O15" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="P15" t="str">
         <v>null</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C16" t="str">
         <v>null</v>
@@ -1751,37 +1751,37 @@
         <v>null</v>
       </c>
       <c r="E16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F16" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>Stal</v>
       </c>
       <c r="H16" t="str">
-        <v>Onder minimum grenswaarde</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="I16" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="J16" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="K16" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>null</v>
       </c>
       <c r="L16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M16" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="N16" t="str">
-        <v>0.9</v>
+        <v>null</v>
       </c>
       <c r="O16" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="P16" t="str">
         <v>null</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="B17" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
       </c>
       <c r="C17" t="str">
         <v>null</v>
@@ -1840,37 +1840,37 @@
         <v>null</v>
       </c>
       <c r="E17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="F17" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>Waswater</v>
       </c>
       <c r="H17" t="str">
-        <v>Onder minimum grenswaarde</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="I17" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>null</v>
       </c>
       <c r="J17" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="K17" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>null</v>
       </c>
       <c r="L17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M17" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>null</v>
       </c>
       <c r="N17" t="str">
-        <v>0.6</v>
+        <v>null</v>
       </c>
       <c r="O17" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="P17" t="str">
         <v>null</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -1932,37 +1932,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F18" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G18" t="str">
+        <v>Zuurtegraad waswater &lt; 6 (S1 systeem)</v>
+      </c>
+      <c r="H18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H18" t="str">
-        <v>Boven maximum grenswaarde</v>
-      </c>
       <c r="I18" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="J18" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6</v>
       </c>
       <c r="K18" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De zuurtegraad van het waswater is kleiner dan 6|&lt; 6</v>
       </c>
       <c r="L18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>&lt; 6</v>
       </c>
       <c r="M18" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N18" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="O18" t="str">
-        <v>product</v>
+        <v>6</v>
       </c>
       <c r="P18" t="str">
-        <v>1.4</v>
+        <v>null</v>
       </c>
       <c r="Q18" t="str">
         <v>null</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2021,37 +2021,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F19" t="str">
-        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G19" t="str">
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S2 systeem)</v>
+      </c>
+      <c r="H19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <v>Onder minimum grenswaarde</v>
       </c>
-      <c r="I19" t="str">
-        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
-      </c>
       <c r="J19" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K19" t="str">
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+      </c>
+      <c r="L19" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="L19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
-      </c>
       <c r="M19" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N19" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+      </c>
+      <c r="O19" t="str">
         <v>0.8</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <v>product</v>
-      </c>
-      <c r="P19" t="str">
-        <v>null</v>
       </c>
       <c r="Q19" t="str">
         <v>null</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2110,37 +2110,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F20" t="str">
-        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G20" t="str">
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S2 systeem)</v>
+      </c>
+      <c r="H20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <v>Onder minimum grenswaarde</v>
       </c>
-      <c r="I20" t="str">
-        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
-      </c>
       <c r="J20" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K20" t="str">
-        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="L20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M20" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N20" t="str">
-        <v>0.8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="O20" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="P20" t="str">
         <v>product</v>
-      </c>
-      <c r="P20" t="str">
-        <v>null</v>
       </c>
       <c r="Q20" t="str">
         <v>null</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2199,37 +2199,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F21" t="str">
-        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G21" t="str">
+        <v>Drukval afwijking naar beneden &gt; 40% (S2 systeem)</v>
+      </c>
+      <c r="H21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H21" t="str">
-        <v>Boven maximum grenswaarde</v>
-      </c>
       <c r="I21" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="J21" t="str">
-        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K21" t="str">
-        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L21" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M21" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+      </c>
+      <c r="N21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
-      <c r="N21" t="str">
-        <v>null</v>
-      </c>
       <c r="O21" t="str">
-        <v>som</v>
+        <v>0.6</v>
       </c>
       <c r="P21" t="str">
-        <v>50</v>
+        <v>product</v>
       </c>
       <c r="Q21" t="str">
         <v>null</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2288,40 +2288,40 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F22" t="str">
-        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G22" t="str">
+        <v>Drukval afwijking naar boven &gt; 40% (S2 systeem)</v>
+      </c>
+      <c r="H22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <v>Boven maximum grenswaarde</v>
       </c>
-      <c r="I22" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
-      </c>
       <c r="J22" t="str">
-        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K22" t="str">
-        <v>&gt; 8,5</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M22" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N22" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="O22" t="str">
         <v>null</v>
       </c>
       <c r="P22" t="str">
-        <v>8.5</v>
+        <v>product</v>
       </c>
       <c r="Q22" t="str">
-        <v>null</v>
+        <v>1.4</v>
       </c>
       <c r="R22" t="str">
         <v>null</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2377,37 +2377,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F23" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G23" t="str">
+        <v>Waswaterdebiet voorbevochtiging afwijking naar beneden &gt; 20% (S3 systeem)</v>
+      </c>
+      <c r="H23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H23" t="str">
-        <v>Boven maximum grenswaarde</v>
-      </c>
       <c r="I23" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="J23" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K23" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de voorbevochtiging wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="L23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M23" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N23" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O23" t="str">
-        <v>som</v>
+        <v>0.8</v>
       </c>
       <c r="P23" t="str">
-        <v>0</v>
+        <v>product</v>
       </c>
       <c r="Q23" t="str">
         <v>null</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2466,37 +2466,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F24" t="str">
-        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G24" t="str">
+        <v>Waswaterdebiet bevloeiing afwijking naar beneden &gt; 20% (S3 systeem)</v>
+      </c>
+      <c r="H24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <v>Onder minimum grenswaarde</v>
       </c>
-      <c r="I24" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
-      </c>
       <c r="J24" t="str">
-        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
+        <v>Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K24" t="str">
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)|Het waswaterdebiet van de bevloeiing wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+      </c>
+      <c r="L24" t="str">
         <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
-      <c r="L24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
-      </c>
       <c r="M24" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N24" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
+      </c>
+      <c r="O24" t="str">
         <v>0.8</v>
       </c>
-      <c r="O24" t="str">
+      <c r="P24" t="str">
         <v>product</v>
-      </c>
-      <c r="P24" t="str">
-        <v>null</v>
       </c>
       <c r="Q24" t="str">
         <v>null</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2555,40 +2555,40 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F25" t="str">
-        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G25" t="str">
+        <v>Drukval afwijking naar boven &gt; 50 Pa (S3 systeem)</v>
+      </c>
+      <c r="H25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H25" t="str">
-        <v>Onder minimum grenswaarde</v>
-      </c>
       <c r="I25" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="J25" t="str">
-        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K25" t="str">
-        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
+        <v>De drukval wijkt meer dan 50 Pa naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="L25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>&gt; 50 Pa + waarde technische fiche (afwijking &gt; 50 Pa)</v>
       </c>
       <c r="M25" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N25" t="str">
-        <v>0.9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="O25" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="P25" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="Q25" t="str">
-        <v>null</v>
+        <v>50</v>
       </c>
       <c r="R25" t="str">
         <v>null</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2644,40 +2644,40 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F26" t="str">
-        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G26" t="str">
+        <v>Zuurtegraad waswater &gt; 8,5 (S1 systeem)</v>
+      </c>
+      <c r="H26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H26" t="str">
-        <v>Onder minimum grenswaarde</v>
-      </c>
       <c r="I26" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="J26" t="str">
-        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5</v>
       </c>
       <c r="K26" t="str">
-        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De zuurtegraad van het waswater is groter dan 8,5|&gt; 8,5</v>
       </c>
       <c r="L26" t="str">
+        <v>&gt; 8,5</v>
+      </c>
+      <c r="M26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="M26" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
-      </c>
       <c r="N26" t="str">
-        <v>0.6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="O26" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="P26" t="str">
         <v>null</v>
       </c>
       <c r="Q26" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="R26" t="str">
         <v>null</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2733,40 +2733,40 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F27" t="str">
-        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G27" t="str">
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S1 systeem)</v>
+      </c>
+      <c r="H27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <v>Boven maximum grenswaarde</v>
       </c>
-      <c r="I27" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
-      </c>
       <c r="J27" t="str">
-        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K27" t="str">
-        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="L27" t="str">
+        <v>&gt; waarde technische fiche</v>
+      </c>
+      <c r="M27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="M27" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
-      </c>
       <c r="N27" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O27" t="str">
-        <v>product</v>
+        <v>null</v>
       </c>
       <c r="P27" t="str">
-        <v>1.4</v>
+        <v>som</v>
       </c>
       <c r="Q27" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R27" t="str">
         <v>null</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2822,37 +2822,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F28" t="str">
-        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G28" t="str">
+        <v>Waswaterdebiet afwijking naar beneden &gt; 20% (S1 systeem)</v>
+      </c>
+      <c r="H28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H28" t="str">
-        <v>Boven maximum grenswaarde</v>
-      </c>
       <c r="I28" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="J28" t="str">
-        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K28" t="str">
-        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
+        <v>Het waswaterdebiet wijkt meer dan 20% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="L28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>&lt; 0,8 x waarde technische fiche (afwijking &gt; 20%)</v>
       </c>
       <c r="M28" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N28" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="O28" t="str">
-        <v>som</v>
+        <v>0.8</v>
       </c>
       <c r="P28" t="str">
-        <v>1</v>
+        <v>product</v>
       </c>
       <c r="Q28" t="str">
         <v>null</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -2911,37 +2911,37 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F29" t="str">
-        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
+        <v>null</v>
       </c>
       <c r="G29" t="str">
+        <v>Spuiwaterdebiet afwijking naar beneden &gt; 10% (S1 systeem)</v>
+      </c>
+      <c r="H29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
-      <c r="H29" t="str">
-        <v>Boven maximum grenswaarde</v>
-      </c>
       <c r="I29" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="J29" t="str">
-        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K29" t="str">
-        <v>&gt; waarde technische fiche</v>
+        <v>Het spuiwaterdebiet wijkt meer dan 10% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="L29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>&lt; 0,9 x waarde technische fiche (afwijking &gt; 10%)</v>
       </c>
       <c r="M29" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N29" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="O29" t="str">
-        <v>som</v>
+        <v>0.9</v>
       </c>
       <c r="P29" t="str">
-        <v>0</v>
+        <v>product</v>
       </c>
       <c r="Q29" t="str">
         <v>null</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6</v>
       </c>
       <c r="B30" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
         <v>null</v>
@@ -2997,49 +2997,49 @@
         <v>null</v>
       </c>
       <c r="E30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F30" t="str">
-        <v>Biobedspoelwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="G30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>Drukval afwijking naar beneden &gt; 40% (S1 systeem)</v>
       </c>
       <c r="H30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="I30" t="str">
-        <v>null</v>
+        <v>Onder minimum grenswaarde</v>
       </c>
       <c r="J30" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K30" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar beneden af van de operationele waarde die op de technische fiche vermeld staat.|&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>&lt; 0,6 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N30" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="O30" t="str">
-        <v>null</v>
+        <v>0.6</v>
       </c>
       <c r="P30" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="R30" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>null</v>
       </c>
       <c r="S30" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="T30" t="str">
         <v>null</v>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7</v>
       </c>
       <c r="B31" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
         <v>null</v>
@@ -3086,49 +3086,49 @@
         <v>null</v>
       </c>
       <c r="E31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F31" t="str">
-        <v>Biobedspuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="G31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>Drukval afwijking naar boven &gt; 40% (S1 systeem)</v>
       </c>
       <c r="H31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="I31" t="str">
-        <v>null</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="J31" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K31" t="str">
-        <v>null</v>
+        <v>De drukval wijkt meer dan 40% naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="L31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>&gt; 1,4 x waarde technische fiche (afwijking &gt; 40%)</v>
       </c>
       <c r="M31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N31" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="O31" t="str">
         <v>null</v>
       </c>
       <c r="P31" t="str">
-        <v>null</v>
+        <v>product</v>
       </c>
       <c r="Q31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
+        <v>1.4</v>
       </c>
       <c r="R31" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Volume</v>
+        <v>null</v>
       </c>
       <c r="S31" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
+        <v>null</v>
       </c>
       <c r="T31" t="str">
         <v>null</v>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8</v>
       </c>
       <c r="B32" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
         <v>null</v>
@@ -3175,49 +3175,49 @@
         <v>null</v>
       </c>
       <c r="E32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F32" t="str">
-        <v>Drukval over het systeem</v>
+        <v>null</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>Zuurtegraad waswater afwijking naar boven &gt; 1 pH-eenheid (S2 systeem)</v>
       </c>
       <c r="H32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="I32" t="str">
-        <v>null</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="J32" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K32" t="str">
-        <v>null</v>
+        <v>De zuurtegraad van het waswater wijkt meer dan 1 pH-eenheid naar boven af van de operationele waarde die op de technische fiche vermeld staat.|&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="L32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>&gt; 1 pH + waarde technische fiche (afwijking &gt; 1pH)</v>
       </c>
       <c r="M32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N32" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="O32" t="str">
         <v>null</v>
       </c>
       <c r="P32" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="Q32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
+        <v>1</v>
       </c>
       <c r="R32" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
+        <v>null</v>
       </c>
       <c r="S32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
+        <v>null</v>
       </c>
       <c r="T32" t="str">
         <v>null</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
       </c>
       <c r="B33" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
         <v>null</v>
@@ -3264,46 +3264,46 @@
         <v>null</v>
       </c>
       <c r="E33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="F33" t="str">
-        <v>Elektriciteitsverbruik van de waswaterpomp(en)</v>
+        <v>null</v>
       </c>
       <c r="G33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>Geleidbaarheid waswater &gt; maximale waarde (S2 systeem)</v>
       </c>
       <c r="H33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="I33" t="str">
-        <v>null</v>
+        <v>Boven maximum grenswaarde</v>
       </c>
       <c r="J33" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.</v>
       </c>
       <c r="K33" t="str">
-        <v>null</v>
+        <v>De geleidbaarheid is groter dan de maximale operationele waarde die op de technische fiche vermeld staat.|&gt; waarde technische fiche</v>
       </c>
       <c r="L33" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>&gt; waarde technische fiche</v>
       </c>
       <c r="M33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N33" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O33" t="str">
         <v>null</v>
       </c>
       <c r="P33" t="str">
-        <v>null</v>
+        <v>som</v>
       </c>
       <c r="Q33" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R33" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Energy</v>
+        <v>null</v>
       </c>
       <c r="S33" t="str">
         <v>null</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3356,14 +3356,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F34" t="str">
-        <v>Geleidbaarheid van het waswater</v>
+        <v>null</v>
       </c>
       <c r="G34" t="str">
+        <v>Biobedspoelwaterproductie</v>
+      </c>
+      <c r="H34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H34" t="str">
-        <v>null</v>
-      </c>
       <c r="I34" t="str">
         <v>null</v>
       </c>
@@ -3374,10 +3374,10 @@
         <v>null</v>
       </c>
       <c r="L34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="M34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N34" t="str">
         <v>null</v>
@@ -3389,16 +3389,16 @@
         <v>null</v>
       </c>
       <c r="Q34" t="str">
+        <v>null</v>
+      </c>
+      <c r="R34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="R34" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
-      </c>
       <c r="S34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="T34" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="U34" t="str">
         <v>null</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3445,14 +3445,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F35" t="str">
-        <v>Spuiwaterproductie</v>
+        <v>null</v>
       </c>
       <c r="G35" t="str">
+        <v>Biobedspuiwaterproductie</v>
+      </c>
+      <c r="H35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H35" t="str">
-        <v>null</v>
-      </c>
       <c r="I35" t="str">
         <v>null</v>
       </c>
@@ -3463,10 +3463,10 @@
         <v>null</v>
       </c>
       <c r="L35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="M35" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N35" t="str">
         <v>null</v>
@@ -3478,16 +3478,16 @@
         <v>null</v>
       </c>
       <c r="Q35" t="str">
+        <v>null</v>
+      </c>
+      <c r="R35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
-      <c r="R35" t="str">
+      <c r="S35" t="str">
         <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
-      <c r="S35" t="str">
+      <c r="T35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
-      </c>
-      <c r="T35" t="str">
-        <v>null</v>
       </c>
       <c r="U35" t="str">
         <v>null</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3534,14 +3534,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F36" t="str">
-        <v>Stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="G36" t="str">
+        <v>Drukval over het systeem</v>
+      </c>
+      <c r="H36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H36" t="str">
-        <v>null</v>
-      </c>
       <c r="I36" t="str">
         <v>null</v>
       </c>
@@ -3552,11 +3552,11 @@
         <v>null</v>
       </c>
       <c r="L36" t="str">
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
-      <c r="M36" t="str">
-        <v>null</v>
-      </c>
       <c r="N36" t="str">
         <v>null</v>
       </c>
@@ -3567,16 +3567,16 @@
         <v>null</v>
       </c>
       <c r="Q36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
+        <v>null</v>
       </c>
       <c r="R36" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht</v>
       </c>
       <c r="S36" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VaporPressure</v>
       </c>
       <c r="T36" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0329</v>
       </c>
       <c r="U36" t="str">
         <v>null</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3623,14 +3623,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F37" t="str">
-        <v>SysteemStatus</v>
+        <v>null</v>
       </c>
       <c r="G37" t="str">
+        <v>Elektriciteitsverbruik van de waswaterpomp(en)</v>
+      </c>
+      <c r="H37" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H37" t="str">
-        <v>null</v>
-      </c>
       <c r="I37" t="str">
         <v>null</v>
       </c>
@@ -3641,10 +3641,10 @@
         <v>null</v>
       </c>
       <c r="L37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M37" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="N37" t="str">
         <v>null</v>
@@ -3656,16 +3656,16 @@
         <v>null</v>
       </c>
       <c r="Q37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
+        <v>null</v>
       </c>
       <c r="R37" t="str">
         <v>null</v>
       </c>
       <c r="S37" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Energy</v>
       </c>
       <c r="T37" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="U37" t="str">
         <v>null</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3712,14 +3712,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F38" t="str">
-        <v>Waswaterdebiet over het waspakket</v>
+        <v>null</v>
       </c>
       <c r="G38" t="str">
+        <v>Geleidbaarheid van het waswater</v>
+      </c>
+      <c r="H38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H38" t="str">
-        <v>null</v>
-      </c>
       <c r="I38" t="str">
         <v>null</v>
       </c>
@@ -3730,11 +3730,11 @@
         <v>null</v>
       </c>
       <c r="L38" t="str">
+        <v>null</v>
+      </c>
+      <c r="M38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
-      <c r="M38" t="str">
-        <v>null</v>
-      </c>
       <c r="N38" t="str">
         <v>null</v>
       </c>
@@ -3745,16 +3745,16 @@
         <v>null</v>
       </c>
       <c r="Q38" t="str">
+        <v>null</v>
+      </c>
+      <c r="R38" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
-      <c r="R38" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
-      </c>
       <c r="S38" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>http://qudt.org/vocab/quantitykind/Conductivity</v>
       </c>
       <c r="T38" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0010</v>
       </c>
       <c r="U38" t="str">
         <v>null</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3801,14 +3801,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F39" t="str">
-        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
+        <v>null</v>
       </c>
       <c r="G39" t="str">
+        <v>Spuiwaterproductie</v>
+      </c>
+      <c r="H39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H39" t="str">
-        <v>null</v>
-      </c>
       <c r="I39" t="str">
         <v>null</v>
       </c>
@@ -3819,10 +3819,10 @@
         <v>null</v>
       </c>
       <c r="L39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>null</v>
       </c>
       <c r="M39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="N39" t="str">
         <v>null</v>
@@ -3834,16 +3834,16 @@
         <v>null</v>
       </c>
       <c r="Q39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="R39" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater</v>
       </c>
       <c r="S39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>http://qudt.org/vocab/quantitykind/Volume</v>
       </c>
       <c r="T39" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0050</v>
       </c>
       <c r="U39" t="str">
         <v>null</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3890,14 +3890,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F40" t="str">
-        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
+        <v>null</v>
       </c>
       <c r="G40" t="str">
+        <v>Stalbezetting</v>
+      </c>
+      <c r="H40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H40" t="str">
-        <v>null</v>
-      </c>
       <c r="I40" t="str">
         <v>null</v>
       </c>
@@ -3908,10 +3908,10 @@
         <v>null</v>
       </c>
       <c r="L40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>null</v>
       </c>
       <c r="M40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N40" t="str">
         <v>null</v>
@@ -3923,19 +3923,19 @@
         <v>null</v>
       </c>
       <c r="Q40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="R40" t="str">
-        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal</v>
       </c>
       <c r="S40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
+        <v>null</v>
       </c>
       <c r="T40" t="str">
         <v>null</v>
       </c>
       <c r="U40" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="V40" t="str">
         <v>null</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
@@ -3979,14 +3979,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F41" t="str">
-        <v>Zuurtegraad van het waswater</v>
+        <v>null</v>
       </c>
       <c r="G41" t="str">
+        <v>SysteemStatus</v>
+      </c>
+      <c r="H41" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
-      <c r="H41" t="str">
-        <v>null</v>
-      </c>
       <c r="I41" t="str">
         <v>null</v>
       </c>
@@ -3997,10 +3997,10 @@
         <v>null</v>
       </c>
       <c r="L41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N41" t="str">
         <v>null</v>
@@ -4012,19 +4012,19 @@
         <v>null</v>
       </c>
       <c r="Q41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>null</v>
       </c>
       <c r="R41" t="str">
-        <v>http://qudt.org/vocab/quantitykind/Acidity</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem</v>
       </c>
       <c r="S41" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
+        <v>null</v>
       </c>
       <c r="T41" t="str">
         <v>null</v>
       </c>
       <c r="U41" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="V41" t="str">
         <v>null</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="B42" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C42" t="str">
         <v>null</v>
@@ -4065,16 +4065,16 @@
         <v>null</v>
       </c>
       <c r="E42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F42" t="str">
-        <v>Zuurtegraad waswater S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>Waswaterdebiet over het waspakket</v>
       </c>
       <c r="H42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="I42" t="str">
         <v>null</v>
@@ -4086,37 +4086,37 @@
         <v>null</v>
       </c>
       <c r="L42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="N42" t="str">
-        <v>8.5</v>
+        <v>null</v>
       </c>
       <c r="O42" t="str">
         <v>null</v>
       </c>
       <c r="P42" t="str">
-        <v>6</v>
+        <v>null</v>
       </c>
       <c r="Q42" t="str">
         <v>null</v>
       </c>
       <c r="R42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="S42" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="T42" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="U42" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="V42" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="W42" t="str">
         <v>null</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="B43" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C43" t="str">
         <v>null</v>
@@ -4154,16 +4154,16 @@
         <v>null</v>
       </c>
       <c r="E43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F43" t="str">
-        <v>Drukval S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>Waswaterdebiet van de bevloeiing van het vulmateriaal</v>
       </c>
       <c r="H43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="I43" t="str">
         <v>null</v>
@@ -4175,37 +4175,37 @@
         <v>null</v>
       </c>
       <c r="L43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N43" t="str">
-        <v>500</v>
+        <v>null</v>
       </c>
       <c r="O43" t="str">
         <v>null</v>
       </c>
       <c r="P43" t="str">
-        <v>0</v>
+        <v>null</v>
       </c>
       <c r="Q43" t="str">
         <v>null</v>
       </c>
       <c r="R43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="S43" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="T43" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="U43" t="str">
-        <v>exact</v>
+        <v>null</v>
       </c>
       <c r="V43" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="W43" t="str">
         <v>null</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="B44" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C44" t="str">
         <v>null</v>
@@ -4243,16 +4243,16 @@
         <v>null</v>
       </c>
       <c r="E44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F44" t="str">
-        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>Waswaterdebiet van de voorbevochtiging van de ingaande stallucht</v>
       </c>
       <c r="H44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="I44" t="str">
         <v>null</v>
@@ -4264,11 +4264,11 @@
         <v>null</v>
       </c>
       <c r="L44" t="str">
+        <v>null</v>
+      </c>
+      <c r="M44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="M44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
-      </c>
       <c r="N44" t="str">
         <v>null</v>
       </c>
@@ -4282,19 +4282,19 @@
         <v>null</v>
       </c>
       <c r="R44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="S44" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/VolumeFlowRate</v>
       </c>
       <c r="T44" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0053</v>
       </c>
       <c r="U44" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="V44" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="W44" t="str">
         <v>null</v>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="B45" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/ns/ssn/Property</v>
       </c>
       <c r="C45" t="str">
         <v>null</v>
@@ -4332,16 +4332,16 @@
         <v>null</v>
       </c>
       <c r="E45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="F45" t="str">
-        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>Zuurtegraad van het waswater</v>
       </c>
       <c r="H45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="I45" t="str">
         <v>null</v>
@@ -4353,10 +4353,10 @@
         <v>null</v>
       </c>
       <c r="L45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>null</v>
       </c>
       <c r="M45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N45" t="str">
         <v>null</v>
@@ -4371,19 +4371,19 @@
         <v>null</v>
       </c>
       <c r="R45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
       <c r="S45" t="str">
-        <v>null</v>
+        <v>http://qudt.org/vocab/quantitykind/Acidity</v>
       </c>
       <c r="T45" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/fysico-chemisch/0076</v>
       </c>
       <c r="U45" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="V45" t="str">
-        <v>true</v>
+        <v>null</v>
       </c>
       <c r="W45" t="str">
         <v>null</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4424,14 +4424,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F46" t="str">
-        <v>Biobedspuiwaterproductie S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="G46" t="str">
+        <v>Zuurtegraad waswater S1 systeem</v>
+      </c>
+      <c r="H46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H46" t="str">
-        <v>null</v>
-      </c>
       <c r="I46" t="str">
         <v>null</v>
       </c>
@@ -4442,22 +4442,22 @@
         <v>null</v>
       </c>
       <c r="L46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>null</v>
       </c>
       <c r="M46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N46" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="O46" t="str">
-        <v>null</v>
+        <v>8.5</v>
       </c>
       <c r="P46" t="str">
         <v>null</v>
       </c>
       <c r="Q46" t="str">
-        <v>null</v>
+        <v>6</v>
       </c>
       <c r="R46" t="str">
         <v>null</v>
@@ -4469,13 +4469,13 @@
         <v>null</v>
       </c>
       <c r="U46" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="V46" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="W46" t="str">
         <v>true</v>
-      </c>
-      <c r="W46" t="str">
-        <v>null</v>
       </c>
       <c r="X46" t="str">
         <v>null</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4513,14 +4513,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F47" t="str">
-        <v>Biobedspoelwaterproductie S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="G47" t="str">
+        <v>Drukval S2 systeem</v>
+      </c>
+      <c r="H47" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H47" t="str">
-        <v>null</v>
-      </c>
       <c r="I47" t="str">
         <v>null</v>
       </c>
@@ -4531,22 +4531,22 @@
         <v>null</v>
       </c>
       <c r="L47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>null</v>
       </c>
       <c r="M47" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N47" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="O47" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="P47" t="str">
         <v>null</v>
       </c>
       <c r="Q47" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R47" t="str">
         <v>null</v>
@@ -4558,13 +4558,13 @@
         <v>null</v>
       </c>
       <c r="U47" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="V47" t="str">
+        <v>exact</v>
+      </c>
+      <c r="W47" t="str">
         <v>true</v>
-      </c>
-      <c r="W47" t="str">
-        <v>null</v>
       </c>
       <c r="X47" t="str">
         <v>null</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4602,14 +4602,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F48" t="str">
-        <v>Drukval S3 systeem</v>
+        <v>null</v>
       </c>
       <c r="G48" t="str">
+        <v>Waswaterdebiet voorbevochtiging S3 systeem</v>
+      </c>
+      <c r="H48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H48" t="str">
-        <v>null</v>
-      </c>
       <c r="I48" t="str">
         <v>null</v>
       </c>
@@ -4620,23 +4620,23 @@
         <v>null</v>
       </c>
       <c r="L48" t="str">
+        <v>null</v>
+      </c>
+      <c r="M48" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
-      <c r="M48" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
-      </c>
       <c r="N48" t="str">
-        <v>500</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging</v>
       </c>
       <c r="O48" t="str">
         <v>null</v>
       </c>
       <c r="P48" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q48" t="str">
         <v>0</v>
       </c>
-      <c r="Q48" t="str">
-        <v>null</v>
-      </c>
       <c r="R48" t="str">
         <v>null</v>
       </c>
@@ -4647,13 +4647,13 @@
         <v>null</v>
       </c>
       <c r="U48" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="V48" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="W48" t="str">
         <v>true</v>
-      </c>
-      <c r="W48" t="str">
-        <v>null</v>
       </c>
       <c r="X48" t="str">
         <v>null</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4691,14 +4691,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F49" t="str">
-        <v>Geleidbaarheid waswater Lely Sphere systeem</v>
+        <v>null</v>
       </c>
       <c r="G49" t="str">
+        <v>Waswaterdebiet bevloeiing S3 systeem</v>
+      </c>
+      <c r="H49" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H49" t="str">
-        <v>null</v>
-      </c>
       <c r="I49" t="str">
         <v>null</v>
       </c>
@@ -4709,13 +4709,13 @@
         <v>null</v>
       </c>
       <c r="L49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="M49" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N49" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing</v>
       </c>
       <c r="O49" t="str">
         <v>null</v>
@@ -4724,7 +4724,7 @@
         <v>null</v>
       </c>
       <c r="Q49" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R49" t="str">
         <v>null</v>
@@ -4736,13 +4736,13 @@
         <v>null</v>
       </c>
       <c r="U49" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="V49" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="W49" t="str">
         <v>true</v>
-      </c>
-      <c r="W49" t="str">
-        <v>null</v>
       </c>
       <c r="X49" t="str">
         <v>null</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4780,14 +4780,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F50" t="str">
-        <v>Waswaterdebiet Lely Sphere systeem</v>
+        <v>null</v>
       </c>
       <c r="G50" t="str">
+        <v>Biobedspuiwaterproductie S3 systeem</v>
+      </c>
+      <c r="H50" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H50" t="str">
-        <v>null</v>
-      </c>
       <c r="I50" t="str">
         <v>null</v>
       </c>
@@ -4798,13 +4798,13 @@
         <v>null</v>
       </c>
       <c r="L50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="M50" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N50" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie</v>
       </c>
       <c r="O50" t="str">
         <v>null</v>
@@ -4813,7 +4813,7 @@
         <v>null</v>
       </c>
       <c r="Q50" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R50" t="str">
         <v>null</v>
@@ -4825,13 +4825,13 @@
         <v>null</v>
       </c>
       <c r="U50" t="str">
+        <v>null</v>
+      </c>
+      <c r="V50" t="str">
         <v>minimum</v>
       </c>
-      <c r="V50" t="str">
+      <c r="W50" t="str">
         <v>true</v>
-      </c>
-      <c r="W50" t="str">
-        <v>null</v>
       </c>
       <c r="X50" t="str">
         <v>null</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4869,14 +4869,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F51" t="str">
-        <v>Spuiwaterdebiet Lely Sphere systeem</v>
+        <v>null</v>
       </c>
       <c r="G51" t="str">
+        <v>Biobedspoelwaterproductie S3 systeem</v>
+      </c>
+      <c r="H51" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H51" t="str">
-        <v>null</v>
-      </c>
       <c r="I51" t="str">
         <v>null</v>
       </c>
@@ -4887,13 +4887,13 @@
         <v>null</v>
       </c>
       <c r="L51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="M51" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N51" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie</v>
       </c>
       <c r="O51" t="str">
         <v>null</v>
@@ -4902,7 +4902,7 @@
         <v>null</v>
       </c>
       <c r="Q51" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R51" t="str">
         <v>null</v>
@@ -4914,13 +4914,13 @@
         <v>null</v>
       </c>
       <c r="U51" t="str">
+        <v>null</v>
+      </c>
+      <c r="V51" t="str">
         <v>minimum</v>
       </c>
-      <c r="V51" t="str">
+      <c r="W51" t="str">
         <v>true</v>
-      </c>
-      <c r="W51" t="str">
-        <v>null</v>
       </c>
       <c r="X51" t="str">
         <v>null</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -4958,14 +4958,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F52" t="str">
-        <v>Elektriciteitsverbruik van de waswaterpomp(en) Lely Sphere systeem</v>
+        <v>null</v>
       </c>
       <c r="G52" t="str">
+        <v>Drukval S3 systeem</v>
+      </c>
+      <c r="H52" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H52" t="str">
-        <v>null</v>
-      </c>
       <c r="I52" t="str">
         <v>null</v>
       </c>
@@ -4976,22 +4976,22 @@
         <v>null</v>
       </c>
       <c r="L52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="M52" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="N52" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="O52" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="P52" t="str">
         <v>null</v>
       </c>
       <c r="Q52" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R52" t="str">
         <v>null</v>
@@ -5003,13 +5003,13 @@
         <v>null</v>
       </c>
       <c r="U52" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="V52" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="W52" t="str">
         <v>true</v>
-      </c>
-      <c r="W52" t="str">
-        <v>null</v>
       </c>
       <c r="X52" t="str">
         <v>null</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5047,14 +5047,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F53" t="str">
-        <v>Geleidbaarheid waswater S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="G53" t="str">
+        <v>Geleidbaarheid waswater Lely Sphere systeem</v>
+      </c>
+      <c r="H53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H53" t="str">
-        <v>null</v>
-      </c>
       <c r="I53" t="str">
         <v>null</v>
       </c>
@@ -5065,23 +5065,23 @@
         <v>null</v>
       </c>
       <c r="L53" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M53" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+      </c>
+      <c r="N53" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
-      <c r="N53" t="str">
-        <v>30</v>
-      </c>
       <c r="O53" t="str">
         <v>null</v>
       </c>
       <c r="P53" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q53" t="str">
         <v>0</v>
       </c>
-      <c r="Q53" t="str">
-        <v>null</v>
-      </c>
       <c r="R53" t="str">
         <v>null</v>
       </c>
@@ -5092,13 +5092,13 @@
         <v>null</v>
       </c>
       <c r="U53" t="str">
+        <v>null</v>
+      </c>
+      <c r="V53" t="str">
         <v>maximum</v>
       </c>
-      <c r="V53" t="str">
+      <c r="W53" t="str">
         <v>true</v>
-      </c>
-      <c r="W53" t="str">
-        <v>null</v>
       </c>
       <c r="X53" t="str">
         <v>null</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5136,14 +5136,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F54" t="str">
-        <v>Waswaterdebiet S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="G54" t="str">
+        <v>Waswaterdebiet Lely Sphere systeem</v>
+      </c>
+      <c r="H54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H54" t="str">
-        <v>null</v>
-      </c>
       <c r="I54" t="str">
         <v>null</v>
       </c>
@@ -5154,14 +5154,14 @@
         <v>null</v>
       </c>
       <c r="L54" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M54" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+      </c>
+      <c r="N54" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
-      <c r="N54" t="str">
-        <v>null</v>
-      </c>
       <c r="O54" t="str">
         <v>null</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>null</v>
       </c>
       <c r="Q54" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R54" t="str">
         <v>null</v>
@@ -5181,13 +5181,13 @@
         <v>null</v>
       </c>
       <c r="U54" t="str">
+        <v>null</v>
+      </c>
+      <c r="V54" t="str">
         <v>minimum</v>
       </c>
-      <c r="V54" t="str">
+      <c r="W54" t="str">
         <v>true</v>
-      </c>
-      <c r="W54" t="str">
-        <v>null</v>
       </c>
       <c r="X54" t="str">
         <v>null</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5225,14 +5225,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F55" t="str">
-        <v>Spuiwaterdebiet S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="G55" t="str">
+        <v>Spuiwaterdebiet Lely Sphere systeem</v>
+      </c>
+      <c r="H55" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H55" t="str">
-        <v>null</v>
-      </c>
       <c r="I55" t="str">
         <v>null</v>
       </c>
@@ -5243,14 +5243,14 @@
         <v>null</v>
       </c>
       <c r="L55" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M55" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+      </c>
+      <c r="N55" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
-      <c r="N55" t="str">
-        <v>null</v>
-      </c>
       <c r="O55" t="str">
         <v>null</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>null</v>
       </c>
       <c r="Q55" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R55" t="str">
         <v>null</v>
@@ -5270,13 +5270,13 @@
         <v>null</v>
       </c>
       <c r="U55" t="str">
+        <v>null</v>
+      </c>
+      <c r="V55" t="str">
         <v>minimum</v>
       </c>
-      <c r="V55" t="str">
+      <c r="W55" t="str">
         <v>true</v>
-      </c>
-      <c r="W55" t="str">
-        <v>null</v>
       </c>
       <c r="X55" t="str">
         <v>null</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5314,14 +5314,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F56" t="str">
-        <v>Drukval S1 systeem</v>
+        <v>null</v>
       </c>
       <c r="G56" t="str">
+        <v>Elektriciteitsverbruik van de waswaterpomp(en) Lely Sphere systeem</v>
+      </c>
+      <c r="H56" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H56" t="str">
-        <v>null</v>
-      </c>
       <c r="I56" t="str">
         <v>null</v>
       </c>
@@ -5332,23 +5332,23 @@
         <v>null</v>
       </c>
       <c r="L56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>null</v>
       </c>
       <c r="M56" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="N56" t="str">
-        <v>500</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
       </c>
       <c r="O56" t="str">
         <v>null</v>
       </c>
       <c r="P56" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q56" t="str">
         <v>0</v>
       </c>
-      <c r="Q56" t="str">
-        <v>null</v>
-      </c>
       <c r="R56" t="str">
         <v>null</v>
       </c>
@@ -5359,13 +5359,13 @@
         <v>null</v>
       </c>
       <c r="U56" t="str">
-        <v>exact</v>
+        <v>null</v>
       </c>
       <c r="V56" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="W56" t="str">
         <v>true</v>
-      </c>
-      <c r="W56" t="str">
-        <v>null</v>
       </c>
       <c r="X56" t="str">
         <v>null</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5403,14 +5403,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F57" t="str">
-        <v>Zuurtegraad waswater S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="G57" t="str">
+        <v>Geleidbaarheid waswater S1 systeem</v>
+      </c>
+      <c r="H57" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H57" t="str">
-        <v>null</v>
-      </c>
       <c r="I57" t="str">
         <v>null</v>
       </c>
@@ -5421,23 +5421,23 @@
         <v>null</v>
       </c>
       <c r="L57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M57" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N57" t="str">
-        <v>14</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O57" t="str">
-        <v>null</v>
+        <v>30</v>
       </c>
       <c r="P57" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q57" t="str">
         <v>0</v>
       </c>
-      <c r="Q57" t="str">
-        <v>null</v>
-      </c>
       <c r="R57" t="str">
         <v>null</v>
       </c>
@@ -5448,13 +5448,13 @@
         <v>null</v>
       </c>
       <c r="U57" t="str">
+        <v>null</v>
+      </c>
+      <c r="V57" t="str">
         <v>maximum</v>
       </c>
-      <c r="V57" t="str">
+      <c r="W57" t="str">
         <v>true</v>
-      </c>
-      <c r="W57" t="str">
-        <v>null</v>
       </c>
       <c r="X57" t="str">
         <v>null</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5492,14 +5492,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F58" t="str">
-        <v>Geleidbaarheid waswater S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="G58" t="str">
+        <v>Waswaterdebiet S1 systeem</v>
+      </c>
+      <c r="H58" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H58" t="str">
-        <v>null</v>
-      </c>
       <c r="I58" t="str">
         <v>null</v>
       </c>
@@ -5510,23 +5510,23 @@
         <v>null</v>
       </c>
       <c r="L58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M58" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N58" t="str">
-        <v>500</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="O58" t="str">
         <v>null</v>
       </c>
       <c r="P58" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q58" t="str">
         <v>0</v>
       </c>
-      <c r="Q58" t="str">
-        <v>null</v>
-      </c>
       <c r="R58" t="str">
         <v>null</v>
       </c>
@@ -5537,13 +5537,13 @@
         <v>null</v>
       </c>
       <c r="U58" t="str">
-        <v>maximum</v>
+        <v>null</v>
       </c>
       <c r="V58" t="str">
+        <v>minimum</v>
+      </c>
+      <c r="W58" t="str">
         <v>true</v>
-      </c>
-      <c r="W58" t="str">
-        <v>null</v>
       </c>
       <c r="X58" t="str">
         <v>null</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5581,14 +5581,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F59" t="str">
-        <v>Waswaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="G59" t="str">
+        <v>Spuiwaterdebiet S1 systeem</v>
+      </c>
+      <c r="H59" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H59" t="str">
-        <v>null</v>
-      </c>
       <c r="I59" t="str">
         <v>null</v>
       </c>
@@ -5599,13 +5599,13 @@
         <v>null</v>
       </c>
       <c r="L59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M59" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N59" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="O59" t="str">
         <v>null</v>
@@ -5614,7 +5614,7 @@
         <v>null</v>
       </c>
       <c r="Q59" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R59" t="str">
         <v>null</v>
@@ -5626,13 +5626,13 @@
         <v>null</v>
       </c>
       <c r="U59" t="str">
+        <v>null</v>
+      </c>
+      <c r="V59" t="str">
         <v>minimum</v>
       </c>
-      <c r="V59" t="str">
+      <c r="W59" t="str">
         <v>true</v>
-      </c>
-      <c r="W59" t="str">
-        <v>null</v>
       </c>
       <c r="X59" t="str">
         <v>null</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5670,14 +5670,14 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F60" t="str">
-        <v>Spuiwaterdebiet S2 systeem</v>
+        <v>null</v>
       </c>
       <c r="G60" t="str">
+        <v>Drukval S1 systeem</v>
+      </c>
+      <c r="H60" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
-      <c r="H60" t="str">
-        <v>null</v>
-      </c>
       <c r="I60" t="str">
         <v>null</v>
       </c>
@@ -5688,22 +5688,22 @@
         <v>null</v>
       </c>
       <c r="L60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>null</v>
       </c>
       <c r="M60" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="N60" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem</v>
       </c>
       <c r="O60" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="P60" t="str">
         <v>null</v>
       </c>
       <c r="Q60" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R60" t="str">
         <v>null</v>
@@ -5715,13 +5715,13 @@
         <v>null</v>
       </c>
       <c r="U60" t="str">
-        <v>minimum</v>
+        <v>null</v>
       </c>
       <c r="V60" t="str">
+        <v>exact</v>
+      </c>
+      <c r="W60" t="str">
         <v>true</v>
-      </c>
-      <c r="W60" t="str">
-        <v>null</v>
       </c>
       <c r="X60" t="str">
         <v>null</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5756,16 +5756,16 @@
         <v>null</v>
       </c>
       <c r="E61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F61" t="str">
-        <v>Stal in gebruik, dieren aanwezig.</v>
+        <v>null</v>
       </c>
       <c r="G61" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>Zuurtegraad waswater S2 systeem</v>
       </c>
       <c r="H61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="I61" t="str">
         <v>null</v>
@@ -5780,19 +5780,19 @@
         <v>null</v>
       </c>
       <c r="M61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N61" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater</v>
       </c>
       <c r="O61" t="str">
-        <v>null</v>
+        <v>14</v>
       </c>
       <c r="P61" t="str">
         <v>null</v>
       </c>
       <c r="Q61" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R61" t="str">
         <v>null</v>
@@ -5807,10 +5807,10 @@
         <v>null</v>
       </c>
       <c r="V61" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="W61" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="X61" t="str">
         <v>null</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5845,16 +5845,16 @@
         <v>null</v>
       </c>
       <c r="E62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F62" t="str">
-        <v>Lege stal</v>
+        <v>null</v>
       </c>
       <c r="G62" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>Geleidbaarheid waswater S2 systeem</v>
       </c>
       <c r="H62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="I62" t="str">
         <v>null</v>
@@ -5869,19 +5869,19 @@
         <v>null</v>
       </c>
       <c r="M62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N62" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater</v>
       </c>
       <c r="O62" t="str">
-        <v>null</v>
+        <v>500</v>
       </c>
       <c r="P62" t="str">
         <v>null</v>
       </c>
       <c r="Q62" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R62" t="str">
         <v>null</v>
@@ -5896,10 +5896,10 @@
         <v>null</v>
       </c>
       <c r="V62" t="str">
-        <v>null</v>
+        <v>maximum</v>
       </c>
       <c r="W62" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="X62" t="str">
         <v>null</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -5934,16 +5934,16 @@
         <v>null</v>
       </c>
       <c r="E63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F63" t="str">
-        <v>Gereinigd</v>
+        <v>null</v>
       </c>
       <c r="G63" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>Waswaterdebiet S2 systeem</v>
       </c>
       <c r="H63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="I63" t="str">
         <v>null</v>
@@ -5958,10 +5958,10 @@
         <v>null</v>
       </c>
       <c r="M63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N63" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet</v>
       </c>
       <c r="O63" t="str">
         <v>null</v>
@@ -5970,7 +5970,7 @@
         <v>null</v>
       </c>
       <c r="Q63" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R63" t="str">
         <v>null</v>
@@ -5985,10 +5985,10 @@
         <v>null</v>
       </c>
       <c r="V63" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="W63" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="X63" t="str">
         <v>null</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6023,16 +6023,16 @@
         <v>null</v>
       </c>
       <c r="E64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="F64" t="str">
-        <v>In onderhoud</v>
+        <v>null</v>
       </c>
       <c r="G64" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>Spuiwaterdebiet S2 systeem</v>
       </c>
       <c r="H64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="I64" t="str">
         <v>null</v>
@@ -6047,10 +6047,10 @@
         <v>null</v>
       </c>
       <c r="M64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="N64" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie</v>
       </c>
       <c r="O64" t="str">
         <v>null</v>
@@ -6059,7 +6059,7 @@
         <v>null</v>
       </c>
       <c r="Q64" t="str">
-        <v>null</v>
+        <v>0</v>
       </c>
       <c r="R64" t="str">
         <v>null</v>
@@ -6074,10 +6074,10 @@
         <v>null</v>
       </c>
       <c r="V64" t="str">
-        <v>null</v>
+        <v>minimum</v>
       </c>
       <c r="W64" t="str">
-        <v>null</v>
+        <v>true</v>
       </c>
       <c r="X64" t="str">
         <v>null</v>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6112,16 +6112,16 @@
         <v>null</v>
       </c>
       <c r="E65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="F65" t="str">
-        <v>Operationeel</v>
+        <v>null</v>
       </c>
       <c r="G65" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>Stal in gebruik, dieren aanwezig.</v>
       </c>
       <c r="H65" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="I65" t="str">
         <v>null</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6201,16 +6201,16 @@
         <v>null</v>
       </c>
       <c r="E66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="F66" t="str">
-        <v>Storing</v>
+        <v>null</v>
       </c>
       <c r="G66" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>Lege stal</v>
       </c>
       <c r="H66" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="I66" t="str">
         <v>null</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6290,16 +6290,16 @@
         <v>null</v>
       </c>
       <c r="E67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F67" t="str">
-        <v>Lely Sphere</v>
+        <v>null</v>
       </c>
       <c r="G67" t="str">
-        <v>null</v>
+        <v>Gereinigd</v>
       </c>
       <c r="H67" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="I67" t="str">
         <v>null</v>
@@ -6314,7 +6314,7 @@
         <v>null</v>
       </c>
       <c r="M67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
+        <v>null</v>
       </c>
       <c r="N67" t="str">
         <v>null</v>
@@ -6344,16 +6344,16 @@
         <v>null</v>
       </c>
       <c r="W67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y67" t="str">
-        <v>Lelysphere</v>
+        <v>null</v>
       </c>
       <c r="Z67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA67" t="str">
         <v>null</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6379,16 +6379,16 @@
         <v>null</v>
       </c>
       <c r="E68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F68" t="str">
-        <v>Luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="G68" t="str">
-        <v>null</v>
+        <v>In onderhoud</v>
       </c>
       <c r="H68" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="I68" t="str">
         <v>null</v>
@@ -6433,22 +6433,22 @@
         <v>null</v>
       </c>
       <c r="W68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="X68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y68" t="str">
         <v>null</v>
       </c>
       <c r="Z68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="AB68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="AC68" t="str">
         <v>null</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6468,16 +6468,16 @@
         <v>null</v>
       </c>
       <c r="E69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F69" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="G69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>Operationeel</v>
       </c>
       <c r="H69" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="I69" t="str">
         <v>null</v>
@@ -6531,13 +6531,13 @@
         <v>null</v>
       </c>
       <c r="Z69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="AA69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="AB69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="AC69" t="str">
         <v>null</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6557,16 +6557,16 @@
         <v>null</v>
       </c>
       <c r="E70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F70" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="G70" t="str">
-        <v>null</v>
+        <v>Storing</v>
       </c>
       <c r="H70" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="I70" t="str">
         <v>null</v>
@@ -6581,7 +6581,7 @@
         <v>null</v>
       </c>
       <c r="M70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="N70" t="str">
         <v>null</v>
@@ -6611,16 +6611,16 @@
         <v>null</v>
       </c>
       <c r="W70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y70" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="Z70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA70" t="str">
         <v>null</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/enkelvoudig</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6646,16 +6646,16 @@
         <v>null</v>
       </c>
       <c r="E71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
       </c>
       <c r="F71" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="G71" t="str">
-        <v>null</v>
+        <v>Enkelvoudige opstelling</v>
       </c>
       <c r="H71" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
       </c>
       <c r="I71" t="str">
         <v>null</v>
@@ -6670,7 +6670,7 @@
         <v>null</v>
       </c>
       <c r="M71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="N71" t="str">
         <v>null</v>
@@ -6700,16 +6700,16 @@
         <v>null</v>
       </c>
       <c r="W71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="X71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y71" t="str">
-        <v>S2</v>
+        <v>null</v>
       </c>
       <c r="Z71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA71" t="str">
         <v>null</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/gecombineerd</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6735,16 +6735,16 @@
         <v>null</v>
       </c>
       <c r="E72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
       </c>
       <c r="F72" t="str">
-        <v>Biobed</v>
+        <v>null</v>
       </c>
       <c r="G72" t="str">
-        <v>null</v>
+        <v>Gecombineerde opstelling</v>
       </c>
       <c r="H72" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
       </c>
       <c r="I72" t="str">
         <v>null</v>
@@ -6759,7 +6759,7 @@
         <v>null</v>
       </c>
       <c r="M72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="N72" t="str">
         <v>null</v>
@@ -6789,16 +6789,16 @@
         <v>null</v>
       </c>
       <c r="W72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="X72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Y72" t="str">
-        <v>S3</v>
+        <v>null</v>
       </c>
       <c r="Z72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA72" t="str">
         <v>null</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6821,25 +6821,25 @@
         <v>null</v>
       </c>
       <c r="D73" t="str">
-        <v>VLAREM klasse 1</v>
+        <v>null</v>
       </c>
       <c r="E73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F73" t="str">
-        <v>Klasse 1</v>
+        <v>Lelysphere</v>
       </c>
       <c r="G73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>Lely Sphere</v>
       </c>
       <c r="H73" t="str">
         <v>null</v>
       </c>
       <c r="I73" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="J73" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="K73" t="str">
         <v>null</v>
@@ -6851,7 +6851,7 @@
         <v>null</v>
       </c>
       <c r="N73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
       </c>
       <c r="O73" t="str">
         <v>null</v>
@@ -6881,13 +6881,13 @@
         <v>null</v>
       </c>
       <c r="X73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Y73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA73" t="str">
         <v>null</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6910,25 +6910,25 @@
         <v>null</v>
       </c>
       <c r="D74" t="str">
-        <v>VLAREM klasse 2</v>
+        <v>null</v>
       </c>
       <c r="E74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F74" t="str">
-        <v>Klasse 2</v>
+        <v>null</v>
       </c>
       <c r="G74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="H74" t="str">
         <v>null</v>
       </c>
       <c r="I74" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>null</v>
       </c>
       <c r="J74" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>null</v>
       </c>
       <c r="K74" t="str">
         <v>null</v>
@@ -6970,19 +6970,19 @@
         <v>null</v>
       </c>
       <c r="X74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="AB74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="AC74" t="str">
         <v>null</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6999,25 +6999,25 @@
         <v>null</v>
       </c>
       <c r="D75" t="str">
-        <v>VLAREM klasse 3</v>
+        <v>null</v>
       </c>
       <c r="E75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F75" t="str">
-        <v>Klasse 3</v>
+        <v>null</v>
       </c>
       <c r="G75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="H75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="I75" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>null</v>
       </c>
       <c r="J75" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>null</v>
       </c>
       <c r="K75" t="str">
         <v>null</v>
@@ -7065,13 +7065,13 @@
         <v>null</v>
       </c>
       <c r="Z75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AA75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AB75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AC75" t="str">
         <v>null</v>
@@ -7079,10 +7079,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="B76" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
         <v>null</v>
@@ -7091,13 +7091,13 @@
         <v>null</v>
       </c>
       <c r="E76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F76" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>S1</v>
       </c>
       <c r="G76" t="str">
-        <v>null</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="H76" t="str">
         <v>null</v>
@@ -7118,7 +7118,7 @@
         <v>null</v>
       </c>
       <c r="N76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="O76" t="str">
         <v>null</v>
@@ -7148,13 +7148,13 @@
         <v>null</v>
       </c>
       <c r="X76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Y76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA76" t="str">
         <v>null</v>
@@ -7163,30 +7163,30 @@
         <v>null</v>
       </c>
       <c r="AC76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>null</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="B77" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
         <v>null</v>
       </c>
       <c r="D77" t="str">
-        <v>Ranges</v>
+        <v>null</v>
       </c>
       <c r="E77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F77" t="str">
-        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+        <v>S2</v>
       </c>
       <c r="G77" t="str">
-        <v>null</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="H77" t="str">
         <v>null</v>
@@ -7207,7 +7207,7 @@
         <v>null</v>
       </c>
       <c r="N77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="O77" t="str">
         <v>null</v>
@@ -7237,13 +7237,13 @@
         <v>null</v>
       </c>
       <c r="X77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Y77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z77" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA77" t="str">
         <v>null</v>
@@ -7252,15 +7252,15 @@
         <v>null</v>
       </c>
       <c r="AC77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
+        <v>null</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="B78" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
         <v>null</v>
@@ -7269,13 +7269,13 @@
         <v>null</v>
       </c>
       <c r="E78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F78" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>S3</v>
       </c>
       <c r="G78" t="str">
-        <v>null</v>
+        <v>Biobed</v>
       </c>
       <c r="H78" t="str">
         <v>null</v>
@@ -7296,7 +7296,7 @@
         <v>null</v>
       </c>
       <c r="N78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="O78" t="str">
         <v>null</v>
@@ -7326,13 +7326,13 @@
         <v>null</v>
       </c>
       <c r="X78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z78" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA78" t="str">
         <v>null</v>
@@ -7341,42 +7341,42 @@
         <v>null</v>
       </c>
       <c r="AC78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
       </c>
       <c r="B79" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
         <v>null</v>
       </c>
       <c r="D79" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 1</v>
       </c>
       <c r="E79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F79" t="str">
-        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+        <v>null</v>
       </c>
       <c r="G79" t="str">
-        <v>null</v>
+        <v>Klasse 1</v>
       </c>
       <c r="H79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="I79" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="J79" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="K79" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="L79" t="str">
         <v>null</v>
@@ -7430,42 +7430,42 @@
         <v>null</v>
       </c>
       <c r="AC79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
+        <v>null</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
       </c>
       <c r="B80" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
         <v>null</v>
       </c>
       <c r="D80" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 2</v>
       </c>
       <c r="E80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F80" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>null</v>
       </c>
       <c r="G80" t="str">
-        <v>null</v>
+        <v>Klasse 2</v>
       </c>
       <c r="H80" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="I80" t="str">
         <v>null</v>
       </c>
       <c r="J80" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="K80" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="L80" t="str">
         <v>null</v>
@@ -7519,42 +7519,42 @@
         <v>null</v>
       </c>
       <c r="AC80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
+        <v>null</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
       <c r="B81" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
         <v>null</v>
       </c>
       <c r="D81" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 3</v>
       </c>
       <c r="E81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F81" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>null</v>
       </c>
       <c r="G81" t="str">
-        <v>null</v>
+        <v>Klasse 3</v>
       </c>
       <c r="H81" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="I81" t="str">
         <v>null</v>
       </c>
       <c r="J81" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="K81" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="L81" t="str">
         <v>null</v>
@@ -7608,12 +7608,12 @@
         <v>null</v>
       </c>
       <c r="AC81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+        <v>null</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -7628,10 +7628,10 @@
         <v>null</v>
       </c>
       <c r="F82" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="G82" t="str">
-        <v>null</v>
+        <v>conceptschema dataleverancier status</v>
       </c>
       <c r="H82" t="str">
         <v>null</v>
@@ -7697,12 +7697,12 @@
         <v>null</v>
       </c>
       <c r="AC82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/gevalideerd|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/geweigerd|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/ingetrokken|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/nietgevalideerd</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -7717,81 +7717,793 @@
         <v>null</v>
       </c>
       <c r="F83" t="str">
+        <v>null</v>
+      </c>
+      <c r="G83" t="str">
+        <v>conceptschema luchtzuiveringssysteem medium</v>
+      </c>
+      <c r="H83" t="str">
+        <v>null</v>
+      </c>
+      <c r="I83" t="str">
+        <v>null</v>
+      </c>
+      <c r="J83" t="str">
+        <v>null</v>
+      </c>
+      <c r="K83" t="str">
+        <v>null</v>
+      </c>
+      <c r="L83" t="str">
+        <v>null</v>
+      </c>
+      <c r="M83" t="str">
+        <v>null</v>
+      </c>
+      <c r="N83" t="str">
+        <v>null</v>
+      </c>
+      <c r="O83" t="str">
+        <v>null</v>
+      </c>
+      <c r="P83" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>null</v>
+      </c>
+      <c r="R83" t="str">
+        <v>null</v>
+      </c>
+      <c r="S83" t="str">
+        <v>null</v>
+      </c>
+      <c r="T83" t="str">
+        <v>null</v>
+      </c>
+      <c r="U83" t="str">
+        <v>null</v>
+      </c>
+      <c r="V83" t="str">
+        <v>null</v>
+      </c>
+      <c r="W83" t="str">
+        <v>null</v>
+      </c>
+      <c r="X83" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z83" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA83" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB83" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC83" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+      </c>
+      <c r="B84" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C84" t="str">
+        <v>null</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Ranges</v>
+      </c>
+      <c r="E84" t="str">
+        <v>null</v>
+      </c>
+      <c r="F84" t="str">
+        <v>null</v>
+      </c>
+      <c r="G84" t="str">
+        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+      </c>
+      <c r="H84" t="str">
+        <v>null</v>
+      </c>
+      <c r="I84" t="str">
+        <v>null</v>
+      </c>
+      <c r="J84" t="str">
+        <v>null</v>
+      </c>
+      <c r="K84" t="str">
+        <v>null</v>
+      </c>
+      <c r="L84" t="str">
+        <v>null</v>
+      </c>
+      <c r="M84" t="str">
+        <v>null</v>
+      </c>
+      <c r="N84" t="str">
+        <v>null</v>
+      </c>
+      <c r="O84" t="str">
+        <v>null</v>
+      </c>
+      <c r="P84" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>null</v>
+      </c>
+      <c r="R84" t="str">
+        <v>null</v>
+      </c>
+      <c r="S84" t="str">
+        <v>null</v>
+      </c>
+      <c r="T84" t="str">
+        <v>null</v>
+      </c>
+      <c r="U84" t="str">
+        <v>null</v>
+      </c>
+      <c r="V84" t="str">
+        <v>null</v>
+      </c>
+      <c r="W84" t="str">
+        <v>null</v>
+      </c>
+      <c r="X84" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y84" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z84" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA84" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB84" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC84" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+      </c>
+      <c r="B85" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C85" t="str">
+        <v>null</v>
+      </c>
+      <c r="D85" t="str">
+        <v>null</v>
+      </c>
+      <c r="E85" t="str">
+        <v>null</v>
+      </c>
+      <c r="F85" t="str">
+        <v>null</v>
+      </c>
+      <c r="G85" t="str">
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+      </c>
+      <c r="H85" t="str">
+        <v>null</v>
+      </c>
+      <c r="I85" t="str">
+        <v>null</v>
+      </c>
+      <c r="J85" t="str">
+        <v>null</v>
+      </c>
+      <c r="K85" t="str">
+        <v>null</v>
+      </c>
+      <c r="L85" t="str">
+        <v>null</v>
+      </c>
+      <c r="M85" t="str">
+        <v>null</v>
+      </c>
+      <c r="N85" t="str">
+        <v>null</v>
+      </c>
+      <c r="O85" t="str">
+        <v>null</v>
+      </c>
+      <c r="P85" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>null</v>
+      </c>
+      <c r="R85" t="str">
+        <v>null</v>
+      </c>
+      <c r="S85" t="str">
+        <v>null</v>
+      </c>
+      <c r="T85" t="str">
+        <v>null</v>
+      </c>
+      <c r="U85" t="str">
+        <v>null</v>
+      </c>
+      <c r="V85" t="str">
+        <v>null</v>
+      </c>
+      <c r="W85" t="str">
+        <v>null</v>
+      </c>
+      <c r="X85" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y85" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z85" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA85" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB85" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC85" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+      </c>
+      <c r="B86" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C86" t="str">
+        <v>null</v>
+      </c>
+      <c r="D86" t="str">
+        <v>null</v>
+      </c>
+      <c r="E86" t="str">
+        <v>null</v>
+      </c>
+      <c r="F86" t="str">
+        <v>null</v>
+      </c>
+      <c r="G86" t="str">
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+      </c>
+      <c r="H86" t="str">
+        <v>null</v>
+      </c>
+      <c r="I86" t="str">
+        <v>null</v>
+      </c>
+      <c r="J86" t="str">
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+      </c>
+      <c r="L86" t="str">
+        <v>null</v>
+      </c>
+      <c r="M86" t="str">
+        <v>null</v>
+      </c>
+      <c r="N86" t="str">
+        <v>null</v>
+      </c>
+      <c r="O86" t="str">
+        <v>null</v>
+      </c>
+      <c r="P86" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>null</v>
+      </c>
+      <c r="R86" t="str">
+        <v>null</v>
+      </c>
+      <c r="S86" t="str">
+        <v>null</v>
+      </c>
+      <c r="T86" t="str">
+        <v>null</v>
+      </c>
+      <c r="U86" t="str">
+        <v>null</v>
+      </c>
+      <c r="V86" t="str">
+        <v>null</v>
+      </c>
+      <c r="W86" t="str">
+        <v>null</v>
+      </c>
+      <c r="X86" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y86" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z86" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA86" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB86" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC86" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+      </c>
+      <c r="B87" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C87" t="str">
+        <v>null</v>
+      </c>
+      <c r="D87" t="str">
+        <v>null</v>
+      </c>
+      <c r="E87" t="str">
+        <v>null</v>
+      </c>
+      <c r="F87" t="str">
+        <v>null</v>
+      </c>
+      <c r="G87" t="str">
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+      </c>
+      <c r="H87" t="str">
+        <v>null</v>
+      </c>
+      <c r="I87" t="str">
+        <v>null</v>
+      </c>
+      <c r="J87" t="str">
+        <v>null</v>
+      </c>
+      <c r="K87" t="str">
+        <v>null</v>
+      </c>
+      <c r="L87" t="str">
+        <v>null</v>
+      </c>
+      <c r="M87" t="str">
+        <v>null</v>
+      </c>
+      <c r="N87" t="str">
+        <v>null</v>
+      </c>
+      <c r="O87" t="str">
+        <v>null</v>
+      </c>
+      <c r="P87" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>null</v>
+      </c>
+      <c r="R87" t="str">
+        <v>null</v>
+      </c>
+      <c r="S87" t="str">
+        <v>null</v>
+      </c>
+      <c r="T87" t="str">
+        <v>null</v>
+      </c>
+      <c r="U87" t="str">
+        <v>null</v>
+      </c>
+      <c r="V87" t="str">
+        <v>null</v>
+      </c>
+      <c r="W87" t="str">
+        <v>null</v>
+      </c>
+      <c r="X87" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y87" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z87" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA87" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB87" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC87" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
+      </c>
+      <c r="B88" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C88" t="str">
+        <v>null</v>
+      </c>
+      <c r="D88" t="str">
+        <v>null</v>
+      </c>
+      <c r="E88" t="str">
+        <v>null</v>
+      </c>
+      <c r="F88" t="str">
+        <v>null</v>
+      </c>
+      <c r="G88" t="str">
+        <v>conceptschema  luchtzuiveringssysteem opstelingen</v>
+      </c>
+      <c r="H88" t="str">
+        <v>null</v>
+      </c>
+      <c r="I88" t="str">
+        <v>null</v>
+      </c>
+      <c r="J88" t="str">
+        <v>null</v>
+      </c>
+      <c r="K88" t="str">
+        <v>null</v>
+      </c>
+      <c r="L88" t="str">
+        <v>null</v>
+      </c>
+      <c r="M88" t="str">
+        <v>null</v>
+      </c>
+      <c r="N88" t="str">
+        <v>null</v>
+      </c>
+      <c r="O88" t="str">
+        <v>null</v>
+      </c>
+      <c r="P88" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>null</v>
+      </c>
+      <c r="R88" t="str">
+        <v>null</v>
+      </c>
+      <c r="S88" t="str">
+        <v>null</v>
+      </c>
+      <c r="T88" t="str">
+        <v>null</v>
+      </c>
+      <c r="U88" t="str">
+        <v>null</v>
+      </c>
+      <c r="V88" t="str">
+        <v>null</v>
+      </c>
+      <c r="W88" t="str">
+        <v>null</v>
+      </c>
+      <c r="X88" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y88" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z88" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA88" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB88" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC88" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/enkelvoudig|https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/gecombineerd</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+      </c>
+      <c r="B89" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C89" t="str">
+        <v>null</v>
+      </c>
+      <c r="D89" t="str">
+        <v>null</v>
+      </c>
+      <c r="E89" t="str">
+        <v>null</v>
+      </c>
+      <c r="F89" t="str">
+        <v>null</v>
+      </c>
+      <c r="G89" t="str">
+        <v>conceptschema luchtzuiveringssysteem status</v>
+      </c>
+      <c r="H89" t="str">
+        <v>null</v>
+      </c>
+      <c r="I89" t="str">
+        <v>null</v>
+      </c>
+      <c r="J89" t="str">
+        <v>null</v>
+      </c>
+      <c r="K89" t="str">
+        <v>null</v>
+      </c>
+      <c r="L89" t="str">
+        <v>null</v>
+      </c>
+      <c r="M89" t="str">
+        <v>null</v>
+      </c>
+      <c r="N89" t="str">
+        <v>null</v>
+      </c>
+      <c r="O89" t="str">
+        <v>null</v>
+      </c>
+      <c r="P89" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>null</v>
+      </c>
+      <c r="R89" t="str">
+        <v>null</v>
+      </c>
+      <c r="S89" t="str">
+        <v>null</v>
+      </c>
+      <c r="T89" t="str">
+        <v>null</v>
+      </c>
+      <c r="U89" t="str">
+        <v>null</v>
+      </c>
+      <c r="V89" t="str">
+        <v>null</v>
+      </c>
+      <c r="W89" t="str">
+        <v>null</v>
+      </c>
+      <c r="X89" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y89" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z89" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA89" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB89" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC89" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+      </c>
+      <c r="B90" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C90" t="str">
+        <v>null</v>
+      </c>
+      <c r="D90" t="str">
+        <v>null</v>
+      </c>
+      <c r="E90" t="str">
+        <v>null</v>
+      </c>
+      <c r="F90" t="str">
+        <v>null</v>
+      </c>
+      <c r="G90" t="str">
+        <v>conceptschema luchtzuiveringssysteem</v>
+      </c>
+      <c r="H90" t="str">
+        <v>null</v>
+      </c>
+      <c r="I90" t="str">
+        <v>null</v>
+      </c>
+      <c r="J90" t="str">
+        <v>null</v>
+      </c>
+      <c r="K90" t="str">
+        <v>null</v>
+      </c>
+      <c r="L90" t="str">
+        <v>null</v>
+      </c>
+      <c r="M90" t="str">
+        <v>null</v>
+      </c>
+      <c r="N90" t="str">
+        <v>null</v>
+      </c>
+      <c r="O90" t="str">
+        <v>null</v>
+      </c>
+      <c r="P90" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>null</v>
+      </c>
+      <c r="R90" t="str">
+        <v>null</v>
+      </c>
+      <c r="S90" t="str">
+        <v>null</v>
+      </c>
+      <c r="T90" t="str">
+        <v>null</v>
+      </c>
+      <c r="U90" t="str">
+        <v>null</v>
+      </c>
+      <c r="V90" t="str">
+        <v>null</v>
+      </c>
+      <c r="W90" t="str">
+        <v>null</v>
+      </c>
+      <c r="X90" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y90" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z90" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA90" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB90" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC90" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+      </c>
+      <c r="B91" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C91" t="str">
+        <v>null</v>
+      </c>
+      <c r="D91" t="str">
+        <v>null</v>
+      </c>
+      <c r="E91" t="str">
+        <v>null</v>
+      </c>
+      <c r="F91" t="str">
+        <v>null</v>
+      </c>
+      <c r="G91" t="str">
         <v>VLAREM indelingsklassen</v>
       </c>
-      <c r="G83" t="str">
-        <v>null</v>
-      </c>
-      <c r="H83" t="str">
-        <v>null</v>
-      </c>
-      <c r="I83" t="str">
-        <v>null</v>
-      </c>
-      <c r="J83" t="str">
-        <v>null</v>
-      </c>
-      <c r="K83" t="str">
-        <v>null</v>
-      </c>
-      <c r="L83" t="str">
-        <v>null</v>
-      </c>
-      <c r="M83" t="str">
-        <v>null</v>
-      </c>
-      <c r="N83" t="str">
-        <v>null</v>
-      </c>
-      <c r="O83" t="str">
-        <v>null</v>
-      </c>
-      <c r="P83" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q83" t="str">
-        <v>null</v>
-      </c>
-      <c r="R83" t="str">
-        <v>null</v>
-      </c>
-      <c r="S83" t="str">
-        <v>null</v>
-      </c>
-      <c r="T83" t="str">
-        <v>null</v>
-      </c>
-      <c r="U83" t="str">
-        <v>null</v>
-      </c>
-      <c r="V83" t="str">
-        <v>null</v>
-      </c>
-      <c r="W83" t="str">
-        <v>null</v>
-      </c>
-      <c r="X83" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y83" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z83" t="str">
-        <v>null</v>
-      </c>
-      <c r="AA83" t="str">
-        <v>null</v>
-      </c>
-      <c r="AB83" t="str">
-        <v>null</v>
-      </c>
-      <c r="AC83" t="str">
+      <c r="H91" t="str">
+        <v>null</v>
+      </c>
+      <c r="I91" t="str">
+        <v>null</v>
+      </c>
+      <c r="J91" t="str">
+        <v>null</v>
+      </c>
+      <c r="K91" t="str">
+        <v>null</v>
+      </c>
+      <c r="L91" t="str">
+        <v>null</v>
+      </c>
+      <c r="M91" t="str">
+        <v>null</v>
+      </c>
+      <c r="N91" t="str">
+        <v>null</v>
+      </c>
+      <c r="O91" t="str">
+        <v>null</v>
+      </c>
+      <c r="P91" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>null</v>
+      </c>
+      <c r="R91" t="str">
+        <v>null</v>
+      </c>
+      <c r="S91" t="str">
+        <v>null</v>
+      </c>
+      <c r="T91" t="str">
+        <v>null</v>
+      </c>
+      <c r="U91" t="str">
+        <v>null</v>
+      </c>
+      <c r="V91" t="str">
+        <v>null</v>
+      </c>
+      <c r="W91" t="str">
+        <v>null</v>
+      </c>
+      <c r="X91" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y91" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z91" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA91" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB91" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC91" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/luchtzuiveringssysteem/luchtzuiveringssysteem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC91"/>
+  <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/buiten_gebruik</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6296,7 +6296,7 @@
         <v>null</v>
       </c>
       <c r="G67" t="str">
-        <v>Gereinigd</v>
+        <v>Buiten gebruik</v>
       </c>
       <c r="H67" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/in_reiniging</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6385,7 +6385,7 @@
         <v>null</v>
       </c>
       <c r="G68" t="str">
-        <v>In onderhoud</v>
+        <v>In reiniging</v>
       </c>
       <c r="H68" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6474,7 +6474,7 @@
         <v>null</v>
       </c>
       <c r="G69" t="str">
-        <v>Operationeel</v>
+        <v>In onderhoud</v>
       </c>
       <c r="H69" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6563,7 +6563,7 @@
         <v>null</v>
       </c>
       <c r="G70" t="str">
-        <v>Storing</v>
+        <v>Operationeel</v>
       </c>
       <c r="H70" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/enkelvoudig</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6646,16 +6646,16 @@
         <v>null</v>
       </c>
       <c r="E71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="F71" t="str">
         <v>null</v>
       </c>
       <c r="G71" t="str">
-        <v>Enkelvoudige opstelling</v>
+        <v>Storing</v>
       </c>
       <c r="H71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="I71" t="str">
         <v>null</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/gecombineerd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/enkelvoudig</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6741,7 +6741,7 @@
         <v>null</v>
       </c>
       <c r="G72" t="str">
-        <v>Gecombineerde opstelling</v>
+        <v>Enkelvoudige opstelling</v>
       </c>
       <c r="H72" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/gecombineerd</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6824,16 +6824,16 @@
         <v>null</v>
       </c>
       <c r="E73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
       </c>
       <c r="F73" t="str">
-        <v>Lelysphere</v>
+        <v>null</v>
       </c>
       <c r="G73" t="str">
-        <v>Lely Sphere</v>
+        <v>Gecombineerde opstelling</v>
       </c>
       <c r="H73" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
       </c>
       <c r="I73" t="str">
         <v>null</v>
@@ -6851,7 +6851,7 @@
         <v>null</v>
       </c>
       <c r="N73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
+        <v>null</v>
       </c>
       <c r="O73" t="str">
         <v>null</v>
@@ -6881,13 +6881,13 @@
         <v>null</v>
       </c>
       <c r="X73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="Y73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Z73" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="AA73" t="str">
         <v>null</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6916,10 +6916,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F74" t="str">
-        <v>null</v>
+        <v>Lelysphere</v>
       </c>
       <c r="G74" t="str">
-        <v>Luchtwassysteem</v>
+        <v>Lely Sphere</v>
       </c>
       <c r="H74" t="str">
         <v>null</v>
@@ -6940,7 +6940,7 @@
         <v>null</v>
       </c>
       <c r="N74" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen</v>
       </c>
       <c r="O74" t="str">
         <v>null</v>
@@ -6970,19 +6970,19 @@
         <v>null</v>
       </c>
       <c r="X74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Y74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="AB74" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
+        <v>null</v>
       </c>
       <c r="AC74" t="str">
         <v>null</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -7008,10 +7008,10 @@
         <v>null</v>
       </c>
       <c r="G75" t="str">
-        <v>Luchtzuiveringssysteem</v>
+        <v>Luchtwassysteem</v>
       </c>
       <c r="H75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>null</v>
       </c>
       <c r="I75" t="str">
         <v>null</v>
@@ -7059,19 +7059,19 @@
         <v>null</v>
       </c>
       <c r="X75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y75" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="AB75" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere</v>
       </c>
       <c r="AC75" t="str">
         <v>null</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -7094,13 +7094,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F76" t="str">
-        <v>S1</v>
+        <v>null</v>
       </c>
       <c r="G76" t="str">
-        <v>Biologisch luchtwassysteem</v>
+        <v>Luchtzuiveringssysteem</v>
       </c>
       <c r="H76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="I76" t="str">
         <v>null</v>
@@ -7118,7 +7118,7 @@
         <v>null</v>
       </c>
       <c r="N76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>null</v>
       </c>
       <c r="O76" t="str">
         <v>null</v>
@@ -7148,19 +7148,19 @@
         <v>null</v>
       </c>
       <c r="X76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
+        <v>null</v>
       </c>
       <c r="Y76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>null</v>
       </c>
       <c r="Z76" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AA76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AB76" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/lelysphere|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="AC76" t="str">
         <v>null</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s1</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -7183,10 +7183,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F77" t="str">
-        <v>S2</v>
+        <v>S1</v>
       </c>
       <c r="G77" t="str">
-        <v>Chemisch luchtwassysteem</v>
+        <v>Biologisch luchtwassysteem</v>
       </c>
       <c r="H77" t="str">
         <v>null</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s2</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -7272,10 +7272,10 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F78" t="str">
-        <v>S3</v>
+        <v>S2</v>
       </c>
       <c r="G78" t="str">
-        <v>Biobed</v>
+        <v>Chemisch luchtwassysteem</v>
       </c>
       <c r="H78" t="str">
         <v>null</v>
@@ -7296,7 +7296,7 @@
         <v>null</v>
       </c>
       <c r="N78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="O78" t="str">
         <v>null</v>
@@ -7326,13 +7326,13 @@
         <v>null</v>
       </c>
       <c r="X78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem</v>
       </c>
       <c r="Y78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtwassysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA78" t="str">
         <v>null</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/s3</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -7355,28 +7355,28 @@
         <v>null</v>
       </c>
       <c r="D79" t="str">
-        <v>VLAREM klasse 1</v>
+        <v>null</v>
       </c>
       <c r="E79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="F79" t="str">
-        <v>null</v>
+        <v>S3</v>
       </c>
       <c r="G79" t="str">
-        <v>Klasse 1</v>
+        <v>Biobed</v>
       </c>
       <c r="H79" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>null</v>
       </c>
       <c r="I79" t="str">
         <v>null</v>
       </c>
       <c r="J79" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="K79" t="str">
-        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
+        <v>null</v>
       </c>
       <c r="L79" t="str">
         <v>null</v>
@@ -7385,7 +7385,7 @@
         <v>null</v>
       </c>
       <c r="N79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
       <c r="O79" t="str">
         <v>null</v>
@@ -7415,13 +7415,13 @@
         <v>null</v>
       </c>
       <c r="X79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Y79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="Z79" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
       </c>
       <c r="AA79" t="str">
         <v>null</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -7444,7 +7444,7 @@
         <v>null</v>
       </c>
       <c r="D80" t="str">
-        <v>VLAREM klasse 2</v>
+        <v>VLAREM klasse 1</v>
       </c>
       <c r="E80" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
@@ -7453,7 +7453,7 @@
         <v>null</v>
       </c>
       <c r="G80" t="str">
-        <v>Klasse 2</v>
+        <v>Klasse 1</v>
       </c>
       <c r="H80" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
@@ -7462,10 +7462,10 @@
         <v>null</v>
       </c>
       <c r="J80" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="K80" t="str">
-        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
+        <v>Indelingsklasse voor inrichtingen met de grootste milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 1 (zwaarste procedure).</v>
       </c>
       <c r="L80" t="str">
         <v>null</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -7533,7 +7533,7 @@
         <v>null</v>
       </c>
       <c r="D81" t="str">
-        <v>VLAREM klasse 3</v>
+        <v>VLAREM klasse 2</v>
       </c>
       <c r="E81" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
@@ -7542,7 +7542,7 @@
         <v>null</v>
       </c>
       <c r="G81" t="str">
-        <v>Klasse 3</v>
+        <v>Klasse 2</v>
       </c>
       <c r="H81" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
@@ -7551,10 +7551,10 @@
         <v>null</v>
       </c>
       <c r="J81" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="K81" t="str">
-        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
+        <v>Indelingsklasse voor inrichtingen met een middelgrote milieu-impact. Voor deze activiteiten geldt een omgevingsvergunning klasse 2.</v>
       </c>
       <c r="L81" t="str">
         <v>null</v>
@@ -7613,37 +7613,37 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
       <c r="B82" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
         <v>null</v>
       </c>
       <c r="D82" t="str">
-        <v>null</v>
+        <v>VLAREM klasse 3</v>
       </c>
       <c r="E82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="F82" t="str">
         <v>null</v>
       </c>
       <c r="G82" t="str">
-        <v>conceptschema dataleverancier status</v>
+        <v>Klasse 3</v>
       </c>
       <c r="H82" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
       </c>
       <c r="I82" t="str">
         <v>null</v>
       </c>
       <c r="J82" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="K82" t="str">
-        <v>null</v>
+        <v>Indelingsklasse voor inrichtingen met een beperkte milieu-impact. Voor deze activiteiten geldt een meldingsplicht (klasse 3).</v>
       </c>
       <c r="L82" t="str">
         <v>null</v>
@@ -7697,12 +7697,12 @@
         <v>null</v>
       </c>
       <c r="AC82" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/gevalideerd|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/geweigerd|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/ingetrokken|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/nietgevalideerd</v>
+        <v>null</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/dataleverancierstatus</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -7720,7 +7720,7 @@
         <v>null</v>
       </c>
       <c r="G83" t="str">
-        <v>conceptschema luchtzuiveringssysteem medium</v>
+        <v>conceptschema dataleverancier status</v>
       </c>
       <c r="H83" t="str">
         <v>null</v>
@@ -7786,12 +7786,12 @@
         <v>null</v>
       </c>
       <c r="AC83" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/gevalideerd|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/geweigerd|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/ingetrokken|https://data.omgeving.vlaanderen.be/id/concept/lzs/dataleverancierstatus/nietgevalideerd</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/medium</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -7800,7 +7800,7 @@
         <v>null</v>
       </c>
       <c r="D84" t="str">
-        <v>Ranges</v>
+        <v>null</v>
       </c>
       <c r="E84" t="str">
         <v>null</v>
@@ -7809,7 +7809,7 @@
         <v>null</v>
       </c>
       <c r="G84" t="str">
-        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
+        <v>conceptschema luchtzuiveringssysteem medium</v>
       </c>
       <c r="H84" t="str">
         <v>null</v>
@@ -7875,12 +7875,12 @@
         <v>null</v>
       </c>
       <c r="AC84" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/hetelektronischmonitoringssysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/lucht|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/spuiwater|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/stal|https://data.omgeving.vlaanderen.be/id/concept/lzs/medium/waswater</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/norm-bandbreedte</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -7889,7 +7889,7 @@
         <v>null</v>
       </c>
       <c r="D85" t="str">
-        <v>null</v>
+        <v>Ranges</v>
       </c>
       <c r="E85" t="str">
         <v>null</v>
@@ -7898,7 +7898,7 @@
         <v>null</v>
       </c>
       <c r="G85" t="str">
-        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
+        <v>conceptschema luchtzuiveringssysteem normbandbreedte</v>
       </c>
       <c r="H85" t="str">
         <v>null</v>
@@ -7964,12 +7964,12 @@
         <v>null</v>
       </c>
       <c r="AC85" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/norm_bandbreedte/_9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -7987,7 +7987,7 @@
         <v>null</v>
       </c>
       <c r="G86" t="str">
-        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
+        <v>conceptschema luchtzuiveringssysteem eigenschap</v>
       </c>
       <c r="H86" t="str">
         <v>null</v>
@@ -7996,10 +7996,10 @@
         <v>null</v>
       </c>
       <c r="J86" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="K86" t="str">
-        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
+        <v>null</v>
       </c>
       <c r="L86" t="str">
         <v>null</v>
@@ -8053,12 +8053,12 @@
         <v>null</v>
       </c>
       <c r="AC86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebiet|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/spuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/drukvaloverhetsysteem|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietvoorbevochtiging|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/waswaterdebietbevloeiing|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/zuurtegraadwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/geleidbaarheidvanhetwaswater|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspoelwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/biobedspuiwaterproductie|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/elektriciteitsverbruikwaterpompen|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/stalbezetting|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter/systeemstatus</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/parameter-norm</v>
       </c>
       <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -8076,7 +8076,7 @@
         <v>null</v>
       </c>
       <c r="G87" t="str">
-        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
+        <v>conceptschema luchtzuiveringssysteem parameter specificatie</v>
       </c>
       <c r="H87" t="str">
         <v>null</v>
@@ -8085,10 +8085,10 @@
         <v>null</v>
       </c>
       <c r="J87" t="str">
-        <v>null</v>
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="K87" t="str">
-        <v>null</v>
+        <v>Het schema van indelingsklassen (1, 2, 3) zoals vastgelegd in de Vlaamse milieuregelgeving (VLAREM).</v>
       </c>
       <c r="L87" t="str">
         <v>null</v>
@@ -8142,12 +8142,12 @@
         <v>null</v>
       </c>
       <c r="AC87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_10|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_11|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_12|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_13|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_14|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_15|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_16|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_17|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_18|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_19|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_1|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_2|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_3|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_4|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_5|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_6|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_7|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_8|https://data.omgeving.vlaanderen.be/id/concept/lzs/parameter_norm/_9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/stalbezetting</v>
       </c>
       <c r="B88" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -8165,7 +8165,7 @@
         <v>null</v>
       </c>
       <c r="G88" t="str">
-        <v>conceptschema  luchtzuiveringssysteem opstelingen</v>
+        <v>conceptschema luchtzuiveringssysteem stalbezetting</v>
       </c>
       <c r="H88" t="str">
         <v>null</v>
@@ -8231,12 +8231,12 @@
         <v>null</v>
       </c>
       <c r="AC88" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/enkelvoudig|https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/gecombineerd</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/in_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/stalbezetting/leeg</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemopstelling</v>
       </c>
       <c r="B89" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -8254,7 +8254,7 @@
         <v>null</v>
       </c>
       <c r="G89" t="str">
-        <v>conceptschema luchtzuiveringssysteem status</v>
+        <v>conceptschema  luchtzuiveringssysteem opstelingen</v>
       </c>
       <c r="H89" t="str">
         <v>null</v>
@@ -8320,12 +8320,12 @@
         <v>null</v>
       </c>
       <c r="AC89" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/gereinigd|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/enkelvoudig|https://data.omgeving.vlaanderen.be/id/concept/lzs/systeemopstelling/gecombineerd</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemstatus</v>
       </c>
       <c r="B90" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -8343,7 +8343,7 @@
         <v>null</v>
       </c>
       <c r="G90" t="str">
-        <v>conceptschema luchtzuiveringssysteem</v>
+        <v>conceptschema luchtzuiveringssysteem status</v>
       </c>
       <c r="H90" t="str">
         <v>null</v>
@@ -8409,12 +8409,12 @@
         <v>null</v>
       </c>
       <c r="AC90" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/status/buiten_gebruik|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/in_reiniging|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/onderhoud|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/operationeel|https://data.omgeving.vlaanderen.be/id/concept/lzs/status/storing</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/lzs/systeemtype</v>
       </c>
       <c r="B91" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
@@ -8432,78 +8432,167 @@
         <v>null</v>
       </c>
       <c r="G91" t="str">
+        <v>conceptschema luchtzuiveringssysteem</v>
+      </c>
+      <c r="H91" t="str">
+        <v>null</v>
+      </c>
+      <c r="I91" t="str">
+        <v>null</v>
+      </c>
+      <c r="J91" t="str">
+        <v>null</v>
+      </c>
+      <c r="K91" t="str">
+        <v>null</v>
+      </c>
+      <c r="L91" t="str">
+        <v>null</v>
+      </c>
+      <c r="M91" t="str">
+        <v>null</v>
+      </c>
+      <c r="N91" t="str">
+        <v>null</v>
+      </c>
+      <c r="O91" t="str">
+        <v>null</v>
+      </c>
+      <c r="P91" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>null</v>
+      </c>
+      <c r="R91" t="str">
+        <v>null</v>
+      </c>
+      <c r="S91" t="str">
+        <v>null</v>
+      </c>
+      <c r="T91" t="str">
+        <v>null</v>
+      </c>
+      <c r="U91" t="str">
+        <v>null</v>
+      </c>
+      <c r="V91" t="str">
+        <v>null</v>
+      </c>
+      <c r="W91" t="str">
+        <v>null</v>
+      </c>
+      <c r="X91" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y91" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z91" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA91" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB91" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC91" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/concept/lzs/type/luchtzuiveringssysteem</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/vlarem-klasse</v>
+      </c>
+      <c r="B92" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
+      </c>
+      <c r="C92" t="str">
+        <v>null</v>
+      </c>
+      <c r="D92" t="str">
+        <v>null</v>
+      </c>
+      <c r="E92" t="str">
+        <v>null</v>
+      </c>
+      <c r="F92" t="str">
+        <v>null</v>
+      </c>
+      <c r="G92" t="str">
         <v>VLAREM indelingsklassen</v>
       </c>
-      <c r="H91" t="str">
-        <v>null</v>
-      </c>
-      <c r="I91" t="str">
-        <v>null</v>
-      </c>
-      <c r="J91" t="str">
-        <v>null</v>
-      </c>
-      <c r="K91" t="str">
-        <v>null</v>
-      </c>
-      <c r="L91" t="str">
-        <v>null</v>
-      </c>
-      <c r="M91" t="str">
-        <v>null</v>
-      </c>
-      <c r="N91" t="str">
-        <v>null</v>
-      </c>
-      <c r="O91" t="str">
-        <v>null</v>
-      </c>
-      <c r="P91" t="str">
-        <v>null</v>
-      </c>
-      <c r="Q91" t="str">
-        <v>null</v>
-      </c>
-      <c r="R91" t="str">
-        <v>null</v>
-      </c>
-      <c r="S91" t="str">
-        <v>null</v>
-      </c>
-      <c r="T91" t="str">
-        <v>null</v>
-      </c>
-      <c r="U91" t="str">
-        <v>null</v>
-      </c>
-      <c r="V91" t="str">
-        <v>null</v>
-      </c>
-      <c r="W91" t="str">
-        <v>null</v>
-      </c>
-      <c r="X91" t="str">
-        <v>null</v>
-      </c>
-      <c r="Y91" t="str">
-        <v>null</v>
-      </c>
-      <c r="Z91" t="str">
-        <v>null</v>
-      </c>
-      <c r="AA91" t="str">
-        <v>null</v>
-      </c>
-      <c r="AB91" t="str">
-        <v>null</v>
-      </c>
-      <c r="AC91" t="str">
+      <c r="H92" t="str">
+        <v>null</v>
+      </c>
+      <c r="I92" t="str">
+        <v>null</v>
+      </c>
+      <c r="J92" t="str">
+        <v>null</v>
+      </c>
+      <c r="K92" t="str">
+        <v>null</v>
+      </c>
+      <c r="L92" t="str">
+        <v>null</v>
+      </c>
+      <c r="M92" t="str">
+        <v>null</v>
+      </c>
+      <c r="N92" t="str">
+        <v>null</v>
+      </c>
+      <c r="O92" t="str">
+        <v>null</v>
+      </c>
+      <c r="P92" t="str">
+        <v>null</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>null</v>
+      </c>
+      <c r="R92" t="str">
+        <v>null</v>
+      </c>
+      <c r="S92" t="str">
+        <v>null</v>
+      </c>
+      <c r="T92" t="str">
+        <v>null</v>
+      </c>
+      <c r="U92" t="str">
+        <v>null</v>
+      </c>
+      <c r="V92" t="str">
+        <v>null</v>
+      </c>
+      <c r="W92" t="str">
+        <v>null</v>
+      </c>
+      <c r="X92" t="str">
+        <v>null</v>
+      </c>
+      <c r="Y92" t="str">
+        <v>null</v>
+      </c>
+      <c r="Z92" t="str">
+        <v>null</v>
+      </c>
+      <c r="AA92" t="str">
+        <v>null</v>
+      </c>
+      <c r="AB92" t="str">
+        <v>null</v>
+      </c>
+      <c r="AC92" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k1|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k2|https://data.omgeving.vlaanderen.be/id/concept/vlarem-klasse/k3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AC91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC92"/>
   </ignoredErrors>
 </worksheet>
 </file>